--- a/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
+++ b/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
@@ -16,6 +16,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">タクチケ自動精算!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="419">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -386,23 +387,6 @@
   </si>
   <si>
     <t>Menu.aspx.vb</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タクチケ精算用CSV取込</t>
-    <rPh sb="4" eb="6">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トリコミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TaxiSeisanImport.aspx</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -511,32 +495,6 @@
     </rPh>
     <rPh sb="50" eb="51">
       <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規追加
-TTTが｢タクチケ実績未精算CSV｣を手作業で修正したCSVを取込み、タクチケ台帳を更新する。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>テサギョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>トリコミ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ダイチョウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2255,89 +2213,48 @@
   </si>
   <si>
     <t>新規追加
-自動精算対象となるタクチケ番号のCSVと、精算年月・精算団体コード・精算コメントを入力し、その入力内容と自動精算対象のタクチケ番号CSVに書き込まれた会合番号とタクチケ番号を、自動精算対象タクチケテーブル(新規)に登録する。</t>
+・TTTが｢タクチケ実績未精算CSV｣を手作業で修正したCSVを取込み、タクチケ台帳を更新する。
+・上記で取込んだタクチケ番号及び会合番号と画面で入力された精算年月・精算団体コード・精算コメントを、自動精算対象タクチケテーブル(新規)に登録する。</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ツイカ</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="75" eb="77">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ダンタイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="104" eb="106">
       <t>ジドウ</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="106" eb="108">
       <t>セイサン</t>
     </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="108" eb="110">
       <t>タイショウ</t>
     </rPh>
-    <rPh sb="18" eb="20">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ダンタイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>カイゴウ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
+    <rPh sb="119" eb="121">
       <t>シンキ</t>
     </rPh>
-    <rPh sb="112" eb="114">
+    <rPh sb="123" eb="125">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -3305,13 +3222,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG23"/>
+  <dimension ref="A1:BG22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="48" ySplit="6" topLeftCell="AW9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X13" sqref="X13:AV13"/>
+      <selection pane="bottomRight" activeCell="BD13" sqref="BD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -3725,7 +3642,7 @@
     </row>
     <row r="8" spans="1:59" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A8" s="6">
-        <f t="shared" ref="A8:A22" si="0">ROW()-6</f>
+        <f t="shared" ref="A8:A21" si="0">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -3824,7 +3741,7 @@
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
       <c r="X9" s="28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y9" s="29"/>
       <c r="Z9" s="29"/>
@@ -3962,7 +3879,7 @@
       <c r="V11" s="26"/>
       <c r="W11" s="26"/>
       <c r="X11" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y11" s="29"/>
       <c r="Z11" s="29"/>
@@ -3999,13 +3916,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:59" s="5" customFormat="1" ht="45.75" customHeight="1">
+    <row r="12" spans="1:59" s="5" customFormat="1" ht="53.25" customHeight="1">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -4016,7 +3933,7 @@
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="26" t="s">
-        <v>29</v>
+        <v>413</v>
       </c>
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
@@ -4031,7 +3948,7 @@
       <c r="V12" s="26"/>
       <c r="W12" s="26"/>
       <c r="X12" s="28" t="s">
-        <v>35</v>
+        <v>418</v>
       </c>
       <c r="Y12" s="29"/>
       <c r="Z12" s="29"/>
@@ -4058,7 +3975,7 @@
       <c r="AU12" s="29"/>
       <c r="AV12" s="30"/>
       <c r="AW12" s="27">
-        <v>42811</v>
+        <v>42816</v>
       </c>
       <c r="AX12" s="26"/>
       <c r="AY12" s="26"/>
@@ -4068,13 +3985,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:59" s="5" customFormat="1" ht="65.25" customHeight="1">
+    <row r="13" spans="1:59" s="5" customFormat="1" ht="201.75" customHeight="1">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -4085,7 +4002,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="26" t="s">
-        <v>416</v>
+        <v>31</v>
       </c>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
@@ -4100,7 +4017,7 @@
       <c r="V13" s="26"/>
       <c r="W13" s="26"/>
       <c r="X13" s="28" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Y13" s="29"/>
       <c r="Z13" s="29"/>
@@ -4132,27 +4049,27 @@
       <c r="AZ13" s="26"/>
       <c r="BA13" s="26"/>
       <c r="BB13" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59" s="5" customFormat="1" ht="201.75" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" s="5" customFormat="1" ht="78.75" customHeight="1">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
+      <c r="B14" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="26" t="s">
-        <v>33</v>
+        <v>414</v>
       </c>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
@@ -4167,7 +4084,7 @@
       <c r="V14" s="26"/>
       <c r="W14" s="26"/>
       <c r="X14" s="28" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Y14" s="29"/>
       <c r="Z14" s="29"/>
@@ -4199,16 +4116,16 @@
       <c r="AZ14" s="26"/>
       <c r="BA14" s="26"/>
       <c r="BB14" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59" s="5" customFormat="1" ht="78.75" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" s="5" customFormat="1" ht="60" customHeight="1">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C15" s="54"/>
       <c r="D15" s="54"/>
@@ -4219,7 +4136,7 @@
       <c r="I15" s="54"/>
       <c r="J15" s="55"/>
       <c r="K15" s="26" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
@@ -4234,7 +4151,7 @@
       <c r="V15" s="26"/>
       <c r="W15" s="26"/>
       <c r="X15" s="28" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Y15" s="29"/>
       <c r="Z15" s="29"/>
@@ -4269,24 +4186,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:59" s="5" customFormat="1" ht="60" customHeight="1">
+    <row r="16" spans="1:59" s="5" customFormat="1" ht="45.75" customHeight="1">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="26" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
@@ -4333,16 +4250,16 @@
       <c r="AZ16" s="26"/>
       <c r="BA16" s="26"/>
       <c r="BB16" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:54" s="5" customFormat="1" ht="45.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" s="5" customFormat="1">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4353,7 +4270,7 @@
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="26" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
@@ -4394,13 +4311,15 @@
       <c r="AT17" s="29"/>
       <c r="AU17" s="29"/>
       <c r="AV17" s="30"/>
-      <c r="AW17" s="27"/>
+      <c r="AW17" s="27">
+        <v>42811</v>
+      </c>
       <c r="AX17" s="26"/>
       <c r="AY17" s="26"/>
       <c r="AZ17" s="26"/>
       <c r="BA17" s="26"/>
       <c r="BB17" s="13">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:54" s="5" customFormat="1">
@@ -4408,9 +4327,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>413</v>
-      </c>
+      <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -4419,9 +4336,7 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="26" t="s">
-        <v>414</v>
-      </c>
+      <c r="K18" s="26"/>
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
@@ -4434,9 +4349,7 @@
       <c r="U18" s="26"/>
       <c r="V18" s="26"/>
       <c r="W18" s="26"/>
-      <c r="X18" s="28" t="s">
-        <v>415</v>
-      </c>
+      <c r="X18" s="28"/>
       <c r="Y18" s="29"/>
       <c r="Z18" s="29"/>
       <c r="AA18" s="29"/>
@@ -4461,16 +4374,12 @@
       <c r="AT18" s="29"/>
       <c r="AU18" s="29"/>
       <c r="AV18" s="30"/>
-      <c r="AW18" s="27">
-        <v>42811</v>
-      </c>
+      <c r="AW18" s="27"/>
       <c r="AX18" s="26"/>
       <c r="AY18" s="26"/>
       <c r="AZ18" s="26"/>
       <c r="BA18" s="26"/>
-      <c r="BB18" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="BB18" s="13"/>
     </row>
     <row r="19" spans="1:54" s="5" customFormat="1">
       <c r="A19" s="6">
@@ -4590,176 +4499,113 @@
       <c r="BA20" s="26"/>
       <c r="BB20" s="13"/>
     </row>
-    <row r="21" spans="1:54" s="5" customFormat="1">
-      <c r="A21" s="6">
+    <row r="21" spans="1:54" s="5" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="29"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="29"/>
-      <c r="AO21" s="29"/>
-      <c r="AP21" s="29"/>
-      <c r="AQ21" s="29"/>
-      <c r="AR21" s="29"/>
-      <c r="AS21" s="29"/>
-      <c r="AT21" s="29"/>
-      <c r="AU21" s="29"/>
-      <c r="AV21" s="30"/>
-      <c r="AW21" s="27"/>
-      <c r="AX21" s="26"/>
-      <c r="AY21" s="26"/>
-      <c r="AZ21" s="26"/>
-      <c r="BA21" s="26"/>
-      <c r="BB21" s="13"/>
-    </row>
-    <row r="22" spans="1:54" s="5" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A22" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="59"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="59"/>
-      <c r="AS22" s="59"/>
-      <c r="AT22" s="59"/>
-      <c r="AU22" s="59"/>
-      <c r="AV22" s="60"/>
-      <c r="AW22" s="57"/>
-      <c r="AX22" s="57"/>
-      <c r="AY22" s="57"/>
-      <c r="AZ22" s="57"/>
-      <c r="BA22" s="57"/>
-      <c r="BB22" s="14"/>
-    </row>
-    <row r="23" spans="1:54">
-      <c r="BB23" s="9">
-        <f>SUM(BB7:BB22)</f>
-        <v>37.5</v>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="59"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="59"/>
+      <c r="AO21" s="59"/>
+      <c r="AP21" s="59"/>
+      <c r="AQ21" s="59"/>
+      <c r="AR21" s="59"/>
+      <c r="AS21" s="59"/>
+      <c r="AT21" s="59"/>
+      <c r="AU21" s="59"/>
+      <c r="AV21" s="60"/>
+      <c r="AW21" s="57"/>
+      <c r="AX21" s="57"/>
+      <c r="AY21" s="57"/>
+      <c r="AZ21" s="57"/>
+      <c r="BA21" s="57"/>
+      <c r="BB21" s="14"/>
+    </row>
+    <row r="22" spans="1:54">
+      <c r="BB22" s="9">
+        <f>SUM(BB7:BB21)</f>
+        <v>34.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="AW22:BA22"/>
-    <mergeCell ref="X22:AV22"/>
+  <mergeCells count="77">
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="X21:AV21"/>
     <mergeCell ref="B8:J8"/>
     <mergeCell ref="K8:W8"/>
     <mergeCell ref="AW8:BA8"/>
     <mergeCell ref="X8:AV8"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:W15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="X15:AV15"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="X10:AV10"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="X20:AV20"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="X11:AV11"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="X19:AV19"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="K16:W16"/>
     <mergeCell ref="AW16:BA16"/>
     <mergeCell ref="X16:AV16"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="X10:AV10"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="X21:AV21"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="X11:AV11"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="AW20:BA20"/>
-    <mergeCell ref="X20:AV20"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="X17:AV17"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="X12:AV12"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:W15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="X15:AV15"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="K14:W14"/>
     <mergeCell ref="AW14:BA14"/>
     <mergeCell ref="X14:AV14"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:W13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="X13:AV13"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="K7:W7"/>
     <mergeCell ref="AW7:BA7"/>
@@ -4785,18 +4631,18 @@
     <mergeCell ref="K9:W9"/>
     <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="X9:AV9"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="AW19:BA19"/>
-    <mergeCell ref="X19:AV19"/>
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="K18:W18"/>
     <mergeCell ref="AW18:BA18"/>
     <mergeCell ref="X18:AV18"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:W13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="X13:AV13"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="X17:AV17"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="X12:AV12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
@@ -4856,43 +4702,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="I1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4900,10 +4746,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" s="19">
         <v>2016</v>
@@ -4912,7 +4758,7 @@
         <v>42673</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G2" s="21">
         <v>9000</v>
@@ -4942,10 +4788,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" s="19">
         <v>2016</v>
@@ -4954,7 +4800,7 @@
         <v>42714</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G3" s="17">
         <v>45400</v>
@@ -4984,19 +4830,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G4" s="17">
         <v>27050</v>
@@ -5026,10 +4872,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -5062,10 +4908,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -5098,10 +4944,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -5134,10 +4980,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -5170,10 +5016,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -5206,10 +5052,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -5242,10 +5088,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -5278,10 +5124,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -5314,10 +5160,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -5350,10 +5196,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -5386,7 +5232,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -5420,7 +5266,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -5454,7 +5300,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -5488,7 +5334,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -5522,7 +5368,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -5556,7 +5402,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -5590,7 +5436,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -5624,7 +5470,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -5658,7 +5504,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -5692,7 +5538,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -5726,7 +5572,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -5760,7 +5606,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -5794,7 +5640,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -5828,7 +5674,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -5862,7 +5708,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -5896,7 +5742,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -5930,7 +5776,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -5964,7 +5810,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -5998,7 +5844,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
@@ -6032,7 +5878,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -6066,7 +5912,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -6100,7 +5946,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -6134,7 +5980,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
@@ -6168,7 +6014,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
@@ -6202,7 +6048,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
@@ -6236,7 +6082,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
@@ -6270,7 +6116,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
@@ -6304,7 +6150,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
@@ -6338,7 +6184,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -6372,7 +6218,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
@@ -6406,7 +6252,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
@@ -6440,7 +6286,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
@@ -6474,7 +6320,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
@@ -6508,7 +6354,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
@@ -6542,7 +6388,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
@@ -6576,7 +6422,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
@@ -6610,7 +6456,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -6644,7 +6490,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
@@ -6678,7 +6524,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
@@ -6712,7 +6558,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
@@ -6746,7 +6592,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -6780,7 +6626,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
@@ -6814,7 +6660,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -6848,7 +6694,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
@@ -6882,7 +6728,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
@@ -6916,7 +6762,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="23"/>
@@ -6950,7 +6796,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
@@ -6984,7 +6830,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
@@ -7018,7 +6864,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
@@ -7052,7 +6898,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
@@ -7086,7 +6932,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
@@ -7120,7 +6966,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
@@ -7154,7 +7000,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="23"/>
@@ -7188,7 +7034,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
@@ -7222,7 +7068,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
@@ -7256,7 +7102,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C70" s="23"/>
       <c r="D70" s="23"/>
@@ -7290,7 +7136,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="23"/>
@@ -7324,7 +7170,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
@@ -7358,7 +7204,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="23"/>
@@ -7392,7 +7238,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
@@ -7426,7 +7272,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
@@ -7460,7 +7306,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
@@ -7494,7 +7340,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -7528,7 +7374,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
@@ -7562,7 +7408,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="23"/>
@@ -7596,7 +7442,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="23"/>
@@ -7630,7 +7476,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
@@ -7664,7 +7510,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="23"/>
@@ -7698,7 +7544,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="23"/>
@@ -7732,7 +7578,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C84" s="23"/>
       <c r="D84" s="23"/>
@@ -7766,7 +7612,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C85" s="23"/>
       <c r="D85" s="23"/>
@@ -7800,7 +7646,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C86" s="23"/>
       <c r="D86" s="23"/>
@@ -7834,7 +7680,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C87" s="23"/>
       <c r="D87" s="23"/>
@@ -7868,7 +7714,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C88" s="23"/>
       <c r="D88" s="23"/>
@@ -7902,7 +7748,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C89" s="23"/>
       <c r="D89" s="23"/>
@@ -7936,7 +7782,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
@@ -7970,7 +7816,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C91" s="23"/>
       <c r="D91" s="23"/>
@@ -8004,7 +7850,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C92" s="23"/>
       <c r="D92" s="23"/>
@@ -8038,7 +7884,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C93" s="23"/>
       <c r="D93" s="23"/>
@@ -8072,7 +7918,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C94" s="23"/>
       <c r="D94" s="23"/>
@@ -8106,7 +7952,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C95" s="23"/>
       <c r="D95" s="23"/>
@@ -8140,7 +7986,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C96" s="23"/>
       <c r="D96" s="23"/>
@@ -8174,7 +8020,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C97" s="23"/>
       <c r="D97" s="23"/>
@@ -8208,7 +8054,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C98" s="23"/>
       <c r="D98" s="23"/>
@@ -8242,7 +8088,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C99" s="23"/>
       <c r="D99" s="23"/>
@@ -8276,7 +8122,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
@@ -8310,7 +8156,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
@@ -8344,7 +8190,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
@@ -8378,7 +8224,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
@@ -8412,7 +8258,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
@@ -8446,7 +8292,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
@@ -8480,7 +8326,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
@@ -8514,7 +8360,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
@@ -8548,7 +8394,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C108" s="23"/>
       <c r="D108" s="23"/>
@@ -8582,7 +8428,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
@@ -8616,7 +8462,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C110" s="23"/>
       <c r="D110" s="23"/>
@@ -8650,7 +8496,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C111" s="23"/>
       <c r="D111" s="23"/>
@@ -8684,7 +8530,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C112" s="23"/>
       <c r="D112" s="23"/>
@@ -8718,7 +8564,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
@@ -8752,7 +8598,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
@@ -8786,7 +8632,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C115" s="23"/>
       <c r="D115" s="23"/>
@@ -8820,7 +8666,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C116" s="23"/>
       <c r="D116" s="23"/>
@@ -8854,7 +8700,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C117" s="23"/>
       <c r="D117" s="23"/>
@@ -8888,7 +8734,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C118" s="23"/>
       <c r="D118" s="23"/>
@@ -8922,7 +8768,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C119" s="23"/>
       <c r="D119" s="23"/>
@@ -8956,7 +8802,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C120" s="23"/>
       <c r="D120" s="23"/>
@@ -8990,7 +8836,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C121" s="23"/>
       <c r="D121" s="23"/>
@@ -9024,7 +8870,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
@@ -9058,7 +8904,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C123" s="23"/>
       <c r="D123" s="23"/>
@@ -9092,7 +8938,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C124" s="23"/>
       <c r="D124" s="23"/>
@@ -9126,7 +8972,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
@@ -9160,7 +9006,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C126" s="23"/>
       <c r="D126" s="23"/>
@@ -9194,7 +9040,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C127" s="23"/>
       <c r="D127" s="23"/>
@@ -9228,7 +9074,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C128" s="23"/>
       <c r="D128" s="23"/>
@@ -9262,7 +9108,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C129" s="23"/>
       <c r="D129" s="23"/>
@@ -9296,7 +9142,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C130" s="23"/>
       <c r="D130" s="23"/>
@@ -9330,7 +9176,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C131" s="23"/>
       <c r="D131" s="23"/>
@@ -9364,7 +9210,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C132" s="23"/>
       <c r="D132" s="23"/>
@@ -9398,7 +9244,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
@@ -9432,7 +9278,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
@@ -9466,7 +9312,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C135" s="23"/>
       <c r="D135" s="23"/>
@@ -9500,7 +9346,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C136" s="23"/>
       <c r="D136" s="23"/>
@@ -9534,7 +9380,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C137" s="23"/>
       <c r="D137" s="23"/>
@@ -9568,7 +9414,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C138" s="23"/>
       <c r="D138" s="23"/>
@@ -9602,7 +9448,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C139" s="23"/>
       <c r="D139" s="23"/>
@@ -9636,7 +9482,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C140" s="23"/>
       <c r="D140" s="23"/>
@@ -9670,7 +9516,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C141" s="23"/>
       <c r="D141" s="23"/>
@@ -9704,7 +9550,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
@@ -9738,7 +9584,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C143" s="23"/>
       <c r="D143" s="23"/>
@@ -9772,7 +9618,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C144" s="23"/>
       <c r="D144" s="23"/>
@@ -9806,7 +9652,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C145" s="23"/>
       <c r="D145" s="23"/>
@@ -9840,7 +9686,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C146" s="23"/>
       <c r="D146" s="23"/>
@@ -9874,7 +9720,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C147" s="23"/>
       <c r="D147" s="23"/>
@@ -9908,7 +9754,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C148" s="23"/>
       <c r="D148" s="23"/>
@@ -9942,7 +9788,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
@@ -9976,7 +9822,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C150" s="23"/>
       <c r="D150" s="23"/>
@@ -10010,7 +9856,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
@@ -10044,7 +9890,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
@@ -10078,7 +9924,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
@@ -10112,7 +9958,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
@@ -10146,7 +9992,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C155" s="23"/>
       <c r="D155" s="23"/>
@@ -10180,7 +10026,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
@@ -10214,7 +10060,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
@@ -10248,7 +10094,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
@@ -10282,7 +10128,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C159" s="23"/>
       <c r="D159" s="23"/>
@@ -10316,7 +10162,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C160" s="23"/>
       <c r="D160" s="23"/>
@@ -10350,7 +10196,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C161" s="23"/>
       <c r="D161" s="23"/>
@@ -10384,7 +10230,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C162" s="23"/>
       <c r="D162" s="23"/>
@@ -10418,7 +10264,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
@@ -10452,7 +10298,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C164" s="23"/>
       <c r="D164" s="23"/>
@@ -10486,7 +10332,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C165" s="23"/>
       <c r="D165" s="23"/>
@@ -10520,7 +10366,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
@@ -10554,7 +10400,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
@@ -10588,7 +10434,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
@@ -10622,7 +10468,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
@@ -10656,7 +10502,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C170" s="23"/>
       <c r="D170" s="23"/>
@@ -10690,7 +10536,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C171" s="23"/>
       <c r="D171" s="23"/>
@@ -10724,7 +10570,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C172" s="23"/>
       <c r="D172" s="23"/>
@@ -10758,7 +10604,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C173" s="23"/>
       <c r="D173" s="23"/>
@@ -10792,7 +10638,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C174" s="23"/>
       <c r="D174" s="23"/>
@@ -10826,7 +10672,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
@@ -10860,7 +10706,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
@@ -10894,7 +10740,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
@@ -10928,7 +10774,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
@@ -10962,7 +10808,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
@@ -10996,7 +10842,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
@@ -11030,7 +10876,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -11064,7 +10910,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -11098,7 +10944,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -11132,7 +10978,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -11166,7 +11012,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -11200,7 +11046,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -11234,7 +11080,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -11268,7 +11114,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -11302,7 +11148,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -11336,7 +11182,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -11370,7 +11216,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -11404,7 +11250,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -11438,7 +11284,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -11472,7 +11318,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -11506,7 +11352,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -11540,7 +11386,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -11574,7 +11420,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -11608,7 +11454,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -11642,7 +11488,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -11676,7 +11522,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -11710,7 +11556,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -11744,7 +11590,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -11778,7 +11624,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -11812,7 +11658,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -11846,7 +11692,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -11880,7 +11726,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -11914,7 +11760,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -11948,7 +11794,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -11982,7 +11828,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -12016,7 +11862,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -12050,7 +11896,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -12084,7 +11930,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -12118,7 +11964,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -12152,7 +11998,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -12186,7 +12032,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -12220,7 +12066,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -12254,7 +12100,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -12288,7 +12134,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -12322,7 +12168,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -12356,7 +12202,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -12390,7 +12236,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -12424,7 +12270,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -12458,7 +12304,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -12492,7 +12338,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -12526,7 +12372,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -12560,7 +12406,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -12594,7 +12440,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -12628,7 +12474,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -12662,7 +12508,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -12696,7 +12542,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -12730,7 +12576,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -12764,7 +12610,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -12798,7 +12644,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -12832,7 +12678,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -12866,7 +12712,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -12900,7 +12746,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -12934,7 +12780,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C237" s="23"/>
       <c r="D237" s="23"/>
@@ -12968,7 +12814,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C238" s="23"/>
       <c r="D238" s="23"/>
@@ -13002,7 +12848,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C239" s="23"/>
       <c r="D239" s="23"/>
@@ -13036,7 +12882,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C240" s="23"/>
       <c r="D240" s="23"/>
@@ -13070,7 +12916,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C241" s="23"/>
       <c r="D241" s="23"/>
@@ -13104,7 +12950,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C242" s="23"/>
       <c r="D242" s="23"/>
@@ -13138,7 +12984,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C243" s="23"/>
       <c r="D243" s="23"/>
@@ -13172,7 +13018,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C244" s="23"/>
       <c r="D244" s="23"/>
@@ -13206,7 +13052,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C245" s="23"/>
       <c r="D245" s="23"/>
@@ -13240,7 +13086,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C246" s="23"/>
       <c r="D246" s="23"/>
@@ -13274,7 +13120,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C247" s="23"/>
       <c r="D247" s="23"/>
@@ -13308,7 +13154,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C248" s="23"/>
       <c r="D248" s="23"/>
@@ -13342,7 +13188,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="19" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C249" s="23"/>
       <c r="D249" s="23"/>
@@ -13376,7 +13222,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C250" s="23"/>
       <c r="D250" s="23"/>
@@ -13410,7 +13256,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C251" s="23"/>
       <c r="D251" s="23"/>
@@ -13444,7 +13290,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="19" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C252" s="23"/>
       <c r="D252" s="23"/>
@@ -13478,7 +13324,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C253" s="23"/>
       <c r="D253" s="23"/>
@@ -13512,7 +13358,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C254" s="23"/>
       <c r="D254" s="23"/>
@@ -13546,7 +13392,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C255" s="23"/>
       <c r="D255" s="23"/>
@@ -13580,7 +13426,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C256" s="23"/>
       <c r="D256" s="23"/>
@@ -13614,7 +13460,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C257" s="23"/>
       <c r="D257" s="23"/>
@@ -13648,7 +13494,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C258" s="23"/>
       <c r="D258" s="23"/>
@@ -13682,7 +13528,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C259" s="23"/>
       <c r="D259" s="23"/>
@@ -13716,7 +13562,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C260" s="23"/>
       <c r="D260" s="23"/>
@@ -13750,7 +13596,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C261" s="23"/>
       <c r="D261" s="23"/>
@@ -13784,7 +13630,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="19" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C262" s="23"/>
       <c r="D262" s="23"/>
@@ -13818,7 +13664,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C263" s="23"/>
       <c r="D263" s="23"/>
@@ -13852,7 +13698,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="19" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C264" s="23"/>
       <c r="D264" s="23"/>
@@ -13886,7 +13732,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="19" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C265" s="23"/>
       <c r="D265" s="23"/>
@@ -13920,7 +13766,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C266" s="23"/>
       <c r="D266" s="23"/>
@@ -13954,7 +13800,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C267" s="23"/>
       <c r="D267" s="23"/>
@@ -13988,7 +13834,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="19" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C268" s="23"/>
       <c r="D268" s="23"/>
@@ -14022,7 +13868,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C269" s="23"/>
       <c r="D269" s="23"/>
@@ -14056,7 +13902,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="19" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C270" s="23"/>
       <c r="D270" s="23"/>
@@ -14090,7 +13936,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="19" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C271" s="23"/>
       <c r="D271" s="23"/>
@@ -14124,7 +13970,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="19" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C272" s="23"/>
       <c r="D272" s="23"/>
@@ -14158,7 +14004,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="19" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C273" s="23"/>
       <c r="D273" s="23"/>
@@ -14192,7 +14038,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C274" s="23"/>
       <c r="D274" s="23"/>
@@ -14226,7 +14072,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="19" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C275" s="23"/>
       <c r="D275" s="23"/>
@@ -14260,7 +14106,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C276" s="23"/>
       <c r="D276" s="23"/>
@@ -14294,7 +14140,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="19" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C277" s="23"/>
       <c r="D277" s="23"/>
@@ -14328,7 +14174,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C278" s="23"/>
       <c r="D278" s="23"/>
@@ -14362,7 +14208,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C279" s="23"/>
       <c r="D279" s="23"/>
@@ -14396,7 +14242,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C280" s="23"/>
       <c r="D280" s="23"/>
@@ -14430,7 +14276,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C281" s="23"/>
       <c r="D281" s="23"/>
@@ -14464,7 +14310,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C282" s="23"/>
       <c r="D282" s="23"/>
@@ -14498,7 +14344,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C283" s="23"/>
       <c r="D283" s="23"/>
@@ -14532,7 +14378,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C284" s="23"/>
       <c r="D284" s="23"/>
@@ -14566,7 +14412,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C285" s="23"/>
       <c r="D285" s="23"/>
@@ -14600,7 +14446,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C286" s="23"/>
       <c r="D286" s="23"/>
@@ -14634,7 +14480,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="19" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C287" s="23"/>
       <c r="D287" s="23"/>
@@ -14668,7 +14514,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C288" s="23"/>
       <c r="D288" s="23"/>
@@ -14702,7 +14548,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C289" s="23"/>
       <c r="D289" s="23"/>
@@ -14736,7 +14582,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="19" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C290" s="23"/>
       <c r="D290" s="23"/>
@@ -14770,7 +14616,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C291" s="23"/>
       <c r="D291" s="23"/>
@@ -14804,7 +14650,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="19" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C292" s="23"/>
       <c r="D292" s="23"/>
@@ -14838,7 +14684,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="19" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C293" s="23"/>
       <c r="D293" s="23"/>
@@ -14872,7 +14718,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C294" s="23"/>
       <c r="D294" s="23"/>
@@ -14906,7 +14752,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="19" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C295" s="23"/>
       <c r="D295" s="23"/>
@@ -14940,7 +14786,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C296" s="23"/>
       <c r="D296" s="23"/>
@@ -14974,7 +14820,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C297" s="23"/>
       <c r="D297" s="23"/>
@@ -15008,7 +14854,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="19" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C298" s="23"/>
       <c r="D298" s="23"/>
@@ -15042,7 +14888,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="19" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C299" s="23"/>
       <c r="D299" s="23"/>
@@ -15076,7 +14922,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C300" s="23"/>
       <c r="D300" s="23"/>
@@ -15110,7 +14956,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="19" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C301" s="23"/>
       <c r="D301" s="23"/>
@@ -15144,7 +14990,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C302" s="23"/>
       <c r="D302" s="23"/>
@@ -15178,7 +15024,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C303" s="23"/>
       <c r="D303" s="23"/>
@@ -15212,7 +15058,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="19" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C304" s="23"/>
       <c r="D304" s="23"/>
@@ -15246,7 +15092,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="19" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C305" s="23"/>
       <c r="D305" s="23"/>
@@ -15280,7 +15126,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C306" s="23"/>
       <c r="D306" s="23"/>
@@ -15314,7 +15160,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C307" s="23"/>
       <c r="D307" s="23"/>
@@ -15348,7 +15194,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="19" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C308" s="23"/>
       <c r="D308" s="23"/>
@@ -15382,7 +15228,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C309" s="23"/>
       <c r="D309" s="23"/>
@@ -15416,7 +15262,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C310" s="23"/>
       <c r="D310" s="23"/>
@@ -15450,7 +15296,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="19" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C311" s="23"/>
       <c r="D311" s="23"/>
@@ -15484,7 +15330,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C312" s="23"/>
       <c r="D312" s="23"/>
@@ -15518,7 +15364,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="19" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C313" s="23"/>
       <c r="D313" s="23"/>
@@ -15552,7 +15398,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="19" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C314" s="23"/>
       <c r="D314" s="23"/>
@@ -15586,7 +15432,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C315" s="23"/>
       <c r="D315" s="23"/>
@@ -15620,7 +15466,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C316" s="23"/>
       <c r="D316" s="23"/>
@@ -15654,7 +15500,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="19" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C317" s="23"/>
       <c r="D317" s="23"/>
@@ -15688,7 +15534,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="19" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C318" s="23"/>
       <c r="D318" s="23"/>
@@ -15722,7 +15568,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="19" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C319" s="23"/>
       <c r="D319" s="23"/>
@@ -15756,7 +15602,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="19" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C320" s="23"/>
       <c r="D320" s="23"/>
@@ -15790,7 +15636,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C321" s="23"/>
       <c r="D321" s="23"/>
@@ -15824,7 +15670,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="19" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C322" s="23"/>
       <c r="D322" s="23"/>
@@ -15858,7 +15704,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="19" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C323" s="23"/>
       <c r="D323" s="23"/>
@@ -15892,7 +15738,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C324" s="23"/>
       <c r="D324" s="23"/>
@@ -15926,7 +15772,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="19" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C325" s="23"/>
       <c r="D325" s="23"/>
@@ -15960,7 +15806,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C326" s="23"/>
       <c r="D326" s="23"/>
@@ -15994,7 +15840,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C327" s="23"/>
       <c r="D327" s="23"/>
@@ -16028,7 +15874,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="19" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C328" s="23"/>
       <c r="D328" s="23"/>
@@ -16062,7 +15908,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C329" s="23"/>
       <c r="D329" s="23"/>
@@ -16096,7 +15942,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="19" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C330" s="23"/>
       <c r="D330" s="23"/>
@@ -16130,7 +15976,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="19" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C331" s="23"/>
       <c r="D331" s="23"/>
@@ -16164,7 +16010,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="19" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C332" s="23"/>
       <c r="D332" s="23"/>
@@ -16198,7 +16044,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="19" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C333" s="23"/>
       <c r="D333" s="23"/>
@@ -16232,7 +16078,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="19" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C334" s="23"/>
       <c r="D334" s="23"/>
@@ -16266,7 +16112,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="19" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C335" s="23"/>
       <c r="D335" s="23"/>
@@ -16300,7 +16146,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C336" s="23"/>
       <c r="D336" s="23"/>
@@ -16334,7 +16180,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C337" s="23"/>
       <c r="D337" s="23"/>
@@ -16368,7 +16214,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="19" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C338" s="23"/>
       <c r="D338" s="23"/>
@@ -16402,7 +16248,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C339" s="23"/>
       <c r="D339" s="23"/>
@@ -16436,7 +16282,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="19" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C340" s="23"/>
       <c r="D340" s="23"/>
@@ -16470,7 +16316,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="19" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C341" s="23"/>
       <c r="D341" s="23"/>
@@ -16504,7 +16350,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="19" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C342" s="23"/>
       <c r="D342" s="23"/>
@@ -16538,7 +16384,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="19" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C343" s="23"/>
       <c r="D343" s="23"/>
@@ -16570,7 +16416,7 @@
     <row r="344" spans="1:13">
       <c r="A344" s="15"/>
       <c r="B344" s="19" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C344" s="19"/>
       <c r="D344" s="19"/>

--- a/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
+++ b/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="165" windowWidth="27840" windowHeight="12690" tabRatio="673"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27840" windowHeight="12675" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="タクチケ自動精算" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">タクチケ自動精算!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -77,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="420">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1985,18 +1984,83 @@
   </si>
   <si>
     <t>新規追加
+・TTTが｢タクチケ実績未精算CSV｣を手作業で修正したCSVを取込み、タクチケ台帳を更新する。
+・上記で取込んだタクチケ番号及び会合番号と画面で入力された精算年月・精算団体コード・精算コメントを、自動精算対象タクチケテーブル(新規)に登録する。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ダンタイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1～3.3月23日
+6.1.3月23日</t>
+    <rPh sb="5" eb="6">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規追加
 ｢タクチケ自動精算指示画面｣で登録された内容(自動精算対象タクチケテーブルの登録内容)に従い、下記の処理を行う。
 1.会合番号ごとに精算番号を自動採番し、請求データを新規作成。
 2.画面入力された精算年月、精算団体コード、精算コメントを1.で作成した請求データに反映。
 3.画面で指定された精算年月と1で採番された精算番号をタクチケ台帳に反映。
 4.タクチケ台帳から、1.で精算番号を自動採番されたタクチケ番号データを抽出し、
 　会合番号毎＋精算番号毎に下記項目を集計し請求データに反映する。
-　・タクチケ実車料金（非課税）
-　・タクチケ精算手数料（非課税）
-　・タクチケ実車料金（エンタ）
-　・タクチケ精算手数料（エンタ）
+　・タクチケ実車料金（非課税）    TAXI_TF
+　・タクチケ精算手数料（非課税）  TAXI_SEISAN_TF
+　・タクチケ実車料金（エンタ）    TAXI_T
+　・タクチケ精算手数料（エンタ）  TAXI_SEISAN_T
 　・タクチケ管理票保存場所URL（フォーマットは要望書参照）
-5.1.で自動採番された精算番号のタクチケ精算金額をCSV出力する。
+5.1.で自動採番された精算番号のタクチケ精算金額のCSVを生成し、TBL_FILEに登録する。
 　※｢③-4-2精算番号表｣シート参照
 6.1.で自動採番された精算番号の｢総合精算書｣PDFを生成し、TBL_FILEに登録する。</t>
     <rPh sb="0" eb="2">
@@ -2122,139 +2186,88 @@
     <rPh sb="263" eb="266">
       <t>ヒカゼイ</t>
     </rPh>
-    <rPh sb="274" eb="276">
+    <rPh sb="285" eb="287">
       <t>セイサン</t>
     </rPh>
-    <rPh sb="276" eb="279">
+    <rPh sb="287" eb="290">
       <t>テスウリョウ</t>
     </rPh>
-    <rPh sb="280" eb="283">
+    <rPh sb="291" eb="294">
       <t>ヒカゼイ</t>
     </rPh>
-    <rPh sb="291" eb="293">
+    <rPh sb="318" eb="320">
       <t>ジッシャ</t>
     </rPh>
-    <rPh sb="293" eb="295">
+    <rPh sb="320" eb="322">
       <t>リョウキン</t>
     </rPh>
-    <rPh sb="307" eb="309">
+    <rPh sb="344" eb="346">
       <t>セイサン</t>
     </rPh>
-    <rPh sb="309" eb="312">
+    <rPh sb="346" eb="349">
       <t>テスウリョウ</t>
     </rPh>
-    <rPh sb="324" eb="326">
+    <rPh sb="376" eb="378">
       <t>カンリ</t>
     </rPh>
-    <rPh sb="326" eb="327">
+    <rPh sb="378" eb="379">
       <t>ヒョウ</t>
     </rPh>
-    <rPh sb="327" eb="329">
+    <rPh sb="379" eb="381">
       <t>ホゾン</t>
     </rPh>
-    <rPh sb="329" eb="331">
+    <rPh sb="381" eb="383">
       <t>バショ</t>
     </rPh>
-    <rPh sb="342" eb="345">
+    <rPh sb="394" eb="397">
       <t>ヨウボウショ</t>
     </rPh>
-    <rPh sb="345" eb="347">
+    <rPh sb="397" eb="399">
       <t>サンショウ</t>
     </rPh>
-    <rPh sb="354" eb="356">
+    <rPh sb="406" eb="408">
       <t>ジドウ</t>
     </rPh>
-    <rPh sb="356" eb="358">
+    <rPh sb="408" eb="410">
       <t>サイバン</t>
     </rPh>
-    <rPh sb="361" eb="363">
+    <rPh sb="413" eb="415">
       <t>セイサン</t>
     </rPh>
-    <rPh sb="363" eb="365">
+    <rPh sb="415" eb="417">
       <t>バンゴウ</t>
     </rPh>
-    <rPh sb="370" eb="372">
+    <rPh sb="422" eb="424">
       <t>セイサン</t>
     </rPh>
-    <rPh sb="372" eb="374">
+    <rPh sb="424" eb="426">
       <t>キンガク</t>
     </rPh>
-    <rPh sb="378" eb="380">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="401" eb="403">
+    <rPh sb="467" eb="469">
       <t>サンショウ</t>
     </rPh>
-    <rPh sb="409" eb="411">
+    <rPh sb="475" eb="477">
       <t>ジドウ</t>
     </rPh>
-    <rPh sb="411" eb="413">
+    <rPh sb="477" eb="479">
       <t>サイバン</t>
     </rPh>
-    <rPh sb="416" eb="418">
+    <rPh sb="482" eb="484">
       <t>セイサン</t>
     </rPh>
-    <rPh sb="418" eb="420">
+    <rPh sb="484" eb="486">
       <t>バンゴウ</t>
     </rPh>
-    <rPh sb="422" eb="424">
+    <rPh sb="488" eb="490">
       <t>ソウゴウ</t>
     </rPh>
-    <rPh sb="424" eb="427">
+    <rPh sb="490" eb="493">
       <t>セイサンショ</t>
     </rPh>
-    <rPh sb="432" eb="434">
+    <rPh sb="498" eb="500">
       <t>セイセイ</t>
     </rPh>
-    <rPh sb="445" eb="447">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規追加
-・TTTが｢タクチケ実績未精算CSV｣を手作業で修正したCSVを取込み、タクチケ台帳を更新する。
-・上記で取込んだタクチケ番号及び会合番号と画面で入力された精算年月・精算団体コード・精算コメントを、自動精算対象タクチケテーブル(新規)に登録する。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ダンタイ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
+    <rPh sb="511" eb="513">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -2699,7 +2712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2767,6 +2780,21 @@
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2784,6 +2812,45 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2821,58 +2888,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3228,7 +3244,7 @@
       <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BD13" sqref="BD13"/>
+      <selection pane="bottomRight" activeCell="X14" sqref="X14:AV14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -3240,246 +3256,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31" t="s">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="34" t="s">
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="31" t="s">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31" t="s">
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31" t="s">
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="33">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="51">
         <v>42809</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="31" t="s">
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AY2" s="31"/>
-      <c r="AZ2" s="31"/>
-      <c r="BA2" s="31"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="33"/>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="33"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="31"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="31"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="51"/>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="33"/>
-      <c r="AS4" s="33"/>
-      <c r="AT4" s="33"/>
-      <c r="AU4" s="33"/>
-      <c r="AV4" s="33"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="49"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -3506,66 +3522,66 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="50" t="s">
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="51"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="49" t="s">
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="48"/>
+      <c r="AW6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="49"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="45"/>
+      <c r="AZ6" s="45"/>
+      <c r="BA6" s="45"/>
       <c r="BB6" s="11" t="s">
         <v>13</v>
       </c>
@@ -3580,64 +3596,64 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="46" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="47"/>
-      <c r="AI7" s="47"/>
-      <c r="AJ7" s="47"/>
-      <c r="AK7" s="47"/>
-      <c r="AL7" s="47"/>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="47"/>
-      <c r="AO7" s="47"/>
-      <c r="AP7" s="47"/>
-      <c r="AQ7" s="47"/>
-      <c r="AR7" s="47"/>
-      <c r="AS7" s="47"/>
-      <c r="AT7" s="47"/>
-      <c r="AU7" s="47"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="45">
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="41">
         <v>42809</v>
       </c>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="40"/>
+      <c r="BA7" s="40"/>
       <c r="BB7" s="12"/>
     </row>
     <row r="8" spans="1:59" s="5" customFormat="1" ht="34.5" customHeight="1">
@@ -3645,66 +3661,66 @@
         <f t="shared" ref="A8:A21" si="0">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="28" t="s">
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="29"/>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="29"/>
-      <c r="AR8" s="29"/>
-      <c r="AS8" s="29"/>
-      <c r="AT8" s="29"/>
-      <c r="AU8" s="29"/>
-      <c r="AV8" s="30"/>
-      <c r="AW8" s="27">
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+      <c r="AP8" s="34"/>
+      <c r="AQ8" s="34"/>
+      <c r="AR8" s="34"/>
+      <c r="AS8" s="34"/>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="34"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="32">
         <v>42809</v>
       </c>
-      <c r="AX8" s="26"/>
-      <c r="AY8" s="26"/>
-      <c r="AZ8" s="26"/>
-      <c r="BA8" s="26"/>
+      <c r="AX8" s="31"/>
+      <c r="AY8" s="31"/>
+      <c r="AZ8" s="31"/>
+      <c r="BA8" s="31"/>
       <c r="BB8" s="13">
         <v>1</v>
       </c>
@@ -3714,66 +3730,66 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="28" t="s">
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29"/>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="27">
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="32">
         <v>42809</v>
       </c>
-      <c r="AX9" s="26"/>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
+      <c r="AX9" s="31"/>
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="31"/>
       <c r="BB9" s="13">
         <v>1</v>
       </c>
@@ -3783,66 +3799,66 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="28" t="s">
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="29"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="29"/>
-      <c r="AS10" s="29"/>
-      <c r="AT10" s="29"/>
-      <c r="AU10" s="29"/>
-      <c r="AV10" s="30"/>
-      <c r="AW10" s="27">
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="32">
         <v>42809</v>
       </c>
-      <c r="AX10" s="26"/>
-      <c r="AY10" s="26"/>
-      <c r="AZ10" s="26"/>
-      <c r="BA10" s="26"/>
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="31"/>
+      <c r="AZ10" s="31"/>
+      <c r="BA10" s="31"/>
       <c r="BB10" s="13">
         <v>0.5</v>
       </c>
@@ -3852,66 +3868,66 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="28" t="s">
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="29"/>
-      <c r="AU11" s="29"/>
-      <c r="AV11" s="30"/>
-      <c r="AW11" s="27">
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="32">
         <v>42808</v>
       </c>
-      <c r="AX11" s="26"/>
-      <c r="AY11" s="26"/>
-      <c r="AZ11" s="26"/>
-      <c r="BA11" s="26"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
       <c r="BB11" s="13">
         <v>0.5</v>
       </c>
@@ -3921,66 +3937,66 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="29"/>
-      <c r="AS12" s="29"/>
-      <c r="AT12" s="29"/>
-      <c r="AU12" s="29"/>
-      <c r="AV12" s="30"/>
-      <c r="AW12" s="27">
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="34"/>
+      <c r="AR12" s="34"/>
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="34"/>
+      <c r="AU12" s="34"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="32">
         <v>42816</v>
       </c>
-      <c r="AX12" s="26"/>
-      <c r="AY12" s="26"/>
-      <c r="AZ12" s="26"/>
-      <c r="BA12" s="26"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="31"/>
+      <c r="BA12" s="31"/>
       <c r="BB12" s="13">
         <v>3</v>
       </c>
@@ -3990,64 +4006,66 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="29"/>
-      <c r="AS13" s="29"/>
-      <c r="AT13" s="29"/>
-      <c r="AU13" s="29"/>
-      <c r="AV13" s="30"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="26"/>
-      <c r="AY13" s="26"/>
-      <c r="AZ13" s="26"/>
-      <c r="BA13" s="26"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="34"/>
+      <c r="AP13" s="34"/>
+      <c r="AQ13" s="34"/>
+      <c r="AR13" s="34"/>
+      <c r="AS13" s="34"/>
+      <c r="AT13" s="34"/>
+      <c r="AU13" s="34"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="31"/>
+      <c r="BA13" s="31"/>
       <c r="BB13" s="13">
         <v>20</v>
       </c>
@@ -4057,64 +4075,64 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="26" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="28" t="s">
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="29"/>
-      <c r="AL14" s="29"/>
-      <c r="AM14" s="29"/>
-      <c r="AN14" s="29"/>
-      <c r="AO14" s="29"/>
-      <c r="AP14" s="29"/>
-      <c r="AQ14" s="29"/>
-      <c r="AR14" s="29"/>
-      <c r="AS14" s="29"/>
-      <c r="AT14" s="29"/>
-      <c r="AU14" s="29"/>
-      <c r="AV14" s="30"/>
-      <c r="AW14" s="27"/>
-      <c r="AX14" s="26"/>
-      <c r="AY14" s="26"/>
-      <c r="AZ14" s="26"/>
-      <c r="BA14" s="26"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
+      <c r="AP14" s="34"/>
+      <c r="AQ14" s="34"/>
+      <c r="AR14" s="34"/>
+      <c r="AS14" s="34"/>
+      <c r="AT14" s="34"/>
+      <c r="AU14" s="34"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="32"/>
+      <c r="AX14" s="31"/>
+      <c r="AY14" s="31"/>
+      <c r="AZ14" s="31"/>
+      <c r="BA14" s="31"/>
       <c r="BB14" s="13">
         <v>3</v>
       </c>
@@ -4124,64 +4142,64 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="36" t="s">
         <v>405</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="26" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="28" t="s">
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
-      <c r="AK15" s="29"/>
-      <c r="AL15" s="29"/>
-      <c r="AM15" s="29"/>
-      <c r="AN15" s="29"/>
-      <c r="AO15" s="29"/>
-      <c r="AP15" s="29"/>
-      <c r="AQ15" s="29"/>
-      <c r="AR15" s="29"/>
-      <c r="AS15" s="29"/>
-      <c r="AT15" s="29"/>
-      <c r="AU15" s="29"/>
-      <c r="AV15" s="30"/>
-      <c r="AW15" s="27"/>
-      <c r="AX15" s="26"/>
-      <c r="AY15" s="26"/>
-      <c r="AZ15" s="26"/>
-      <c r="BA15" s="26"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="34"/>
+      <c r="AP15" s="34"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="34"/>
+      <c r="AS15" s="34"/>
+      <c r="AT15" s="34"/>
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="35"/>
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="31"/>
+      <c r="AZ15" s="31"/>
+      <c r="BA15" s="31"/>
       <c r="BB15" s="13">
         <v>3</v>
       </c>
@@ -4191,64 +4209,64 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="28" t="s">
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="29"/>
-      <c r="AL16" s="29"/>
-      <c r="AM16" s="29"/>
-      <c r="AN16" s="29"/>
-      <c r="AO16" s="29"/>
-      <c r="AP16" s="29"/>
-      <c r="AQ16" s="29"/>
-      <c r="AR16" s="29"/>
-      <c r="AS16" s="29"/>
-      <c r="AT16" s="29"/>
-      <c r="AU16" s="29"/>
-      <c r="AV16" s="30"/>
-      <c r="AW16" s="27"/>
-      <c r="AX16" s="26"/>
-      <c r="AY16" s="26"/>
-      <c r="AZ16" s="26"/>
-      <c r="BA16" s="26"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="34"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="34"/>
+      <c r="AR16" s="34"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="34"/>
+      <c r="AU16" s="34"/>
+      <c r="AV16" s="35"/>
+      <c r="AW16" s="32"/>
+      <c r="AX16" s="31"/>
+      <c r="AY16" s="31"/>
+      <c r="AZ16" s="31"/>
+      <c r="BA16" s="31"/>
       <c r="BB16" s="13">
         <v>2</v>
       </c>
@@ -4258,66 +4276,66 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="28" t="s">
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="29"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="29"/>
-      <c r="AK17" s="29"/>
-      <c r="AL17" s="29"/>
-      <c r="AM17" s="29"/>
-      <c r="AN17" s="29"/>
-      <c r="AO17" s="29"/>
-      <c r="AP17" s="29"/>
-      <c r="AQ17" s="29"/>
-      <c r="AR17" s="29"/>
-      <c r="AS17" s="29"/>
-      <c r="AT17" s="29"/>
-      <c r="AU17" s="29"/>
-      <c r="AV17" s="30"/>
-      <c r="AW17" s="27">
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="34"/>
+      <c r="AU17" s="34"/>
+      <c r="AV17" s="35"/>
+      <c r="AW17" s="32">
         <v>42811</v>
       </c>
-      <c r="AX17" s="26"/>
-      <c r="AY17" s="26"/>
-      <c r="AZ17" s="26"/>
-      <c r="BA17" s="26"/>
+      <c r="AX17" s="31"/>
+      <c r="AY17" s="31"/>
+      <c r="AZ17" s="31"/>
+      <c r="BA17" s="31"/>
       <c r="BB17" s="13">
         <v>0.5</v>
       </c>
@@ -4327,58 +4345,58 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="29"/>
-      <c r="AL18" s="29"/>
-      <c r="AM18" s="29"/>
-      <c r="AN18" s="29"/>
-      <c r="AO18" s="29"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="29"/>
-      <c r="AS18" s="29"/>
-      <c r="AT18" s="29"/>
-      <c r="AU18" s="29"/>
-      <c r="AV18" s="30"/>
-      <c r="AW18" s="27"/>
-      <c r="AX18" s="26"/>
-      <c r="AY18" s="26"/>
-      <c r="AZ18" s="26"/>
-      <c r="BA18" s="26"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="34"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="32"/>
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="31"/>
+      <c r="AZ18" s="31"/>
+      <c r="BA18" s="31"/>
       <c r="BB18" s="13"/>
     </row>
     <row r="19" spans="1:54" s="5" customFormat="1">
@@ -4386,58 +4404,58 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="29"/>
-      <c r="AS19" s="29"/>
-      <c r="AT19" s="29"/>
-      <c r="AU19" s="29"/>
-      <c r="AV19" s="30"/>
-      <c r="AW19" s="27"/>
-      <c r="AX19" s="26"/>
-      <c r="AY19" s="26"/>
-      <c r="AZ19" s="26"/>
-      <c r="BA19" s="26"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="34"/>
+      <c r="AO19" s="34"/>
+      <c r="AP19" s="34"/>
+      <c r="AQ19" s="34"/>
+      <c r="AR19" s="34"/>
+      <c r="AS19" s="34"/>
+      <c r="AT19" s="34"/>
+      <c r="AU19" s="34"/>
+      <c r="AV19" s="35"/>
+      <c r="AW19" s="32"/>
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="31"/>
+      <c r="AZ19" s="31"/>
+      <c r="BA19" s="31"/>
       <c r="BB19" s="13"/>
     </row>
     <row r="20" spans="1:54" s="5" customFormat="1">
@@ -4445,58 +4463,58 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="29"/>
-      <c r="AT20" s="29"/>
-      <c r="AU20" s="29"/>
-      <c r="AV20" s="30"/>
-      <c r="AW20" s="27"/>
-      <c r="AX20" s="26"/>
-      <c r="AY20" s="26"/>
-      <c r="AZ20" s="26"/>
-      <c r="BA20" s="26"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="34"/>
+      <c r="AM20" s="34"/>
+      <c r="AN20" s="34"/>
+      <c r="AO20" s="34"/>
+      <c r="AP20" s="34"/>
+      <c r="AQ20" s="34"/>
+      <c r="AR20" s="34"/>
+      <c r="AS20" s="34"/>
+      <c r="AT20" s="34"/>
+      <c r="AU20" s="34"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="32"/>
+      <c r="AX20" s="31"/>
+      <c r="AY20" s="31"/>
+      <c r="AZ20" s="31"/>
+      <c r="BA20" s="31"/>
       <c r="BB20" s="13"/>
     </row>
     <row r="21" spans="1:54" s="5" customFormat="1" ht="11.25" customHeight="1">
@@ -4504,58 +4522,58 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="58"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="59"/>
-      <c r="AU21" s="59"/>
-      <c r="AV21" s="60"/>
-      <c r="AW21" s="57"/>
-      <c r="AX21" s="57"/>
-      <c r="AY21" s="57"/>
-      <c r="AZ21" s="57"/>
-      <c r="BA21" s="57"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="28"/>
+      <c r="AQ21" s="28"/>
+      <c r="AR21" s="28"/>
+      <c r="AS21" s="28"/>
+      <c r="AT21" s="28"/>
+      <c r="AU21" s="28"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="26"/>
+      <c r="AY21" s="26"/>
+      <c r="AZ21" s="26"/>
+      <c r="BA21" s="26"/>
       <c r="BB21" s="14"/>
     </row>
     <row r="22" spans="1:54">
@@ -4566,6 +4584,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="X9:AV9"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="X18:AV18"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="X17:AV17"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="X12:AV12"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="AH2:AL4"/>
+    <mergeCell ref="AM2:AQ4"/>
+    <mergeCell ref="AR2:AV4"/>
+    <mergeCell ref="AW2:BA4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:AG4"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="X7:AV7"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="X6:AV6"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:W14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="X14:AV14"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:W13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="X13:AV13"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="X20:AV20"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="X11:AV11"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="X19:AV19"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="AW16:BA16"/>
+    <mergeCell ref="X16:AV16"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="K21:W21"/>
     <mergeCell ref="AW21:BA21"/>
@@ -4582,67 +4661,6 @@
     <mergeCell ref="K10:W10"/>
     <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="X10:AV10"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="AW20:BA20"/>
-    <mergeCell ref="X20:AV20"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="X11:AV11"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="AW19:BA19"/>
-    <mergeCell ref="X19:AV19"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="X16:AV16"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:W14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="X14:AV14"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:W13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="X13:AV13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="X7:AV7"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="X6:AV6"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="AH2:AL4"/>
-    <mergeCell ref="AM2:AQ4"/>
-    <mergeCell ref="AR2:AV4"/>
-    <mergeCell ref="AW2:BA4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:AG4"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="X9:AV9"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="X18:AV18"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="X17:AV17"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="X12:AV12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
@@ -4658,7 +4676,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
+++ b/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27840" windowHeight="12675" tabRatio="673"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="27840" windowHeight="12645" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="タクチケ自動精算" sheetId="1" r:id="rId1"/>
@@ -1745,192 +1745,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新規追加
-タクチケ自動精算バッチで生成された総合精算書PDFのダウンロード指示画面
-生成された総合精算書PDFのファイル名を一覧表示する。
-一覧の行をチェックボックスで複数選択する事により、一括ダウンロード、及び一括削除を可能とする。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソウゴウ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>セイサンショ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ソウゴウ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>セイサンショ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規追加
-タクチケ自動精算バッチで生成された精算番号CSV(｢③-4-2精算番号表｣シート参照)の
-ダウンロード指示画面
-生成された精算番号CSVのファイル名を一覧表示する。
-一覧の行をチェックボックスで複数選択する事により、一括ダウンロード、及び一括削除を可能とする。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nozomi送信対象精算データ取込</t>
-    <rPh sb="6" eb="8">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トリコミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規追加
-自動精算されたタクチケ精算データのCSV(№9でダウンロード)のうち、Nozomiへ送信可能なもの(TTTが手作業で選別)を取込み、該当請求データのNozomi送信フラグをセットする(=1)</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>テサギョウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>センベツ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>トリコミ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タクチケメニュー</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1976,10 +1790,6 @@
   </si>
   <si>
     <t>SeisanshoAuto.aspx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TaxiSeisanToNozomi.aspx</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2027,23 +1837,6 @@
     </rPh>
     <rPh sb="123" eb="125">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1～3.3月23日
-6.1.3月23日</t>
-    <rPh sb="5" eb="6">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2269,6 +2062,217 @@
     </rPh>
     <rPh sb="511" eb="513">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.3月23日
+2～5.3月28日
+6.3月23日</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規追加
+タクチケ自動精算バッチで生成された精算番号CSV(｢③-4-2精算番号表｣シート参照)の
+ダウンロード指示画面
+生成された精算番号CSVのファイル名を一覧表示する。
+一覧の行をチェックボックスで複数選択する事により、一括削除を可能とする。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規追加
+タクチケ自動精算バッチで生成された総合精算書PDFのダウンロード指示画面
+生成された総合精算書PDFのファイル名を一覧表示する。
+一覧の行をチェックボックスで複数選択する事により、一括削除を可能とする。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>セイサンショ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>セイサンショ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規追加
+自動精算されたタクチケ精算データのCSV(№8でダウンロード)のうち、Nozomiへ送信可能なもの(TTTが手作業で選別)を取込み、該当請求データのNozomi送信フラグをセットする(=1)</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>テサギョウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>センベツ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaxiSeisanToNozomi.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nozomi送信対象精算番号取込</t>
+    <rPh sb="6" eb="8">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トリコミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2822,6 +2826,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2887,9 +2894,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3241,10 +3245,10 @@
   <dimension ref="A1:BG22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="48" ySplit="6" topLeftCell="AW13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X14" sqref="X14:AV14"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13:W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -3256,246 +3260,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49" t="s">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="52" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="49" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49" t="s">
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49" t="s">
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49" t="s">
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="51">
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="52">
         <v>42809</v>
       </c>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="49" t="s">
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="51"/>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="50"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="49"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="49"/>
-      <c r="BA4" s="49"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -3522,66 +3526,66 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46" t="s">
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="48"/>
-      <c r="AW6" s="45" t="s">
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+      <c r="AT6" s="48"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="49"/>
+      <c r="AW6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="45"/>
-      <c r="AY6" s="45"/>
-      <c r="AZ6" s="45"/>
-      <c r="BA6" s="45"/>
+      <c r="AX6" s="46"/>
+      <c r="AY6" s="46"/>
+      <c r="AZ6" s="46"/>
+      <c r="BA6" s="46"/>
       <c r="BB6" s="11" t="s">
         <v>13</v>
       </c>
@@ -3596,64 +3600,64 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="42" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="41">
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="44"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="42">
         <v>42809</v>
       </c>
-      <c r="AX7" s="40"/>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="40"/>
-      <c r="BA7" s="40"/>
+      <c r="AX7" s="41"/>
+      <c r="AY7" s="41"/>
+      <c r="AZ7" s="41"/>
+      <c r="BA7" s="41"/>
       <c r="BB7" s="12"/>
     </row>
     <row r="8" spans="1:59" s="5" customFormat="1" ht="34.5" customHeight="1">
@@ -3949,7 +3953,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
       <c r="K12" s="31" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
@@ -3964,7 +3968,7 @@
       <c r="V12" s="31"/>
       <c r="W12" s="31"/>
       <c r="X12" s="33" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Y12" s="34"/>
       <c r="Z12" s="34"/>
@@ -4033,7 +4037,7 @@
       <c r="V13" s="31"/>
       <c r="W13" s="31"/>
       <c r="X13" s="33" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="Y13" s="34"/>
       <c r="Z13" s="34"/>
@@ -4059,15 +4063,15 @@
       <c r="AT13" s="34"/>
       <c r="AU13" s="34"/>
       <c r="AV13" s="35"/>
-      <c r="AW13" s="61" t="s">
-        <v>418</v>
+      <c r="AW13" s="39" t="s">
+        <v>414</v>
       </c>
       <c r="AX13" s="31"/>
       <c r="AY13" s="31"/>
       <c r="AZ13" s="31"/>
       <c r="BA13" s="31"/>
       <c r="BB13" s="13">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:59" s="5" customFormat="1" ht="78.75" customHeight="1">
@@ -4087,7 +4091,7 @@
       <c r="I14" s="37"/>
       <c r="J14" s="38"/>
       <c r="K14" s="31" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
@@ -4102,7 +4106,7 @@
       <c r="V14" s="31"/>
       <c r="W14" s="31"/>
       <c r="X14" s="33" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="Y14" s="34"/>
       <c r="Z14" s="34"/>
@@ -4128,7 +4132,9 @@
       <c r="AT14" s="34"/>
       <c r="AU14" s="34"/>
       <c r="AV14" s="35"/>
-      <c r="AW14" s="32"/>
+      <c r="AW14" s="32">
+        <v>42823</v>
+      </c>
       <c r="AX14" s="31"/>
       <c r="AY14" s="31"/>
       <c r="AZ14" s="31"/>
@@ -4154,7 +4160,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
       <c r="K15" s="31" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
@@ -4169,7 +4175,7 @@
       <c r="V15" s="31"/>
       <c r="W15" s="31"/>
       <c r="X15" s="33" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="Y15" s="34"/>
       <c r="Z15" s="34"/>
@@ -4195,7 +4201,9 @@
       <c r="AT15" s="34"/>
       <c r="AU15" s="34"/>
       <c r="AV15" s="35"/>
-      <c r="AW15" s="32"/>
+      <c r="AW15" s="32">
+        <v>42823</v>
+      </c>
       <c r="AX15" s="31"/>
       <c r="AY15" s="31"/>
       <c r="AZ15" s="31"/>
@@ -4210,7 +4218,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
@@ -4221,7 +4229,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
       <c r="K16" s="31" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
@@ -4236,7 +4244,7 @@
       <c r="V16" s="31"/>
       <c r="W16" s="31"/>
       <c r="X16" s="33" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="Y16" s="34"/>
       <c r="Z16" s="34"/>
@@ -4277,7 +4285,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -4288,7 +4296,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="31" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
@@ -4303,7 +4311,7 @@
       <c r="V17" s="31"/>
       <c r="W17" s="31"/>
       <c r="X17" s="33" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Y17" s="34"/>
       <c r="Z17" s="34"/>
@@ -4579,7 +4587,7 @@
     <row r="22" spans="1:54">
       <c r="BB22" s="9">
         <f>SUM(BB7:BB21)</f>
-        <v>34.5</v>
+        <v>24.5</v>
       </c>
     </row>
   </sheetData>
@@ -4700,7 +4708,7 @@
   <dimension ref="A1:M344"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
+++ b/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="27840" windowHeight="12645" tabRatio="673"/>
+    <workbookView xWindow="480" yWindow="225" windowWidth="27840" windowHeight="12630" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="タクチケ自動精算" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'③-4-2精算番号表'!$A$1:$M$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">タクチケ自動精算!$A$1:$BB$22</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">タクチケ自動精算!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="424">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -2276,14 +2277,56 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>タクチケ手配確認票</t>
+    <rPh sb="4" eb="6">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaxiKakuninReport.vb
+Preview.vb</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実工数</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フッター左下にタクチケ枚数を出力する。</t>
+    <rPh sb="4" eb="6">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -2716,7 +2759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2784,21 +2827,6 @@
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2816,48 +2844,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2894,6 +2880,68 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3248,7 +3296,7 @@
       <pane xSplit="48" ySplit="6" topLeftCell="AW13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13:W13"/>
+      <selection pane="bottomRight" activeCell="BB14" sqref="BB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -3256,250 +3304,252 @@
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="53" width="2.625" style="1"/>
     <col min="54" max="54" width="5.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="2.625" style="1"/>
+    <col min="55" max="55" width="2.625" style="1"/>
+    <col min="56" max="56" width="4.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="53" t="s">
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="50" t="s">
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50" t="s">
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50" t="s">
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50" t="s">
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="52">
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="33">
         <v>42809</v>
       </c>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="50" t="s">
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="50"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="31"/>
+      <c r="AZ3" s="31"/>
+      <c r="BA3" s="31"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="50"/>
-      <c r="AY4" s="50"/>
-      <c r="AZ4" s="50"/>
-      <c r="BA4" s="50"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="33"/>
+      <c r="AU4" s="33"/>
+      <c r="AV4" s="33"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -3517,7 +3567,7 @@
       <c r="BA5" s="2"/>
       <c r="BB5" s="10"/>
       <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
+      <c r="BD5" s="63"/>
       <c r="BE5" s="2"/>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
@@ -3526,71 +3576,73 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="47" t="s">
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="48"/>
-      <c r="AT6" s="48"/>
-      <c r="AU6" s="48"/>
-      <c r="AV6" s="49"/>
-      <c r="AW6" s="46" t="s">
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="51"/>
+      <c r="AT6" s="51"/>
+      <c r="AU6" s="51"/>
+      <c r="AV6" s="52"/>
+      <c r="AW6" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="46"/>
-      <c r="AY6" s="46"/>
-      <c r="AZ6" s="46"/>
-      <c r="BA6" s="46"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
       <c r="BB6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
+      <c r="BD6" s="63" t="s">
+        <v>422</v>
+      </c>
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
@@ -3600,133 +3652,139 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="43" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="45"/>
-      <c r="AW7" s="42">
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="47"/>
+      <c r="AS7" s="47"/>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="47"/>
+      <c r="AV7" s="48"/>
+      <c r="AW7" s="45">
         <v>42809</v>
       </c>
-      <c r="AX7" s="41"/>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="41"/>
+      <c r="AX7" s="44"/>
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44"/>
       <c r="BB7" s="12"/>
+      <c r="BD7" s="64">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="8" spans="1:59" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A8" s="6">
         <f t="shared" ref="A8:A21" si="0">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="33" t="s">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
-      <c r="AP8" s="34"/>
-      <c r="AQ8" s="34"/>
-      <c r="AR8" s="34"/>
-      <c r="AS8" s="34"/>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="34"/>
-      <c r="AV8" s="35"/>
-      <c r="AW8" s="32">
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="29"/>
+      <c r="AQ8" s="29"/>
+      <c r="AR8" s="29"/>
+      <c r="AS8" s="29"/>
+      <c r="AT8" s="29"/>
+      <c r="AU8" s="29"/>
+      <c r="AV8" s="30"/>
+      <c r="AW8" s="27">
         <v>42809</v>
       </c>
-      <c r="AX8" s="31"/>
-      <c r="AY8" s="31"/>
-      <c r="AZ8" s="31"/>
-      <c r="BA8" s="31"/>
+      <c r="AX8" s="26"/>
+      <c r="AY8" s="26"/>
+      <c r="AZ8" s="26"/>
+      <c r="BA8" s="26"/>
       <c r="BB8" s="13">
         <v>1</v>
+      </c>
+      <c r="BD8" s="64">
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:59" s="5" customFormat="1" ht="54.75" customHeight="1">
@@ -3734,68 +3792,71 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="33" t="s">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34"/>
-      <c r="AQ9" s="34"/>
-      <c r="AR9" s="34"/>
-      <c r="AS9" s="34"/>
-      <c r="AT9" s="34"/>
-      <c r="AU9" s="34"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="32">
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29"/>
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29"/>
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="27">
         <v>42809</v>
       </c>
-      <c r="AX9" s="31"/>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="31"/>
+      <c r="AX9" s="26"/>
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26"/>
       <c r="BB9" s="13">
         <v>1</v>
+      </c>
+      <c r="BD9" s="64">
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:59" s="5" customFormat="1" ht="45" customHeight="1">
@@ -3803,68 +3864,71 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="33" t="s">
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="34"/>
-      <c r="AR10" s="34"/>
-      <c r="AS10" s="34"/>
-      <c r="AT10" s="34"/>
-      <c r="AU10" s="34"/>
-      <c r="AV10" s="35"/>
-      <c r="AW10" s="32">
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="29"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="29"/>
+      <c r="AU10" s="29"/>
+      <c r="AV10" s="30"/>
+      <c r="AW10" s="27">
         <v>42809</v>
       </c>
-      <c r="AX10" s="31"/>
-      <c r="AY10" s="31"/>
-      <c r="AZ10" s="31"/>
-      <c r="BA10" s="31"/>
+      <c r="AX10" s="26"/>
+      <c r="AY10" s="26"/>
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="26"/>
       <c r="BB10" s="13">
         <v>0.5</v>
+      </c>
+      <c r="BD10" s="64">
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:59" s="5" customFormat="1" ht="47.25" customHeight="1">
@@ -3872,67 +3936,70 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="33" t="s">
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="34"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="34"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="34"/>
-      <c r="AV11" s="35"/>
-      <c r="AW11" s="32">
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="29"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="30"/>
+      <c r="AW11" s="27">
         <v>42808</v>
       </c>
-      <c r="AX11" s="31"/>
-      <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
+      <c r="AX11" s="26"/>
+      <c r="AY11" s="26"/>
+      <c r="AZ11" s="26"/>
+      <c r="BA11" s="26"/>
       <c r="BB11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="BD11" s="64">
         <v>0.5</v>
       </c>
     </row>
@@ -3941,68 +4008,71 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="33" t="s">
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="34"/>
-      <c r="AQ12" s="34"/>
-      <c r="AR12" s="34"/>
-      <c r="AS12" s="34"/>
-      <c r="AT12" s="34"/>
-      <c r="AU12" s="34"/>
-      <c r="AV12" s="35"/>
-      <c r="AW12" s="32">
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="30"/>
+      <c r="AW12" s="27">
         <v>42816</v>
       </c>
-      <c r="AX12" s="31"/>
-      <c r="AY12" s="31"/>
-      <c r="AZ12" s="31"/>
-      <c r="BA12" s="31"/>
+      <c r="AX12" s="26"/>
+      <c r="AY12" s="26"/>
+      <c r="AZ12" s="26"/>
+      <c r="BA12" s="26"/>
       <c r="BB12" s="13">
         <v>3</v>
+      </c>
+      <c r="BD12" s="64">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:59" s="5" customFormat="1" ht="201.75" customHeight="1">
@@ -4010,68 +4080,71 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="33" t="s">
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="34"/>
-      <c r="AP13" s="34"/>
-      <c r="AQ13" s="34"/>
-      <c r="AR13" s="34"/>
-      <c r="AS13" s="34"/>
-      <c r="AT13" s="34"/>
-      <c r="AU13" s="34"/>
-      <c r="AV13" s="35"/>
-      <c r="AW13" s="39" t="s">
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="30"/>
+      <c r="AW13" s="56" t="s">
         <v>414</v>
       </c>
-      <c r="AX13" s="31"/>
-      <c r="AY13" s="31"/>
-      <c r="AZ13" s="31"/>
-      <c r="BA13" s="31"/>
+      <c r="AX13" s="26"/>
+      <c r="AY13" s="26"/>
+      <c r="AZ13" s="26"/>
+      <c r="BA13" s="26"/>
       <c r="BB13" s="13">
         <v>10</v>
+      </c>
+      <c r="BD13" s="64">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:59" s="5" customFormat="1" ht="78.75" customHeight="1">
@@ -4079,68 +4152,71 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="53" t="s">
         <v>404</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="31" t="s">
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="33" t="s">
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="34"/>
-      <c r="AP14" s="34"/>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="34"/>
-      <c r="AS14" s="34"/>
-      <c r="AT14" s="34"/>
-      <c r="AU14" s="34"/>
-      <c r="AV14" s="35"/>
-      <c r="AW14" s="32">
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="29"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="30"/>
+      <c r="AW14" s="27">
         <v>42823</v>
       </c>
-      <c r="AX14" s="31"/>
-      <c r="AY14" s="31"/>
-      <c r="AZ14" s="31"/>
-      <c r="BA14" s="31"/>
+      <c r="AX14" s="26"/>
+      <c r="AY14" s="26"/>
+      <c r="AZ14" s="26"/>
+      <c r="BA14" s="26"/>
       <c r="BB14" s="13">
         <v>3</v>
+      </c>
+      <c r="BD14" s="64">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:59" s="5" customFormat="1" ht="60" customHeight="1">
@@ -4148,68 +4224,71 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="31" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="33" t="s">
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="28" t="s">
         <v>416</v>
       </c>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="34"/>
-      <c r="AP15" s="34"/>
-      <c r="AQ15" s="34"/>
-      <c r="AR15" s="34"/>
-      <c r="AS15" s="34"/>
-      <c r="AT15" s="34"/>
-      <c r="AU15" s="34"/>
-      <c r="AV15" s="35"/>
-      <c r="AW15" s="32">
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="29"/>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="29"/>
+      <c r="AR15" s="29"/>
+      <c r="AS15" s="29"/>
+      <c r="AT15" s="29"/>
+      <c r="AU15" s="29"/>
+      <c r="AV15" s="30"/>
+      <c r="AW15" s="27">
         <v>42823</v>
       </c>
-      <c r="AX15" s="31"/>
-      <c r="AY15" s="31"/>
-      <c r="AZ15" s="31"/>
-      <c r="BA15" s="31"/>
+      <c r="AX15" s="26"/>
+      <c r="AY15" s="26"/>
+      <c r="AZ15" s="26"/>
+      <c r="BA15" s="26"/>
       <c r="BB15" s="13">
         <v>3</v>
+      </c>
+      <c r="BD15" s="64">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:59" s="5" customFormat="1" ht="45.75" customHeight="1">
@@ -4217,381 +4296,470 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="33" t="s">
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="28" t="s">
         <v>417</v>
       </c>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="34"/>
-      <c r="AT16" s="34"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="35"/>
-      <c r="AW16" s="32"/>
-      <c r="AX16" s="31"/>
-      <c r="AY16" s="31"/>
-      <c r="AZ16" s="31"/>
-      <c r="BA16" s="31"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="29"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="29"/>
+      <c r="AS16" s="29"/>
+      <c r="AT16" s="29"/>
+      <c r="AU16" s="29"/>
+      <c r="AV16" s="30"/>
+      <c r="AW16" s="27">
+        <v>42824</v>
+      </c>
+      <c r="AX16" s="26"/>
+      <c r="AY16" s="26"/>
+      <c r="AZ16" s="26"/>
+      <c r="BA16" s="26"/>
       <c r="BB16" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:54" s="5" customFormat="1">
+      <c r="BD16" s="64">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" s="5" customFormat="1">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31" t="s">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="33" t="s">
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="34"/>
-      <c r="AN17" s="34"/>
-      <c r="AO17" s="34"/>
-      <c r="AP17" s="34"/>
-      <c r="AQ17" s="34"/>
-      <c r="AR17" s="34"/>
-      <c r="AS17" s="34"/>
-      <c r="AT17" s="34"/>
-      <c r="AU17" s="34"/>
-      <c r="AV17" s="35"/>
-      <c r="AW17" s="32">
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="29"/>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="29"/>
+      <c r="AT17" s="29"/>
+      <c r="AU17" s="29"/>
+      <c r="AV17" s="30"/>
+      <c r="AW17" s="27">
         <v>42811</v>
       </c>
-      <c r="AX17" s="31"/>
-      <c r="AY17" s="31"/>
-      <c r="AZ17" s="31"/>
-      <c r="BA17" s="31"/>
+      <c r="AX17" s="26"/>
+      <c r="AY17" s="26"/>
+      <c r="AZ17" s="26"/>
+      <c r="BA17" s="26"/>
       <c r="BB17" s="13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:54" s="5" customFormat="1">
+      <c r="BD17" s="64">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="34"/>
-      <c r="AN18" s="34"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="34"/>
-      <c r="AQ18" s="34"/>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="34"/>
-      <c r="AT18" s="34"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="35"/>
-      <c r="AW18" s="32"/>
-      <c r="AX18" s="31"/>
-      <c r="AY18" s="31"/>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="13"/>
-    </row>
-    <row r="19" spans="1:54" s="5" customFormat="1">
+      <c r="B18" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="30"/>
+      <c r="AW18" s="27">
+        <v>42824</v>
+      </c>
+      <c r="AX18" s="26"/>
+      <c r="AY18" s="26"/>
+      <c r="AZ18" s="26"/>
+      <c r="BA18" s="26"/>
+      <c r="BB18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="BD18" s="64">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" s="5" customFormat="1">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="34"/>
-      <c r="AQ19" s="34"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="34"/>
-      <c r="AT19" s="34"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="35"/>
-      <c r="AW19" s="32"/>
-      <c r="AX19" s="31"/>
-      <c r="AY19" s="31"/>
-      <c r="AZ19" s="31"/>
-      <c r="BA19" s="31"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="30"/>
+      <c r="AW19" s="27"/>
+      <c r="AX19" s="26"/>
+      <c r="AY19" s="26"/>
+      <c r="AZ19" s="26"/>
+      <c r="BA19" s="26"/>
       <c r="BB19" s="13"/>
-    </row>
-    <row r="20" spans="1:54" s="5" customFormat="1">
+      <c r="BD19" s="64"/>
+    </row>
+    <row r="20" spans="1:56" s="5" customFormat="1">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="34"/>
-      <c r="AN20" s="34"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="34"/>
-      <c r="AQ20" s="34"/>
-      <c r="AR20" s="34"/>
-      <c r="AS20" s="34"/>
-      <c r="AT20" s="34"/>
-      <c r="AU20" s="34"/>
-      <c r="AV20" s="35"/>
-      <c r="AW20" s="32"/>
-      <c r="AX20" s="31"/>
-      <c r="AY20" s="31"/>
-      <c r="AZ20" s="31"/>
-      <c r="BA20" s="31"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="30"/>
+      <c r="AW20" s="27"/>
+      <c r="AX20" s="26"/>
+      <c r="AY20" s="26"/>
+      <c r="AZ20" s="26"/>
+      <c r="BA20" s="26"/>
       <c r="BB20" s="13"/>
-    </row>
-    <row r="21" spans="1:54" s="5" customFormat="1" ht="11.25" customHeight="1">
+      <c r="BD20" s="64"/>
+    </row>
+    <row r="21" spans="1:56" s="5" customFormat="1" ht="11.25" customHeight="1">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
-      <c r="AP21" s="28"/>
-      <c r="AQ21" s="28"/>
-      <c r="AR21" s="28"/>
-      <c r="AS21" s="28"/>
-      <c r="AT21" s="28"/>
-      <c r="AU21" s="28"/>
-      <c r="AV21" s="29"/>
-      <c r="AW21" s="26"/>
-      <c r="AX21" s="26"/>
-      <c r="AY21" s="26"/>
-      <c r="AZ21" s="26"/>
-      <c r="BA21" s="26"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="60"/>
+      <c r="AI21" s="60"/>
+      <c r="AJ21" s="60"/>
+      <c r="AK21" s="60"/>
+      <c r="AL21" s="60"/>
+      <c r="AM21" s="60"/>
+      <c r="AN21" s="60"/>
+      <c r="AO21" s="60"/>
+      <c r="AP21" s="60"/>
+      <c r="AQ21" s="60"/>
+      <c r="AR21" s="60"/>
+      <c r="AS21" s="60"/>
+      <c r="AT21" s="60"/>
+      <c r="AU21" s="60"/>
+      <c r="AV21" s="61"/>
+      <c r="AW21" s="58"/>
+      <c r="AX21" s="58"/>
+      <c r="AY21" s="58"/>
+      <c r="AZ21" s="58"/>
+      <c r="BA21" s="58"/>
       <c r="BB21" s="14"/>
-    </row>
-    <row r="22" spans="1:54">
+      <c r="BD21" s="64"/>
+    </row>
+    <row r="22" spans="1:56">
       <c r="BB22" s="9">
         <f>SUM(BB7:BB21)</f>
-        <v>24.5</v>
+        <v>25</v>
+      </c>
+      <c r="BD22" s="9">
+        <f>SUM(BD7:BD21)</f>
+        <v>8.1999999999999993</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="X21:AV21"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="X8:AV8"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:W15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="X15:AV15"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="X10:AV10"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="X20:AV20"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="X11:AV11"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="X19:AV19"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="AW16:BA16"/>
+    <mergeCell ref="X16:AV16"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:W14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="X14:AV14"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:W13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="X13:AV13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="X7:AV7"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="X6:AV6"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="AH2:AL4"/>
+    <mergeCell ref="AM2:AQ4"/>
+    <mergeCell ref="AR2:AV4"/>
+    <mergeCell ref="AW2:BA4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:AG4"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="K9:W9"/>
     <mergeCell ref="AW9:BA9"/>
@@ -4608,67 +4776,6 @@
     <mergeCell ref="K12:W12"/>
     <mergeCell ref="AW12:BA12"/>
     <mergeCell ref="X12:AV12"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="AH2:AL4"/>
-    <mergeCell ref="AM2:AQ4"/>
-    <mergeCell ref="AR2:AV4"/>
-    <mergeCell ref="AW2:BA4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:AG4"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="X7:AV7"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="X6:AV6"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:W14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="X14:AV14"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:W13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="X13:AV13"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="AW20:BA20"/>
-    <mergeCell ref="X20:AV20"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="X11:AV11"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="AW19:BA19"/>
-    <mergeCell ref="X19:AV19"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="X16:AV16"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="X21:AV21"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="X8:AV8"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:W15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="X15:AV15"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="X10:AV10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>

--- a/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
+++ b/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="225" windowWidth="27840" windowHeight="12630" tabRatio="673"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="27840" windowHeight="12615" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="タクチケ自動精算" sheetId="1" r:id="rId1"/>
@@ -292,57 +292,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【新着】交通・手配CSVボタン押下時、
-従来はCSV出力処理を行っていた所を、上記
-新着一覧CSVダウンロード画面を起動するようにする。</t>
-    <rPh sb="1" eb="3">
-      <t>シンチャク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウツウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テハイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジュウライ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>トコロ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>シンチャク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>新規追加
 毎朝08:30に【新着】交通・手配CSVを自動生成し、生成した内容をTBL_FILE(新規)に登録する。</t>
     <rPh sb="0" eb="2">
@@ -456,49 +405,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">新規追加
-・2.で自動生成された【新着】交通・手配CSVを画面に一覧表示し、ダウンロードおよび削除が行えるようにする。
-メニューの従来新着一覧CSVを出力していた「【新着】交通・手配CSVボタン」から起動する。
-</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シンチャク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウツウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>テハイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>通番</t>
     <rPh sb="0" eb="1">
       <t>ツウ</t>
@@ -1839,6 +1745,303 @@
     <rPh sb="123" eb="125">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.3月23日
+2～5.3月28日
+6.3月23日</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規追加
+タクチケ自動精算バッチで生成された精算番号CSV(｢③-4-2精算番号表｣シート参照)の
+ダウンロード指示画面
+生成された精算番号CSVのファイル名を一覧表示する。
+一覧の行をチェックボックスで複数選択する事により、一括削除を可能とする。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規追加
+タクチケ自動精算バッチで生成された総合精算書PDFのダウンロード指示画面
+生成された総合精算書PDFのファイル名を一覧表示する。
+一覧の行をチェックボックスで複数選択する事により、一括削除を可能とする。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>セイサンショ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>セイサンショ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規追加
+自動精算されたタクチケ精算データのCSV(№8でダウンロード)のうち、Nozomiへ送信可能なもの(TTTが手作業で選別)を取込み、該当請求データのNozomi送信フラグをセットする(=1)</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>テサギョウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>センベツ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaxiSeisanToNozomi.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nozomi送信対象精算番号取込</t>
+    <rPh sb="6" eb="8">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トリコミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ手配確認票</t>
+    <rPh sb="4" eb="6">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaxiKakuninReport.vb
+Preview.vb</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実工数</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フッター左下にタクチケ枚数を出力する。</t>
+    <rPh sb="4" eb="6">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規追加
+・2.で自動生成された【新着】交通・手配CSVを画面に一覧表示し、ダウンロードおよび削除が行えるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シンチャク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「【新着(日次)】交通・手配CSVボタン」を追加して、ダウンロード画面を起動する。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1853,6 +2056,10 @@
 　・タクチケ精算手数料（非課税）  TAXI_SEISAN_TF
 　・タクチケ実車料金（エンタ）    TAXI_T
 　・タクチケ精算手数料（エンタ）  TAXI_SEISAN_T
+　・41120200(非課税)小計　　　　　KEI_41120200_TF
+　・非課税金額合計　　　　　　　　KEI_TF
+　・41120200(課税)小計　　　　　　KEI_41120200_T
+　・課税金額合計　　　　　　　　　KEI_T
 　・タクチケ管理票保存場所URL（フォーマットは要望書参照）
 5.1.で自動採番された精算番号のタクチケ精算金額のCSVを生成し、TBL_FILEに登録する。
 　※｢③-4-2精算番号表｣シート参照
@@ -2001,320 +2208,68 @@
     <rPh sb="346" eb="349">
       <t>テスウリョウ</t>
     </rPh>
-    <rPh sb="376" eb="378">
+    <rPh sb="498" eb="500">
       <t>カンリ</t>
     </rPh>
-    <rPh sb="378" eb="379">
+    <rPh sb="500" eb="501">
       <t>ヒョウ</t>
     </rPh>
-    <rPh sb="379" eb="381">
+    <rPh sb="501" eb="503">
       <t>ホゾン</t>
     </rPh>
-    <rPh sb="381" eb="383">
+    <rPh sb="503" eb="505">
       <t>バショ</t>
     </rPh>
-    <rPh sb="394" eb="397">
+    <rPh sb="516" eb="519">
       <t>ヨウボウショ</t>
     </rPh>
-    <rPh sb="397" eb="399">
+    <rPh sb="519" eb="521">
       <t>サンショウ</t>
     </rPh>
-    <rPh sb="406" eb="408">
+    <rPh sb="528" eb="530">
       <t>ジドウ</t>
     </rPh>
-    <rPh sb="408" eb="410">
+    <rPh sb="530" eb="532">
       <t>サイバン</t>
     </rPh>
-    <rPh sb="413" eb="415">
+    <rPh sb="535" eb="537">
       <t>セイサン</t>
     </rPh>
-    <rPh sb="415" eb="417">
+    <rPh sb="537" eb="539">
       <t>バンゴウ</t>
     </rPh>
-    <rPh sb="422" eb="424">
+    <rPh sb="544" eb="546">
       <t>セイサン</t>
     </rPh>
-    <rPh sb="424" eb="426">
+    <rPh sb="546" eb="548">
       <t>キンガク</t>
     </rPh>
-    <rPh sb="467" eb="469">
+    <rPh sb="589" eb="591">
       <t>サンショウ</t>
     </rPh>
-    <rPh sb="475" eb="477">
+    <rPh sb="597" eb="599">
       <t>ジドウ</t>
     </rPh>
-    <rPh sb="477" eb="479">
+    <rPh sb="599" eb="601">
       <t>サイバン</t>
     </rPh>
-    <rPh sb="482" eb="484">
+    <rPh sb="604" eb="606">
       <t>セイサン</t>
     </rPh>
-    <rPh sb="484" eb="486">
+    <rPh sb="606" eb="608">
       <t>バンゴウ</t>
     </rPh>
-    <rPh sb="488" eb="490">
+    <rPh sb="610" eb="612">
       <t>ソウゴウ</t>
     </rPh>
-    <rPh sb="490" eb="493">
+    <rPh sb="612" eb="615">
       <t>セイサンショ</t>
     </rPh>
-    <rPh sb="498" eb="500">
+    <rPh sb="620" eb="622">
       <t>セイセイ</t>
     </rPh>
-    <rPh sb="511" eb="513">
+    <rPh sb="633" eb="635">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.3月23日
-2～5.3月28日
-6.3月23日</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規追加
-タクチケ自動精算バッチで生成された精算番号CSV(｢③-4-2精算番号表｣シート参照)の
-ダウンロード指示画面
-生成された精算番号CSVのファイル名を一覧表示する。
-一覧の行をチェックボックスで複数選択する事により、一括削除を可能とする。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規追加
-タクチケ自動精算バッチで生成された総合精算書PDFのダウンロード指示画面
-生成された総合精算書PDFのファイル名を一覧表示する。
-一覧の行をチェックボックスで複数選択する事により、一括削除を可能とする。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソウゴウ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>セイサンショ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ソウゴウ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>セイサンショ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規追加
-自動精算されたタクチケ精算データのCSV(№8でダウンロード)のうち、Nozomiへ送信可能なもの(TTTが手作業で選別)を取込み、該当請求データのNozomi送信フラグをセットする(=1)</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>テサギョウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>センベツ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>トリコミ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TaxiSeisanToNozomi.aspx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nozomi送信対象精算番号取込</t>
-    <rPh sb="6" eb="8">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トリコミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タクチケ手配確認票</t>
-    <rPh sb="4" eb="6">
-      <t>テハイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TaxiKakuninReport.vb
-Preview.vb</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>実工数</t>
-    <rPh sb="0" eb="1">
-      <t>ジツ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フッター左下にタクチケ枚数を出力する。</t>
-    <rPh sb="4" eb="6">
-      <t>ヒダリシタ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>マイスウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2827,6 +2782,26 @@
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2844,6 +2819,48 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2880,68 +2897,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3293,10 +3248,10 @@
   <dimension ref="A1:BG22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="48" ySplit="6" topLeftCell="AW13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="48" ySplit="6" topLeftCell="AW10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BB14" sqref="BB14"/>
+      <selection pane="bottomRight" activeCell="X13" sqref="X13:AV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -3305,251 +3260,251 @@
     <col min="2" max="53" width="2.625" style="1"/>
     <col min="54" max="54" width="5.25" style="9" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="2.625" style="1"/>
-    <col min="56" max="56" width="4.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.5" style="25" bestFit="1" customWidth="1"/>
     <col min="57" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31" t="s">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="34" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="31" t="s">
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31" t="s">
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31" t="s">
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31" t="s">
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="33">
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="55">
         <v>42809</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="31" t="s">
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AY2" s="31"/>
-      <c r="AZ2" s="31"/>
-      <c r="BA2" s="31"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="33"/>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="33"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="31"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="31"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="33"/>
-      <c r="AS4" s="33"/>
-      <c r="AT4" s="33"/>
-      <c r="AU4" s="33"/>
-      <c r="AV4" s="33"/>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="31"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -3567,7 +3522,7 @@
       <c r="BA5" s="2"/>
       <c r="BB5" s="10"/>
       <c r="BC5" s="2"/>
-      <c r="BD5" s="63"/>
+      <c r="BD5" s="26"/>
       <c r="BE5" s="2"/>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
@@ -3640,8 +3595,8 @@
         <v>13</v>
       </c>
       <c r="BC6" s="2"/>
-      <c r="BD6" s="63" t="s">
-        <v>422</v>
+      <c r="BD6" s="26" t="s">
+        <v>419</v>
       </c>
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
@@ -3711,7 +3666,7 @@
       <c r="AZ7" s="44"/>
       <c r="BA7" s="44"/>
       <c r="BB7" s="12"/>
-      <c r="BD7" s="64">
+      <c r="BD7" s="27">
         <v>0.3</v>
       </c>
     </row>
@@ -3720,214 +3675,214 @@
         <f t="shared" ref="A8:A21" si="0">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="29"/>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="29"/>
-      <c r="AR8" s="29"/>
-      <c r="AS8" s="29"/>
-      <c r="AT8" s="29"/>
-      <c r="AU8" s="29"/>
-      <c r="AV8" s="30"/>
-      <c r="AW8" s="27">
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="35">
         <v>42809</v>
       </c>
-      <c r="AX8" s="26"/>
-      <c r="AY8" s="26"/>
-      <c r="AZ8" s="26"/>
-      <c r="BA8" s="26"/>
+      <c r="AX8" s="34"/>
+      <c r="AY8" s="34"/>
+      <c r="AZ8" s="34"/>
+      <c r="BA8" s="34"/>
       <c r="BB8" s="13">
         <v>1</v>
       </c>
-      <c r="BD8" s="64">
+      <c r="BD8" s="27">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:59" s="5" customFormat="1" ht="54.75" customHeight="1">
+    <row r="9" spans="1:59" s="5" customFormat="1" ht="46.5" customHeight="1">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29"/>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="27">
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37"/>
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="35">
         <v>42809</v>
       </c>
-      <c r="AX9" s="26"/>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
+      <c r="AX9" s="34"/>
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="34"/>
       <c r="BB9" s="13">
         <v>1</v>
       </c>
-      <c r="BD9" s="64">
+      <c r="BD9" s="27">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:59" s="5" customFormat="1" ht="45" customHeight="1">
+    <row r="10" spans="1:59" s="5" customFormat="1">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="29"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="29"/>
-      <c r="AS10" s="29"/>
-      <c r="AT10" s="29"/>
-      <c r="AU10" s="29"/>
-      <c r="AV10" s="30"/>
-      <c r="AW10" s="27">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="37"/>
+      <c r="AN10" s="37"/>
+      <c r="AO10" s="37"/>
+      <c r="AP10" s="37"/>
+      <c r="AQ10" s="37"/>
+      <c r="AR10" s="37"/>
+      <c r="AS10" s="37"/>
+      <c r="AT10" s="37"/>
+      <c r="AU10" s="37"/>
+      <c r="AV10" s="38"/>
+      <c r="AW10" s="35">
         <v>42809</v>
       </c>
-      <c r="AX10" s="26"/>
-      <c r="AY10" s="26"/>
-      <c r="AZ10" s="26"/>
-      <c r="BA10" s="26"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="34"/>
       <c r="BB10" s="13">
         <v>0.5</v>
       </c>
-      <c r="BD10" s="64">
+      <c r="BD10" s="27">
         <v>0.2</v>
       </c>
     </row>
@@ -3936,70 +3891,70 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="29"/>
-      <c r="AU11" s="29"/>
-      <c r="AV11" s="30"/>
-      <c r="AW11" s="27">
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="37"/>
+      <c r="AO11" s="37"/>
+      <c r="AP11" s="37"/>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="37"/>
+      <c r="AS11" s="37"/>
+      <c r="AT11" s="37"/>
+      <c r="AU11" s="37"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="35">
         <v>42808</v>
       </c>
-      <c r="AX11" s="26"/>
-      <c r="AY11" s="26"/>
-      <c r="AZ11" s="26"/>
-      <c r="BA11" s="26"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="34"/>
       <c r="BB11" s="13">
         <v>0.5</v>
       </c>
-      <c r="BD11" s="64">
+      <c r="BD11" s="27">
         <v>0.5</v>
       </c>
     </row>
@@ -4008,142 +3963,142 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="29"/>
-      <c r="AS12" s="29"/>
-      <c r="AT12" s="29"/>
-      <c r="AU12" s="29"/>
-      <c r="AV12" s="30"/>
-      <c r="AW12" s="27">
+      <c r="B12" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="37"/>
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="37"/>
+      <c r="AQ12" s="37"/>
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="37"/>
+      <c r="AT12" s="37"/>
+      <c r="AU12" s="37"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="35">
         <v>42816</v>
       </c>
-      <c r="AX12" s="26"/>
-      <c r="AY12" s="26"/>
-      <c r="AZ12" s="26"/>
-      <c r="BA12" s="26"/>
+      <c r="AX12" s="34"/>
+      <c r="AY12" s="34"/>
+      <c r="AZ12" s="34"/>
+      <c r="BA12" s="34"/>
       <c r="BB12" s="13">
         <v>3</v>
       </c>
-      <c r="BD12" s="64">
+      <c r="BD12" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:59" s="5" customFormat="1" ht="201.75" customHeight="1">
+    <row r="13" spans="1:59" s="5" customFormat="1" ht="239.25" customHeight="1">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="29"/>
-      <c r="AS13" s="29"/>
-      <c r="AT13" s="29"/>
-      <c r="AU13" s="29"/>
-      <c r="AV13" s="30"/>
-      <c r="AW13" s="56" t="s">
-        <v>414</v>
-      </c>
-      <c r="AX13" s="26"/>
-      <c r="AY13" s="26"/>
-      <c r="AZ13" s="26"/>
-      <c r="BA13" s="26"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="37"/>
+      <c r="AM13" s="37"/>
+      <c r="AN13" s="37"/>
+      <c r="AO13" s="37"/>
+      <c r="AP13" s="37"/>
+      <c r="AQ13" s="37"/>
+      <c r="AR13" s="37"/>
+      <c r="AS13" s="37"/>
+      <c r="AT13" s="37"/>
+      <c r="AU13" s="37"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="AX13" s="34"/>
+      <c r="AY13" s="34"/>
+      <c r="AZ13" s="34"/>
+      <c r="BA13" s="34"/>
       <c r="BB13" s="13">
         <v>10</v>
       </c>
-      <c r="BD13" s="64">
+      <c r="BD13" s="27">
         <v>3</v>
       </c>
     </row>
@@ -4152,70 +4107,70 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>404</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="29"/>
-      <c r="AL14" s="29"/>
-      <c r="AM14" s="29"/>
-      <c r="AN14" s="29"/>
-      <c r="AO14" s="29"/>
-      <c r="AP14" s="29"/>
-      <c r="AQ14" s="29"/>
-      <c r="AR14" s="29"/>
-      <c r="AS14" s="29"/>
-      <c r="AT14" s="29"/>
-      <c r="AU14" s="29"/>
-      <c r="AV14" s="30"/>
-      <c r="AW14" s="27">
+      <c r="B14" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="37"/>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="37"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="37"/>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="37"/>
+      <c r="AS14" s="37"/>
+      <c r="AT14" s="37"/>
+      <c r="AU14" s="37"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="35">
         <v>42823</v>
       </c>
-      <c r="AX14" s="26"/>
-      <c r="AY14" s="26"/>
-      <c r="AZ14" s="26"/>
-      <c r="BA14" s="26"/>
+      <c r="AX14" s="34"/>
+      <c r="AY14" s="34"/>
+      <c r="AZ14" s="34"/>
+      <c r="BA14" s="34"/>
       <c r="BB14" s="13">
         <v>3</v>
       </c>
-      <c r="BD14" s="64">
+      <c r="BD14" s="27">
         <v>1</v>
       </c>
     </row>
@@ -4224,70 +4179,70 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
-      <c r="AK15" s="29"/>
-      <c r="AL15" s="29"/>
-      <c r="AM15" s="29"/>
-      <c r="AN15" s="29"/>
-      <c r="AO15" s="29"/>
-      <c r="AP15" s="29"/>
-      <c r="AQ15" s="29"/>
-      <c r="AR15" s="29"/>
-      <c r="AS15" s="29"/>
-      <c r="AT15" s="29"/>
-      <c r="AU15" s="29"/>
-      <c r="AV15" s="30"/>
-      <c r="AW15" s="27">
+      <c r="B15" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="37"/>
+      <c r="AM15" s="37"/>
+      <c r="AN15" s="37"/>
+      <c r="AO15" s="37"/>
+      <c r="AP15" s="37"/>
+      <c r="AQ15" s="37"/>
+      <c r="AR15" s="37"/>
+      <c r="AS15" s="37"/>
+      <c r="AT15" s="37"/>
+      <c r="AU15" s="37"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="35">
         <v>42823</v>
       </c>
-      <c r="AX15" s="26"/>
-      <c r="AY15" s="26"/>
-      <c r="AZ15" s="26"/>
-      <c r="BA15" s="26"/>
+      <c r="AX15" s="34"/>
+      <c r="AY15" s="34"/>
+      <c r="AZ15" s="34"/>
+      <c r="BA15" s="34"/>
       <c r="BB15" s="13">
         <v>3</v>
       </c>
-      <c r="BD15" s="64">
+      <c r="BD15" s="27">
         <v>1</v>
       </c>
     </row>
@@ -4296,70 +4251,70 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="29"/>
-      <c r="AL16" s="29"/>
-      <c r="AM16" s="29"/>
-      <c r="AN16" s="29"/>
-      <c r="AO16" s="29"/>
-      <c r="AP16" s="29"/>
-      <c r="AQ16" s="29"/>
-      <c r="AR16" s="29"/>
-      <c r="AS16" s="29"/>
-      <c r="AT16" s="29"/>
-      <c r="AU16" s="29"/>
-      <c r="AV16" s="30"/>
-      <c r="AW16" s="27">
+      <c r="B16" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="37"/>
+      <c r="AN16" s="37"/>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="37"/>
+      <c r="AQ16" s="37"/>
+      <c r="AR16" s="37"/>
+      <c r="AS16" s="37"/>
+      <c r="AT16" s="37"/>
+      <c r="AU16" s="37"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="35">
         <v>42824</v>
       </c>
-      <c r="AX16" s="26"/>
-      <c r="AY16" s="26"/>
-      <c r="AZ16" s="26"/>
-      <c r="BA16" s="26"/>
+      <c r="AX16" s="34"/>
+      <c r="AY16" s="34"/>
+      <c r="AZ16" s="34"/>
+      <c r="BA16" s="34"/>
       <c r="BB16" s="13">
         <v>2</v>
       </c>
-      <c r="BD16" s="64">
+      <c r="BD16" s="27">
         <v>0.5</v>
       </c>
     </row>
@@ -4368,70 +4323,70 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="36" t="s">
         <v>406</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="29"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="29"/>
-      <c r="AK17" s="29"/>
-      <c r="AL17" s="29"/>
-      <c r="AM17" s="29"/>
-      <c r="AN17" s="29"/>
-      <c r="AO17" s="29"/>
-      <c r="AP17" s="29"/>
-      <c r="AQ17" s="29"/>
-      <c r="AR17" s="29"/>
-      <c r="AS17" s="29"/>
-      <c r="AT17" s="29"/>
-      <c r="AU17" s="29"/>
-      <c r="AV17" s="30"/>
-      <c r="AW17" s="27">
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="37"/>
+      <c r="AT17" s="37"/>
+      <c r="AU17" s="37"/>
+      <c r="AV17" s="38"/>
+      <c r="AW17" s="35">
         <v>42811</v>
       </c>
-      <c r="AX17" s="26"/>
-      <c r="AY17" s="26"/>
-      <c r="AZ17" s="26"/>
-      <c r="BA17" s="26"/>
+      <c r="AX17" s="34"/>
+      <c r="AY17" s="34"/>
+      <c r="AZ17" s="34"/>
+      <c r="BA17" s="34"/>
       <c r="BB17" s="13">
         <v>0.5</v>
       </c>
-      <c r="BD17" s="64">
+      <c r="BD17" s="27">
         <v>0.1</v>
       </c>
     </row>
@@ -4440,70 +4395,70 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="29"/>
-      <c r="AL18" s="29"/>
-      <c r="AM18" s="29"/>
-      <c r="AN18" s="29"/>
-      <c r="AO18" s="29"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="29"/>
-      <c r="AS18" s="29"/>
-      <c r="AT18" s="29"/>
-      <c r="AU18" s="29"/>
-      <c r="AV18" s="30"/>
-      <c r="AW18" s="27">
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="37"/>
+      <c r="AU18" s="37"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="35">
         <v>42824</v>
       </c>
-      <c r="AX18" s="26"/>
-      <c r="AY18" s="26"/>
-      <c r="AZ18" s="26"/>
-      <c r="BA18" s="26"/>
+      <c r="AX18" s="34"/>
+      <c r="AY18" s="34"/>
+      <c r="AZ18" s="34"/>
+      <c r="BA18" s="34"/>
       <c r="BB18" s="13">
         <v>0.5</v>
       </c>
-      <c r="BD18" s="64">
+      <c r="BD18" s="27">
         <v>0.1</v>
       </c>
     </row>
@@ -4512,180 +4467,180 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="29"/>
-      <c r="AS19" s="29"/>
-      <c r="AT19" s="29"/>
-      <c r="AU19" s="29"/>
-      <c r="AV19" s="30"/>
-      <c r="AW19" s="27"/>
-      <c r="AX19" s="26"/>
-      <c r="AY19" s="26"/>
-      <c r="AZ19" s="26"/>
-      <c r="BA19" s="26"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="37"/>
+      <c r="AM19" s="37"/>
+      <c r="AN19" s="37"/>
+      <c r="AO19" s="37"/>
+      <c r="AP19" s="37"/>
+      <c r="AQ19" s="37"/>
+      <c r="AR19" s="37"/>
+      <c r="AS19" s="37"/>
+      <c r="AT19" s="37"/>
+      <c r="AU19" s="37"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="35"/>
+      <c r="AX19" s="34"/>
+      <c r="AY19" s="34"/>
+      <c r="AZ19" s="34"/>
+      <c r="BA19" s="34"/>
       <c r="BB19" s="13"/>
-      <c r="BD19" s="64"/>
+      <c r="BD19" s="27"/>
     </row>
     <row r="20" spans="1:56" s="5" customFormat="1">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="29"/>
-      <c r="AT20" s="29"/>
-      <c r="AU20" s="29"/>
-      <c r="AV20" s="30"/>
-      <c r="AW20" s="27"/>
-      <c r="AX20" s="26"/>
-      <c r="AY20" s="26"/>
-      <c r="AZ20" s="26"/>
-      <c r="BA20" s="26"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="37"/>
+      <c r="AN20" s="37"/>
+      <c r="AO20" s="37"/>
+      <c r="AP20" s="37"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="37"/>
+      <c r="AS20" s="37"/>
+      <c r="AT20" s="37"/>
+      <c r="AU20" s="37"/>
+      <c r="AV20" s="38"/>
+      <c r="AW20" s="35"/>
+      <c r="AX20" s="34"/>
+      <c r="AY20" s="34"/>
+      <c r="AZ20" s="34"/>
+      <c r="BA20" s="34"/>
       <c r="BB20" s="13"/>
-      <c r="BD20" s="64"/>
+      <c r="BD20" s="27"/>
     </row>
     <row r="21" spans="1:56" s="5" customFormat="1" ht="11.25" customHeight="1">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="60"/>
-      <c r="AJ21" s="60"/>
-      <c r="AK21" s="60"/>
-      <c r="AL21" s="60"/>
-      <c r="AM21" s="60"/>
-      <c r="AN21" s="60"/>
-      <c r="AO21" s="60"/>
-      <c r="AP21" s="60"/>
-      <c r="AQ21" s="60"/>
-      <c r="AR21" s="60"/>
-      <c r="AS21" s="60"/>
-      <c r="AT21" s="60"/>
-      <c r="AU21" s="60"/>
-      <c r="AV21" s="61"/>
-      <c r="AW21" s="58"/>
-      <c r="AX21" s="58"/>
-      <c r="AY21" s="58"/>
-      <c r="AZ21" s="58"/>
-      <c r="BA21" s="58"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="31"/>
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="31"/>
+      <c r="AQ21" s="31"/>
+      <c r="AR21" s="31"/>
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="29"/>
       <c r="BB21" s="14"/>
-      <c r="BD21" s="64"/>
+      <c r="BD21" s="27"/>
     </row>
     <row r="22" spans="1:56">
       <c r="BB22" s="9">
@@ -4699,6 +4654,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="X9:AV9"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="X18:AV18"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="X17:AV17"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="X12:AV12"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="AH2:AL4"/>
+    <mergeCell ref="AM2:AQ4"/>
+    <mergeCell ref="AR2:AV4"/>
+    <mergeCell ref="AW2:BA4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:AG4"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="X7:AV7"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="X6:AV6"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:W14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="X14:AV14"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:W13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="X13:AV13"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="X20:AV20"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="X11:AV11"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="X19:AV19"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="AW16:BA16"/>
+    <mergeCell ref="X16:AV16"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="K21:W21"/>
     <mergeCell ref="AW21:BA21"/>
@@ -4715,67 +4731,6 @@
     <mergeCell ref="K10:W10"/>
     <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="X10:AV10"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="AW20:BA20"/>
-    <mergeCell ref="X20:AV20"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="X11:AV11"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="AW19:BA19"/>
-    <mergeCell ref="X19:AV19"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="X16:AV16"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:W14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="X14:AV14"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:W13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="X13:AV13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="X7:AV7"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="X6:AV6"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="AH2:AL4"/>
-    <mergeCell ref="AM2:AQ4"/>
-    <mergeCell ref="AR2:AV4"/>
-    <mergeCell ref="AW2:BA4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:AG4"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="X9:AV9"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="X18:AV18"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="X17:AV17"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="X12:AV12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
@@ -4835,43 +4790,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4879,10 +4834,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="19">
         <v>2016</v>
@@ -4891,7 +4846,7 @@
         <v>42673</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="21">
         <v>9000</v>
@@ -4921,10 +4876,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="19">
         <v>2016</v>
@@ -4933,7 +4888,7 @@
         <v>42714</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" s="17">
         <v>45400</v>
@@ -4963,19 +4918,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>54</v>
-      </c>
       <c r="E4" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="17">
         <v>27050</v>
@@ -5005,10 +4960,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -5041,10 +4996,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -5077,10 +5032,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -5113,10 +5068,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -5149,10 +5104,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -5185,10 +5140,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -5221,10 +5176,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -5257,10 +5212,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -5293,10 +5248,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -5329,10 +5284,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -5365,7 +5320,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -5399,7 +5354,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -5433,7 +5388,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -5467,7 +5422,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -5501,7 +5456,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -5535,7 +5490,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -5569,7 +5524,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -5603,7 +5558,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -5637,7 +5592,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -5671,7 +5626,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -5705,7 +5660,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -5739,7 +5694,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -5773,7 +5728,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -5807,7 +5762,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -5841,7 +5796,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -5875,7 +5830,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -5909,7 +5864,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -5943,7 +5898,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -5977,7 +5932,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
@@ -6011,7 +5966,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -6045,7 +6000,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -6079,7 +6034,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -6113,7 +6068,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
@@ -6147,7 +6102,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
@@ -6181,7 +6136,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
@@ -6215,7 +6170,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
@@ -6249,7 +6204,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
@@ -6283,7 +6238,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
@@ -6317,7 +6272,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -6351,7 +6306,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
@@ -6385,7 +6340,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
@@ -6419,7 +6374,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
@@ -6453,7 +6408,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
@@ -6487,7 +6442,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
@@ -6521,7 +6476,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
@@ -6555,7 +6510,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
@@ -6589,7 +6544,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -6623,7 +6578,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
@@ -6657,7 +6612,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
@@ -6691,7 +6646,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
@@ -6725,7 +6680,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -6759,7 +6714,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
@@ -6793,7 +6748,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -6827,7 +6782,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
@@ -6861,7 +6816,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
@@ -6895,7 +6850,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="23"/>
@@ -6929,7 +6884,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
@@ -6963,7 +6918,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
@@ -6997,7 +6952,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
@@ -7031,7 +6986,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
@@ -7065,7 +7020,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
@@ -7099,7 +7054,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
@@ -7133,7 +7088,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="23"/>
@@ -7167,7 +7122,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
@@ -7201,7 +7156,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
@@ -7235,7 +7190,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C70" s="23"/>
       <c r="D70" s="23"/>
@@ -7269,7 +7224,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="23"/>
@@ -7303,7 +7258,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
@@ -7337,7 +7292,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="23"/>
@@ -7371,7 +7326,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
@@ -7405,7 +7360,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
@@ -7439,7 +7394,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
@@ -7473,7 +7428,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -7507,7 +7462,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
@@ -7541,7 +7496,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="23"/>
@@ -7575,7 +7530,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="23"/>
@@ -7609,7 +7564,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
@@ -7643,7 +7598,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="23"/>
@@ -7677,7 +7632,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="23"/>
@@ -7711,7 +7666,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C84" s="23"/>
       <c r="D84" s="23"/>
@@ -7745,7 +7700,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C85" s="23"/>
       <c r="D85" s="23"/>
@@ -7779,7 +7734,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C86" s="23"/>
       <c r="D86" s="23"/>
@@ -7813,7 +7768,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C87" s="23"/>
       <c r="D87" s="23"/>
@@ -7847,7 +7802,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C88" s="23"/>
       <c r="D88" s="23"/>
@@ -7881,7 +7836,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C89" s="23"/>
       <c r="D89" s="23"/>
@@ -7915,7 +7870,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
@@ -7949,7 +7904,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C91" s="23"/>
       <c r="D91" s="23"/>
@@ -7983,7 +7938,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C92" s="23"/>
       <c r="D92" s="23"/>
@@ -8017,7 +7972,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C93" s="23"/>
       <c r="D93" s="23"/>
@@ -8051,7 +8006,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C94" s="23"/>
       <c r="D94" s="23"/>
@@ -8085,7 +8040,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C95" s="23"/>
       <c r="D95" s="23"/>
@@ -8119,7 +8074,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C96" s="23"/>
       <c r="D96" s="23"/>
@@ -8153,7 +8108,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C97" s="23"/>
       <c r="D97" s="23"/>
@@ -8187,7 +8142,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C98" s="23"/>
       <c r="D98" s="23"/>
@@ -8221,7 +8176,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C99" s="23"/>
       <c r="D99" s="23"/>
@@ -8255,7 +8210,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
@@ -8289,7 +8244,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
@@ -8323,7 +8278,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
@@ -8357,7 +8312,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
@@ -8391,7 +8346,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
@@ -8425,7 +8380,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
@@ -8459,7 +8414,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
@@ -8493,7 +8448,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
@@ -8527,7 +8482,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C108" s="23"/>
       <c r="D108" s="23"/>
@@ -8561,7 +8516,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
@@ -8595,7 +8550,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C110" s="23"/>
       <c r="D110" s="23"/>
@@ -8629,7 +8584,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C111" s="23"/>
       <c r="D111" s="23"/>
@@ -8663,7 +8618,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C112" s="23"/>
       <c r="D112" s="23"/>
@@ -8697,7 +8652,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
@@ -8731,7 +8686,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
@@ -8765,7 +8720,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C115" s="23"/>
       <c r="D115" s="23"/>
@@ -8799,7 +8754,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C116" s="23"/>
       <c r="D116" s="23"/>
@@ -8833,7 +8788,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C117" s="23"/>
       <c r="D117" s="23"/>
@@ -8867,7 +8822,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C118" s="23"/>
       <c r="D118" s="23"/>
@@ -8901,7 +8856,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C119" s="23"/>
       <c r="D119" s="23"/>
@@ -8935,7 +8890,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C120" s="23"/>
       <c r="D120" s="23"/>
@@ -8969,7 +8924,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C121" s="23"/>
       <c r="D121" s="23"/>
@@ -9003,7 +8958,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
@@ -9037,7 +8992,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C123" s="23"/>
       <c r="D123" s="23"/>
@@ -9071,7 +9026,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C124" s="23"/>
       <c r="D124" s="23"/>
@@ -9105,7 +9060,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
@@ -9139,7 +9094,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C126" s="23"/>
       <c r="D126" s="23"/>
@@ -9173,7 +9128,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C127" s="23"/>
       <c r="D127" s="23"/>
@@ -9207,7 +9162,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C128" s="23"/>
       <c r="D128" s="23"/>
@@ -9241,7 +9196,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C129" s="23"/>
       <c r="D129" s="23"/>
@@ -9275,7 +9230,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C130" s="23"/>
       <c r="D130" s="23"/>
@@ -9309,7 +9264,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C131" s="23"/>
       <c r="D131" s="23"/>
@@ -9343,7 +9298,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C132" s="23"/>
       <c r="D132" s="23"/>
@@ -9377,7 +9332,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
@@ -9411,7 +9366,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
@@ -9445,7 +9400,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C135" s="23"/>
       <c r="D135" s="23"/>
@@ -9479,7 +9434,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C136" s="23"/>
       <c r="D136" s="23"/>
@@ -9513,7 +9468,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C137" s="23"/>
       <c r="D137" s="23"/>
@@ -9547,7 +9502,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C138" s="23"/>
       <c r="D138" s="23"/>
@@ -9581,7 +9536,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C139" s="23"/>
       <c r="D139" s="23"/>
@@ -9615,7 +9570,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C140" s="23"/>
       <c r="D140" s="23"/>
@@ -9649,7 +9604,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C141" s="23"/>
       <c r="D141" s="23"/>
@@ -9683,7 +9638,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
@@ -9717,7 +9672,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C143" s="23"/>
       <c r="D143" s="23"/>
@@ -9751,7 +9706,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C144" s="23"/>
       <c r="D144" s="23"/>
@@ -9785,7 +9740,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C145" s="23"/>
       <c r="D145" s="23"/>
@@ -9819,7 +9774,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C146" s="23"/>
       <c r="D146" s="23"/>
@@ -9853,7 +9808,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C147" s="23"/>
       <c r="D147" s="23"/>
@@ -9887,7 +9842,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C148" s="23"/>
       <c r="D148" s="23"/>
@@ -9921,7 +9876,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
@@ -9955,7 +9910,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C150" s="23"/>
       <c r="D150" s="23"/>
@@ -9989,7 +9944,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
@@ -10023,7 +9978,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
@@ -10057,7 +10012,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
@@ -10091,7 +10046,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
@@ -10125,7 +10080,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C155" s="23"/>
       <c r="D155" s="23"/>
@@ -10159,7 +10114,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
@@ -10193,7 +10148,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
@@ -10227,7 +10182,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
@@ -10261,7 +10216,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C159" s="23"/>
       <c r="D159" s="23"/>
@@ -10295,7 +10250,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C160" s="23"/>
       <c r="D160" s="23"/>
@@ -10329,7 +10284,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C161" s="23"/>
       <c r="D161" s="23"/>
@@ -10363,7 +10318,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C162" s="23"/>
       <c r="D162" s="23"/>
@@ -10397,7 +10352,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
@@ -10431,7 +10386,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C164" s="23"/>
       <c r="D164" s="23"/>
@@ -10465,7 +10420,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C165" s="23"/>
       <c r="D165" s="23"/>
@@ -10499,7 +10454,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
@@ -10533,7 +10488,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
@@ -10567,7 +10522,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
@@ -10601,7 +10556,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
@@ -10635,7 +10590,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C170" s="23"/>
       <c r="D170" s="23"/>
@@ -10669,7 +10624,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C171" s="23"/>
       <c r="D171" s="23"/>
@@ -10703,7 +10658,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C172" s="23"/>
       <c r="D172" s="23"/>
@@ -10737,7 +10692,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C173" s="23"/>
       <c r="D173" s="23"/>
@@ -10771,7 +10726,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C174" s="23"/>
       <c r="D174" s="23"/>
@@ -10805,7 +10760,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
@@ -10839,7 +10794,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
@@ -10873,7 +10828,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
@@ -10907,7 +10862,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
@@ -10941,7 +10896,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
@@ -10975,7 +10930,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
@@ -11009,7 +10964,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -11043,7 +10998,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -11077,7 +11032,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -11111,7 +11066,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -11145,7 +11100,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -11179,7 +11134,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -11213,7 +11168,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -11247,7 +11202,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -11281,7 +11236,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -11315,7 +11270,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -11349,7 +11304,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -11383,7 +11338,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -11417,7 +11372,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -11451,7 +11406,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -11485,7 +11440,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -11519,7 +11474,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -11553,7 +11508,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -11587,7 +11542,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -11621,7 +11576,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -11655,7 +11610,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -11689,7 +11644,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -11723,7 +11678,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -11757,7 +11712,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -11791,7 +11746,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -11825,7 +11780,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -11859,7 +11814,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -11893,7 +11848,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -11927,7 +11882,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -11961,7 +11916,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -11995,7 +11950,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -12029,7 +11984,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -12063,7 +12018,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -12097,7 +12052,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -12131,7 +12086,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -12165,7 +12120,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -12199,7 +12154,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -12233,7 +12188,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -12267,7 +12222,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -12301,7 +12256,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -12335,7 +12290,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -12369,7 +12324,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -12403,7 +12358,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -12437,7 +12392,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -12471,7 +12426,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -12505,7 +12460,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -12539,7 +12494,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -12573,7 +12528,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -12607,7 +12562,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -12641,7 +12596,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -12675,7 +12630,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -12709,7 +12664,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -12743,7 +12698,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -12777,7 +12732,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -12811,7 +12766,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -12845,7 +12800,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -12879,7 +12834,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -12913,7 +12868,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C237" s="23"/>
       <c r="D237" s="23"/>
@@ -12947,7 +12902,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C238" s="23"/>
       <c r="D238" s="23"/>
@@ -12981,7 +12936,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C239" s="23"/>
       <c r="D239" s="23"/>
@@ -13015,7 +12970,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C240" s="23"/>
       <c r="D240" s="23"/>
@@ -13049,7 +13004,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C241" s="23"/>
       <c r="D241" s="23"/>
@@ -13083,7 +13038,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C242" s="23"/>
       <c r="D242" s="23"/>
@@ -13117,7 +13072,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C243" s="23"/>
       <c r="D243" s="23"/>
@@ -13151,7 +13106,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C244" s="23"/>
       <c r="D244" s="23"/>
@@ -13185,7 +13140,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C245" s="23"/>
       <c r="D245" s="23"/>
@@ -13219,7 +13174,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C246" s="23"/>
       <c r="D246" s="23"/>
@@ -13253,7 +13208,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C247" s="23"/>
       <c r="D247" s="23"/>
@@ -13287,7 +13242,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C248" s="23"/>
       <c r="D248" s="23"/>
@@ -13321,7 +13276,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C249" s="23"/>
       <c r="D249" s="23"/>
@@ -13355,7 +13310,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C250" s="23"/>
       <c r="D250" s="23"/>
@@ -13389,7 +13344,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C251" s="23"/>
       <c r="D251" s="23"/>
@@ -13423,7 +13378,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C252" s="23"/>
       <c r="D252" s="23"/>
@@ -13457,7 +13412,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C253" s="23"/>
       <c r="D253" s="23"/>
@@ -13491,7 +13446,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C254" s="23"/>
       <c r="D254" s="23"/>
@@ -13525,7 +13480,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C255" s="23"/>
       <c r="D255" s="23"/>
@@ -13559,7 +13514,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C256" s="23"/>
       <c r="D256" s="23"/>
@@ -13593,7 +13548,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C257" s="23"/>
       <c r="D257" s="23"/>
@@ -13627,7 +13582,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C258" s="23"/>
       <c r="D258" s="23"/>
@@ -13661,7 +13616,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C259" s="23"/>
       <c r="D259" s="23"/>
@@ -13695,7 +13650,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C260" s="23"/>
       <c r="D260" s="23"/>
@@ -13729,7 +13684,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C261" s="23"/>
       <c r="D261" s="23"/>
@@ -13763,7 +13718,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C262" s="23"/>
       <c r="D262" s="23"/>
@@ -13797,7 +13752,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C263" s="23"/>
       <c r="D263" s="23"/>
@@ -13831,7 +13786,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C264" s="23"/>
       <c r="D264" s="23"/>
@@ -13865,7 +13820,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C265" s="23"/>
       <c r="D265" s="23"/>
@@ -13899,7 +13854,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C266" s="23"/>
       <c r="D266" s="23"/>
@@ -13933,7 +13888,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C267" s="23"/>
       <c r="D267" s="23"/>
@@ -13967,7 +13922,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C268" s="23"/>
       <c r="D268" s="23"/>
@@ -14001,7 +13956,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C269" s="23"/>
       <c r="D269" s="23"/>
@@ -14035,7 +13990,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C270" s="23"/>
       <c r="D270" s="23"/>
@@ -14069,7 +14024,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C271" s="23"/>
       <c r="D271" s="23"/>
@@ -14103,7 +14058,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C272" s="23"/>
       <c r="D272" s="23"/>
@@ -14137,7 +14092,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C273" s="23"/>
       <c r="D273" s="23"/>
@@ -14171,7 +14126,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C274" s="23"/>
       <c r="D274" s="23"/>
@@ -14205,7 +14160,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C275" s="23"/>
       <c r="D275" s="23"/>
@@ -14239,7 +14194,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C276" s="23"/>
       <c r="D276" s="23"/>
@@ -14273,7 +14228,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C277" s="23"/>
       <c r="D277" s="23"/>
@@ -14307,7 +14262,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C278" s="23"/>
       <c r="D278" s="23"/>
@@ -14341,7 +14296,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C279" s="23"/>
       <c r="D279" s="23"/>
@@ -14375,7 +14330,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C280" s="23"/>
       <c r="D280" s="23"/>
@@ -14409,7 +14364,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C281" s="23"/>
       <c r="D281" s="23"/>
@@ -14443,7 +14398,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C282" s="23"/>
       <c r="D282" s="23"/>
@@ -14477,7 +14432,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C283" s="23"/>
       <c r="D283" s="23"/>
@@ -14511,7 +14466,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C284" s="23"/>
       <c r="D284" s="23"/>
@@ -14545,7 +14500,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C285" s="23"/>
       <c r="D285" s="23"/>
@@ -14579,7 +14534,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C286" s="23"/>
       <c r="D286" s="23"/>
@@ -14613,7 +14568,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C287" s="23"/>
       <c r="D287" s="23"/>
@@ -14647,7 +14602,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C288" s="23"/>
       <c r="D288" s="23"/>
@@ -14681,7 +14636,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C289" s="23"/>
       <c r="D289" s="23"/>
@@ -14715,7 +14670,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C290" s="23"/>
       <c r="D290" s="23"/>
@@ -14749,7 +14704,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C291" s="23"/>
       <c r="D291" s="23"/>
@@ -14783,7 +14738,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C292" s="23"/>
       <c r="D292" s="23"/>
@@ -14817,7 +14772,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C293" s="23"/>
       <c r="D293" s="23"/>
@@ -14851,7 +14806,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C294" s="23"/>
       <c r="D294" s="23"/>
@@ -14885,7 +14840,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C295" s="23"/>
       <c r="D295" s="23"/>
@@ -14919,7 +14874,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C296" s="23"/>
       <c r="D296" s="23"/>
@@ -14953,7 +14908,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C297" s="23"/>
       <c r="D297" s="23"/>
@@ -14987,7 +14942,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C298" s="23"/>
       <c r="D298" s="23"/>
@@ -15021,7 +14976,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C299" s="23"/>
       <c r="D299" s="23"/>
@@ -15055,7 +15010,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C300" s="23"/>
       <c r="D300" s="23"/>
@@ -15089,7 +15044,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C301" s="23"/>
       <c r="D301" s="23"/>
@@ -15123,7 +15078,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C302" s="23"/>
       <c r="D302" s="23"/>
@@ -15157,7 +15112,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C303" s="23"/>
       <c r="D303" s="23"/>
@@ -15191,7 +15146,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C304" s="23"/>
       <c r="D304" s="23"/>
@@ -15225,7 +15180,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C305" s="23"/>
       <c r="D305" s="23"/>
@@ -15259,7 +15214,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C306" s="23"/>
       <c r="D306" s="23"/>
@@ -15293,7 +15248,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C307" s="23"/>
       <c r="D307" s="23"/>
@@ -15327,7 +15282,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C308" s="23"/>
       <c r="D308" s="23"/>
@@ -15361,7 +15316,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C309" s="23"/>
       <c r="D309" s="23"/>
@@ -15395,7 +15350,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C310" s="23"/>
       <c r="D310" s="23"/>
@@ -15429,7 +15384,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C311" s="23"/>
       <c r="D311" s="23"/>
@@ -15463,7 +15418,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C312" s="23"/>
       <c r="D312" s="23"/>
@@ -15497,7 +15452,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C313" s="23"/>
       <c r="D313" s="23"/>
@@ -15531,7 +15486,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C314" s="23"/>
       <c r="D314" s="23"/>
@@ -15565,7 +15520,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C315" s="23"/>
       <c r="D315" s="23"/>
@@ -15599,7 +15554,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C316" s="23"/>
       <c r="D316" s="23"/>
@@ -15633,7 +15588,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C317" s="23"/>
       <c r="D317" s="23"/>
@@ -15667,7 +15622,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C318" s="23"/>
       <c r="D318" s="23"/>
@@ -15701,7 +15656,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C319" s="23"/>
       <c r="D319" s="23"/>
@@ -15735,7 +15690,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C320" s="23"/>
       <c r="D320" s="23"/>
@@ -15769,7 +15724,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C321" s="23"/>
       <c r="D321" s="23"/>
@@ -15803,7 +15758,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C322" s="23"/>
       <c r="D322" s="23"/>
@@ -15837,7 +15792,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C323" s="23"/>
       <c r="D323" s="23"/>
@@ -15871,7 +15826,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C324" s="23"/>
       <c r="D324" s="23"/>
@@ -15905,7 +15860,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C325" s="23"/>
       <c r="D325" s="23"/>
@@ -15939,7 +15894,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C326" s="23"/>
       <c r="D326" s="23"/>
@@ -15973,7 +15928,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C327" s="23"/>
       <c r="D327" s="23"/>
@@ -16007,7 +15962,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C328" s="23"/>
       <c r="D328" s="23"/>
@@ -16041,7 +15996,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C329" s="23"/>
       <c r="D329" s="23"/>
@@ -16075,7 +16030,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C330" s="23"/>
       <c r="D330" s="23"/>
@@ -16109,7 +16064,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C331" s="23"/>
       <c r="D331" s="23"/>
@@ -16143,7 +16098,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C332" s="23"/>
       <c r="D332" s="23"/>
@@ -16177,7 +16132,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C333" s="23"/>
       <c r="D333" s="23"/>
@@ -16211,7 +16166,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C334" s="23"/>
       <c r="D334" s="23"/>
@@ -16245,7 +16200,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C335" s="23"/>
       <c r="D335" s="23"/>
@@ -16279,7 +16234,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C336" s="23"/>
       <c r="D336" s="23"/>
@@ -16313,7 +16268,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C337" s="23"/>
       <c r="D337" s="23"/>
@@ -16347,7 +16302,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C338" s="23"/>
       <c r="D338" s="23"/>
@@ -16381,7 +16336,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C339" s="23"/>
       <c r="D339" s="23"/>
@@ -16415,7 +16370,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C340" s="23"/>
       <c r="D340" s="23"/>
@@ -16449,7 +16404,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C341" s="23"/>
       <c r="D341" s="23"/>
@@ -16483,7 +16438,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C342" s="23"/>
       <c r="D342" s="23"/>
@@ -16517,7 +16472,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C343" s="23"/>
       <c r="D343" s="23"/>
@@ -16549,7 +16504,7 @@
     <row r="344" spans="1:13">
       <c r="A344" s="15"/>
       <c r="B344" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C344" s="19"/>
       <c r="D344" s="19"/>

--- a/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
+++ b/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="27840" windowHeight="12615" tabRatio="673"/>
+    <workbookView xWindow="480" yWindow="255" windowWidth="27840" windowHeight="12600" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="タクチケ自動精算" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'③-4-2精算番号表'!$A$1:$M$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">タクチケ自動精算!$A$1:$BB$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">タクチケ自動精算!$A$1:$BB$31</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">タクチケ自動精算!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="447">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -324,10 +324,6 @@
     <rPh sb="52" eb="54">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>交通・宿泊手配回答登録</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -374,29 +370,6 @@
     </rPh>
     <rPh sb="58" eb="59">
       <t>ナニ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タクチケ自動精算指示</t>
-    <rPh sb="4" eb="6">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タクチケ自動精算バッチ</t>
-    <rPh sb="4" eb="6">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイサン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1959,19 +1932,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タクチケ手配確認票</t>
-    <rPh sb="4" eb="6">
-      <t>テハイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>TaxiKakuninReport.vb
 Preview.vb</t>
     <phoneticPr fontId="2"/>
@@ -2042,6 +2002,557 @@
   </si>
   <si>
     <t>「【新着(日次)】交通・手配CSVボタン」を追加して、ダウンロード画面を起動する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ手配確認票
+⑤タクチケ帳票</t>
+    <rPh sb="4" eb="6">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ自動精算バッチ
+③タクチケ実績フロー</t>
+    <rPh sb="4" eb="6">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ自動精算指示
+③タクチケ実績フロー</t>
+    <rPh sb="4" eb="6">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通・宿泊手配回答登録
+②発送日の回答</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SeisanRegist.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精算金額入力
+④請求フローの変更</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Nozomiへ」ボタン押下時に、会合番号とトップツアー請求番号をKeyにして承認データを作成（または更新）する。
+更新内容は下記の通り。
+・会合番号=請求テーブルの会合番号
+・トップツアー請求番号=請求テーブルのトップツアー請求番号
+・支払番号="99999999999999"(固定)
+・承認区分="0"(承認)
+・承認日=システム日付(YYYYMMDD)
+「解除」ボタン押下時に、会合番号とトップツアー請求番号をKeyにして承認データを削除する。</t>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="207" eb="209">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WPAデータ生成
+④請求フローの変更</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SapCsv.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>抽出条件の「承認年月」→「TTT精算データ送信日」に表現を変える。
+上記改修方法により、ロジック変更の必要なし。</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ソウシンビ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WPAデータ生成(TOPTOUR用)
+④請求フローの変更</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SapCsvTop.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KaigouHiyouCsv.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>抽出条件の「承認年月」→「TTT精算データ送信日」に表現を変える。
+CSV出力項目の支払番号・承認区分・精算承認日を削除する。</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ソウシンビ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会合費用総合一覧表CSV
+④請求フローの変更</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参加者旅費一覧CSV
+④請求フローの変更</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リョヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SankashaRyohiCsv.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>抽出条件の「承認年月」→「TTT精算データ送信日」に表現を変える。
+CSV出力項目の支払番号を削除する。</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ソウシンビ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通・宿泊手配発送済自動セット
+②発送日の回答</t>
+    <rPh sb="7" eb="9">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規追加
+発送済取込対象CSVを取込み、該当する交通宿泊データの発送日とNozomi送信フラグを更新する。
+更新対象となるのは、回答ステータス=1(受付中)、3(手配済)、4(発送済)のもののみ。
+それ以外の参加者IDは、回答ステータスエラーとして、画面上とエラーログに出力する。
+・発送日=画面で入力された発送日
+・Nozomi送信フラグ=1(送信対象)</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="74" eb="77">
+      <t>ウケツケチュウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="104" eb="107">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="125" eb="128">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SetTicketSend.vb</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaxiMeisaiAuto.aspx</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2063,7 +2574,14 @@
 　・タクチケ管理票保存場所URL（フォーマットは要望書参照）
 5.1.で自動採番された精算番号のタクチケ精算金額のCSVを生成し、TBL_FILEに登録する。
 　※｢③-4-2精算番号表｣シート参照
-6.1.で自動採番された精算番号の｢総合精算書｣PDFを生成し、TBL_FILEに登録する。</t>
+6.1.で自動採番された精算番号の｢総合精算書｣PDFを生成し、TBL_FILEに登録する。
+7.タクチケ台帳出力対象会合テーブル(新規)に「自動精算対象タクチケテーブル」に
+　登録されている会合番号を登録する。
+　・会合番号=自動精算対象タクチケテーブルより
+　・開催開始日=講演会テーブルより
+　・タクチケ台帳生成済みフラグ=0(未生成)
+　・タクチケ台帳ダウンロード済フラグ=0(未ダウンロード)
+8.自動精算対象タクチケテーブルから、処理済みのデータを削除する。</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
@@ -2270,6 +2788,232 @@
     </rPh>
     <rPh sb="633" eb="635">
       <t>トウロク</t>
+    </rPh>
+    <rPh sb="645" eb="647">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="647" eb="649">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="649" eb="651">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="651" eb="653">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="658" eb="660">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="663" eb="665">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="665" eb="667">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="667" eb="669">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="681" eb="683">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="688" eb="690">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="690" eb="692">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="693" eb="695">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="701" eb="703">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="703" eb="705">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="706" eb="708">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="708" eb="710">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="710" eb="712">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="725" eb="727">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="727" eb="730">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="731" eb="734">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="747" eb="749">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="749" eb="751">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="751" eb="752">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="759" eb="760">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="760" eb="762">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="770" eb="772">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="778" eb="779">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="785" eb="786">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="796" eb="798">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="798" eb="800">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="800" eb="802">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="813" eb="815">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="815" eb="816">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="822" eb="824">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ台帳CSV一括生成バッチ</t>
+    <rPh sb="4" eb="6">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ台帳CSVダウンロード</t>
+    <rPh sb="4" eb="6">
+      <t>ダイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaxiMeisaiDL.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規追加
+タクチケ台帳出力対象会合テーブル(新規)に登録されている会合のタクチケ台帳CSVを生成し、TBL_FILEに登録する。
+設定ファイルに定義されているmax数を超える分は生成しない。
+CSV生成済の会合番号はタクチケ台帳出力対象会合テーブルから削除する。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ズミ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規追加
+タクチケ台帳CSV一括生成バッチで生成されたタクチケ台帳CSVのダウンロード指示画面
+会合の開催開始年月を抽出条件とする。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジョウケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2787,21 +3531,6 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2819,48 +3548,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2897,6 +3584,63 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3245,13 +3989,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG22"/>
+  <dimension ref="A1:BG31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="48" ySplit="6" topLeftCell="AW10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X13" sqref="X13:AV13"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -3265,246 +4009,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="56" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="53" t="s">
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53" t="s">
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53" t="s">
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53" t="s">
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="53"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="55">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="36">
         <v>42809</v>
       </c>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="53" t="s">
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="55"/>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="53"/>
-      <c r="AY2" s="53"/>
-      <c r="AZ2" s="53"/>
-      <c r="BA2" s="53"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="34"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="34"/>
+      <c r="BA4" s="34"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -3531,72 +4275,72 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="50" t="s">
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="51"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="49" t="s">
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="54"/>
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="54"/>
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="49"/>
+      <c r="AX6" s="52"/>
+      <c r="AY6" s="52"/>
+      <c r="AZ6" s="52"/>
+      <c r="BA6" s="52"/>
       <c r="BB6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="BC6" s="2"/>
       <c r="BD6" s="26" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
@@ -3607,64 +4351,64 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="46" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="47"/>
-      <c r="AI7" s="47"/>
-      <c r="AJ7" s="47"/>
-      <c r="AK7" s="47"/>
-      <c r="AL7" s="47"/>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="47"/>
-      <c r="AO7" s="47"/>
-      <c r="AP7" s="47"/>
-      <c r="AQ7" s="47"/>
-      <c r="AR7" s="47"/>
-      <c r="AS7" s="47"/>
-      <c r="AT7" s="47"/>
-      <c r="AU7" s="47"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="45">
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="50"/>
+      <c r="AS7" s="50"/>
+      <c r="AT7" s="50"/>
+      <c r="AU7" s="50"/>
+      <c r="AV7" s="51"/>
+      <c r="AW7" s="48">
         <v>42809</v>
       </c>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
+      <c r="AX7" s="47"/>
+      <c r="AY7" s="47"/>
+      <c r="AZ7" s="47"/>
+      <c r="BA7" s="47"/>
       <c r="BB7" s="12"/>
       <c r="BD7" s="27">
         <v>0.3</v>
@@ -3672,69 +4416,69 @@
     </row>
     <row r="8" spans="1:59" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A8" s="6">
-        <f t="shared" ref="A8:A21" si="0">ROW()-6</f>
+        <f t="shared" ref="A8:A30" si="0">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="36" t="s">
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="38"/>
-      <c r="AW8" s="35">
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="33"/>
+      <c r="AW8" s="30">
         <v>42809</v>
       </c>
-      <c r="AX8" s="34"/>
-      <c r="AY8" s="34"/>
-      <c r="AZ8" s="34"/>
-      <c r="BA8" s="34"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="29"/>
+      <c r="AZ8" s="29"/>
+      <c r="BA8" s="29"/>
       <c r="BB8" s="13">
         <v>1</v>
       </c>
@@ -3747,66 +4491,66 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37"/>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="35">
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="30">
         <v>42809</v>
       </c>
-      <c r="AX9" s="34"/>
-      <c r="AY9" s="34"/>
-      <c r="AZ9" s="34"/>
-      <c r="BA9" s="34"/>
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
       <c r="BB9" s="13">
         <v>1</v>
       </c>
@@ -3819,66 +4563,66 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="36" t="s">
-        <v>422</v>
-      </c>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="37"/>
-      <c r="AR10" s="37"/>
-      <c r="AS10" s="37"/>
-      <c r="AT10" s="37"/>
-      <c r="AU10" s="37"/>
-      <c r="AV10" s="38"/>
-      <c r="AW10" s="35">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="32"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="33"/>
+      <c r="AW10" s="30">
         <v>42809</v>
       </c>
-      <c r="AX10" s="34"/>
-      <c r="AY10" s="34"/>
-      <c r="AZ10" s="34"/>
-      <c r="BA10" s="34"/>
+      <c r="AX10" s="29"/>
+      <c r="AY10" s="29"/>
+      <c r="AZ10" s="29"/>
+      <c r="BA10" s="29"/>
       <c r="BB10" s="13">
         <v>0.5</v>
       </c>
@@ -3891,66 +4635,66 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="37"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="37"/>
-      <c r="AQ11" s="37"/>
-      <c r="AR11" s="37"/>
-      <c r="AS11" s="37"/>
-      <c r="AT11" s="37"/>
-      <c r="AU11" s="37"/>
-      <c r="AV11" s="38"/>
-      <c r="AW11" s="35">
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="32"/>
+      <c r="AQ11" s="32"/>
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="30">
         <v>42808</v>
       </c>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="34"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="34"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="29"/>
+      <c r="BA11" s="29"/>
       <c r="BB11" s="13">
         <v>0.5</v>
       </c>
@@ -3958,287 +4702,283 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:59" s="5" customFormat="1" ht="53.25" customHeight="1">
+    <row r="12" spans="1:59" s="5" customFormat="1" ht="85.5" customHeight="1">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="37"/>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="37"/>
-      <c r="AQ12" s="37"/>
-      <c r="AR12" s="37"/>
-      <c r="AS12" s="37"/>
-      <c r="AT12" s="37"/>
-      <c r="AU12" s="37"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="35">
-        <v>42816</v>
-      </c>
-      <c r="AX12" s="34"/>
-      <c r="AY12" s="34"/>
-      <c r="AZ12" s="34"/>
-      <c r="BA12" s="34"/>
+      <c r="B12" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="33"/>
+      <c r="AW12" s="30"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="29"/>
       <c r="BB12" s="13">
-        <v>3</v>
-      </c>
-      <c r="BD12" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:59" s="5" customFormat="1" ht="239.25" customHeight="1">
+      <c r="BD12" s="27"/>
+    </row>
+    <row r="13" spans="1:59" s="5" customFormat="1" ht="53.25" customHeight="1">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="36" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="37"/>
-      <c r="AS13" s="37"/>
-      <c r="AT13" s="37"/>
-      <c r="AU13" s="37"/>
-      <c r="AV13" s="38"/>
-      <c r="AW13" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="AX13" s="34"/>
-      <c r="AY13" s="34"/>
-      <c r="AZ13" s="34"/>
-      <c r="BA13" s="34"/>
+      <c r="B13" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="30">
+        <v>42816</v>
+      </c>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="29"/>
+      <c r="BA13" s="29"/>
       <c r="BB13" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BD13" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59" s="5" customFormat="1" ht="78.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" s="5" customFormat="1" ht="310.5" customHeight="1">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="34" t="s">
+      <c r="B14" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="33"/>
+      <c r="AW14" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="37"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="37"/>
-      <c r="AS14" s="37"/>
-      <c r="AT14" s="37"/>
-      <c r="AU14" s="37"/>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="35">
-        <v>42823</v>
-      </c>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="34"/>
-      <c r="AZ14" s="34"/>
-      <c r="BA14" s="34"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="29"/>
+      <c r="BA14" s="29"/>
       <c r="BB14" s="13">
+        <v>10</v>
+      </c>
+      <c r="BD14" s="27">
         <v>3</v>
       </c>
-      <c r="BD14" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59" s="5" customFormat="1" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:59" s="5" customFormat="1" ht="78.75" customHeight="1">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="34" t="s">
+      <c r="B15" s="56" t="s">
+        <v>399</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="31" t="s">
         <v>409</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="37"/>
-      <c r="AS15" s="37"/>
-      <c r="AT15" s="37"/>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="38"/>
-      <c r="AW15" s="35">
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="33"/>
+      <c r="AW15" s="30">
         <v>42823</v>
       </c>
-      <c r="AX15" s="34"/>
-      <c r="AY15" s="34"/>
-      <c r="AZ15" s="34"/>
-      <c r="BA15" s="34"/>
+      <c r="AX15" s="29"/>
+      <c r="AY15" s="29"/>
+      <c r="AZ15" s="29"/>
+      <c r="BA15" s="29"/>
       <c r="BB15" s="13">
         <v>3</v>
       </c>
@@ -4246,348 +4986,366 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:59" s="5" customFormat="1" ht="45.75" customHeight="1">
+    <row r="16" spans="1:59" s="5" customFormat="1" ht="60" customHeight="1">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="37"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37"/>
-      <c r="AQ16" s="37"/>
-      <c r="AR16" s="37"/>
-      <c r="AS16" s="37"/>
-      <c r="AT16" s="37"/>
-      <c r="AU16" s="37"/>
-      <c r="AV16" s="38"/>
-      <c r="AW16" s="35">
-        <v>42824</v>
-      </c>
-      <c r="AX16" s="34"/>
-      <c r="AY16" s="34"/>
-      <c r="AZ16" s="34"/>
-      <c r="BA16" s="34"/>
+      <c r="B16" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="32"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="32"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="33"/>
+      <c r="AW16" s="30">
+        <v>42823</v>
+      </c>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="29"/>
+      <c r="AZ16" s="29"/>
+      <c r="BA16" s="29"/>
       <c r="BB16" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD16" s="27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:56" s="5" customFormat="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" s="5" customFormat="1" ht="60" customHeight="1">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="36" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="37"/>
-      <c r="AN17" s="37"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="37"/>
-      <c r="AT17" s="37"/>
-      <c r="AU17" s="37"/>
-      <c r="AV17" s="38"/>
-      <c r="AW17" s="35">
-        <v>42811</v>
-      </c>
-      <c r="AX17" s="34"/>
-      <c r="AY17" s="34"/>
-      <c r="AZ17" s="34"/>
-      <c r="BA17" s="34"/>
+      <c r="B17" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="32"/>
+      <c r="AP17" s="32"/>
+      <c r="AQ17" s="32"/>
+      <c r="AR17" s="32"/>
+      <c r="AS17" s="32"/>
+      <c r="AT17" s="32"/>
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="33"/>
+      <c r="AW17" s="30"/>
+      <c r="AX17" s="29"/>
+      <c r="AY17" s="29"/>
+      <c r="AZ17" s="29"/>
+      <c r="BA17" s="29"/>
       <c r="BB17" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="BD17" s="27">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:56" s="5" customFormat="1" ht="22.5" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="BD17" s="27"/>
+    </row>
+    <row r="18" spans="1:56" s="5" customFormat="1" ht="60" customHeight="1">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="37"/>
-      <c r="AS18" s="37"/>
-      <c r="AT18" s="37"/>
-      <c r="AU18" s="37"/>
-      <c r="AV18" s="38"/>
-      <c r="AW18" s="35">
-        <v>42824</v>
-      </c>
-      <c r="AX18" s="34"/>
-      <c r="AY18" s="34"/>
-      <c r="AZ18" s="34"/>
-      <c r="BA18" s="34"/>
+      <c r="B18" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AT18" s="32"/>
+      <c r="AU18" s="32"/>
+      <c r="AV18" s="33"/>
+      <c r="AW18" s="30"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="29"/>
       <c r="BB18" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="BD18" s="27">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:56" s="5" customFormat="1">
+        <v>3</v>
+      </c>
+      <c r="BD18" s="27"/>
+    </row>
+    <row r="19" spans="1:56" s="5" customFormat="1" ht="45.75" customHeight="1">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="37"/>
-      <c r="AM19" s="37"/>
-      <c r="AN19" s="37"/>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="37"/>
-      <c r="AQ19" s="37"/>
-      <c r="AR19" s="37"/>
-      <c r="AS19" s="37"/>
-      <c r="AT19" s="37"/>
-      <c r="AU19" s="37"/>
-      <c r="AV19" s="38"/>
-      <c r="AW19" s="35"/>
-      <c r="AX19" s="34"/>
-      <c r="AY19" s="34"/>
-      <c r="AZ19" s="34"/>
-      <c r="BA19" s="34"/>
-      <c r="BB19" s="13"/>
-      <c r="BD19" s="27"/>
+      <c r="B19" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="32"/>
+      <c r="AO19" s="32"/>
+      <c r="AP19" s="32"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="32"/>
+      <c r="AS19" s="32"/>
+      <c r="AT19" s="32"/>
+      <c r="AU19" s="32"/>
+      <c r="AV19" s="33"/>
+      <c r="AW19" s="30">
+        <v>42824</v>
+      </c>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="29"/>
+      <c r="BB19" s="13">
+        <v>2</v>
+      </c>
+      <c r="BD19" s="27">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20" spans="1:56" s="5" customFormat="1">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="37"/>
-      <c r="AS20" s="37"/>
-      <c r="AT20" s="37"/>
-      <c r="AU20" s="37"/>
-      <c r="AV20" s="38"/>
-      <c r="AW20" s="35"/>
-      <c r="AX20" s="34"/>
-      <c r="AY20" s="34"/>
-      <c r="AZ20" s="34"/>
-      <c r="BA20" s="34"/>
-      <c r="BB20" s="13"/>
-      <c r="BD20" s="27"/>
-    </row>
-    <row r="21" spans="1:56" s="5" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A21" s="7">
+      <c r="B20" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="32"/>
+      <c r="AU20" s="32"/>
+      <c r="AV20" s="33"/>
+      <c r="AW20" s="30">
+        <v>42811</v>
+      </c>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+      <c r="BB20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="BD20" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" s="5" customFormat="1" ht="130.5" customHeight="1">
+      <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="28" t="s">
+        <v>424</v>
+      </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -4596,7 +5354,9 @@
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
+      <c r="K21" s="29" t="s">
+        <v>423</v>
+      </c>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
@@ -4609,67 +5369,731 @@
       <c r="U21" s="29"/>
       <c r="V21" s="29"/>
       <c r="W21" s="29"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="31"/>
-      <c r="AP21" s="31"/>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="31"/>
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="32"/>
-      <c r="AW21" s="29"/>
+      <c r="X21" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="32"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="32"/>
+      <c r="AU21" s="32"/>
+      <c r="AV21" s="33"/>
+      <c r="AW21" s="30"/>
       <c r="AX21" s="29"/>
       <c r="AY21" s="29"/>
       <c r="AZ21" s="29"/>
       <c r="BA21" s="29"/>
-      <c r="BB21" s="14"/>
+      <c r="BB21" s="13">
+        <v>2</v>
+      </c>
       <c r="BD21" s="27"/>
     </row>
-    <row r="22" spans="1:56">
-      <c r="BB22" s="9">
-        <f>SUM(BB7:BB21)</f>
-        <v>25</v>
-      </c>
-      <c r="BD22" s="9">
-        <f>SUM(BD7:BD21)</f>
+    <row r="22" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A22" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="32"/>
+      <c r="AO22" s="32"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="32"/>
+      <c r="AR22" s="32"/>
+      <c r="AS22" s="32"/>
+      <c r="AT22" s="32"/>
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="33"/>
+      <c r="AW22" s="30"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="29"/>
+      <c r="AZ22" s="29"/>
+      <c r="BA22" s="29"/>
+      <c r="BB22" s="13">
+        <v>1</v>
+      </c>
+      <c r="BD22" s="27"/>
+    </row>
+    <row r="23" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A23" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="32"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="32"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="32"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="33"/>
+      <c r="AW23" s="30"/>
+      <c r="AX23" s="29"/>
+      <c r="AY23" s="29"/>
+      <c r="AZ23" s="29"/>
+      <c r="BA23" s="29"/>
+      <c r="BB23" s="13">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="27"/>
+    </row>
+    <row r="24" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A24" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="32"/>
+      <c r="AL24" s="32"/>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="32"/>
+      <c r="AO24" s="32"/>
+      <c r="AP24" s="32"/>
+      <c r="AQ24" s="32"/>
+      <c r="AR24" s="32"/>
+      <c r="AS24" s="32"/>
+      <c r="AT24" s="32"/>
+      <c r="AU24" s="32"/>
+      <c r="AV24" s="33"/>
+      <c r="AW24" s="30"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="29"/>
+      <c r="AZ24" s="29"/>
+      <c r="BA24" s="29"/>
+      <c r="BB24" s="13">
+        <v>1</v>
+      </c>
+      <c r="BD24" s="27"/>
+    </row>
+    <row r="25" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A25" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="32"/>
+      <c r="AP25" s="32"/>
+      <c r="AQ25" s="32"/>
+      <c r="AR25" s="32"/>
+      <c r="AS25" s="32"/>
+      <c r="AT25" s="32"/>
+      <c r="AU25" s="32"/>
+      <c r="AV25" s="33"/>
+      <c r="AW25" s="30"/>
+      <c r="AX25" s="29"/>
+      <c r="AY25" s="29"/>
+      <c r="AZ25" s="29"/>
+      <c r="BA25" s="29"/>
+      <c r="BB25" s="13">
+        <v>1</v>
+      </c>
+      <c r="BD25" s="27"/>
+    </row>
+    <row r="26" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="A26" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
+      <c r="AO26" s="32"/>
+      <c r="AP26" s="32"/>
+      <c r="AQ26" s="32"/>
+      <c r="AR26" s="32"/>
+      <c r="AS26" s="32"/>
+      <c r="AT26" s="32"/>
+      <c r="AU26" s="32"/>
+      <c r="AV26" s="33"/>
+      <c r="AW26" s="30"/>
+      <c r="AX26" s="29"/>
+      <c r="AY26" s="29"/>
+      <c r="AZ26" s="29"/>
+      <c r="BA26" s="29"/>
+      <c r="BB26" s="13">
+        <v>1</v>
+      </c>
+      <c r="BD26" s="27"/>
+    </row>
+    <row r="27" spans="1:56" s="5" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A27" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="32"/>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="33"/>
+      <c r="AW27" s="30">
+        <v>42824</v>
+      </c>
+      <c r="AX27" s="29"/>
+      <c r="AY27" s="29"/>
+      <c r="AZ27" s="29"/>
+      <c r="BA27" s="29"/>
+      <c r="BB27" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="BD27" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:56" s="5" customFormat="1">
+      <c r="A28" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="32"/>
+      <c r="AQ28" s="32"/>
+      <c r="AR28" s="32"/>
+      <c r="AS28" s="32"/>
+      <c r="AT28" s="32"/>
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="33"/>
+      <c r="AW28" s="30"/>
+      <c r="AX28" s="29"/>
+      <c r="AY28" s="29"/>
+      <c r="AZ28" s="29"/>
+      <c r="BA28" s="29"/>
+      <c r="BB28" s="13"/>
+      <c r="BD28" s="27"/>
+    </row>
+    <row r="29" spans="1:56" s="5" customFormat="1">
+      <c r="A29" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="32"/>
+      <c r="AO29" s="32"/>
+      <c r="AP29" s="32"/>
+      <c r="AQ29" s="32"/>
+      <c r="AR29" s="32"/>
+      <c r="AS29" s="32"/>
+      <c r="AT29" s="32"/>
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="33"/>
+      <c r="AW29" s="30"/>
+      <c r="AX29" s="29"/>
+      <c r="AY29" s="29"/>
+      <c r="AZ29" s="29"/>
+      <c r="BA29" s="29"/>
+      <c r="BB29" s="13"/>
+      <c r="BD29" s="27"/>
+    </row>
+    <row r="30" spans="1:56" s="5" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A30" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="63"/>
+      <c r="AA30" s="63"/>
+      <c r="AB30" s="63"/>
+      <c r="AC30" s="63"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="63"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="63"/>
+      <c r="AN30" s="63"/>
+      <c r="AO30" s="63"/>
+      <c r="AP30" s="63"/>
+      <c r="AQ30" s="63"/>
+      <c r="AR30" s="63"/>
+      <c r="AS30" s="63"/>
+      <c r="AT30" s="63"/>
+      <c r="AU30" s="63"/>
+      <c r="AV30" s="64"/>
+      <c r="AW30" s="61"/>
+      <c r="AX30" s="61"/>
+      <c r="AY30" s="61"/>
+      <c r="AZ30" s="61"/>
+      <c r="BA30" s="61"/>
+      <c r="BB30" s="14"/>
+      <c r="BD30" s="27"/>
+    </row>
+    <row r="31" spans="1:56">
+      <c r="BB31" s="9">
+        <f>SUM(BB7:BB30)</f>
+        <v>41</v>
+      </c>
+      <c r="BD31" s="9">
+        <f>SUM(BD7:BD30)</f>
         <v>8.1999999999999993</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="X9:AV9"/>
+  <mergeCells count="113">
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AV18"/>
     <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="X18:AV18"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AV12"/>
+    <mergeCell ref="AW12:BA12"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="K17:W17"/>
+    <mergeCell ref="X17:AV17"/>
     <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="X17:AV17"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="X12:AV12"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="X25:AV25"/>
+    <mergeCell ref="AW25:BA25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:W26"/>
+    <mergeCell ref="X26:AV26"/>
+    <mergeCell ref="AW26:BA26"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="K24:W24"/>
+    <mergeCell ref="X24:AV24"/>
+    <mergeCell ref="AW24:BA24"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="X23:AV23"/>
+    <mergeCell ref="AW23:BA23"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="X21:AV21"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="X22:AV22"/>
+    <mergeCell ref="AW22:BA22"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="K30:W30"/>
+    <mergeCell ref="AW30:BA30"/>
+    <mergeCell ref="X30:AV30"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="X8:AV8"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="AW16:BA16"/>
+    <mergeCell ref="X16:AV16"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="X10:AV10"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:W29"/>
+    <mergeCell ref="AW29:BA29"/>
+    <mergeCell ref="X29:AV29"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="X11:AV11"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:W28"/>
+    <mergeCell ref="AW28:BA28"/>
+    <mergeCell ref="X28:AV28"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="X19:AV19"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:W15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="X15:AV15"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:W14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="X14:AV14"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="X7:AV7"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="X6:AV6"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="A2:I4"/>
     <mergeCell ref="J2:O4"/>
@@ -4683,54 +6107,22 @@
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="X7:AV7"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="X6:AV6"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:W14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="X14:AV14"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="X9:AV9"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="AW27:BA27"/>
+    <mergeCell ref="X27:AV27"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="X20:AV20"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="K13:W13"/>
     <mergeCell ref="AW13:BA13"/>
     <mergeCell ref="X13:AV13"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="AW20:BA20"/>
-    <mergeCell ref="X20:AV20"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="X11:AV11"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="AW19:BA19"/>
-    <mergeCell ref="X19:AV19"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="X16:AV16"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="X21:AV21"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="X8:AV8"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:W15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="X15:AV15"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="X10:AV10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
@@ -4790,43 +6182,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="I1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4834,10 +6226,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="19">
         <v>2016</v>
@@ -4846,7 +6238,7 @@
         <v>42673</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="21">
         <v>9000</v>
@@ -4876,10 +6268,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="19">
         <v>2016</v>
@@ -4888,7 +6280,7 @@
         <v>42714</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3" s="17">
         <v>45400</v>
@@ -4918,19 +6310,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G4" s="17">
         <v>27050</v>
@@ -4960,10 +6352,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -4996,10 +6388,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -5032,10 +6424,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -5068,10 +6460,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -5104,10 +6496,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -5140,10 +6532,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -5176,10 +6568,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -5212,10 +6604,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -5248,10 +6640,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -5284,10 +6676,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -5320,7 +6712,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -5354,7 +6746,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -5388,7 +6780,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -5422,7 +6814,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -5456,7 +6848,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -5490,7 +6882,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -5524,7 +6916,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -5558,7 +6950,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -5592,7 +6984,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -5626,7 +7018,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -5660,7 +7052,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -5694,7 +7086,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -5728,7 +7120,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -5762,7 +7154,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -5796,7 +7188,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -5830,7 +7222,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -5864,7 +7256,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -5898,7 +7290,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -5932,7 +7324,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
@@ -5966,7 +7358,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -6000,7 +7392,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -6034,7 +7426,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -6068,7 +7460,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
@@ -6102,7 +7494,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
@@ -6136,7 +7528,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
@@ -6170,7 +7562,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
@@ -6204,7 +7596,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
@@ -6238,7 +7630,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
@@ -6272,7 +7664,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -6306,7 +7698,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
@@ -6340,7 +7732,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
@@ -6374,7 +7766,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
@@ -6408,7 +7800,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
@@ -6442,7 +7834,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
@@ -6476,7 +7868,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
@@ -6510,7 +7902,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
@@ -6544,7 +7936,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -6578,7 +7970,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
@@ -6612,7 +8004,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
@@ -6646,7 +8038,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
@@ -6680,7 +8072,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -6714,7 +8106,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
@@ -6748,7 +8140,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -6782,7 +8174,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
@@ -6816,7 +8208,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
@@ -6850,7 +8242,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="23"/>
@@ -6884,7 +8276,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
@@ -6918,7 +8310,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
@@ -6952,7 +8344,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
@@ -6986,7 +8378,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
@@ -7020,7 +8412,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
@@ -7054,7 +8446,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
@@ -7088,7 +8480,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="23"/>
@@ -7122,7 +8514,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
@@ -7156,7 +8548,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
@@ -7190,7 +8582,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C70" s="23"/>
       <c r="D70" s="23"/>
@@ -7224,7 +8616,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="23"/>
@@ -7258,7 +8650,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
@@ -7292,7 +8684,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="23"/>
@@ -7326,7 +8718,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
@@ -7360,7 +8752,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
@@ -7394,7 +8786,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
@@ -7428,7 +8820,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -7462,7 +8854,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
@@ -7496,7 +8888,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="23"/>
@@ -7530,7 +8922,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="23"/>
@@ -7564,7 +8956,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
@@ -7598,7 +8990,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="23"/>
@@ -7632,7 +9024,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="23"/>
@@ -7666,7 +9058,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C84" s="23"/>
       <c r="D84" s="23"/>
@@ -7700,7 +9092,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C85" s="23"/>
       <c r="D85" s="23"/>
@@ -7734,7 +9126,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C86" s="23"/>
       <c r="D86" s="23"/>
@@ -7768,7 +9160,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C87" s="23"/>
       <c r="D87" s="23"/>
@@ -7802,7 +9194,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C88" s="23"/>
       <c r="D88" s="23"/>
@@ -7836,7 +9228,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C89" s="23"/>
       <c r="D89" s="23"/>
@@ -7870,7 +9262,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
@@ -7904,7 +9296,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C91" s="23"/>
       <c r="D91" s="23"/>
@@ -7938,7 +9330,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C92" s="23"/>
       <c r="D92" s="23"/>
@@ -7972,7 +9364,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C93" s="23"/>
       <c r="D93" s="23"/>
@@ -8006,7 +9398,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C94" s="23"/>
       <c r="D94" s="23"/>
@@ -8040,7 +9432,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C95" s="23"/>
       <c r="D95" s="23"/>
@@ -8074,7 +9466,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C96" s="23"/>
       <c r="D96" s="23"/>
@@ -8108,7 +9500,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C97" s="23"/>
       <c r="D97" s="23"/>
@@ -8142,7 +9534,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C98" s="23"/>
       <c r="D98" s="23"/>
@@ -8176,7 +9568,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C99" s="23"/>
       <c r="D99" s="23"/>
@@ -8210,7 +9602,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
@@ -8244,7 +9636,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
@@ -8278,7 +9670,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
@@ -8312,7 +9704,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
@@ -8346,7 +9738,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
@@ -8380,7 +9772,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
@@ -8414,7 +9806,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
@@ -8448,7 +9840,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
@@ -8482,7 +9874,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C108" s="23"/>
       <c r="D108" s="23"/>
@@ -8516,7 +9908,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
@@ -8550,7 +9942,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C110" s="23"/>
       <c r="D110" s="23"/>
@@ -8584,7 +9976,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C111" s="23"/>
       <c r="D111" s="23"/>
@@ -8618,7 +10010,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C112" s="23"/>
       <c r="D112" s="23"/>
@@ -8652,7 +10044,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
@@ -8686,7 +10078,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
@@ -8720,7 +10112,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C115" s="23"/>
       <c r="D115" s="23"/>
@@ -8754,7 +10146,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C116" s="23"/>
       <c r="D116" s="23"/>
@@ -8788,7 +10180,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C117" s="23"/>
       <c r="D117" s="23"/>
@@ -8822,7 +10214,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C118" s="23"/>
       <c r="D118" s="23"/>
@@ -8856,7 +10248,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C119" s="23"/>
       <c r="D119" s="23"/>
@@ -8890,7 +10282,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C120" s="23"/>
       <c r="D120" s="23"/>
@@ -8924,7 +10316,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C121" s="23"/>
       <c r="D121" s="23"/>
@@ -8958,7 +10350,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
@@ -8992,7 +10384,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C123" s="23"/>
       <c r="D123" s="23"/>
@@ -9026,7 +10418,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C124" s="23"/>
       <c r="D124" s="23"/>
@@ -9060,7 +10452,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
@@ -9094,7 +10486,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C126" s="23"/>
       <c r="D126" s="23"/>
@@ -9128,7 +10520,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C127" s="23"/>
       <c r="D127" s="23"/>
@@ -9162,7 +10554,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C128" s="23"/>
       <c r="D128" s="23"/>
@@ -9196,7 +10588,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C129" s="23"/>
       <c r="D129" s="23"/>
@@ -9230,7 +10622,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C130" s="23"/>
       <c r="D130" s="23"/>
@@ -9264,7 +10656,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C131" s="23"/>
       <c r="D131" s="23"/>
@@ -9298,7 +10690,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C132" s="23"/>
       <c r="D132" s="23"/>
@@ -9332,7 +10724,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
@@ -9366,7 +10758,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
@@ -9400,7 +10792,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C135" s="23"/>
       <c r="D135" s="23"/>
@@ -9434,7 +10826,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C136" s="23"/>
       <c r="D136" s="23"/>
@@ -9468,7 +10860,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C137" s="23"/>
       <c r="D137" s="23"/>
@@ -9502,7 +10894,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C138" s="23"/>
       <c r="D138" s="23"/>
@@ -9536,7 +10928,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C139" s="23"/>
       <c r="D139" s="23"/>
@@ -9570,7 +10962,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C140" s="23"/>
       <c r="D140" s="23"/>
@@ -9604,7 +10996,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C141" s="23"/>
       <c r="D141" s="23"/>
@@ -9638,7 +11030,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
@@ -9672,7 +11064,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C143" s="23"/>
       <c r="D143" s="23"/>
@@ -9706,7 +11098,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C144" s="23"/>
       <c r="D144" s="23"/>
@@ -9740,7 +11132,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C145" s="23"/>
       <c r="D145" s="23"/>
@@ -9774,7 +11166,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C146" s="23"/>
       <c r="D146" s="23"/>
@@ -9808,7 +11200,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C147" s="23"/>
       <c r="D147" s="23"/>
@@ -9842,7 +11234,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C148" s="23"/>
       <c r="D148" s="23"/>
@@ -9876,7 +11268,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
@@ -9910,7 +11302,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C150" s="23"/>
       <c r="D150" s="23"/>
@@ -9944,7 +11336,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
@@ -9978,7 +11370,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
@@ -10012,7 +11404,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
@@ -10046,7 +11438,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
@@ -10080,7 +11472,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C155" s="23"/>
       <c r="D155" s="23"/>
@@ -10114,7 +11506,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
@@ -10148,7 +11540,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
@@ -10182,7 +11574,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
@@ -10216,7 +11608,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C159" s="23"/>
       <c r="D159" s="23"/>
@@ -10250,7 +11642,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C160" s="23"/>
       <c r="D160" s="23"/>
@@ -10284,7 +11676,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C161" s="23"/>
       <c r="D161" s="23"/>
@@ -10318,7 +11710,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C162" s="23"/>
       <c r="D162" s="23"/>
@@ -10352,7 +11744,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
@@ -10386,7 +11778,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C164" s="23"/>
       <c r="D164" s="23"/>
@@ -10420,7 +11812,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C165" s="23"/>
       <c r="D165" s="23"/>
@@ -10454,7 +11846,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
@@ -10488,7 +11880,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
@@ -10522,7 +11914,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
@@ -10556,7 +11948,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
@@ -10590,7 +11982,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C170" s="23"/>
       <c r="D170" s="23"/>
@@ -10624,7 +12016,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C171" s="23"/>
       <c r="D171" s="23"/>
@@ -10658,7 +12050,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C172" s="23"/>
       <c r="D172" s="23"/>
@@ -10692,7 +12084,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C173" s="23"/>
       <c r="D173" s="23"/>
@@ -10726,7 +12118,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C174" s="23"/>
       <c r="D174" s="23"/>
@@ -10760,7 +12152,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
@@ -10794,7 +12186,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
@@ -10828,7 +12220,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
@@ -10862,7 +12254,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
@@ -10896,7 +12288,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
@@ -10930,7 +12322,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
@@ -10964,7 +12356,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -10998,7 +12390,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -11032,7 +12424,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -11066,7 +12458,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -11100,7 +12492,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -11134,7 +12526,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -11168,7 +12560,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -11202,7 +12594,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -11236,7 +12628,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -11270,7 +12662,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -11304,7 +12696,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -11338,7 +12730,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -11372,7 +12764,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -11406,7 +12798,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -11440,7 +12832,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -11474,7 +12866,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -11508,7 +12900,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -11542,7 +12934,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -11576,7 +12968,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -11610,7 +13002,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -11644,7 +13036,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -11678,7 +13070,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -11712,7 +13104,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -11746,7 +13138,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -11780,7 +13172,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -11814,7 +13206,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -11848,7 +13240,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -11882,7 +13274,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -11916,7 +13308,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -11950,7 +13342,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -11984,7 +13376,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -12018,7 +13410,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -12052,7 +13444,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -12086,7 +13478,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -12120,7 +13512,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -12154,7 +13546,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -12188,7 +13580,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -12222,7 +13614,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -12256,7 +13648,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -12290,7 +13682,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -12324,7 +13716,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -12358,7 +13750,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -12392,7 +13784,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -12426,7 +13818,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -12460,7 +13852,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -12494,7 +13886,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -12528,7 +13920,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -12562,7 +13954,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -12596,7 +13988,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -12630,7 +14022,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -12664,7 +14056,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -12698,7 +14090,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -12732,7 +14124,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -12766,7 +14158,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -12800,7 +14192,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -12834,7 +14226,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -12868,7 +14260,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C237" s="23"/>
       <c r="D237" s="23"/>
@@ -12902,7 +14294,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C238" s="23"/>
       <c r="D238" s="23"/>
@@ -12936,7 +14328,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="19" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C239" s="23"/>
       <c r="D239" s="23"/>
@@ -12970,7 +14362,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C240" s="23"/>
       <c r="D240" s="23"/>
@@ -13004,7 +14396,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C241" s="23"/>
       <c r="D241" s="23"/>
@@ -13038,7 +14430,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C242" s="23"/>
       <c r="D242" s="23"/>
@@ -13072,7 +14464,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C243" s="23"/>
       <c r="D243" s="23"/>
@@ -13106,7 +14498,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C244" s="23"/>
       <c r="D244" s="23"/>
@@ -13140,7 +14532,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C245" s="23"/>
       <c r="D245" s="23"/>
@@ -13174,7 +14566,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C246" s="23"/>
       <c r="D246" s="23"/>
@@ -13208,7 +14600,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C247" s="23"/>
       <c r="D247" s="23"/>
@@ -13242,7 +14634,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C248" s="23"/>
       <c r="D248" s="23"/>
@@ -13276,7 +14668,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C249" s="23"/>
       <c r="D249" s="23"/>
@@ -13310,7 +14702,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C250" s="23"/>
       <c r="D250" s="23"/>
@@ -13344,7 +14736,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C251" s="23"/>
       <c r="D251" s="23"/>
@@ -13378,7 +14770,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C252" s="23"/>
       <c r="D252" s="23"/>
@@ -13412,7 +14804,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C253" s="23"/>
       <c r="D253" s="23"/>
@@ -13446,7 +14838,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="19" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C254" s="23"/>
       <c r="D254" s="23"/>
@@ -13480,7 +14872,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C255" s="23"/>
       <c r="D255" s="23"/>
@@ -13514,7 +14906,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C256" s="23"/>
       <c r="D256" s="23"/>
@@ -13548,7 +14940,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="19" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C257" s="23"/>
       <c r="D257" s="23"/>
@@ -13582,7 +14974,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C258" s="23"/>
       <c r="D258" s="23"/>
@@ -13616,7 +15008,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C259" s="23"/>
       <c r="D259" s="23"/>
@@ -13650,7 +15042,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C260" s="23"/>
       <c r="D260" s="23"/>
@@ -13684,7 +15076,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C261" s="23"/>
       <c r="D261" s="23"/>
@@ -13718,7 +15110,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C262" s="23"/>
       <c r="D262" s="23"/>
@@ -13752,7 +15144,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C263" s="23"/>
       <c r="D263" s="23"/>
@@ -13786,7 +15178,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C264" s="23"/>
       <c r="D264" s="23"/>
@@ -13820,7 +15212,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C265" s="23"/>
       <c r="D265" s="23"/>
@@ -13854,7 +15246,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C266" s="23"/>
       <c r="D266" s="23"/>
@@ -13888,7 +15280,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="19" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C267" s="23"/>
       <c r="D267" s="23"/>
@@ -13922,7 +15314,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C268" s="23"/>
       <c r="D268" s="23"/>
@@ -13956,7 +15348,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="19" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C269" s="23"/>
       <c r="D269" s="23"/>
@@ -13990,7 +15382,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="19" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C270" s="23"/>
       <c r="D270" s="23"/>
@@ -14024,7 +15416,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C271" s="23"/>
       <c r="D271" s="23"/>
@@ -14058,7 +15450,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C272" s="23"/>
       <c r="D272" s="23"/>
@@ -14092,7 +15484,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="19" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C273" s="23"/>
       <c r="D273" s="23"/>
@@ -14126,7 +15518,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C274" s="23"/>
       <c r="D274" s="23"/>
@@ -14160,7 +15552,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="19" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C275" s="23"/>
       <c r="D275" s="23"/>
@@ -14194,7 +15586,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="19" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C276" s="23"/>
       <c r="D276" s="23"/>
@@ -14228,7 +15620,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="19" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C277" s="23"/>
       <c r="D277" s="23"/>
@@ -14262,7 +15654,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="19" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C278" s="23"/>
       <c r="D278" s="23"/>
@@ -14296,7 +15688,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C279" s="23"/>
       <c r="D279" s="23"/>
@@ -14330,7 +15722,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="19" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C280" s="23"/>
       <c r="D280" s="23"/>
@@ -14364,7 +15756,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C281" s="23"/>
       <c r="D281" s="23"/>
@@ -14398,7 +15790,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="19" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C282" s="23"/>
       <c r="D282" s="23"/>
@@ -14432,7 +15824,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C283" s="23"/>
       <c r="D283" s="23"/>
@@ -14466,7 +15858,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C284" s="23"/>
       <c r="D284" s="23"/>
@@ -14500,7 +15892,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C285" s="23"/>
       <c r="D285" s="23"/>
@@ -14534,7 +15926,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C286" s="23"/>
       <c r="D286" s="23"/>
@@ -14568,7 +15960,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C287" s="23"/>
       <c r="D287" s="23"/>
@@ -14602,7 +15994,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C288" s="23"/>
       <c r="D288" s="23"/>
@@ -14636,7 +16028,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C289" s="23"/>
       <c r="D289" s="23"/>
@@ -14670,7 +16062,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C290" s="23"/>
       <c r="D290" s="23"/>
@@ -14704,7 +16096,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C291" s="23"/>
       <c r="D291" s="23"/>
@@ -14738,7 +16130,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="19" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C292" s="23"/>
       <c r="D292" s="23"/>
@@ -14772,7 +16164,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C293" s="23"/>
       <c r="D293" s="23"/>
@@ -14806,7 +16198,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C294" s="23"/>
       <c r="D294" s="23"/>
@@ -14840,7 +16232,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="19" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C295" s="23"/>
       <c r="D295" s="23"/>
@@ -14874,7 +16266,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C296" s="23"/>
       <c r="D296" s="23"/>
@@ -14908,7 +16300,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C297" s="23"/>
       <c r="D297" s="23"/>
@@ -14942,7 +16334,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="19" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C298" s="23"/>
       <c r="D298" s="23"/>
@@ -14976,7 +16368,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C299" s="23"/>
       <c r="D299" s="23"/>
@@ -15010,7 +16402,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="19" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C300" s="23"/>
       <c r="D300" s="23"/>
@@ -15044,7 +16436,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C301" s="23"/>
       <c r="D301" s="23"/>
@@ -15078,7 +16470,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="19" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C302" s="23"/>
       <c r="D302" s="23"/>
@@ -15112,7 +16504,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="19" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C303" s="23"/>
       <c r="D303" s="23"/>
@@ -15146,7 +16538,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="19" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C304" s="23"/>
       <c r="D304" s="23"/>
@@ -15180,7 +16572,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C305" s="23"/>
       <c r="D305" s="23"/>
@@ -15214,7 +16606,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C306" s="23"/>
       <c r="D306" s="23"/>
@@ -15248,7 +16640,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C307" s="23"/>
       <c r="D307" s="23"/>
@@ -15282,7 +16674,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C308" s="23"/>
       <c r="D308" s="23"/>
@@ -15316,7 +16708,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C309" s="23"/>
       <c r="D309" s="23"/>
@@ -15350,7 +16742,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="19" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C310" s="23"/>
       <c r="D310" s="23"/>
@@ -15384,7 +16776,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C311" s="23"/>
       <c r="D311" s="23"/>
@@ -15418,7 +16810,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C312" s="23"/>
       <c r="D312" s="23"/>
@@ -15452,7 +16844,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="19" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C313" s="23"/>
       <c r="D313" s="23"/>
@@ -15486,7 +16878,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="19" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C314" s="23"/>
       <c r="D314" s="23"/>
@@ -15520,7 +16912,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C315" s="23"/>
       <c r="D315" s="23"/>
@@ -15554,7 +16946,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="19" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C316" s="23"/>
       <c r="D316" s="23"/>
@@ -15588,7 +16980,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C317" s="23"/>
       <c r="D317" s="23"/>
@@ -15622,7 +17014,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="19" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C318" s="23"/>
       <c r="D318" s="23"/>
@@ -15656,7 +17048,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="19" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C319" s="23"/>
       <c r="D319" s="23"/>
@@ -15690,7 +17082,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C320" s="23"/>
       <c r="D320" s="23"/>
@@ -15724,7 +17116,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C321" s="23"/>
       <c r="D321" s="23"/>
@@ -15758,7 +17150,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="19" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C322" s="23"/>
       <c r="D322" s="23"/>
@@ -15792,7 +17184,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="19" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C323" s="23"/>
       <c r="D323" s="23"/>
@@ -15826,7 +17218,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="19" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C324" s="23"/>
       <c r="D324" s="23"/>
@@ -15860,7 +17252,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="19" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C325" s="23"/>
       <c r="D325" s="23"/>
@@ -15894,7 +17286,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C326" s="23"/>
       <c r="D326" s="23"/>
@@ -15928,7 +17320,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="19" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C327" s="23"/>
       <c r="D327" s="23"/>
@@ -15962,7 +17354,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="19" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C328" s="23"/>
       <c r="D328" s="23"/>
@@ -15996,7 +17388,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C329" s="23"/>
       <c r="D329" s="23"/>
@@ -16030,7 +17422,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="19" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C330" s="23"/>
       <c r="D330" s="23"/>
@@ -16064,7 +17456,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C331" s="23"/>
       <c r="D331" s="23"/>
@@ -16098,7 +17490,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C332" s="23"/>
       <c r="D332" s="23"/>
@@ -16132,7 +17524,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="19" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C333" s="23"/>
       <c r="D333" s="23"/>
@@ -16166,7 +17558,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C334" s="23"/>
       <c r="D334" s="23"/>
@@ -16200,7 +17592,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="19" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C335" s="23"/>
       <c r="D335" s="23"/>
@@ -16234,7 +17626,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="19" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C336" s="23"/>
       <c r="D336" s="23"/>
@@ -16268,7 +17660,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="19" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C337" s="23"/>
       <c r="D337" s="23"/>
@@ -16302,7 +17694,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="19" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C338" s="23"/>
       <c r="D338" s="23"/>
@@ -16336,7 +17728,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="19" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C339" s="23"/>
       <c r="D339" s="23"/>
@@ -16370,7 +17762,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="19" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C340" s="23"/>
       <c r="D340" s="23"/>
@@ -16404,7 +17796,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C341" s="23"/>
       <c r="D341" s="23"/>
@@ -16438,7 +17830,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C342" s="23"/>
       <c r="D342" s="23"/>
@@ -16472,7 +17864,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="19" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C343" s="23"/>
       <c r="D343" s="23"/>
@@ -16504,7 +17896,7 @@
     <row r="344" spans="1:13">
       <c r="A344" s="15"/>
       <c r="B344" s="19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C344" s="19"/>
       <c r="D344" s="19"/>

--- a/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
+++ b/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
@@ -3635,9 +3635,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3645,6 +3642,36 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3712,33 +3739,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4090,10 +4090,10 @@
   <dimension ref="A1:BG31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="48" ySplit="6" topLeftCell="AW19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BB14" sqref="BB14"/>
+      <selection pane="bottomRight" activeCell="BB21" sqref="BB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -4107,246 +4107,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47" t="s">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="50" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="47" t="s">
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47" t="s">
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47" t="s">
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47" t="s">
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="49">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="58">
         <v>42809</v>
       </c>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="47" t="s">
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="49"/>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="58"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="47"/>
-      <c r="BA4" s="47"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -4373,66 +4373,66 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="44" t="s">
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="45"/>
-      <c r="AK6" s="45"/>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="45"/>
-      <c r="AN6" s="45"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="45"/>
-      <c r="AQ6" s="45"/>
-      <c r="AR6" s="45"/>
-      <c r="AS6" s="45"/>
-      <c r="AT6" s="45"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="43" t="s">
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="54"/>
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="54"/>
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="43"/>
-      <c r="AY6" s="43"/>
-      <c r="AZ6" s="43"/>
-      <c r="BA6" s="43"/>
+      <c r="AX6" s="52"/>
+      <c r="AY6" s="52"/>
+      <c r="AZ6" s="52"/>
+      <c r="BA6" s="52"/>
       <c r="BB6" s="11" t="s">
         <v>13</v>
       </c>
@@ -4449,64 +4449,64 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="40" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="39">
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="50"/>
+      <c r="AS7" s="50"/>
+      <c r="AT7" s="50"/>
+      <c r="AU7" s="50"/>
+      <c r="AV7" s="51"/>
+      <c r="AW7" s="48">
         <v>42809</v>
       </c>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="38"/>
+      <c r="AX7" s="47"/>
+      <c r="AY7" s="47"/>
+      <c r="AZ7" s="47"/>
+      <c r="BA7" s="47"/>
       <c r="BB7" s="12"/>
       <c r="BD7" s="27">
         <v>0.3</v>
@@ -4543,34 +4543,34 @@
       <c r="U8" s="32"/>
       <c r="V8" s="32"/>
       <c r="W8" s="32"/>
-      <c r="X8" s="34" t="s">
+      <c r="X8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="35"/>
-      <c r="AS8" s="35"/>
-      <c r="AT8" s="35"/>
-      <c r="AU8" s="35"/>
-      <c r="AV8" s="36"/>
-      <c r="AW8" s="33">
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+      <c r="AP8" s="34"/>
+      <c r="AQ8" s="34"/>
+      <c r="AR8" s="34"/>
+      <c r="AS8" s="34"/>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="34"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="36">
         <v>42809</v>
       </c>
       <c r="AX8" s="32"/>
@@ -4615,34 +4615,34 @@
       <c r="U9" s="32"/>
       <c r="V9" s="32"/>
       <c r="W9" s="32"/>
-      <c r="X9" s="34" t="s">
+      <c r="X9" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35"/>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35"/>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35"/>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="36"/>
-      <c r="AW9" s="33">
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="36">
         <v>42809</v>
       </c>
       <c r="AX9" s="32"/>
@@ -4687,34 +4687,34 @@
       <c r="U10" s="32"/>
       <c r="V10" s="32"/>
       <c r="W10" s="32"/>
-      <c r="X10" s="34" t="s">
+      <c r="X10" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="35"/>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="35"/>
-      <c r="AO10" s="35"/>
-      <c r="AP10" s="35"/>
-      <c r="AQ10" s="35"/>
-      <c r="AR10" s="35"/>
-      <c r="AS10" s="35"/>
-      <c r="AT10" s="35"/>
-      <c r="AU10" s="35"/>
-      <c r="AV10" s="36"/>
-      <c r="AW10" s="33">
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="36">
         <v>42809</v>
       </c>
       <c r="AX10" s="32"/>
@@ -4759,34 +4759,34 @@
       <c r="U11" s="32"/>
       <c r="V11" s="32"/>
       <c r="W11" s="32"/>
-      <c r="X11" s="34" t="s">
+      <c r="X11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="35"/>
-      <c r="AS11" s="35"/>
-      <c r="AT11" s="35"/>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="36"/>
-      <c r="AW11" s="33">
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="36">
         <v>42808</v>
       </c>
       <c r="AX11" s="32"/>
@@ -4831,34 +4831,34 @@
       <c r="U12" s="32"/>
       <c r="V12" s="32"/>
       <c r="W12" s="32"/>
-      <c r="X12" s="34" t="s">
+      <c r="X12" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="35"/>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="35"/>
-      <c r="AP12" s="35"/>
-      <c r="AQ12" s="35"/>
-      <c r="AR12" s="35"/>
-      <c r="AS12" s="35"/>
-      <c r="AT12" s="35"/>
-      <c r="AU12" s="35"/>
-      <c r="AV12" s="36"/>
-      <c r="AW12" s="33">
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="34"/>
+      <c r="AR12" s="34"/>
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="34"/>
+      <c r="AU12" s="34"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="36">
         <v>42830</v>
       </c>
       <c r="AX12" s="32"/>
@@ -4903,34 +4903,34 @@
       <c r="U13" s="32"/>
       <c r="V13" s="32"/>
       <c r="W13" s="32"/>
-      <c r="X13" s="34" t="s">
+      <c r="X13" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="35"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="35"/>
-      <c r="AQ13" s="35"/>
-      <c r="AR13" s="35"/>
-      <c r="AS13" s="35"/>
-      <c r="AT13" s="35"/>
-      <c r="AU13" s="35"/>
-      <c r="AV13" s="36"/>
-      <c r="AW13" s="33">
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="34"/>
+      <c r="AP13" s="34"/>
+      <c r="AQ13" s="34"/>
+      <c r="AR13" s="34"/>
+      <c r="AS13" s="34"/>
+      <c r="AT13" s="34"/>
+      <c r="AU13" s="34"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="36">
         <v>42816</v>
       </c>
       <c r="AX13" s="32"/>
@@ -4975,34 +4975,34 @@
       <c r="U14" s="32"/>
       <c r="V14" s="32"/>
       <c r="W14" s="32"/>
-      <c r="X14" s="34" t="s">
+      <c r="X14" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="35"/>
-      <c r="AR14" s="35"/>
-      <c r="AS14" s="35"/>
-      <c r="AT14" s="35"/>
-      <c r="AU14" s="35"/>
-      <c r="AV14" s="36"/>
-      <c r="AW14" s="67" t="s">
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
+      <c r="AP14" s="34"/>
+      <c r="AQ14" s="34"/>
+      <c r="AR14" s="34"/>
+      <c r="AS14" s="34"/>
+      <c r="AT14" s="34"/>
+      <c r="AU14" s="34"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="40" t="s">
         <v>408</v>
       </c>
       <c r="AX14" s="32"/>
@@ -5021,17 +5021,17 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="37" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="32" t="s">
         <v>405</v>
       </c>
@@ -5047,34 +5047,34 @@
       <c r="U15" s="32"/>
       <c r="V15" s="32"/>
       <c r="W15" s="32"/>
-      <c r="X15" s="34" t="s">
+      <c r="X15" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="35"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="35"/>
-      <c r="AP15" s="35"/>
-      <c r="AQ15" s="35"/>
-      <c r="AR15" s="35"/>
-      <c r="AS15" s="35"/>
-      <c r="AT15" s="35"/>
-      <c r="AU15" s="35"/>
-      <c r="AV15" s="36"/>
-      <c r="AW15" s="33">
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="34"/>
+      <c r="AP15" s="34"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="34"/>
+      <c r="AS15" s="34"/>
+      <c r="AT15" s="34"/>
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="35"/>
+      <c r="AW15" s="36">
         <v>42823</v>
       </c>
       <c r="AX15" s="32"/>
@@ -5093,17 +5093,17 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="37" t="s">
         <v>400</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="61"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="32" t="s">
         <v>406</v>
       </c>
@@ -5119,34 +5119,34 @@
       <c r="U16" s="32"/>
       <c r="V16" s="32"/>
       <c r="W16" s="32"/>
-      <c r="X16" s="34" t="s">
+      <c r="X16" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="35"/>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="35"/>
-      <c r="AP16" s="35"/>
-      <c r="AQ16" s="35"/>
-      <c r="AR16" s="35"/>
-      <c r="AS16" s="35"/>
-      <c r="AT16" s="35"/>
-      <c r="AU16" s="35"/>
-      <c r="AV16" s="36"/>
-      <c r="AW16" s="33">
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="34"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="34"/>
+      <c r="AR16" s="34"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="34"/>
+      <c r="AU16" s="34"/>
+      <c r="AV16" s="35"/>
+      <c r="AW16" s="36">
         <v>42823</v>
       </c>
       <c r="AX16" s="32"/>
@@ -5165,17 +5165,17 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="61"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="32" t="s">
         <v>438</v>
       </c>
@@ -5191,34 +5191,34 @@
       <c r="U17" s="32"/>
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
-      <c r="X17" s="34" t="s">
+      <c r="X17" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="35"/>
-      <c r="AQ17" s="35"/>
-      <c r="AR17" s="35"/>
-      <c r="AS17" s="35"/>
-      <c r="AT17" s="35"/>
-      <c r="AU17" s="35"/>
-      <c r="AV17" s="36"/>
-      <c r="AW17" s="33"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="34"/>
+      <c r="AU17" s="34"/>
+      <c r="AV17" s="35"/>
+      <c r="AW17" s="36"/>
       <c r="AX17" s="32"/>
       <c r="AY17" s="32"/>
       <c r="AZ17" s="32"/>
@@ -5233,17 +5233,17 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
       <c r="K18" s="32" t="s">
         <v>442</v>
       </c>
@@ -5259,34 +5259,34 @@
       <c r="U18" s="32"/>
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
-      <c r="X18" s="34" t="s">
+      <c r="X18" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
-      <c r="AR18" s="35"/>
-      <c r="AS18" s="35"/>
-      <c r="AT18" s="35"/>
-      <c r="AU18" s="35"/>
-      <c r="AV18" s="36"/>
-      <c r="AW18" s="33"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="34"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="36"/>
       <c r="AX18" s="32"/>
       <c r="AY18" s="32"/>
       <c r="AZ18" s="32"/>
@@ -5327,34 +5327,34 @@
       <c r="U19" s="32"/>
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
-      <c r="X19" s="34" t="s">
+      <c r="X19" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="35"/>
-      <c r="AQ19" s="35"/>
-      <c r="AR19" s="35"/>
-      <c r="AS19" s="35"/>
-      <c r="AT19" s="35"/>
-      <c r="AU19" s="35"/>
-      <c r="AV19" s="36"/>
-      <c r="AW19" s="33">
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="34"/>
+      <c r="AO19" s="34"/>
+      <c r="AP19" s="34"/>
+      <c r="AQ19" s="34"/>
+      <c r="AR19" s="34"/>
+      <c r="AS19" s="34"/>
+      <c r="AT19" s="34"/>
+      <c r="AU19" s="34"/>
+      <c r="AV19" s="35"/>
+      <c r="AW19" s="36">
         <v>42824</v>
       </c>
       <c r="AX19" s="32"/>
@@ -5399,34 +5399,34 @@
       <c r="U20" s="32"/>
       <c r="V20" s="32"/>
       <c r="W20" s="32"/>
-      <c r="X20" s="34" t="s">
+      <c r="X20" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="35"/>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="35"/>
-      <c r="AN20" s="35"/>
-      <c r="AO20" s="35"/>
-      <c r="AP20" s="35"/>
-      <c r="AQ20" s="35"/>
-      <c r="AR20" s="35"/>
-      <c r="AS20" s="35"/>
-      <c r="AT20" s="35"/>
-      <c r="AU20" s="35"/>
-      <c r="AV20" s="36"/>
-      <c r="AW20" s="33">
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="34"/>
+      <c r="AM20" s="34"/>
+      <c r="AN20" s="34"/>
+      <c r="AO20" s="34"/>
+      <c r="AP20" s="34"/>
+      <c r="AQ20" s="34"/>
+      <c r="AR20" s="34"/>
+      <c r="AS20" s="34"/>
+      <c r="AT20" s="34"/>
+      <c r="AU20" s="34"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="36">
         <v>42811</v>
       </c>
       <c r="AX20" s="32"/>
@@ -5471,39 +5471,41 @@
       <c r="U21" s="32"/>
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
-      <c r="X21" s="34" t="s">
+      <c r="X21" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="35"/>
-      <c r="AQ21" s="35"/>
-      <c r="AR21" s="35"/>
-      <c r="AS21" s="35"/>
-      <c r="AT21" s="35"/>
-      <c r="AU21" s="35"/>
-      <c r="AV21" s="36"/>
-      <c r="AW21" s="33"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="34"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="34"/>
+      <c r="AK21" s="34"/>
+      <c r="AL21" s="34"/>
+      <c r="AM21" s="34"/>
+      <c r="AN21" s="34"/>
+      <c r="AO21" s="34"/>
+      <c r="AP21" s="34"/>
+      <c r="AQ21" s="34"/>
+      <c r="AR21" s="34"/>
+      <c r="AS21" s="34"/>
+      <c r="AT21" s="34"/>
+      <c r="AU21" s="34"/>
+      <c r="AV21" s="35"/>
+      <c r="AW21" s="36"/>
       <c r="AX21" s="32"/>
       <c r="AY21" s="32"/>
       <c r="AZ21" s="32"/>
       <c r="BA21" s="32"/>
-      <c r="BB21" s="13"/>
+      <c r="BB21" s="13">
+        <v>3</v>
+      </c>
       <c r="BD21" s="27"/>
     </row>
     <row r="22" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
@@ -5537,39 +5539,41 @@
       <c r="U22" s="32"/>
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
-      <c r="X22" s="34" t="s">
+      <c r="X22" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="35"/>
-      <c r="AQ22" s="35"/>
-      <c r="AR22" s="35"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="35"/>
-      <c r="AU22" s="35"/>
-      <c r="AV22" s="36"/>
-      <c r="AW22" s="33"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="34"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="34"/>
+      <c r="AK22" s="34"/>
+      <c r="AL22" s="34"/>
+      <c r="AM22" s="34"/>
+      <c r="AN22" s="34"/>
+      <c r="AO22" s="34"/>
+      <c r="AP22" s="34"/>
+      <c r="AQ22" s="34"/>
+      <c r="AR22" s="34"/>
+      <c r="AS22" s="34"/>
+      <c r="AT22" s="34"/>
+      <c r="AU22" s="34"/>
+      <c r="AV22" s="35"/>
+      <c r="AW22" s="36"/>
       <c r="AX22" s="32"/>
       <c r="AY22" s="32"/>
       <c r="AZ22" s="32"/>
       <c r="BA22" s="32"/>
-      <c r="BB22" s="13"/>
+      <c r="BB22" s="13">
+        <v>2</v>
+      </c>
       <c r="BD22" s="27"/>
     </row>
     <row r="23" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
@@ -5603,39 +5607,41 @@
       <c r="U23" s="32"/>
       <c r="V23" s="32"/>
       <c r="W23" s="32"/>
-      <c r="X23" s="34" t="s">
+      <c r="X23" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="35"/>
-      <c r="AQ23" s="35"/>
-      <c r="AR23" s="35"/>
-      <c r="AS23" s="35"/>
-      <c r="AT23" s="35"/>
-      <c r="AU23" s="35"/>
-      <c r="AV23" s="36"/>
-      <c r="AW23" s="33"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="34"/>
+      <c r="AL23" s="34"/>
+      <c r="AM23" s="34"/>
+      <c r="AN23" s="34"/>
+      <c r="AO23" s="34"/>
+      <c r="AP23" s="34"/>
+      <c r="AQ23" s="34"/>
+      <c r="AR23" s="34"/>
+      <c r="AS23" s="34"/>
+      <c r="AT23" s="34"/>
+      <c r="AU23" s="34"/>
+      <c r="AV23" s="35"/>
+      <c r="AW23" s="36"/>
       <c r="AX23" s="32"/>
       <c r="AY23" s="32"/>
       <c r="AZ23" s="32"/>
       <c r="BA23" s="32"/>
-      <c r="BB23" s="13"/>
+      <c r="BB23" s="13">
+        <v>2</v>
+      </c>
       <c r="BD23" s="27"/>
     </row>
     <row r="24" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
@@ -5669,39 +5675,41 @@
       <c r="U24" s="32"/>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
-      <c r="X24" s="34" t="s">
+      <c r="X24" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AQ24" s="35"/>
-      <c r="AR24" s="35"/>
-      <c r="AS24" s="35"/>
-      <c r="AT24" s="35"/>
-      <c r="AU24" s="35"/>
-      <c r="AV24" s="36"/>
-      <c r="AW24" s="33"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="34"/>
+      <c r="AK24" s="34"/>
+      <c r="AL24" s="34"/>
+      <c r="AM24" s="34"/>
+      <c r="AN24" s="34"/>
+      <c r="AO24" s="34"/>
+      <c r="AP24" s="34"/>
+      <c r="AQ24" s="34"/>
+      <c r="AR24" s="34"/>
+      <c r="AS24" s="34"/>
+      <c r="AT24" s="34"/>
+      <c r="AU24" s="34"/>
+      <c r="AV24" s="35"/>
+      <c r="AW24" s="36"/>
       <c r="AX24" s="32"/>
       <c r="AY24" s="32"/>
       <c r="AZ24" s="32"/>
       <c r="BA24" s="32"/>
-      <c r="BB24" s="13"/>
+      <c r="BB24" s="13">
+        <v>2</v>
+      </c>
       <c r="BD24" s="27"/>
     </row>
     <row r="25" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
@@ -5735,39 +5743,41 @@
       <c r="U25" s="32"/>
       <c r="V25" s="32"/>
       <c r="W25" s="32"/>
-      <c r="X25" s="34" t="s">
+      <c r="X25" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="35"/>
-      <c r="AK25" s="35"/>
-      <c r="AL25" s="35"/>
-      <c r="AM25" s="35"/>
-      <c r="AN25" s="35"/>
-      <c r="AO25" s="35"/>
-      <c r="AP25" s="35"/>
-      <c r="AQ25" s="35"/>
-      <c r="AR25" s="35"/>
-      <c r="AS25" s="35"/>
-      <c r="AT25" s="35"/>
-      <c r="AU25" s="35"/>
-      <c r="AV25" s="36"/>
-      <c r="AW25" s="33"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="34"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="34"/>
+      <c r="AL25" s="34"/>
+      <c r="AM25" s="34"/>
+      <c r="AN25" s="34"/>
+      <c r="AO25" s="34"/>
+      <c r="AP25" s="34"/>
+      <c r="AQ25" s="34"/>
+      <c r="AR25" s="34"/>
+      <c r="AS25" s="34"/>
+      <c r="AT25" s="34"/>
+      <c r="AU25" s="34"/>
+      <c r="AV25" s="35"/>
+      <c r="AW25" s="36"/>
       <c r="AX25" s="32"/>
       <c r="AY25" s="32"/>
       <c r="AZ25" s="32"/>
       <c r="BA25" s="32"/>
-      <c r="BB25" s="13"/>
+      <c r="BB25" s="13">
+        <v>2</v>
+      </c>
       <c r="BD25" s="27"/>
     </row>
     <row r="26" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
@@ -5801,39 +5811,41 @@
       <c r="U26" s="32"/>
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
-      <c r="X26" s="34" t="s">
+      <c r="X26" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="35"/>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="35"/>
-      <c r="AN26" s="35"/>
-      <c r="AO26" s="35"/>
-      <c r="AP26" s="35"/>
-      <c r="AQ26" s="35"/>
-      <c r="AR26" s="35"/>
-      <c r="AS26" s="35"/>
-      <c r="AT26" s="35"/>
-      <c r="AU26" s="35"/>
-      <c r="AV26" s="36"/>
-      <c r="AW26" s="33"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="34"/>
+      <c r="AM26" s="34"/>
+      <c r="AN26" s="34"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="34"/>
+      <c r="AQ26" s="34"/>
+      <c r="AR26" s="34"/>
+      <c r="AS26" s="34"/>
+      <c r="AT26" s="34"/>
+      <c r="AU26" s="34"/>
+      <c r="AV26" s="35"/>
+      <c r="AW26" s="36"/>
       <c r="AX26" s="32"/>
       <c r="AY26" s="32"/>
       <c r="AZ26" s="32"/>
       <c r="BA26" s="32"/>
-      <c r="BB26" s="13"/>
+      <c r="BB26" s="13">
+        <v>2</v>
+      </c>
       <c r="BD26" s="27"/>
     </row>
     <row r="27" spans="1:56" s="5" customFormat="1" ht="22.5" customHeight="1">
@@ -5867,34 +5879,34 @@
       <c r="U27" s="32"/>
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
-      <c r="X27" s="34" t="s">
+      <c r="X27" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="35"/>
-      <c r="AE27" s="35"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="35"/>
-      <c r="AH27" s="35"/>
-      <c r="AI27" s="35"/>
-      <c r="AJ27" s="35"/>
-      <c r="AK27" s="35"/>
-      <c r="AL27" s="35"/>
-      <c r="AM27" s="35"/>
-      <c r="AN27" s="35"/>
-      <c r="AO27" s="35"/>
-      <c r="AP27" s="35"/>
-      <c r="AQ27" s="35"/>
-      <c r="AR27" s="35"/>
-      <c r="AS27" s="35"/>
-      <c r="AT27" s="35"/>
-      <c r="AU27" s="35"/>
-      <c r="AV27" s="36"/>
-      <c r="AW27" s="33">
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="34"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="34"/>
+      <c r="AN27" s="34"/>
+      <c r="AO27" s="34"/>
+      <c r="AP27" s="34"/>
+      <c r="AQ27" s="34"/>
+      <c r="AR27" s="34"/>
+      <c r="AS27" s="34"/>
+      <c r="AT27" s="34"/>
+      <c r="AU27" s="34"/>
+      <c r="AV27" s="35"/>
+      <c r="AW27" s="36">
         <v>42824</v>
       </c>
       <c r="AX27" s="32"/>
@@ -5935,32 +5947,32 @@
       <c r="U28" s="32"/>
       <c r="V28" s="32"/>
       <c r="W28" s="32"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="35"/>
-      <c r="AI28" s="35"/>
-      <c r="AJ28" s="35"/>
-      <c r="AK28" s="35"/>
-      <c r="AL28" s="35"/>
-      <c r="AM28" s="35"/>
-      <c r="AN28" s="35"/>
-      <c r="AO28" s="35"/>
-      <c r="AP28" s="35"/>
-      <c r="AQ28" s="35"/>
-      <c r="AR28" s="35"/>
-      <c r="AS28" s="35"/>
-      <c r="AT28" s="35"/>
-      <c r="AU28" s="35"/>
-      <c r="AV28" s="36"/>
-      <c r="AW28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="34"/>
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="34"/>
+      <c r="AT28" s="34"/>
+      <c r="AU28" s="34"/>
+      <c r="AV28" s="35"/>
+      <c r="AW28" s="36"/>
       <c r="AX28" s="32"/>
       <c r="AY28" s="32"/>
       <c r="AZ28" s="32"/>
@@ -5995,32 +6007,32 @@
       <c r="U29" s="32"/>
       <c r="V29" s="32"/>
       <c r="W29" s="32"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="35"/>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="35"/>
-      <c r="AK29" s="35"/>
-      <c r="AL29" s="35"/>
-      <c r="AM29" s="35"/>
-      <c r="AN29" s="35"/>
-      <c r="AO29" s="35"/>
-      <c r="AP29" s="35"/>
-      <c r="AQ29" s="35"/>
-      <c r="AR29" s="35"/>
-      <c r="AS29" s="35"/>
-      <c r="AT29" s="35"/>
-      <c r="AU29" s="35"/>
-      <c r="AV29" s="36"/>
-      <c r="AW29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="34"/>
+      <c r="AN29" s="34"/>
+      <c r="AO29" s="34"/>
+      <c r="AP29" s="34"/>
+      <c r="AQ29" s="34"/>
+      <c r="AR29" s="34"/>
+      <c r="AS29" s="34"/>
+      <c r="AT29" s="34"/>
+      <c r="AU29" s="34"/>
+      <c r="AV29" s="35"/>
+      <c r="AW29" s="36"/>
       <c r="AX29" s="32"/>
       <c r="AY29" s="32"/>
       <c r="AZ29" s="32"/>
@@ -6033,65 +6045,65 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="63"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="65"/>
-      <c r="AA30" s="65"/>
-      <c r="AB30" s="65"/>
-      <c r="AC30" s="65"/>
-      <c r="AD30" s="65"/>
-      <c r="AE30" s="65"/>
-      <c r="AF30" s="65"/>
-      <c r="AG30" s="65"/>
-      <c r="AH30" s="65"/>
-      <c r="AI30" s="65"/>
-      <c r="AJ30" s="65"/>
-      <c r="AK30" s="65"/>
-      <c r="AL30" s="65"/>
-      <c r="AM30" s="65"/>
-      <c r="AN30" s="65"/>
-      <c r="AO30" s="65"/>
-      <c r="AP30" s="65"/>
-      <c r="AQ30" s="65"/>
-      <c r="AR30" s="65"/>
-      <c r="AS30" s="65"/>
-      <c r="AT30" s="65"/>
-      <c r="AU30" s="65"/>
-      <c r="AV30" s="66"/>
-      <c r="AW30" s="63"/>
-      <c r="AX30" s="63"/>
-      <c r="AY30" s="63"/>
-      <c r="AZ30" s="63"/>
-      <c r="BA30" s="63"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="44"/>
+      <c r="AJ30" s="44"/>
+      <c r="AK30" s="44"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="44"/>
+      <c r="AP30" s="44"/>
+      <c r="AQ30" s="44"/>
+      <c r="AR30" s="44"/>
+      <c r="AS30" s="44"/>
+      <c r="AT30" s="44"/>
+      <c r="AU30" s="44"/>
+      <c r="AV30" s="45"/>
+      <c r="AW30" s="42"/>
+      <c r="AX30" s="42"/>
+      <c r="AY30" s="42"/>
+      <c r="AZ30" s="42"/>
+      <c r="BA30" s="42"/>
       <c r="BB30" s="14"/>
       <c r="BD30" s="27"/>
     </row>
     <row r="31" spans="1:56">
       <c r="BB31" s="9">
         <f>SUM(BB7:BB30)</f>
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="BD31" s="9">
         <f>SUM(BD7:BD30)</f>
@@ -6100,26 +6112,75 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="K24:W24"/>
-    <mergeCell ref="X24:AV24"/>
-    <mergeCell ref="AW24:BA24"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="X18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="X17:AV17"/>
-    <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:W14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="X14:AV14"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="X9:AV9"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="AW27:BA27"/>
+    <mergeCell ref="X27:AV27"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="X20:AV20"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:W13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="X13:AV13"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="X25:AV25"/>
+    <mergeCell ref="AW25:BA25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:W26"/>
+    <mergeCell ref="X26:AV26"/>
+    <mergeCell ref="AW26:BA26"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="X7:AV7"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="X6:AV6"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="AH2:AL4"/>
+    <mergeCell ref="AM2:AQ4"/>
+    <mergeCell ref="AR2:AV4"/>
+    <mergeCell ref="AW2:BA4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:AG4"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:W28"/>
+    <mergeCell ref="AW28:BA28"/>
+    <mergeCell ref="X28:AV28"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="X19:AV19"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:W15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="X15:AV15"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="X23:AV23"/>
+    <mergeCell ref="AW23:BA23"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="X21:AV21"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="X22:AV22"/>
+    <mergeCell ref="AW22:BA22"/>
     <mergeCell ref="B30:J30"/>
     <mergeCell ref="K30:W30"/>
     <mergeCell ref="AW30:BA30"/>
@@ -6144,75 +6205,26 @@
     <mergeCell ref="K11:W11"/>
     <mergeCell ref="AW11:BA11"/>
     <mergeCell ref="X11:AV11"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:W28"/>
-    <mergeCell ref="AW28:BA28"/>
-    <mergeCell ref="X28:AV28"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="AW19:BA19"/>
-    <mergeCell ref="X19:AV19"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:W15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="X15:AV15"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="X23:AV23"/>
-    <mergeCell ref="AW23:BA23"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="X21:AV21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="X22:AV22"/>
-    <mergeCell ref="AW22:BA22"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="X7:AV7"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="X6:AV6"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="AH2:AL4"/>
-    <mergeCell ref="AM2:AQ4"/>
-    <mergeCell ref="AR2:AV4"/>
-    <mergeCell ref="AW2:BA4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:AG4"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="X9:AV9"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="K27:W27"/>
-    <mergeCell ref="AW27:BA27"/>
-    <mergeCell ref="X27:AV27"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="AW20:BA20"/>
-    <mergeCell ref="X20:AV20"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:W13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="X13:AV13"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="K25:W25"/>
-    <mergeCell ref="X25:AV25"/>
-    <mergeCell ref="AW25:BA25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:W26"/>
-    <mergeCell ref="X26:AV26"/>
-    <mergeCell ref="AW26:BA26"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="K24:W24"/>
+    <mergeCell ref="X24:AV24"/>
+    <mergeCell ref="AW24:BA24"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AV18"/>
+    <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AV12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="X17:AV17"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:W14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="X14:AV14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>

--- a/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
+++ b/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
@@ -1722,30 +1722,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.3月23日
-2～5.3月28日
-6.3月23日</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>新規追加
 タクチケ自動精算バッチで生成された精算番号CSV(｢③-4-2精算番号表｣シート参照)の
 ダウンロード指示画面
@@ -2436,344 +2412,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新規追加
-｢タクチケ自動精算指示画面｣で登録された内容(自動精算対象タクチケテーブルの登録内容)に従い、下記の処理を行う。
-1.会合番号ごとに精算番号を自動採番し、請求データを新規作成。
-2.画面入力された精算年月、精算団体コード、精算コメントを1.で作成した請求データに反映。
-3.画面で指定された精算年月と1で採番された精算番号をタクチケ台帳に反映。
-4.タクチケ台帳から、1.で精算番号を自動採番されたタクチケ番号データを抽出し、
-　会合番号毎＋精算番号毎に下記項目を集計し請求データに反映する。
-　・タクチケ実車料金（非課税）    TAXI_TF
-　・タクチケ精算手数料（非課税）  TAXI_SEISAN_TF
-　・タクチケ実車料金（エンタ）    TAXI_T
-　・タクチケ精算手数料（エンタ）  TAXI_SEISAN_T
-　・41120200(非課税)小計　　　　　KEI_41120200_TF
-　・非課税金額合計　　　　　　　　KEI_TF
-　・41120200(課税)小計　　　　　　KEI_41120200_T
-　・課税金額合計　　　　　　　　　KEI_T
-　・タクチケ管理票保存場所URL（フォーマットは要望書参照）
-5.1.で自動採番された精算番号のタクチケ精算金額のCSVを生成し、TBL_FILEに登録する。
-　※｢③-4-2精算番号表｣シート参照
-6.1.で自動採番された精算番号の｢総合精算書｣PDFを生成し、TBL_FILEに登録する。
-7.タクチケ台帳出力対象会合テーブル(新規)に「自動精算対象タクチケテーブル」に
-　登録されている会合番号を登録する。
-　・会合番号=自動精算対象タクチケテーブルより
-　・開催開始日=講演会テーブルより
-　・タクチケ台帳生成済みフラグ=0(未生成)
-　・タクチケ台帳ダウンロード済フラグ=0(未ダウンロード)
-8.自動精算対象タクチケテーブルから、処理済みのデータを削除する。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>ダイチョウ</t>
-    </rPh>
-    <rPh sb="192" eb="194">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="194" eb="196">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="197" eb="199">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>サイバン</t>
-    </rPh>
-    <rPh sb="208" eb="210">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="214" eb="216">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="220" eb="222">
-      <t>カイゴウ</t>
-    </rPh>
-    <rPh sb="222" eb="224">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="224" eb="225">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="226" eb="228">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="228" eb="230">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="230" eb="231">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="232" eb="234">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="234" eb="236">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="237" eb="239">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="240" eb="242">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="246" eb="248">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="258" eb="260">
-      <t>ジッシャ</t>
-    </rPh>
-    <rPh sb="260" eb="262">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="263" eb="266">
-      <t>ヒカゼイ</t>
-    </rPh>
-    <rPh sb="285" eb="287">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="287" eb="290">
-      <t>テスウリョウ</t>
-    </rPh>
-    <rPh sb="291" eb="294">
-      <t>ヒカゼイ</t>
-    </rPh>
-    <rPh sb="318" eb="320">
-      <t>ジッシャ</t>
-    </rPh>
-    <rPh sb="320" eb="322">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="344" eb="346">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="346" eb="349">
-      <t>テスウリョウ</t>
-    </rPh>
-    <rPh sb="498" eb="500">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="500" eb="501">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="501" eb="503">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="503" eb="505">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="516" eb="519">
-      <t>ヨウボウショ</t>
-    </rPh>
-    <rPh sb="519" eb="521">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="528" eb="530">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="530" eb="532">
-      <t>サイバン</t>
-    </rPh>
-    <rPh sb="535" eb="537">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="537" eb="539">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="544" eb="546">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="546" eb="548">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="589" eb="591">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="597" eb="599">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="599" eb="601">
-      <t>サイバン</t>
-    </rPh>
-    <rPh sb="604" eb="606">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="606" eb="608">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="610" eb="612">
-      <t>ソウゴウ</t>
-    </rPh>
-    <rPh sb="612" eb="615">
-      <t>セイサンショ</t>
-    </rPh>
-    <rPh sb="620" eb="622">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="633" eb="635">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="645" eb="647">
-      <t>ダイチョウ</t>
-    </rPh>
-    <rPh sb="647" eb="649">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="649" eb="651">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="651" eb="653">
-      <t>カイゴウ</t>
-    </rPh>
-    <rPh sb="658" eb="660">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="663" eb="665">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="665" eb="667">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="667" eb="669">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="681" eb="683">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="688" eb="690">
-      <t>カイゴウ</t>
-    </rPh>
-    <rPh sb="690" eb="692">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="693" eb="695">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="701" eb="703">
-      <t>カイゴウ</t>
-    </rPh>
-    <rPh sb="703" eb="705">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="706" eb="708">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="708" eb="710">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="710" eb="712">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="725" eb="727">
-      <t>カイサイ</t>
-    </rPh>
-    <rPh sb="727" eb="730">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="731" eb="734">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="747" eb="749">
-      <t>ダイチョウ</t>
-    </rPh>
-    <rPh sb="749" eb="751">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="751" eb="752">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="759" eb="760">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="760" eb="762">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="770" eb="772">
-      <t>ダイチョウ</t>
-    </rPh>
-    <rPh sb="778" eb="779">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="785" eb="786">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="796" eb="798">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="798" eb="800">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="800" eb="802">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="813" eb="815">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="815" eb="816">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="822" eb="824">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タクチケ台帳CSV一括生成バッチ</t>
     <rPh sb="4" eb="6">
       <t>ダイチョウ</t>
@@ -3106,6 +2744,404 @@
   <si>
     <t>緊急</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">新規追加
+｢タクチケ自動精算指示画面｣で登録された内容(自動精算対象タクチケテーブルの登録内容)に従い、下記の処理を行う。
+1.会合番号ごとに精算番号を自動採番し、請求データを新規作成。
+2.画面入力された精算年月、精算団体コード、精算コメントを1.で作成した請求データに反映。
+3.画面で指定された精算年月と1で採番された精算番号をタクチケ台帳に反映。
+4.タクチケ台帳から、1.で精算番号を自動採番されたタクチケ番号データを抽出し、
+　会合番号毎＋精算番号毎に下記項目を集計し請求データに反映する。
+　・タクチケ実車料金（非課税）    TAXI_TF
+　・タクチケ精算手数料（非課税）  TAXI_SEISAN_TF
+　・タクチケ実車料金（エンタ）    TAXI_T
+　・タクチケ精算手数料（エンタ）  TAXI_SEISAN_T
+　・41120200(非課税)小計　　　　　KEI_41120200_TF
+　・非課税金額合計　　　　　　　　KEI_TF
+　・41120200(課税)小計　　　　　　KEI_41120200_T
+　・課税金額合計　　　　　　　　　KEI_T
+　・タクチケ管理票保存場所URL（フォーマットは要望書参照）
+5.1.で自動採番された精算番号のタクチケ精算金額のCSVを生成し、TBL_FILEに登録する。
+　※｢③-4-2精算番号表｣シート参照
+6.1.で自動採番された精算番号の｢総合精算書｣PDFを生成し、TBL_FILEに登録する。
+7.タクチケ台帳出力対象CSVファイルに「自動精算対象タクチケテーブル」に
+　登録されている会合番号を出力し、TBL_FILEに登録する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>7.タクチケ台帳出力対象会合テーブル(新規)に「自動精算対象タクチケテーブル」に
+　登録されている会合番号を登録する。
+　・会合番号=自動精算対象タクチケテーブルより
+　・開催開始日=講演会テーブルより
+　・タクチケ台帳生成済みフラグ=0(未生成)
+　・タクチケ台帳ダウンロード済フラグ=0(未ダウンロード)
+8.自動精算対象タクチケテーブルから、処理済みのデータを削除する。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="232" eb="234">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="237" eb="239">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="240" eb="242">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="258" eb="260">
+      <t>ジッシャ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="263" eb="266">
+      <t>ヒカゼイ</t>
+    </rPh>
+    <rPh sb="285" eb="287">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="287" eb="290">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="291" eb="294">
+      <t>ヒカゼイ</t>
+    </rPh>
+    <rPh sb="318" eb="320">
+      <t>ジッシャ</t>
+    </rPh>
+    <rPh sb="320" eb="322">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="344" eb="346">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="346" eb="349">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="498" eb="500">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="500" eb="501">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="501" eb="503">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="503" eb="505">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="516" eb="519">
+      <t>ヨウボウショ</t>
+    </rPh>
+    <rPh sb="519" eb="521">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="528" eb="530">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="530" eb="532">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="535" eb="537">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="537" eb="539">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="544" eb="546">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="546" eb="548">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="589" eb="591">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="597" eb="599">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="599" eb="601">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="604" eb="606">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="606" eb="608">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="610" eb="612">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="612" eb="615">
+      <t>セイサンショ</t>
+    </rPh>
+    <rPh sb="620" eb="622">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="633" eb="635">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="645" eb="647">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="647" eb="649">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="649" eb="651">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="690" eb="692">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="703" eb="705">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="715" eb="717">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="717" eb="719">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="719" eb="721">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="721" eb="723">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="728" eb="730">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="733" eb="735">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="735" eb="737">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="737" eb="739">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="751" eb="753">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="758" eb="760">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="760" eb="762">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="763" eb="765">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="771" eb="773">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="773" eb="775">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="776" eb="778">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="778" eb="780">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="780" eb="782">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="795" eb="797">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="797" eb="800">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="801" eb="804">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="817" eb="819">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="819" eb="821">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="821" eb="822">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="829" eb="830">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="830" eb="832">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="840" eb="842">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="848" eb="849">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="855" eb="856">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="866" eb="868">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="868" eb="870">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="870" eb="872">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="883" eb="885">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="885" eb="886">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="892" eb="894">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.3月23日
+2～5.3月28日
+6.3月23日
+7.4月7日</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -3116,7 +3152,7 @@
     <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3182,6 +3218,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="4"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -3635,6 +3678,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3642,36 +3688,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3739,6 +3755,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4090,10 +4133,10 @@
   <dimension ref="A1:BG31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="48" ySplit="6" topLeftCell="AW19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="48" ySplit="6" topLeftCell="AW16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BB21" sqref="BB21"/>
+      <selection pane="bottomRight" activeCell="X22" sqref="X22:AV22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -4107,246 +4150,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56" t="s">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="59" t="s">
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="56" t="s">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56" t="s">
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56" t="s">
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56" t="s">
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="58">
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="49">
         <v>42809</v>
       </c>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="56" t="s">
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="56"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="47"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="58"/>
-      <c r="AS3" s="58"/>
-      <c r="AT3" s="58"/>
-      <c r="AU3" s="58"/>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="47"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -4373,72 +4416,72 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="53" t="s">
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="54"/>
-      <c r="AI6" s="54"/>
-      <c r="AJ6" s="54"/>
-      <c r="AK6" s="54"/>
-      <c r="AL6" s="54"/>
-      <c r="AM6" s="54"/>
-      <c r="AN6" s="54"/>
-      <c r="AO6" s="54"/>
-      <c r="AP6" s="54"/>
-      <c r="AQ6" s="54"/>
-      <c r="AR6" s="54"/>
-      <c r="AS6" s="54"/>
-      <c r="AT6" s="54"/>
-      <c r="AU6" s="54"/>
-      <c r="AV6" s="55"/>
-      <c r="AW6" s="52" t="s">
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="46"/>
+      <c r="AW6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="52"/>
+      <c r="AX6" s="43"/>
+      <c r="AY6" s="43"/>
+      <c r="AZ6" s="43"/>
+      <c r="BA6" s="43"/>
       <c r="BB6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="BC6" s="2"/>
       <c r="BD6" s="26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
@@ -4449,64 +4492,64 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="49" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50"/>
-      <c r="AT7" s="50"/>
-      <c r="AU7" s="50"/>
-      <c r="AV7" s="51"/>
-      <c r="AW7" s="48">
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="41"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="39">
         <v>42809</v>
       </c>
-      <c r="AX7" s="47"/>
-      <c r="AY7" s="47"/>
-      <c r="AZ7" s="47"/>
-      <c r="BA7" s="47"/>
+      <c r="AX7" s="38"/>
+      <c r="AY7" s="38"/>
+      <c r="AZ7" s="38"/>
+      <c r="BA7" s="38"/>
       <c r="BB7" s="12"/>
       <c r="BD7" s="27">
         <v>0.3</v>
@@ -4543,34 +4586,34 @@
       <c r="U8" s="32"/>
       <c r="V8" s="32"/>
       <c r="W8" s="32"/>
-      <c r="X8" s="33" t="s">
+      <c r="X8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
-      <c r="AP8" s="34"/>
-      <c r="AQ8" s="34"/>
-      <c r="AR8" s="34"/>
-      <c r="AS8" s="34"/>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="34"/>
-      <c r="AV8" s="35"/>
-      <c r="AW8" s="36">
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="35"/>
+      <c r="AQ8" s="35"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="36"/>
+      <c r="AW8" s="33">
         <v>42809</v>
       </c>
       <c r="AX8" s="32"/>
@@ -4615,34 +4658,34 @@
       <c r="U9" s="32"/>
       <c r="V9" s="32"/>
       <c r="W9" s="32"/>
-      <c r="X9" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34"/>
-      <c r="AQ9" s="34"/>
-      <c r="AR9" s="34"/>
-      <c r="AS9" s="34"/>
-      <c r="AT9" s="34"/>
-      <c r="AU9" s="34"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="36">
+      <c r="X9" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35"/>
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="33">
         <v>42809</v>
       </c>
       <c r="AX9" s="32"/>
@@ -4687,34 +4730,34 @@
       <c r="U10" s="32"/>
       <c r="V10" s="32"/>
       <c r="W10" s="32"/>
-      <c r="X10" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="34"/>
-      <c r="AR10" s="34"/>
-      <c r="AS10" s="34"/>
-      <c r="AT10" s="34"/>
-      <c r="AU10" s="34"/>
-      <c r="AV10" s="35"/>
-      <c r="AW10" s="36">
+      <c r="X10" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="35"/>
+      <c r="AQ10" s="35"/>
+      <c r="AR10" s="35"/>
+      <c r="AS10" s="35"/>
+      <c r="AT10" s="35"/>
+      <c r="AU10" s="35"/>
+      <c r="AV10" s="36"/>
+      <c r="AW10" s="33">
         <v>42809</v>
       </c>
       <c r="AX10" s="32"/>
@@ -4734,7 +4777,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -4759,34 +4802,34 @@
       <c r="U11" s="32"/>
       <c r="V11" s="32"/>
       <c r="W11" s="32"/>
-      <c r="X11" s="33" t="s">
+      <c r="X11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="34"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="34"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="34"/>
-      <c r="AV11" s="35"/>
-      <c r="AW11" s="36">
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="35"/>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="35"/>
+      <c r="AS11" s="35"/>
+      <c r="AT11" s="35"/>
+      <c r="AU11" s="35"/>
+      <c r="AV11" s="36"/>
+      <c r="AW11" s="33">
         <v>42808</v>
       </c>
       <c r="AX11" s="32"/>
@@ -4806,7 +4849,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -4817,7 +4860,7 @@
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
@@ -4831,34 +4874,34 @@
       <c r="U12" s="32"/>
       <c r="V12" s="32"/>
       <c r="W12" s="32"/>
-      <c r="X12" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="34"/>
-      <c r="AQ12" s="34"/>
-      <c r="AR12" s="34"/>
-      <c r="AS12" s="34"/>
-      <c r="AT12" s="34"/>
-      <c r="AU12" s="34"/>
-      <c r="AV12" s="35"/>
-      <c r="AW12" s="36">
+      <c r="X12" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="35"/>
+      <c r="AR12" s="35"/>
+      <c r="AS12" s="35"/>
+      <c r="AT12" s="35"/>
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="33">
         <v>42830</v>
       </c>
       <c r="AX12" s="32"/>
@@ -4878,7 +4921,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -4903,34 +4946,34 @@
       <c r="U13" s="32"/>
       <c r="V13" s="32"/>
       <c r="W13" s="32"/>
-      <c r="X13" s="33" t="s">
+      <c r="X13" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="34"/>
-      <c r="AP13" s="34"/>
-      <c r="AQ13" s="34"/>
-      <c r="AR13" s="34"/>
-      <c r="AS13" s="34"/>
-      <c r="AT13" s="34"/>
-      <c r="AU13" s="34"/>
-      <c r="AV13" s="35"/>
-      <c r="AW13" s="36">
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="35"/>
+      <c r="AQ13" s="35"/>
+      <c r="AR13" s="35"/>
+      <c r="AS13" s="35"/>
+      <c r="AT13" s="35"/>
+      <c r="AU13" s="35"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="33">
         <v>42816</v>
       </c>
       <c r="AX13" s="32"/>
@@ -4944,13 +4987,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:59" s="5" customFormat="1" ht="310.5" customHeight="1">
+    <row r="14" spans="1:59" s="5" customFormat="1" ht="331.5" customHeight="1">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -4975,35 +5018,35 @@
       <c r="U14" s="32"/>
       <c r="V14" s="32"/>
       <c r="W14" s="32"/>
-      <c r="X14" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="34"/>
-      <c r="AP14" s="34"/>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="34"/>
-      <c r="AS14" s="34"/>
-      <c r="AT14" s="34"/>
-      <c r="AU14" s="34"/>
-      <c r="AV14" s="35"/>
-      <c r="AW14" s="40" t="s">
-        <v>408</v>
+      <c r="X14" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="35"/>
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="35"/>
+      <c r="AS14" s="35"/>
+      <c r="AT14" s="35"/>
+      <c r="AU14" s="35"/>
+      <c r="AV14" s="36"/>
+      <c r="AW14" s="67" t="s">
+        <v>469</v>
       </c>
       <c r="AX14" s="32"/>
       <c r="AY14" s="32"/>
@@ -5021,17 +5064,17 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="59" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
       <c r="K15" s="32" t="s">
         <v>405</v>
       </c>
@@ -5047,34 +5090,34 @@
       <c r="U15" s="32"/>
       <c r="V15" s="32"/>
       <c r="W15" s="32"/>
-      <c r="X15" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="34"/>
-      <c r="AP15" s="34"/>
-      <c r="AQ15" s="34"/>
-      <c r="AR15" s="34"/>
-      <c r="AS15" s="34"/>
-      <c r="AT15" s="34"/>
-      <c r="AU15" s="34"/>
-      <c r="AV15" s="35"/>
-      <c r="AW15" s="36">
+      <c r="X15" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="35"/>
+      <c r="AQ15" s="35"/>
+      <c r="AR15" s="35"/>
+      <c r="AS15" s="35"/>
+      <c r="AT15" s="35"/>
+      <c r="AU15" s="35"/>
+      <c r="AV15" s="36"/>
+      <c r="AW15" s="33">
         <v>42823</v>
       </c>
       <c r="AX15" s="32"/>
@@ -5093,17 +5136,17 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="59" t="s">
         <v>400</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="32" t="s">
         <v>406</v>
       </c>
@@ -5119,34 +5162,34 @@
       <c r="U16" s="32"/>
       <c r="V16" s="32"/>
       <c r="W16" s="32"/>
-      <c r="X16" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="34"/>
-      <c r="AT16" s="34"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="35"/>
-      <c r="AW16" s="36">
+      <c r="X16" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="35"/>
+      <c r="AQ16" s="35"/>
+      <c r="AR16" s="35"/>
+      <c r="AS16" s="35"/>
+      <c r="AT16" s="35"/>
+      <c r="AU16" s="35"/>
+      <c r="AV16" s="36"/>
+      <c r="AW16" s="33">
         <v>42823</v>
       </c>
       <c r="AX16" s="32"/>
@@ -5165,19 +5208,19 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
+      <c r="B17" s="59" t="s">
+        <v>438</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
       <c r="K17" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
@@ -5191,34 +5234,34 @@
       <c r="U17" s="32"/>
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
-      <c r="X17" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="34"/>
-      <c r="AN17" s="34"/>
-      <c r="AO17" s="34"/>
-      <c r="AP17" s="34"/>
-      <c r="AQ17" s="34"/>
-      <c r="AR17" s="34"/>
-      <c r="AS17" s="34"/>
-      <c r="AT17" s="34"/>
-      <c r="AU17" s="34"/>
-      <c r="AV17" s="35"/>
-      <c r="AW17" s="36"/>
+      <c r="X17" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="35"/>
+      <c r="AQ17" s="35"/>
+      <c r="AR17" s="35"/>
+      <c r="AS17" s="35"/>
+      <c r="AT17" s="35"/>
+      <c r="AU17" s="35"/>
+      <c r="AV17" s="36"/>
+      <c r="AW17" s="33"/>
       <c r="AX17" s="32"/>
       <c r="AY17" s="32"/>
       <c r="AZ17" s="32"/>
@@ -5233,19 +5276,19 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
+      <c r="B18" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="32" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
@@ -5259,34 +5302,34 @@
       <c r="U18" s="32"/>
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
-      <c r="X18" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="34"/>
-      <c r="AN18" s="34"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="34"/>
-      <c r="AQ18" s="34"/>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="34"/>
-      <c r="AT18" s="34"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="35"/>
-      <c r="AW18" s="36"/>
+      <c r="X18" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="35"/>
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="35"/>
+      <c r="AS18" s="35"/>
+      <c r="AT18" s="35"/>
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="36"/>
+      <c r="AW18" s="33"/>
       <c r="AX18" s="32"/>
       <c r="AY18" s="32"/>
       <c r="AZ18" s="32"/>
@@ -5302,7 +5345,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -5313,7 +5356,7 @@
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -5327,34 +5370,34 @@
       <c r="U19" s="32"/>
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
-      <c r="X19" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="34"/>
-      <c r="AQ19" s="34"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="34"/>
-      <c r="AT19" s="34"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="35"/>
-      <c r="AW19" s="36">
+      <c r="X19" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="35"/>
+      <c r="AP19" s="35"/>
+      <c r="AQ19" s="35"/>
+      <c r="AR19" s="35"/>
+      <c r="AS19" s="35"/>
+      <c r="AT19" s="35"/>
+      <c r="AU19" s="35"/>
+      <c r="AV19" s="36"/>
+      <c r="AW19" s="33">
         <v>42824</v>
       </c>
       <c r="AX19" s="32"/>
@@ -5399,34 +5442,34 @@
       <c r="U20" s="32"/>
       <c r="V20" s="32"/>
       <c r="W20" s="32"/>
-      <c r="X20" s="33" t="s">
+      <c r="X20" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="34"/>
-      <c r="AN20" s="34"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="34"/>
-      <c r="AQ20" s="34"/>
-      <c r="AR20" s="34"/>
-      <c r="AS20" s="34"/>
-      <c r="AT20" s="34"/>
-      <c r="AU20" s="34"/>
-      <c r="AV20" s="35"/>
-      <c r="AW20" s="36">
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="35"/>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="35"/>
+      <c r="AO20" s="35"/>
+      <c r="AP20" s="35"/>
+      <c r="AQ20" s="35"/>
+      <c r="AR20" s="35"/>
+      <c r="AS20" s="35"/>
+      <c r="AT20" s="35"/>
+      <c r="AU20" s="35"/>
+      <c r="AV20" s="36"/>
+      <c r="AW20" s="33">
         <v>42811</v>
       </c>
       <c r="AX20" s="32"/>
@@ -5446,7 +5489,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
@@ -5457,7 +5500,7 @@
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
       <c r="K21" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
@@ -5471,34 +5514,34 @@
       <c r="U21" s="32"/>
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
-      <c r="X21" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="34"/>
-      <c r="AN21" s="34"/>
-      <c r="AO21" s="34"/>
-      <c r="AP21" s="34"/>
-      <c r="AQ21" s="34"/>
-      <c r="AR21" s="34"/>
-      <c r="AS21" s="34"/>
-      <c r="AT21" s="34"/>
-      <c r="AU21" s="34"/>
-      <c r="AV21" s="35"/>
-      <c r="AW21" s="36"/>
+      <c r="X21" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="35"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="35"/>
+      <c r="AO21" s="35"/>
+      <c r="AP21" s="35"/>
+      <c r="AQ21" s="35"/>
+      <c r="AR21" s="35"/>
+      <c r="AS21" s="35"/>
+      <c r="AT21" s="35"/>
+      <c r="AU21" s="35"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="33"/>
       <c r="AX21" s="32"/>
       <c r="AY21" s="32"/>
       <c r="AZ21" s="32"/>
@@ -5514,7 +5557,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
@@ -5525,7 +5568,7 @@
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
       <c r="K22" s="32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -5539,34 +5582,34 @@
       <c r="U22" s="32"/>
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
-      <c r="X22" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="34"/>
-      <c r="AK22" s="34"/>
-      <c r="AL22" s="34"/>
-      <c r="AM22" s="34"/>
-      <c r="AN22" s="34"/>
-      <c r="AO22" s="34"/>
-      <c r="AP22" s="34"/>
-      <c r="AQ22" s="34"/>
-      <c r="AR22" s="34"/>
-      <c r="AS22" s="34"/>
-      <c r="AT22" s="34"/>
-      <c r="AU22" s="34"/>
-      <c r="AV22" s="35"/>
-      <c r="AW22" s="36"/>
+      <c r="X22" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="35"/>
+      <c r="AQ22" s="35"/>
+      <c r="AR22" s="35"/>
+      <c r="AS22" s="35"/>
+      <c r="AT22" s="35"/>
+      <c r="AU22" s="35"/>
+      <c r="AV22" s="36"/>
+      <c r="AW22" s="33"/>
       <c r="AX22" s="32"/>
       <c r="AY22" s="32"/>
       <c r="AZ22" s="32"/>
@@ -5582,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -5593,7 +5636,7 @@
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
       <c r="K23" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
@@ -5607,34 +5650,34 @@
       <c r="U23" s="32"/>
       <c r="V23" s="32"/>
       <c r="W23" s="32"/>
-      <c r="X23" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="34"/>
-      <c r="AM23" s="34"/>
-      <c r="AN23" s="34"/>
-      <c r="AO23" s="34"/>
-      <c r="AP23" s="34"/>
-      <c r="AQ23" s="34"/>
-      <c r="AR23" s="34"/>
-      <c r="AS23" s="34"/>
-      <c r="AT23" s="34"/>
-      <c r="AU23" s="34"/>
-      <c r="AV23" s="35"/>
-      <c r="AW23" s="36"/>
+      <c r="X23" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="35"/>
+      <c r="AO23" s="35"/>
+      <c r="AP23" s="35"/>
+      <c r="AQ23" s="35"/>
+      <c r="AR23" s="35"/>
+      <c r="AS23" s="35"/>
+      <c r="AT23" s="35"/>
+      <c r="AU23" s="35"/>
+      <c r="AV23" s="36"/>
+      <c r="AW23" s="33"/>
       <c r="AX23" s="32"/>
       <c r="AY23" s="32"/>
       <c r="AZ23" s="32"/>
@@ -5650,7 +5693,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -5661,7 +5704,7 @@
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
       <c r="K24" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
@@ -5675,34 +5718,34 @@
       <c r="U24" s="32"/>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
-      <c r="X24" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="34"/>
-      <c r="AK24" s="34"/>
-      <c r="AL24" s="34"/>
-      <c r="AM24" s="34"/>
-      <c r="AN24" s="34"/>
-      <c r="AO24" s="34"/>
-      <c r="AP24" s="34"/>
-      <c r="AQ24" s="34"/>
-      <c r="AR24" s="34"/>
-      <c r="AS24" s="34"/>
-      <c r="AT24" s="34"/>
-      <c r="AU24" s="34"/>
-      <c r="AV24" s="35"/>
-      <c r="AW24" s="36"/>
+      <c r="X24" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="35"/>
+      <c r="AL24" s="35"/>
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="35"/>
+      <c r="AO24" s="35"/>
+      <c r="AP24" s="35"/>
+      <c r="AQ24" s="35"/>
+      <c r="AR24" s="35"/>
+      <c r="AS24" s="35"/>
+      <c r="AT24" s="35"/>
+      <c r="AU24" s="35"/>
+      <c r="AV24" s="36"/>
+      <c r="AW24" s="33"/>
       <c r="AX24" s="32"/>
       <c r="AY24" s="32"/>
       <c r="AZ24" s="32"/>
@@ -5718,7 +5761,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -5729,7 +5772,7 @@
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
       <c r="K25" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
@@ -5743,34 +5786,34 @@
       <c r="U25" s="32"/>
       <c r="V25" s="32"/>
       <c r="W25" s="32"/>
-      <c r="X25" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="34"/>
-      <c r="AL25" s="34"/>
-      <c r="AM25" s="34"/>
-      <c r="AN25" s="34"/>
-      <c r="AO25" s="34"/>
-      <c r="AP25" s="34"/>
-      <c r="AQ25" s="34"/>
-      <c r="AR25" s="34"/>
-      <c r="AS25" s="34"/>
-      <c r="AT25" s="34"/>
-      <c r="AU25" s="34"/>
-      <c r="AV25" s="35"/>
-      <c r="AW25" s="36"/>
+      <c r="X25" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="35"/>
+      <c r="AK25" s="35"/>
+      <c r="AL25" s="35"/>
+      <c r="AM25" s="35"/>
+      <c r="AN25" s="35"/>
+      <c r="AO25" s="35"/>
+      <c r="AP25" s="35"/>
+      <c r="AQ25" s="35"/>
+      <c r="AR25" s="35"/>
+      <c r="AS25" s="35"/>
+      <c r="AT25" s="35"/>
+      <c r="AU25" s="35"/>
+      <c r="AV25" s="36"/>
+      <c r="AW25" s="33"/>
       <c r="AX25" s="32"/>
       <c r="AY25" s="32"/>
       <c r="AZ25" s="32"/>
@@ -5786,7 +5829,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
@@ -5797,7 +5840,7 @@
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L26" s="32"/>
       <c r="M26" s="32"/>
@@ -5811,34 +5854,34 @@
       <c r="U26" s="32"/>
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
-      <c r="X26" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="34"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="34"/>
-      <c r="AM26" s="34"/>
-      <c r="AN26" s="34"/>
-      <c r="AO26" s="34"/>
-      <c r="AP26" s="34"/>
-      <c r="AQ26" s="34"/>
-      <c r="AR26" s="34"/>
-      <c r="AS26" s="34"/>
-      <c r="AT26" s="34"/>
-      <c r="AU26" s="34"/>
-      <c r="AV26" s="35"/>
-      <c r="AW26" s="36"/>
+      <c r="X26" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="35"/>
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="35"/>
+      <c r="AN26" s="35"/>
+      <c r="AO26" s="35"/>
+      <c r="AP26" s="35"/>
+      <c r="AQ26" s="35"/>
+      <c r="AR26" s="35"/>
+      <c r="AS26" s="35"/>
+      <c r="AT26" s="35"/>
+      <c r="AU26" s="35"/>
+      <c r="AV26" s="36"/>
+      <c r="AW26" s="33"/>
       <c r="AX26" s="32"/>
       <c r="AY26" s="32"/>
       <c r="AZ26" s="32"/>
@@ -5854,7 +5897,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
@@ -5865,7 +5908,7 @@
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
       <c r="K27" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
@@ -5879,34 +5922,34 @@
       <c r="U27" s="32"/>
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
-      <c r="X27" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="34"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="34"/>
-      <c r="AK27" s="34"/>
-      <c r="AL27" s="34"/>
-      <c r="AM27" s="34"/>
-      <c r="AN27" s="34"/>
-      <c r="AO27" s="34"/>
-      <c r="AP27" s="34"/>
-      <c r="AQ27" s="34"/>
-      <c r="AR27" s="34"/>
-      <c r="AS27" s="34"/>
-      <c r="AT27" s="34"/>
-      <c r="AU27" s="34"/>
-      <c r="AV27" s="35"/>
-      <c r="AW27" s="36">
+      <c r="X27" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="35"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="35"/>
+      <c r="AK27" s="35"/>
+      <c r="AL27" s="35"/>
+      <c r="AM27" s="35"/>
+      <c r="AN27" s="35"/>
+      <c r="AO27" s="35"/>
+      <c r="AP27" s="35"/>
+      <c r="AQ27" s="35"/>
+      <c r="AR27" s="35"/>
+      <c r="AS27" s="35"/>
+      <c r="AT27" s="35"/>
+      <c r="AU27" s="35"/>
+      <c r="AV27" s="36"/>
+      <c r="AW27" s="33">
         <v>42824</v>
       </c>
       <c r="AX27" s="32"/>
@@ -5947,32 +5990,32 @@
       <c r="U28" s="32"/>
       <c r="V28" s="32"/>
       <c r="W28" s="32"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="34"/>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="34"/>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="34"/>
-      <c r="AQ28" s="34"/>
-      <c r="AR28" s="34"/>
-      <c r="AS28" s="34"/>
-      <c r="AT28" s="34"/>
-      <c r="AU28" s="34"/>
-      <c r="AV28" s="35"/>
-      <c r="AW28" s="36"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="35"/>
+      <c r="AI28" s="35"/>
+      <c r="AJ28" s="35"/>
+      <c r="AK28" s="35"/>
+      <c r="AL28" s="35"/>
+      <c r="AM28" s="35"/>
+      <c r="AN28" s="35"/>
+      <c r="AO28" s="35"/>
+      <c r="AP28" s="35"/>
+      <c r="AQ28" s="35"/>
+      <c r="AR28" s="35"/>
+      <c r="AS28" s="35"/>
+      <c r="AT28" s="35"/>
+      <c r="AU28" s="35"/>
+      <c r="AV28" s="36"/>
+      <c r="AW28" s="33"/>
       <c r="AX28" s="32"/>
       <c r="AY28" s="32"/>
       <c r="AZ28" s="32"/>
@@ -6007,32 +6050,32 @@
       <c r="U29" s="32"/>
       <c r="V29" s="32"/>
       <c r="W29" s="32"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="34"/>
-      <c r="AF29" s="34"/>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="34"/>
-      <c r="AK29" s="34"/>
-      <c r="AL29" s="34"/>
-      <c r="AM29" s="34"/>
-      <c r="AN29" s="34"/>
-      <c r="AO29" s="34"/>
-      <c r="AP29" s="34"/>
-      <c r="AQ29" s="34"/>
-      <c r="AR29" s="34"/>
-      <c r="AS29" s="34"/>
-      <c r="AT29" s="34"/>
-      <c r="AU29" s="34"/>
-      <c r="AV29" s="35"/>
-      <c r="AW29" s="36"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="35"/>
+      <c r="AK29" s="35"/>
+      <c r="AL29" s="35"/>
+      <c r="AM29" s="35"/>
+      <c r="AN29" s="35"/>
+      <c r="AO29" s="35"/>
+      <c r="AP29" s="35"/>
+      <c r="AQ29" s="35"/>
+      <c r="AR29" s="35"/>
+      <c r="AS29" s="35"/>
+      <c r="AT29" s="35"/>
+      <c r="AU29" s="35"/>
+      <c r="AV29" s="36"/>
+      <c r="AW29" s="33"/>
       <c r="AX29" s="32"/>
       <c r="AY29" s="32"/>
       <c r="AZ29" s="32"/>
@@ -6045,58 +6088,58 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="44"/>
-      <c r="AB30" s="44"/>
-      <c r="AC30" s="44"/>
-      <c r="AD30" s="44"/>
-      <c r="AE30" s="44"/>
-      <c r="AF30" s="44"/>
-      <c r="AG30" s="44"/>
-      <c r="AH30" s="44"/>
-      <c r="AI30" s="44"/>
-      <c r="AJ30" s="44"/>
-      <c r="AK30" s="44"/>
-      <c r="AL30" s="44"/>
-      <c r="AM30" s="44"/>
-      <c r="AN30" s="44"/>
-      <c r="AO30" s="44"/>
-      <c r="AP30" s="44"/>
-      <c r="AQ30" s="44"/>
-      <c r="AR30" s="44"/>
-      <c r="AS30" s="44"/>
-      <c r="AT30" s="44"/>
-      <c r="AU30" s="44"/>
-      <c r="AV30" s="45"/>
-      <c r="AW30" s="42"/>
-      <c r="AX30" s="42"/>
-      <c r="AY30" s="42"/>
-      <c r="AZ30" s="42"/>
-      <c r="BA30" s="42"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="65"/>
+      <c r="AG30" s="65"/>
+      <c r="AH30" s="65"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="65"/>
+      <c r="AL30" s="65"/>
+      <c r="AM30" s="65"/>
+      <c r="AN30" s="65"/>
+      <c r="AO30" s="65"/>
+      <c r="AP30" s="65"/>
+      <c r="AQ30" s="65"/>
+      <c r="AR30" s="65"/>
+      <c r="AS30" s="65"/>
+      <c r="AT30" s="65"/>
+      <c r="AU30" s="65"/>
+      <c r="AV30" s="66"/>
+      <c r="AW30" s="63"/>
+      <c r="AX30" s="63"/>
+      <c r="AY30" s="63"/>
+      <c r="AZ30" s="63"/>
+      <c r="BA30" s="63"/>
       <c r="BB30" s="14"/>
       <c r="BD30" s="27"/>
     </row>
@@ -6112,6 +6155,95 @@
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="K24:W24"/>
+    <mergeCell ref="X24:AV24"/>
+    <mergeCell ref="AW24:BA24"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AV18"/>
+    <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AV12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="X17:AV17"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:W14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="X14:AV14"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="K30:W30"/>
+    <mergeCell ref="AW30:BA30"/>
+    <mergeCell ref="X30:AV30"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="X8:AV8"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="AW16:BA16"/>
+    <mergeCell ref="X16:AV16"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="X10:AV10"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:W29"/>
+    <mergeCell ref="AW29:BA29"/>
+    <mergeCell ref="X29:AV29"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="X11:AV11"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:W28"/>
+    <mergeCell ref="AW28:BA28"/>
+    <mergeCell ref="X28:AV28"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="X19:AV19"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:W15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="X15:AV15"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="X23:AV23"/>
+    <mergeCell ref="AW23:BA23"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="X21:AV21"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="X22:AV22"/>
+    <mergeCell ref="AW22:BA22"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="X7:AV7"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="X6:AV6"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="AH2:AL4"/>
+    <mergeCell ref="AM2:AQ4"/>
+    <mergeCell ref="AR2:AV4"/>
+    <mergeCell ref="AW2:BA4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:AG4"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="K9:W9"/>
     <mergeCell ref="AW9:BA9"/>
@@ -6136,95 +6268,6 @@
     <mergeCell ref="K26:W26"/>
     <mergeCell ref="X26:AV26"/>
     <mergeCell ref="AW26:BA26"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="X7:AV7"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="X6:AV6"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="AH2:AL4"/>
-    <mergeCell ref="AM2:AQ4"/>
-    <mergeCell ref="AR2:AV4"/>
-    <mergeCell ref="AW2:BA4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:AG4"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:W28"/>
-    <mergeCell ref="AW28:BA28"/>
-    <mergeCell ref="X28:AV28"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="AW19:BA19"/>
-    <mergeCell ref="X19:AV19"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:W15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="X15:AV15"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="X23:AV23"/>
-    <mergeCell ref="AW23:BA23"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="X21:AV21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="X22:AV22"/>
-    <mergeCell ref="AW22:BA22"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="K30:W30"/>
-    <mergeCell ref="AW30:BA30"/>
-    <mergeCell ref="X30:AV30"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="X8:AV8"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="X16:AV16"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="X10:AV10"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:W29"/>
-    <mergeCell ref="AW29:BA29"/>
-    <mergeCell ref="X29:AV29"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="X11:AV11"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="K24:W24"/>
-    <mergeCell ref="X24:AV24"/>
-    <mergeCell ref="AW24:BA24"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="X18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="X17:AV17"/>
-    <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:W14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="X14:AV14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
@@ -18048,117 +18091,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="28" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="28" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="28" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="28" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="28" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="29" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="29" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="29" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="29" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="28" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="28" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="28" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="28" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="28" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="28" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="28" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="28" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:1">

--- a/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
+++ b/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="471">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -372,10 +372,6 @@
     <rPh sb="58" eb="59">
       <t>ナニ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TaxiSeisan\Proc.vb</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2437,67 +2433,6 @@
   </si>
   <si>
     <t>新規追加
-タクチケ台帳出力対象会合テーブル(新規)に登録されている会合のタクチケ台帳CSVを生成し、TBL_FILEに登録する。
-設定ファイルに定義されているmax数を超える分は生成しない。
-CSV生成済の会合番号はタクチケ台帳出力対象会合テーブルから削除する。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カイゴウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ダイチョウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>ズミ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>カイゴウ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規追加
 タクチケ台帳CSV一括生成バッチで生成されたタクチケ台帳CSVのダウンロード指示画面
 会合の開催開始年月を抽出条件とする。</t>
     <rPh sb="0" eb="2">
@@ -2745,8 +2680,110 @@
     <t>緊急</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">新規追加
+    <t>1.3月23日
+2～5.3月28日
+6.3月23日
+7.4月7日</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｓ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaxiSeisan\Proc.vb</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規追加
+タクチケ台帳出力対象会合テーブル(新規)に登録されている会合のタクチケ台帳CSVを生成し、TBL_FILEに登録する。
+設定ファイルに定義されているmax数を超える分は生成しない。
+CSV生成済の会合番号はタクチケ台帳出力対象会合テーブルの出力済フラグ="1"とする。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ズミ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ズミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規追加
 ｢タクチケ自動精算指示画面｣で登録された内容(自動精算対象タクチケテーブルの登録内容)に従い、下記の処理を行う。
 1.会合番号ごとに精算番号を自動採番し、請求データを新規作成。
 2.画面入力された精算年月、精算団体コード、精算コメントを1.で作成した請求データに反映。
@@ -2765,26 +2802,12 @@
 5.1.で自動採番された精算番号のタクチケ精算金額のCSVを生成し、TBL_FILEに登録する。
 　※｢③-4-2精算番号表｣シート参照
 6.1.で自動採番された精算番号の｢総合精算書｣PDFを生成し、TBL_FILEに登録する。
-7.タクチケ台帳出力対象CSVファイルに「自動精算対象タクチケテーブル」に
-　登録されている会合番号を出力し、TBL_FILEに登録する。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>7.タクチケ台帳出力対象会合テーブル(新規)に「自動精算対象タクチケテーブル」に
+7.タクチケ台帳出力対象会合テーブル(新規)に「自動精算対象タクチケテーブル」に
 　登録されている会合番号を登録する。
 　・会合番号=自動精算対象タクチケテーブルより
 　・開催開始日=講演会テーブルより
 　・タクチケ台帳生成済みフラグ=0(未生成)
-　・タクチケ台帳ダウンロード済フラグ=0(未ダウンロード)
 8.自動精算対象タクチケテーブルから、処理済みのデータを削除する。</t>
-    </r>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
@@ -3001,144 +3024,89 @@
     <rPh sb="649" eb="651">
       <t>タイショウ</t>
     </rPh>
+    <rPh sb="651" eb="653">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="658" eb="660">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="663" eb="665">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="665" eb="667">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="667" eb="669">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="681" eb="683">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="688" eb="690">
+      <t>カイゴウ</t>
+    </rPh>
     <rPh sb="690" eb="692">
-      <t>シュツリョク</t>
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="693" eb="695">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="701" eb="703">
+      <t>カイゴウ</t>
     </rPh>
     <rPh sb="703" eb="705">
-      <t>トウロク</t>
+      <t>バンゴウ</t>
     </rPh>
-    <rPh sb="715" eb="717">
+    <rPh sb="706" eb="708">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="708" eb="710">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="710" eb="712">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="725" eb="727">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="727" eb="730">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="731" eb="734">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="747" eb="749">
       <t>ダイチョウ</t>
     </rPh>
-    <rPh sb="717" eb="719">
-      <t>シュツリョク</t>
+    <rPh sb="749" eb="751">
+      <t>セイセイ</t>
     </rPh>
-    <rPh sb="719" eb="721">
+    <rPh sb="751" eb="752">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="759" eb="760">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="760" eb="762">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="766" eb="768">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="768" eb="770">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="770" eb="772">
       <t>タイショウ</t>
     </rPh>
-    <rPh sb="721" eb="723">
-      <t>カイゴウ</t>
+    <rPh sb="783" eb="785">
+      <t>ショリ</t>
     </rPh>
-    <rPh sb="728" eb="730">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="733" eb="735">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="735" eb="737">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="737" eb="739">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="751" eb="753">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="758" eb="760">
-      <t>カイゴウ</t>
-    </rPh>
-    <rPh sb="760" eb="762">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="763" eb="765">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="771" eb="773">
-      <t>カイゴウ</t>
-    </rPh>
-    <rPh sb="773" eb="775">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="776" eb="778">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="778" eb="780">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="780" eb="782">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="795" eb="797">
-      <t>カイサイ</t>
-    </rPh>
-    <rPh sb="797" eb="800">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="801" eb="804">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="817" eb="819">
-      <t>ダイチョウ</t>
-    </rPh>
-    <rPh sb="819" eb="821">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="821" eb="822">
+    <rPh sb="785" eb="786">
       <t>ズ</t>
     </rPh>
-    <rPh sb="829" eb="830">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="830" eb="832">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="840" eb="842">
-      <t>ダイチョウ</t>
-    </rPh>
-    <rPh sb="848" eb="849">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="855" eb="856">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="866" eb="868">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="868" eb="870">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="870" eb="872">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="883" eb="885">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="885" eb="886">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="892" eb="894">
+    <rPh sb="792" eb="794">
       <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.3月23日
-2～5.3月28日
-6.3月23日
-7.4月7日</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3152,7 +3120,7 @@
     <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3218,13 +3186,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="4"/>
-      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -3678,9 +3639,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3688,6 +3646,36 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3755,33 +3743,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4133,10 +4094,10 @@
   <dimension ref="A1:BG31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="48" ySplit="6" topLeftCell="AW16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X22" sqref="X22:AV22"/>
+      <selection pane="bottomRight" activeCell="AW7" sqref="AW7:BA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -4150,246 +4111,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47" t="s">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="50" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="47" t="s">
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47" t="s">
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47" t="s">
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47" t="s">
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="49">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="58">
         <v>42809</v>
       </c>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="47" t="s">
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="49"/>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="58"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="47"/>
-      <c r="BA4" s="47"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -4416,72 +4377,72 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="44" t="s">
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="45"/>
-      <c r="AK6" s="45"/>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="45"/>
-      <c r="AN6" s="45"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="45"/>
-      <c r="AQ6" s="45"/>
-      <c r="AR6" s="45"/>
-      <c r="AS6" s="45"/>
-      <c r="AT6" s="45"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="43" t="s">
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="54"/>
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="54"/>
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="43"/>
-      <c r="AY6" s="43"/>
-      <c r="AZ6" s="43"/>
-      <c r="BA6" s="43"/>
+      <c r="AX6" s="52"/>
+      <c r="AY6" s="52"/>
+      <c r="AZ6" s="52"/>
+      <c r="BA6" s="52"/>
       <c r="BB6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="BC6" s="2"/>
       <c r="BD6" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
@@ -4492,64 +4453,64 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="40" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="39">
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="50"/>
+      <c r="AS7" s="50"/>
+      <c r="AT7" s="50"/>
+      <c r="AU7" s="50"/>
+      <c r="AV7" s="51"/>
+      <c r="AW7" s="48">
         <v>42809</v>
       </c>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="38"/>
+      <c r="AX7" s="47"/>
+      <c r="AY7" s="47"/>
+      <c r="AZ7" s="47"/>
+      <c r="BA7" s="47"/>
       <c r="BB7" s="12"/>
       <c r="BD7" s="27">
         <v>0.3</v>
@@ -4586,34 +4547,34 @@
       <c r="U8" s="32"/>
       <c r="V8" s="32"/>
       <c r="W8" s="32"/>
-      <c r="X8" s="34" t="s">
+      <c r="X8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="35"/>
-      <c r="AS8" s="35"/>
-      <c r="AT8" s="35"/>
-      <c r="AU8" s="35"/>
-      <c r="AV8" s="36"/>
-      <c r="AW8" s="33">
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+      <c r="AP8" s="34"/>
+      <c r="AQ8" s="34"/>
+      <c r="AR8" s="34"/>
+      <c r="AS8" s="34"/>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="34"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="36">
         <v>42809</v>
       </c>
       <c r="AX8" s="32"/>
@@ -4658,34 +4619,34 @@
       <c r="U9" s="32"/>
       <c r="V9" s="32"/>
       <c r="W9" s="32"/>
-      <c r="X9" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35"/>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35"/>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35"/>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="36"/>
-      <c r="AW9" s="33">
+      <c r="X9" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="36">
         <v>42809</v>
       </c>
       <c r="AX9" s="32"/>
@@ -4730,34 +4691,34 @@
       <c r="U10" s="32"/>
       <c r="V10" s="32"/>
       <c r="W10" s="32"/>
-      <c r="X10" s="34" t="s">
-        <v>443</v>
-      </c>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="35"/>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="35"/>
-      <c r="AO10" s="35"/>
-      <c r="AP10" s="35"/>
-      <c r="AQ10" s="35"/>
-      <c r="AR10" s="35"/>
-      <c r="AS10" s="35"/>
-      <c r="AT10" s="35"/>
-      <c r="AU10" s="35"/>
-      <c r="AV10" s="36"/>
-      <c r="AW10" s="33">
+      <c r="X10" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="36">
         <v>42809</v>
       </c>
       <c r="AX10" s="32"/>
@@ -4777,7 +4738,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -4802,34 +4763,34 @@
       <c r="U11" s="32"/>
       <c r="V11" s="32"/>
       <c r="W11" s="32"/>
-      <c r="X11" s="34" t="s">
+      <c r="X11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="35"/>
-      <c r="AS11" s="35"/>
-      <c r="AT11" s="35"/>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="36"/>
-      <c r="AW11" s="33">
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="36">
         <v>42808</v>
       </c>
       <c r="AX11" s="32"/>
@@ -4849,7 +4810,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -4860,7 +4821,7 @@
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
       <c r="K12" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
@@ -4874,34 +4835,34 @@
       <c r="U12" s="32"/>
       <c r="V12" s="32"/>
       <c r="W12" s="32"/>
-      <c r="X12" s="34" t="s">
-        <v>444</v>
-      </c>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="35"/>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="35"/>
-      <c r="AP12" s="35"/>
-      <c r="AQ12" s="35"/>
-      <c r="AR12" s="35"/>
-      <c r="AS12" s="35"/>
-      <c r="AT12" s="35"/>
-      <c r="AU12" s="35"/>
-      <c r="AV12" s="36"/>
-      <c r="AW12" s="33">
+      <c r="X12" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="34"/>
+      <c r="AR12" s="34"/>
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="34"/>
+      <c r="AU12" s="34"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="36">
         <v>42830</v>
       </c>
       <c r="AX12" s="32"/>
@@ -4921,7 +4882,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -4932,7 +4893,7 @@
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
@@ -4946,34 +4907,34 @@
       <c r="U13" s="32"/>
       <c r="V13" s="32"/>
       <c r="W13" s="32"/>
-      <c r="X13" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="35"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="35"/>
-      <c r="AQ13" s="35"/>
-      <c r="AR13" s="35"/>
-      <c r="AS13" s="35"/>
-      <c r="AT13" s="35"/>
-      <c r="AU13" s="35"/>
-      <c r="AV13" s="36"/>
-      <c r="AW13" s="33">
+      <c r="X13" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="34"/>
+      <c r="AP13" s="34"/>
+      <c r="AQ13" s="34"/>
+      <c r="AR13" s="34"/>
+      <c r="AS13" s="34"/>
+      <c r="AT13" s="34"/>
+      <c r="AU13" s="34"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="36">
         <v>42816</v>
       </c>
       <c r="AX13" s="32"/>
@@ -4988,12 +4949,11 @@
       </c>
     </row>
     <row r="14" spans="1:59" s="5" customFormat="1" ht="331.5" customHeight="1">
-      <c r="A14" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="A14" s="6" t="s">
+        <v>467</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -5004,7 +4964,7 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="32" t="s">
-        <v>27</v>
+        <v>468</v>
       </c>
       <c r="L14" s="32"/>
       <c r="M14" s="32"/>
@@ -5018,35 +4978,35 @@
       <c r="U14" s="32"/>
       <c r="V14" s="32"/>
       <c r="W14" s="32"/>
-      <c r="X14" s="34" t="s">
-        <v>468</v>
-      </c>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="35"/>
-      <c r="AR14" s="35"/>
-      <c r="AS14" s="35"/>
-      <c r="AT14" s="35"/>
-      <c r="AU14" s="35"/>
-      <c r="AV14" s="36"/>
-      <c r="AW14" s="67" t="s">
-        <v>469</v>
+      <c r="X14" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
+      <c r="AP14" s="34"/>
+      <c r="AQ14" s="34"/>
+      <c r="AR14" s="34"/>
+      <c r="AS14" s="34"/>
+      <c r="AT14" s="34"/>
+      <c r="AU14" s="34"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="40" t="s">
+        <v>466</v>
       </c>
       <c r="AX14" s="32"/>
       <c r="AY14" s="32"/>
@@ -5064,19 +5024,19 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="59" t="s">
-        <v>399</v>
-      </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61"/>
+      <c r="B15" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
@@ -5090,34 +5050,34 @@
       <c r="U15" s="32"/>
       <c r="V15" s="32"/>
       <c r="W15" s="32"/>
-      <c r="X15" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="35"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="35"/>
-      <c r="AP15" s="35"/>
-      <c r="AQ15" s="35"/>
-      <c r="AR15" s="35"/>
-      <c r="AS15" s="35"/>
-      <c r="AT15" s="35"/>
-      <c r="AU15" s="35"/>
-      <c r="AV15" s="36"/>
-      <c r="AW15" s="33">
+      <c r="X15" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="34"/>
+      <c r="AP15" s="34"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="34"/>
+      <c r="AS15" s="34"/>
+      <c r="AT15" s="34"/>
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="35"/>
+      <c r="AW15" s="36">
         <v>42823</v>
       </c>
       <c r="AX15" s="32"/>
@@ -5136,19 +5096,19 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="59" t="s">
-        <v>400</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="61"/>
+      <c r="B16" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
@@ -5162,34 +5122,34 @@
       <c r="U16" s="32"/>
       <c r="V16" s="32"/>
       <c r="W16" s="32"/>
-      <c r="X16" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="35"/>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="35"/>
-      <c r="AP16" s="35"/>
-      <c r="AQ16" s="35"/>
-      <c r="AR16" s="35"/>
-      <c r="AS16" s="35"/>
-      <c r="AT16" s="35"/>
-      <c r="AU16" s="35"/>
-      <c r="AV16" s="36"/>
-      <c r="AW16" s="33">
+      <c r="X16" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="34"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="34"/>
+      <c r="AR16" s="34"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="34"/>
+      <c r="AU16" s="34"/>
+      <c r="AV16" s="35"/>
+      <c r="AW16" s="36">
         <v>42823</v>
       </c>
       <c r="AX16" s="32"/>
@@ -5208,19 +5168,19 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="59" t="s">
-        <v>438</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="61"/>
+      <c r="B17" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
@@ -5234,34 +5194,36 @@
       <c r="U17" s="32"/>
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
-      <c r="X17" s="34" t="s">
-        <v>441</v>
-      </c>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="35"/>
-      <c r="AQ17" s="35"/>
-      <c r="AR17" s="35"/>
-      <c r="AS17" s="35"/>
-      <c r="AT17" s="35"/>
-      <c r="AU17" s="35"/>
-      <c r="AV17" s="36"/>
-      <c r="AW17" s="33"/>
+      <c r="X17" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="34"/>
+      <c r="AU17" s="34"/>
+      <c r="AV17" s="35"/>
+      <c r="AW17" s="36">
+        <v>42838</v>
+      </c>
       <c r="AX17" s="32"/>
       <c r="AY17" s="32"/>
       <c r="AZ17" s="32"/>
@@ -5276,19 +5238,19 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="32" t="s">
         <v>439</v>
-      </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="32" t="s">
-        <v>440</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
@@ -5302,34 +5264,34 @@
       <c r="U18" s="32"/>
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
-      <c r="X18" s="34" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
-      <c r="AR18" s="35"/>
-      <c r="AS18" s="35"/>
-      <c r="AT18" s="35"/>
-      <c r="AU18" s="35"/>
-      <c r="AV18" s="36"/>
-      <c r="AW18" s="33"/>
+      <c r="X18" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="34"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="36"/>
       <c r="AX18" s="32"/>
       <c r="AY18" s="32"/>
       <c r="AZ18" s="32"/>
@@ -5345,7 +5307,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -5356,7 +5318,7 @@
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -5370,34 +5332,34 @@
       <c r="U19" s="32"/>
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
-      <c r="X19" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="35"/>
-      <c r="AQ19" s="35"/>
-      <c r="AR19" s="35"/>
-      <c r="AS19" s="35"/>
-      <c r="AT19" s="35"/>
-      <c r="AU19" s="35"/>
-      <c r="AV19" s="36"/>
-      <c r="AW19" s="33">
+      <c r="X19" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="34"/>
+      <c r="AO19" s="34"/>
+      <c r="AP19" s="34"/>
+      <c r="AQ19" s="34"/>
+      <c r="AR19" s="34"/>
+      <c r="AS19" s="34"/>
+      <c r="AT19" s="34"/>
+      <c r="AU19" s="34"/>
+      <c r="AV19" s="35"/>
+      <c r="AW19" s="36">
         <v>42824</v>
       </c>
       <c r="AX19" s="32"/>
@@ -5417,7 +5379,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -5428,7 +5390,7 @@
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
@@ -5442,34 +5404,34 @@
       <c r="U20" s="32"/>
       <c r="V20" s="32"/>
       <c r="W20" s="32"/>
-      <c r="X20" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="35"/>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="35"/>
-      <c r="AN20" s="35"/>
-      <c r="AO20" s="35"/>
-      <c r="AP20" s="35"/>
-      <c r="AQ20" s="35"/>
-      <c r="AR20" s="35"/>
-      <c r="AS20" s="35"/>
-      <c r="AT20" s="35"/>
-      <c r="AU20" s="35"/>
-      <c r="AV20" s="36"/>
-      <c r="AW20" s="33">
+      <c r="X20" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="34"/>
+      <c r="AM20" s="34"/>
+      <c r="AN20" s="34"/>
+      <c r="AO20" s="34"/>
+      <c r="AP20" s="34"/>
+      <c r="AQ20" s="34"/>
+      <c r="AR20" s="34"/>
+      <c r="AS20" s="34"/>
+      <c r="AT20" s="34"/>
+      <c r="AU20" s="34"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="36">
         <v>42811</v>
       </c>
       <c r="AX20" s="32"/>
@@ -5489,7 +5451,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
@@ -5500,7 +5462,7 @@
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
       <c r="K21" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
@@ -5514,34 +5476,34 @@
       <c r="U21" s="32"/>
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
-      <c r="X21" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="35"/>
-      <c r="AQ21" s="35"/>
-      <c r="AR21" s="35"/>
-      <c r="AS21" s="35"/>
-      <c r="AT21" s="35"/>
-      <c r="AU21" s="35"/>
-      <c r="AV21" s="36"/>
-      <c r="AW21" s="33"/>
+      <c r="X21" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="34"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="34"/>
+      <c r="AK21" s="34"/>
+      <c r="AL21" s="34"/>
+      <c r="AM21" s="34"/>
+      <c r="AN21" s="34"/>
+      <c r="AO21" s="34"/>
+      <c r="AP21" s="34"/>
+      <c r="AQ21" s="34"/>
+      <c r="AR21" s="34"/>
+      <c r="AS21" s="34"/>
+      <c r="AT21" s="34"/>
+      <c r="AU21" s="34"/>
+      <c r="AV21" s="35"/>
+      <c r="AW21" s="36"/>
       <c r="AX21" s="32"/>
       <c r="AY21" s="32"/>
       <c r="AZ21" s="32"/>
@@ -5557,7 +5519,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
@@ -5568,7 +5530,7 @@
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
       <c r="K22" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -5582,34 +5544,34 @@
       <c r="U22" s="32"/>
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
-      <c r="X22" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="35"/>
-      <c r="AQ22" s="35"/>
-      <c r="AR22" s="35"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="35"/>
-      <c r="AU22" s="35"/>
-      <c r="AV22" s="36"/>
-      <c r="AW22" s="33"/>
+      <c r="X22" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="34"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="34"/>
+      <c r="AK22" s="34"/>
+      <c r="AL22" s="34"/>
+      <c r="AM22" s="34"/>
+      <c r="AN22" s="34"/>
+      <c r="AO22" s="34"/>
+      <c r="AP22" s="34"/>
+      <c r="AQ22" s="34"/>
+      <c r="AR22" s="34"/>
+      <c r="AS22" s="34"/>
+      <c r="AT22" s="34"/>
+      <c r="AU22" s="34"/>
+      <c r="AV22" s="35"/>
+      <c r="AW22" s="36"/>
       <c r="AX22" s="32"/>
       <c r="AY22" s="32"/>
       <c r="AZ22" s="32"/>
@@ -5625,7 +5587,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -5636,7 +5598,7 @@
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
       <c r="K23" s="32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
@@ -5650,34 +5612,34 @@
       <c r="U23" s="32"/>
       <c r="V23" s="32"/>
       <c r="W23" s="32"/>
-      <c r="X23" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="35"/>
-      <c r="AQ23" s="35"/>
-      <c r="AR23" s="35"/>
-      <c r="AS23" s="35"/>
-      <c r="AT23" s="35"/>
-      <c r="AU23" s="35"/>
-      <c r="AV23" s="36"/>
-      <c r="AW23" s="33"/>
+      <c r="X23" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="34"/>
+      <c r="AL23" s="34"/>
+      <c r="AM23" s="34"/>
+      <c r="AN23" s="34"/>
+      <c r="AO23" s="34"/>
+      <c r="AP23" s="34"/>
+      <c r="AQ23" s="34"/>
+      <c r="AR23" s="34"/>
+      <c r="AS23" s="34"/>
+      <c r="AT23" s="34"/>
+      <c r="AU23" s="34"/>
+      <c r="AV23" s="35"/>
+      <c r="AW23" s="36"/>
       <c r="AX23" s="32"/>
       <c r="AY23" s="32"/>
       <c r="AZ23" s="32"/>
@@ -5693,7 +5655,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -5704,7 +5666,7 @@
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
       <c r="K24" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
@@ -5718,34 +5680,34 @@
       <c r="U24" s="32"/>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
-      <c r="X24" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AQ24" s="35"/>
-      <c r="AR24" s="35"/>
-      <c r="AS24" s="35"/>
-      <c r="AT24" s="35"/>
-      <c r="AU24" s="35"/>
-      <c r="AV24" s="36"/>
-      <c r="AW24" s="33"/>
+      <c r="X24" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="34"/>
+      <c r="AK24" s="34"/>
+      <c r="AL24" s="34"/>
+      <c r="AM24" s="34"/>
+      <c r="AN24" s="34"/>
+      <c r="AO24" s="34"/>
+      <c r="AP24" s="34"/>
+      <c r="AQ24" s="34"/>
+      <c r="AR24" s="34"/>
+      <c r="AS24" s="34"/>
+      <c r="AT24" s="34"/>
+      <c r="AU24" s="34"/>
+      <c r="AV24" s="35"/>
+      <c r="AW24" s="36"/>
       <c r="AX24" s="32"/>
       <c r="AY24" s="32"/>
       <c r="AZ24" s="32"/>
@@ -5761,7 +5723,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -5772,7 +5734,7 @@
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
       <c r="K25" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
@@ -5786,34 +5748,34 @@
       <c r="U25" s="32"/>
       <c r="V25" s="32"/>
       <c r="W25" s="32"/>
-      <c r="X25" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="35"/>
-      <c r="AK25" s="35"/>
-      <c r="AL25" s="35"/>
-      <c r="AM25" s="35"/>
-      <c r="AN25" s="35"/>
-      <c r="AO25" s="35"/>
-      <c r="AP25" s="35"/>
-      <c r="AQ25" s="35"/>
-      <c r="AR25" s="35"/>
-      <c r="AS25" s="35"/>
-      <c r="AT25" s="35"/>
-      <c r="AU25" s="35"/>
-      <c r="AV25" s="36"/>
-      <c r="AW25" s="33"/>
+      <c r="X25" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="34"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="34"/>
+      <c r="AL25" s="34"/>
+      <c r="AM25" s="34"/>
+      <c r="AN25" s="34"/>
+      <c r="AO25" s="34"/>
+      <c r="AP25" s="34"/>
+      <c r="AQ25" s="34"/>
+      <c r="AR25" s="34"/>
+      <c r="AS25" s="34"/>
+      <c r="AT25" s="34"/>
+      <c r="AU25" s="34"/>
+      <c r="AV25" s="35"/>
+      <c r="AW25" s="36"/>
       <c r="AX25" s="32"/>
       <c r="AY25" s="32"/>
       <c r="AZ25" s="32"/>
@@ -5829,7 +5791,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
@@ -5840,7 +5802,7 @@
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L26" s="32"/>
       <c r="M26" s="32"/>
@@ -5854,34 +5816,34 @@
       <c r="U26" s="32"/>
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
-      <c r="X26" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="35"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="35"/>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="35"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="35"/>
-      <c r="AN26" s="35"/>
-      <c r="AO26" s="35"/>
-      <c r="AP26" s="35"/>
-      <c r="AQ26" s="35"/>
-      <c r="AR26" s="35"/>
-      <c r="AS26" s="35"/>
-      <c r="AT26" s="35"/>
-      <c r="AU26" s="35"/>
-      <c r="AV26" s="36"/>
-      <c r="AW26" s="33"/>
+      <c r="X26" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="34"/>
+      <c r="AM26" s="34"/>
+      <c r="AN26" s="34"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="34"/>
+      <c r="AQ26" s="34"/>
+      <c r="AR26" s="34"/>
+      <c r="AS26" s="34"/>
+      <c r="AT26" s="34"/>
+      <c r="AU26" s="34"/>
+      <c r="AV26" s="35"/>
+      <c r="AW26" s="36"/>
       <c r="AX26" s="32"/>
       <c r="AY26" s="32"/>
       <c r="AZ26" s="32"/>
@@ -5897,7 +5859,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
@@ -5908,7 +5870,7 @@
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
       <c r="K27" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
@@ -5922,34 +5884,34 @@
       <c r="U27" s="32"/>
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
-      <c r="X27" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="35"/>
-      <c r="AE27" s="35"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="35"/>
-      <c r="AH27" s="35"/>
-      <c r="AI27" s="35"/>
-      <c r="AJ27" s="35"/>
-      <c r="AK27" s="35"/>
-      <c r="AL27" s="35"/>
-      <c r="AM27" s="35"/>
-      <c r="AN27" s="35"/>
-      <c r="AO27" s="35"/>
-      <c r="AP27" s="35"/>
-      <c r="AQ27" s="35"/>
-      <c r="AR27" s="35"/>
-      <c r="AS27" s="35"/>
-      <c r="AT27" s="35"/>
-      <c r="AU27" s="35"/>
-      <c r="AV27" s="36"/>
-      <c r="AW27" s="33">
+      <c r="X27" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="34"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="34"/>
+      <c r="AN27" s="34"/>
+      <c r="AO27" s="34"/>
+      <c r="AP27" s="34"/>
+      <c r="AQ27" s="34"/>
+      <c r="AR27" s="34"/>
+      <c r="AS27" s="34"/>
+      <c r="AT27" s="34"/>
+      <c r="AU27" s="34"/>
+      <c r="AV27" s="35"/>
+      <c r="AW27" s="36">
         <v>42824</v>
       </c>
       <c r="AX27" s="32"/>
@@ -5990,32 +5952,32 @@
       <c r="U28" s="32"/>
       <c r="V28" s="32"/>
       <c r="W28" s="32"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="35"/>
-      <c r="AI28" s="35"/>
-      <c r="AJ28" s="35"/>
-      <c r="AK28" s="35"/>
-      <c r="AL28" s="35"/>
-      <c r="AM28" s="35"/>
-      <c r="AN28" s="35"/>
-      <c r="AO28" s="35"/>
-      <c r="AP28" s="35"/>
-      <c r="AQ28" s="35"/>
-      <c r="AR28" s="35"/>
-      <c r="AS28" s="35"/>
-      <c r="AT28" s="35"/>
-      <c r="AU28" s="35"/>
-      <c r="AV28" s="36"/>
-      <c r="AW28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="34"/>
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="34"/>
+      <c r="AT28" s="34"/>
+      <c r="AU28" s="34"/>
+      <c r="AV28" s="35"/>
+      <c r="AW28" s="36"/>
       <c r="AX28" s="32"/>
       <c r="AY28" s="32"/>
       <c r="AZ28" s="32"/>
@@ -6050,32 +6012,32 @@
       <c r="U29" s="32"/>
       <c r="V29" s="32"/>
       <c r="W29" s="32"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="35"/>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="35"/>
-      <c r="AK29" s="35"/>
-      <c r="AL29" s="35"/>
-      <c r="AM29" s="35"/>
-      <c r="AN29" s="35"/>
-      <c r="AO29" s="35"/>
-      <c r="AP29" s="35"/>
-      <c r="AQ29" s="35"/>
-      <c r="AR29" s="35"/>
-      <c r="AS29" s="35"/>
-      <c r="AT29" s="35"/>
-      <c r="AU29" s="35"/>
-      <c r="AV29" s="36"/>
-      <c r="AW29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="34"/>
+      <c r="AN29" s="34"/>
+      <c r="AO29" s="34"/>
+      <c r="AP29" s="34"/>
+      <c r="AQ29" s="34"/>
+      <c r="AR29" s="34"/>
+      <c r="AS29" s="34"/>
+      <c r="AT29" s="34"/>
+      <c r="AU29" s="34"/>
+      <c r="AV29" s="35"/>
+      <c r="AW29" s="36"/>
       <c r="AX29" s="32"/>
       <c r="AY29" s="32"/>
       <c r="AZ29" s="32"/>
@@ -6088,58 +6050,58 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="63"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="65"/>
-      <c r="AA30" s="65"/>
-      <c r="AB30" s="65"/>
-      <c r="AC30" s="65"/>
-      <c r="AD30" s="65"/>
-      <c r="AE30" s="65"/>
-      <c r="AF30" s="65"/>
-      <c r="AG30" s="65"/>
-      <c r="AH30" s="65"/>
-      <c r="AI30" s="65"/>
-      <c r="AJ30" s="65"/>
-      <c r="AK30" s="65"/>
-      <c r="AL30" s="65"/>
-      <c r="AM30" s="65"/>
-      <c r="AN30" s="65"/>
-      <c r="AO30" s="65"/>
-      <c r="AP30" s="65"/>
-      <c r="AQ30" s="65"/>
-      <c r="AR30" s="65"/>
-      <c r="AS30" s="65"/>
-      <c r="AT30" s="65"/>
-      <c r="AU30" s="65"/>
-      <c r="AV30" s="66"/>
-      <c r="AW30" s="63"/>
-      <c r="AX30" s="63"/>
-      <c r="AY30" s="63"/>
-      <c r="AZ30" s="63"/>
-      <c r="BA30" s="63"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="44"/>
+      <c r="AJ30" s="44"/>
+      <c r="AK30" s="44"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="44"/>
+      <c r="AP30" s="44"/>
+      <c r="AQ30" s="44"/>
+      <c r="AR30" s="44"/>
+      <c r="AS30" s="44"/>
+      <c r="AT30" s="44"/>
+      <c r="AU30" s="44"/>
+      <c r="AV30" s="45"/>
+      <c r="AW30" s="42"/>
+      <c r="AX30" s="42"/>
+      <c r="AY30" s="42"/>
+      <c r="AZ30" s="42"/>
+      <c r="BA30" s="42"/>
       <c r="BB30" s="14"/>
       <c r="BD30" s="27"/>
     </row>
@@ -6155,26 +6117,75 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="K24:W24"/>
-    <mergeCell ref="X24:AV24"/>
-    <mergeCell ref="AW24:BA24"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="X18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="X17:AV17"/>
-    <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:W14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="X14:AV14"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="X9:AV9"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="AW27:BA27"/>
+    <mergeCell ref="X27:AV27"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="X20:AV20"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:W13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="X13:AV13"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="X25:AV25"/>
+    <mergeCell ref="AW25:BA25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:W26"/>
+    <mergeCell ref="X26:AV26"/>
+    <mergeCell ref="AW26:BA26"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="X7:AV7"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="X6:AV6"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="AH2:AL4"/>
+    <mergeCell ref="AM2:AQ4"/>
+    <mergeCell ref="AR2:AV4"/>
+    <mergeCell ref="AW2:BA4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:AG4"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:W28"/>
+    <mergeCell ref="AW28:BA28"/>
+    <mergeCell ref="X28:AV28"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="X19:AV19"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:W15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="X15:AV15"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="X23:AV23"/>
+    <mergeCell ref="AW23:BA23"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="X21:AV21"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="X22:AV22"/>
+    <mergeCell ref="AW22:BA22"/>
     <mergeCell ref="B30:J30"/>
     <mergeCell ref="K30:W30"/>
     <mergeCell ref="AW30:BA30"/>
@@ -6199,75 +6210,26 @@
     <mergeCell ref="K11:W11"/>
     <mergeCell ref="AW11:BA11"/>
     <mergeCell ref="X11:AV11"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:W28"/>
-    <mergeCell ref="AW28:BA28"/>
-    <mergeCell ref="X28:AV28"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="AW19:BA19"/>
-    <mergeCell ref="X19:AV19"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:W15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="X15:AV15"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="X23:AV23"/>
-    <mergeCell ref="AW23:BA23"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="X21:AV21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="X22:AV22"/>
-    <mergeCell ref="AW22:BA22"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="X7:AV7"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="X6:AV6"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="AH2:AL4"/>
-    <mergeCell ref="AM2:AQ4"/>
-    <mergeCell ref="AR2:AV4"/>
-    <mergeCell ref="AW2:BA4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:AG4"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="X9:AV9"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="K27:W27"/>
-    <mergeCell ref="AW27:BA27"/>
-    <mergeCell ref="X27:AV27"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="AW20:BA20"/>
-    <mergeCell ref="X20:AV20"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:W13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="X13:AV13"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="K25:W25"/>
-    <mergeCell ref="X25:AV25"/>
-    <mergeCell ref="AW25:BA25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:W26"/>
-    <mergeCell ref="X26:AV26"/>
-    <mergeCell ref="AW26:BA26"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="K24:W24"/>
+    <mergeCell ref="X24:AV24"/>
+    <mergeCell ref="AW24:BA24"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AV18"/>
+    <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AV12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="X17:AV17"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:W14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="X14:AV14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
@@ -6327,43 +6289,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6371,10 +6333,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="D2" s="19">
         <v>2016</v>
@@ -6383,7 +6345,7 @@
         <v>42673</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="21">
         <v>9000</v>
@@ -6413,10 +6375,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="D3" s="19">
         <v>2016</v>
@@ -6425,7 +6387,7 @@
         <v>42714</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="17">
         <v>45400</v>
@@ -6455,19 +6417,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>49</v>
-      </c>
       <c r="E4" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="17">
         <v>27050</v>
@@ -6497,10 +6459,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -6533,10 +6495,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -6569,10 +6531,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -6605,10 +6567,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -6641,10 +6603,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -6677,10 +6639,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -6713,10 +6675,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -6749,10 +6711,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -6785,10 +6747,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -6821,10 +6783,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -6857,7 +6819,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -6891,7 +6853,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -6925,7 +6887,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -6959,7 +6921,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -6993,7 +6955,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -7027,7 +6989,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -7061,7 +7023,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -7095,7 +7057,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -7129,7 +7091,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -7163,7 +7125,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -7197,7 +7159,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -7231,7 +7193,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -7265,7 +7227,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -7299,7 +7261,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -7333,7 +7295,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -7367,7 +7329,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -7401,7 +7363,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -7435,7 +7397,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -7469,7 +7431,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
@@ -7503,7 +7465,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -7537,7 +7499,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -7571,7 +7533,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -7605,7 +7567,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
@@ -7639,7 +7601,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
@@ -7673,7 +7635,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
@@ -7707,7 +7669,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
@@ -7741,7 +7703,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
@@ -7775,7 +7737,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
@@ -7809,7 +7771,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -7843,7 +7805,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
@@ -7877,7 +7839,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
@@ -7911,7 +7873,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
@@ -7945,7 +7907,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
@@ -7979,7 +7941,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
@@ -8013,7 +7975,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
@@ -8047,7 +8009,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
@@ -8081,7 +8043,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
@@ -8115,7 +8077,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
@@ -8149,7 +8111,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
@@ -8183,7 +8145,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
@@ -8217,7 +8179,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -8251,7 +8213,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
@@ -8285,7 +8247,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -8319,7 +8281,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
@@ -8353,7 +8315,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
@@ -8387,7 +8349,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="23"/>
@@ -8421,7 +8383,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
@@ -8455,7 +8417,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
@@ -8489,7 +8451,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
@@ -8523,7 +8485,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
@@ -8557,7 +8519,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
@@ -8591,7 +8553,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
@@ -8625,7 +8587,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="23"/>
@@ -8659,7 +8621,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
@@ -8693,7 +8655,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
@@ -8727,7 +8689,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C70" s="23"/>
       <c r="D70" s="23"/>
@@ -8761,7 +8723,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="23"/>
@@ -8795,7 +8757,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
@@ -8829,7 +8791,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="23"/>
@@ -8863,7 +8825,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
@@ -8897,7 +8859,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
@@ -8931,7 +8893,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
@@ -8965,7 +8927,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -8999,7 +8961,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
@@ -9033,7 +8995,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="23"/>
@@ -9067,7 +9029,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="23"/>
@@ -9101,7 +9063,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
@@ -9135,7 +9097,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="23"/>
@@ -9169,7 +9131,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="23"/>
@@ -9203,7 +9165,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C84" s="23"/>
       <c r="D84" s="23"/>
@@ -9237,7 +9199,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C85" s="23"/>
       <c r="D85" s="23"/>
@@ -9271,7 +9233,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C86" s="23"/>
       <c r="D86" s="23"/>
@@ -9305,7 +9267,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C87" s="23"/>
       <c r="D87" s="23"/>
@@ -9339,7 +9301,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C88" s="23"/>
       <c r="D88" s="23"/>
@@ -9373,7 +9335,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C89" s="23"/>
       <c r="D89" s="23"/>
@@ -9407,7 +9369,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
@@ -9441,7 +9403,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91" s="23"/>
       <c r="D91" s="23"/>
@@ -9475,7 +9437,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C92" s="23"/>
       <c r="D92" s="23"/>
@@ -9509,7 +9471,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C93" s="23"/>
       <c r="D93" s="23"/>
@@ -9543,7 +9505,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C94" s="23"/>
       <c r="D94" s="23"/>
@@ -9577,7 +9539,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C95" s="23"/>
       <c r="D95" s="23"/>
@@ -9611,7 +9573,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C96" s="23"/>
       <c r="D96" s="23"/>
@@ -9645,7 +9607,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C97" s="23"/>
       <c r="D97" s="23"/>
@@ -9679,7 +9641,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C98" s="23"/>
       <c r="D98" s="23"/>
@@ -9713,7 +9675,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C99" s="23"/>
       <c r="D99" s="23"/>
@@ -9747,7 +9709,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
@@ -9781,7 +9743,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
@@ -9815,7 +9777,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
@@ -9849,7 +9811,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
@@ -9883,7 +9845,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
@@ -9917,7 +9879,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
@@ -9951,7 +9913,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
@@ -9985,7 +9947,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
@@ -10019,7 +9981,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C108" s="23"/>
       <c r="D108" s="23"/>
@@ -10053,7 +10015,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
@@ -10087,7 +10049,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C110" s="23"/>
       <c r="D110" s="23"/>
@@ -10121,7 +10083,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C111" s="23"/>
       <c r="D111" s="23"/>
@@ -10155,7 +10117,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C112" s="23"/>
       <c r="D112" s="23"/>
@@ -10189,7 +10151,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
@@ -10223,7 +10185,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
@@ -10257,7 +10219,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C115" s="23"/>
       <c r="D115" s="23"/>
@@ -10291,7 +10253,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C116" s="23"/>
       <c r="D116" s="23"/>
@@ -10325,7 +10287,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C117" s="23"/>
       <c r="D117" s="23"/>
@@ -10359,7 +10321,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C118" s="23"/>
       <c r="D118" s="23"/>
@@ -10393,7 +10355,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C119" s="23"/>
       <c r="D119" s="23"/>
@@ -10427,7 +10389,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C120" s="23"/>
       <c r="D120" s="23"/>
@@ -10461,7 +10423,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C121" s="23"/>
       <c r="D121" s="23"/>
@@ -10495,7 +10457,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
@@ -10529,7 +10491,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C123" s="23"/>
       <c r="D123" s="23"/>
@@ -10563,7 +10525,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C124" s="23"/>
       <c r="D124" s="23"/>
@@ -10597,7 +10559,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
@@ -10631,7 +10593,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C126" s="23"/>
       <c r="D126" s="23"/>
@@ -10665,7 +10627,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C127" s="23"/>
       <c r="D127" s="23"/>
@@ -10699,7 +10661,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C128" s="23"/>
       <c r="D128" s="23"/>
@@ -10733,7 +10695,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C129" s="23"/>
       <c r="D129" s="23"/>
@@ -10767,7 +10729,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C130" s="23"/>
       <c r="D130" s="23"/>
@@ -10801,7 +10763,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C131" s="23"/>
       <c r="D131" s="23"/>
@@ -10835,7 +10797,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C132" s="23"/>
       <c r="D132" s="23"/>
@@ -10869,7 +10831,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
@@ -10903,7 +10865,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
@@ -10937,7 +10899,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C135" s="23"/>
       <c r="D135" s="23"/>
@@ -10971,7 +10933,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C136" s="23"/>
       <c r="D136" s="23"/>
@@ -11005,7 +10967,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C137" s="23"/>
       <c r="D137" s="23"/>
@@ -11039,7 +11001,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C138" s="23"/>
       <c r="D138" s="23"/>
@@ -11073,7 +11035,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C139" s="23"/>
       <c r="D139" s="23"/>
@@ -11107,7 +11069,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C140" s="23"/>
       <c r="D140" s="23"/>
@@ -11141,7 +11103,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C141" s="23"/>
       <c r="D141" s="23"/>
@@ -11175,7 +11137,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
@@ -11209,7 +11171,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C143" s="23"/>
       <c r="D143" s="23"/>
@@ -11243,7 +11205,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C144" s="23"/>
       <c r="D144" s="23"/>
@@ -11277,7 +11239,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C145" s="23"/>
       <c r="D145" s="23"/>
@@ -11311,7 +11273,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C146" s="23"/>
       <c r="D146" s="23"/>
@@ -11345,7 +11307,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C147" s="23"/>
       <c r="D147" s="23"/>
@@ -11379,7 +11341,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C148" s="23"/>
       <c r="D148" s="23"/>
@@ -11413,7 +11375,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
@@ -11447,7 +11409,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C150" s="23"/>
       <c r="D150" s="23"/>
@@ -11481,7 +11443,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
@@ -11515,7 +11477,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
@@ -11549,7 +11511,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
@@ -11583,7 +11545,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
@@ -11617,7 +11579,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C155" s="23"/>
       <c r="D155" s="23"/>
@@ -11651,7 +11613,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
@@ -11685,7 +11647,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
@@ -11719,7 +11681,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
@@ -11753,7 +11715,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C159" s="23"/>
       <c r="D159" s="23"/>
@@ -11787,7 +11749,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C160" s="23"/>
       <c r="D160" s="23"/>
@@ -11821,7 +11783,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C161" s="23"/>
       <c r="D161" s="23"/>
@@ -11855,7 +11817,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C162" s="23"/>
       <c r="D162" s="23"/>
@@ -11889,7 +11851,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
@@ -11923,7 +11885,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C164" s="23"/>
       <c r="D164" s="23"/>
@@ -11957,7 +11919,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C165" s="23"/>
       <c r="D165" s="23"/>
@@ -11991,7 +11953,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
@@ -12025,7 +11987,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
@@ -12059,7 +12021,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
@@ -12093,7 +12055,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
@@ -12127,7 +12089,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C170" s="23"/>
       <c r="D170" s="23"/>
@@ -12161,7 +12123,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C171" s="23"/>
       <c r="D171" s="23"/>
@@ -12195,7 +12157,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C172" s="23"/>
       <c r="D172" s="23"/>
@@ -12229,7 +12191,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C173" s="23"/>
       <c r="D173" s="23"/>
@@ -12263,7 +12225,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C174" s="23"/>
       <c r="D174" s="23"/>
@@ -12297,7 +12259,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
@@ -12331,7 +12293,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
@@ -12365,7 +12327,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
@@ -12399,7 +12361,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
@@ -12433,7 +12395,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
@@ -12467,7 +12429,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
@@ -12501,7 +12463,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -12535,7 +12497,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
@@ -12569,7 +12531,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -12603,7 +12565,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -12637,7 +12599,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
@@ -12671,7 +12633,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
@@ -12705,7 +12667,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
@@ -12739,7 +12701,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
@@ -12773,7 +12735,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
@@ -12807,7 +12769,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
@@ -12841,7 +12803,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -12875,7 +12837,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
@@ -12909,7 +12871,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
@@ -12943,7 +12905,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
@@ -12977,7 +12939,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
@@ -13011,7 +12973,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -13045,7 +13007,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
@@ -13079,7 +13041,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -13113,7 +13075,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
@@ -13147,7 +13109,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -13181,7 +13143,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
@@ -13215,7 +13177,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
@@ -13249,7 +13211,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -13283,7 +13245,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -13317,7 +13279,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
@@ -13351,7 +13313,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
@@ -13385,7 +13347,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
@@ -13419,7 +13381,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
@@ -13453,7 +13415,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
@@ -13487,7 +13449,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
@@ -13521,7 +13483,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
@@ -13555,7 +13517,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
@@ -13589,7 +13551,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
@@ -13623,7 +13585,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
@@ -13657,7 +13619,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
@@ -13691,7 +13653,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
@@ -13725,7 +13687,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
@@ -13759,7 +13721,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
@@ -13793,7 +13755,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
@@ -13827,7 +13789,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
@@ -13861,7 +13823,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
@@ -13895,7 +13857,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
@@ -13929,7 +13891,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
@@ -13963,7 +13925,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
@@ -13997,7 +13959,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
@@ -14031,7 +13993,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
@@ -14065,7 +14027,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
@@ -14099,7 +14061,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
@@ -14133,7 +14095,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
@@ -14167,7 +14129,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
@@ -14201,7 +14163,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
@@ -14235,7 +14197,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
@@ -14269,7 +14231,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
@@ -14303,7 +14265,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
@@ -14337,7 +14299,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
@@ -14371,7 +14333,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
@@ -14405,7 +14367,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C237" s="23"/>
       <c r="D237" s="23"/>
@@ -14439,7 +14401,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C238" s="23"/>
       <c r="D238" s="23"/>
@@ -14473,7 +14435,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C239" s="23"/>
       <c r="D239" s="23"/>
@@ -14507,7 +14469,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C240" s="23"/>
       <c r="D240" s="23"/>
@@ -14541,7 +14503,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C241" s="23"/>
       <c r="D241" s="23"/>
@@ -14575,7 +14537,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C242" s="23"/>
       <c r="D242" s="23"/>
@@ -14609,7 +14571,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C243" s="23"/>
       <c r="D243" s="23"/>
@@ -14643,7 +14605,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C244" s="23"/>
       <c r="D244" s="23"/>
@@ -14677,7 +14639,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C245" s="23"/>
       <c r="D245" s="23"/>
@@ -14711,7 +14673,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C246" s="23"/>
       <c r="D246" s="23"/>
@@ -14745,7 +14707,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C247" s="23"/>
       <c r="D247" s="23"/>
@@ -14779,7 +14741,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C248" s="23"/>
       <c r="D248" s="23"/>
@@ -14813,7 +14775,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C249" s="23"/>
       <c r="D249" s="23"/>
@@ -14847,7 +14809,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C250" s="23"/>
       <c r="D250" s="23"/>
@@ -14881,7 +14843,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C251" s="23"/>
       <c r="D251" s="23"/>
@@ -14915,7 +14877,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C252" s="23"/>
       <c r="D252" s="23"/>
@@ -14949,7 +14911,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C253" s="23"/>
       <c r="D253" s="23"/>
@@ -14983,7 +14945,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C254" s="23"/>
       <c r="D254" s="23"/>
@@ -15017,7 +14979,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C255" s="23"/>
       <c r="D255" s="23"/>
@@ -15051,7 +15013,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C256" s="23"/>
       <c r="D256" s="23"/>
@@ -15085,7 +15047,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C257" s="23"/>
       <c r="D257" s="23"/>
@@ -15119,7 +15081,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C258" s="23"/>
       <c r="D258" s="23"/>
@@ -15153,7 +15115,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C259" s="23"/>
       <c r="D259" s="23"/>
@@ -15187,7 +15149,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C260" s="23"/>
       <c r="D260" s="23"/>
@@ -15221,7 +15183,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C261" s="23"/>
       <c r="D261" s="23"/>
@@ -15255,7 +15217,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C262" s="23"/>
       <c r="D262" s="23"/>
@@ -15289,7 +15251,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C263" s="23"/>
       <c r="D263" s="23"/>
@@ -15323,7 +15285,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C264" s="23"/>
       <c r="D264" s="23"/>
@@ -15357,7 +15319,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C265" s="23"/>
       <c r="D265" s="23"/>
@@ -15391,7 +15353,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C266" s="23"/>
       <c r="D266" s="23"/>
@@ -15425,7 +15387,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C267" s="23"/>
       <c r="D267" s="23"/>
@@ -15459,7 +15421,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C268" s="23"/>
       <c r="D268" s="23"/>
@@ -15493,7 +15455,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C269" s="23"/>
       <c r="D269" s="23"/>
@@ -15527,7 +15489,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C270" s="23"/>
       <c r="D270" s="23"/>
@@ -15561,7 +15523,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C271" s="23"/>
       <c r="D271" s="23"/>
@@ -15595,7 +15557,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C272" s="23"/>
       <c r="D272" s="23"/>
@@ -15629,7 +15591,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C273" s="23"/>
       <c r="D273" s="23"/>
@@ -15663,7 +15625,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C274" s="23"/>
       <c r="D274" s="23"/>
@@ -15697,7 +15659,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C275" s="23"/>
       <c r="D275" s="23"/>
@@ -15731,7 +15693,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C276" s="23"/>
       <c r="D276" s="23"/>
@@ -15765,7 +15727,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C277" s="23"/>
       <c r="D277" s="23"/>
@@ -15799,7 +15761,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C278" s="23"/>
       <c r="D278" s="23"/>
@@ -15833,7 +15795,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C279" s="23"/>
       <c r="D279" s="23"/>
@@ -15867,7 +15829,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C280" s="23"/>
       <c r="D280" s="23"/>
@@ -15901,7 +15863,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C281" s="23"/>
       <c r="D281" s="23"/>
@@ -15935,7 +15897,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C282" s="23"/>
       <c r="D282" s="23"/>
@@ -15969,7 +15931,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C283" s="23"/>
       <c r="D283" s="23"/>
@@ -16003,7 +15965,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C284" s="23"/>
       <c r="D284" s="23"/>
@@ -16037,7 +15999,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C285" s="23"/>
       <c r="D285" s="23"/>
@@ -16071,7 +16033,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C286" s="23"/>
       <c r="D286" s="23"/>
@@ -16105,7 +16067,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C287" s="23"/>
       <c r="D287" s="23"/>
@@ -16139,7 +16101,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C288" s="23"/>
       <c r="D288" s="23"/>
@@ -16173,7 +16135,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C289" s="23"/>
       <c r="D289" s="23"/>
@@ -16207,7 +16169,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C290" s="23"/>
       <c r="D290" s="23"/>
@@ -16241,7 +16203,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C291" s="23"/>
       <c r="D291" s="23"/>
@@ -16275,7 +16237,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C292" s="23"/>
       <c r="D292" s="23"/>
@@ -16309,7 +16271,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C293" s="23"/>
       <c r="D293" s="23"/>
@@ -16343,7 +16305,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C294" s="23"/>
       <c r="D294" s="23"/>
@@ -16377,7 +16339,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C295" s="23"/>
       <c r="D295" s="23"/>
@@ -16411,7 +16373,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C296" s="23"/>
       <c r="D296" s="23"/>
@@ -16445,7 +16407,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C297" s="23"/>
       <c r="D297" s="23"/>
@@ -16479,7 +16441,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C298" s="23"/>
       <c r="D298" s="23"/>
@@ -16513,7 +16475,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C299" s="23"/>
       <c r="D299" s="23"/>
@@ -16547,7 +16509,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C300" s="23"/>
       <c r="D300" s="23"/>
@@ -16581,7 +16543,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C301" s="23"/>
       <c r="D301" s="23"/>
@@ -16615,7 +16577,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C302" s="23"/>
       <c r="D302" s="23"/>
@@ -16649,7 +16611,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C303" s="23"/>
       <c r="D303" s="23"/>
@@ -16683,7 +16645,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C304" s="23"/>
       <c r="D304" s="23"/>
@@ -16717,7 +16679,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C305" s="23"/>
       <c r="D305" s="23"/>
@@ -16751,7 +16713,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C306" s="23"/>
       <c r="D306" s="23"/>
@@ -16785,7 +16747,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C307" s="23"/>
       <c r="D307" s="23"/>
@@ -16819,7 +16781,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C308" s="23"/>
       <c r="D308" s="23"/>
@@ -16853,7 +16815,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C309" s="23"/>
       <c r="D309" s="23"/>
@@ -16887,7 +16849,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C310" s="23"/>
       <c r="D310" s="23"/>
@@ -16921,7 +16883,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C311" s="23"/>
       <c r="D311" s="23"/>
@@ -16955,7 +16917,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C312" s="23"/>
       <c r="D312" s="23"/>
@@ -16989,7 +16951,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C313" s="23"/>
       <c r="D313" s="23"/>
@@ -17023,7 +16985,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C314" s="23"/>
       <c r="D314" s="23"/>
@@ -17057,7 +17019,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C315" s="23"/>
       <c r="D315" s="23"/>
@@ -17091,7 +17053,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C316" s="23"/>
       <c r="D316" s="23"/>
@@ -17125,7 +17087,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C317" s="23"/>
       <c r="D317" s="23"/>
@@ -17159,7 +17121,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C318" s="23"/>
       <c r="D318" s="23"/>
@@ -17193,7 +17155,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C319" s="23"/>
       <c r="D319" s="23"/>
@@ -17227,7 +17189,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C320" s="23"/>
       <c r="D320" s="23"/>
@@ -17261,7 +17223,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C321" s="23"/>
       <c r="D321" s="23"/>
@@ -17295,7 +17257,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C322" s="23"/>
       <c r="D322" s="23"/>
@@ -17329,7 +17291,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C323" s="23"/>
       <c r="D323" s="23"/>
@@ -17363,7 +17325,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C324" s="23"/>
       <c r="D324" s="23"/>
@@ -17397,7 +17359,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C325" s="23"/>
       <c r="D325" s="23"/>
@@ -17431,7 +17393,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C326" s="23"/>
       <c r="D326" s="23"/>
@@ -17465,7 +17427,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C327" s="23"/>
       <c r="D327" s="23"/>
@@ -17499,7 +17461,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C328" s="23"/>
       <c r="D328" s="23"/>
@@ -17533,7 +17495,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C329" s="23"/>
       <c r="D329" s="23"/>
@@ -17567,7 +17529,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C330" s="23"/>
       <c r="D330" s="23"/>
@@ -17601,7 +17563,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C331" s="23"/>
       <c r="D331" s="23"/>
@@ -17635,7 +17597,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C332" s="23"/>
       <c r="D332" s="23"/>
@@ -17669,7 +17631,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C333" s="23"/>
       <c r="D333" s="23"/>
@@ -17703,7 +17665,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C334" s="23"/>
       <c r="D334" s="23"/>
@@ -17737,7 +17699,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C335" s="23"/>
       <c r="D335" s="23"/>
@@ -17771,7 +17733,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C336" s="23"/>
       <c r="D336" s="23"/>
@@ -17805,7 +17767,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C337" s="23"/>
       <c r="D337" s="23"/>
@@ -17839,7 +17801,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C338" s="23"/>
       <c r="D338" s="23"/>
@@ -17873,7 +17835,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C339" s="23"/>
       <c r="D339" s="23"/>
@@ -17907,7 +17869,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C340" s="23"/>
       <c r="D340" s="23"/>
@@ -17941,7 +17903,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C341" s="23"/>
       <c r="D341" s="23"/>
@@ -17975,7 +17937,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C342" s="23"/>
       <c r="D342" s="23"/>
@@ -18009,7 +17971,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C343" s="23"/>
       <c r="D343" s="23"/>
@@ -18041,7 +18003,7 @@
     <row r="344" spans="1:13">
       <c r="A344" s="15"/>
       <c r="B344" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C344" s="19"/>
       <c r="D344" s="19"/>
@@ -18091,117 +18053,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="28" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="28" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="28" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="28" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="28" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="29" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="29" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="29" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="28" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="28" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="28" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="28" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="28" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="28" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="28" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:1">

--- a/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
+++ b/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
@@ -2432,45 +2432,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新規追加
-タクチケ台帳CSV一括生成バッチで生成されたタクチケ台帳CSVのダウンロード指示画面
-会合の開催開始年月を抽出条件とする。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>カイゴウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>カイサイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・「【新着(日次)】交通・手配CSVボタン」を追加して、ダウンロード画面を起動する。
 ・従来の交通・宿泊新着一覧CSVに項目を追加する。
 　MRのBU、MRのエリア名、MRの営業所名、MR名(カナ)、チケット送付先FS、
@@ -2716,70 +2677,6 @@
   </si>
   <si>
     <t>TaxiSeisan\Proc.vb</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規追加
-タクチケ台帳出力対象会合テーブル(新規)に登録されている会合のタクチケ台帳CSVを生成し、TBL_FILEに登録する。
-設定ファイルに定義されているmax数を超える分は生成しない。
-CSV生成済の会合番号はタクチケ台帳出力対象会合テーブルの出力済フラグ="1"とする。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カイゴウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ダイチョウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>ズミ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>カイゴウ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>ズミ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3107,6 +3004,182 @@
     </rPh>
     <rPh sb="792" eb="794">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規追加
+タクチケ台帳出力対象会合テーブル(新規)に登録されている会合のタクチケ台帳CSVを生成し、TBL_FILEに登録する。
+設定ファイルに定義されているmax数を超える分は生成しない。
+タクチケ台帳出力対象会合テーブルのCSV生成済の会合番号の下記項目を更新する。
+　・ファイル名=タクチケ台帳CSVファイル名
+　・出力済フラグ="1"</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ズミ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>ズミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規追加
+タクチケ台帳CSV一括生成バッチで生成されたタクチケ台帳CSVのダウンロード指示画面
+会合の開催開始年月日From～Toを抽出条件とする。
+抽出条件に従ってタクチケ台帳CSVのファイル名を画面に一覧表示し、CSVファイルの一括ダウンロード、一括削除を可能とする。
+一括ダウンロードの場合は、複数選択されたCSVファイルを１つのzipファイルとしてダウンロードする。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4097,7 +4170,7 @@
       <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AW7" sqref="AW7:BA7"/>
+      <selection pane="bottomRight" activeCell="BS12" sqref="BS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -4692,7 +4765,7 @@
       <c r="V10" s="32"/>
       <c r="W10" s="32"/>
       <c r="X10" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Y10" s="34"/>
       <c r="Z10" s="34"/>
@@ -4836,7 +4909,7 @@
       <c r="V12" s="32"/>
       <c r="W12" s="32"/>
       <c r="X12" s="33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y12" s="34"/>
       <c r="Z12" s="34"/>
@@ -4950,7 +5023,7 @@
     </row>
     <row r="14" spans="1:59" s="5" customFormat="1" ht="331.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>417</v>
@@ -4964,7 +5037,7 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
       <c r="K14" s="32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L14" s="32"/>
       <c r="M14" s="32"/>
@@ -4979,7 +5052,7 @@
       <c r="V14" s="32"/>
       <c r="W14" s="32"/>
       <c r="X14" s="33" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Y14" s="34"/>
       <c r="Z14" s="34"/>
@@ -5006,7 +5079,7 @@
       <c r="AU14" s="34"/>
       <c r="AV14" s="35"/>
       <c r="AW14" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AX14" s="32"/>
       <c r="AY14" s="32"/>
@@ -5163,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:56" s="5" customFormat="1" ht="60" customHeight="1">
+    <row r="17" spans="1:56" s="5" customFormat="1" ht="87.75" customHeight="1">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5231,9 +5304,11 @@
       <c r="BB17" s="13">
         <v>5</v>
       </c>
-      <c r="BD17" s="27"/>
-    </row>
-    <row r="18" spans="1:56" s="5" customFormat="1" ht="60" customHeight="1">
+      <c r="BD17" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" s="5" customFormat="1" ht="105.75" customHeight="1">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5265,7 +5340,7 @@
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
       <c r="X18" s="33" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="Y18" s="34"/>
       <c r="Z18" s="34"/>
@@ -5291,7 +5366,9 @@
       <c r="AT18" s="34"/>
       <c r="AU18" s="34"/>
       <c r="AV18" s="35"/>
-      <c r="AW18" s="36"/>
+      <c r="AW18" s="36">
+        <v>42839</v>
+      </c>
       <c r="AX18" s="32"/>
       <c r="AY18" s="32"/>
       <c r="AZ18" s="32"/>
@@ -5299,7 +5376,9 @@
       <c r="BB18" s="13">
         <v>3</v>
       </c>
-      <c r="BD18" s="27"/>
+      <c r="BD18" s="27">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:56" s="5" customFormat="1" ht="45.75" customHeight="1">
       <c r="A19" s="6">
@@ -6112,7 +6191,7 @@
       </c>
       <c r="BD31" s="9">
         <f>SUM(BD7:BD30)</f>
-        <v>11.2</v>
+        <v>15.2</v>
       </c>
     </row>
   </sheetData>
@@ -18053,117 +18132,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:1">

--- a/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
+++ b/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
@@ -4,16 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="285" windowWidth="27840" windowHeight="12570" tabRatio="673"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="27840" windowHeight="12555" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="タクチケ自動精算" sheetId="1" r:id="rId1"/>
-    <sheet name="【新着】交通・手配CSVダウンロード" sheetId="2" r:id="rId2"/>
-    <sheet name="③-4-2精算番号表" sheetId="3" r:id="rId3"/>
+    <sheet name="メインメニュー" sheetId="4" r:id="rId2"/>
+    <sheet name="【新着】交通・手配CSVダウンロード" sheetId="2" r:id="rId3"/>
+    <sheet name="発送日一括設定" sheetId="6" r:id="rId4"/>
+    <sheet name="タクチケ管理メニュー" sheetId="5" r:id="rId5"/>
+    <sheet name="タクチケ自動精算指示" sheetId="7" r:id="rId6"/>
+    <sheet name="精算番号表CSV DL" sheetId="8" r:id="rId7"/>
+    <sheet name="③-4-2精算番号表" sheetId="3" r:id="rId8"/>
+    <sheet name="総合精算書PDF DL" sheetId="9" r:id="rId9"/>
+    <sheet name="NZ送信対象精算番号取込" sheetId="11" r:id="rId10"/>
+    <sheet name="タクチケ台帳出力対象データDL UL" sheetId="10" r:id="rId11"/>
+    <sheet name="タクチケ台帳CSV DL" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'③-4-2精算番号表'!$A$1:$M$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">タクチケ自動精算!$A$1:$BB$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'③-4-2精算番号表'!$A$1:$M$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">タクチケ自動精算!$A$1:$BB$32</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">タクチケ自動精算!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -77,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="475">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -2283,10 +2292,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TaxiMeisaiAuto.aspx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タクチケ台帳CSV一括生成バッチ</t>
     <rPh sb="4" eb="6">
       <t>ダイチョウ</t>
@@ -2308,13 +2313,6 @@
   </si>
   <si>
     <t>TaxiMeisaiDL.aspx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・「【新着(日次)】交通・手配CSVボタン」を追加して、ダウンロード画面を起動する。
-・従来の交通・宿泊新着一覧CSVに項目を追加する。
-　MRのBU、MRのエリア名、MRの営業所名、MR名(カナ)、チケット送付先FS、
-　チケット送付先(その他)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3116,6 +3114,362 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>web.config変数追加</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>web.config</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜ファイルパス＞
+TaxiMeisaiCsv
+TaxiMeisaiCsv_Backup
+SeisanCsv
+SeisanCsv_Backup
+Seisansho
+Seisansho_Backup
+SEISAN_AUTO_CSV
+SEISAN_AUTO_CSV_BK
+TICKET_SEND_CSV
+TICKET_SEND_CSV_BK
+DAICHO_MAX_COUNT=200(暫定)</t>
+    <rPh sb="190" eb="192">
+      <t>ザンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OutputTaxiDaicho\Proc.vb</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「【新着(日次)】交通・手配CSVボタン」を追加して、ダウンロード画面を起動する。
+・従来の交通・宿泊新着一覧CSVに項目を追加する。
+　MRのBU、MRのエリア名、MRの営業所名、MR名(カナ)、チケット送付先FS、
+　チケット送付先(その他)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取込CSVファイルのレイアウトは「交通・宿泊新着一覧CSV」と同様</t>
+    <rPh sb="0" eb="2">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取込CSVファイルのレイアウトは「タクチケ実績未精算CSV」のA～M列</t>
+    <rPh sb="0" eb="2">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「データ作成予約」ボタンを押すと、自動精算対象のタクチケ番号がテーブルに保管される。</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>規定の時間に「タクチケ自動精算バッチ」が実行され、テーブルに保管されたタクチケ番号に対して、精算処理が行われる。</t>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSVレイアウトは次ページの通り</t>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSVレイアウトは以下の通り</t>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SEQ №</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会合番号</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精算番号</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１．</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ自動精算バッチで生成されたCSVファイルを画面下部の一覧から選んでダウンロード</t>
+    <rPh sb="4" eb="6">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２．</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１．でダウンロードしたCSVの中からタクチケ台帳を生成したい会合番号のみを残して保存（TTT手作業）</t>
+    <rPh sb="15" eb="16">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>テサギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>３．</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２．で編集したCSVを画面上部で取込む</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トリコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>４．</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>規定時間に実行されるタクチケ台帳出力バッチでタクチケ台帳CSVが生成される</t>
+    <rPh sb="0" eb="2">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ台帳出力待ちの会合が規定値（暫定200）になった時点で、取込は中止される。</t>
+    <rPh sb="4" eb="6">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>キテイチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ザンテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>チュウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧からデータを複数選択し、一括ダウンロード・一括削除が可能</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -3126,7 +3480,7 @@
     <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3191,6 +3545,13 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3557,7 +3918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3636,9 +3997,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3646,6 +4004,36 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3714,33 +4102,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="J401K" xfId="1"/>
@@ -3763,37 +4131,1068 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>469583</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="123825" y="190500"/>
+          <a:ext cx="7562850" cy="5038725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457825" y="1514475"/>
+          <a:ext cx="1647825" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="1524000"/>
+          <a:ext cx="1647825" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171451" y="5429250"/>
+          <a:ext cx="590550" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="825867" cy="259045"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="5372100"/>
+          <a:ext cx="825867" cy="259045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t> 新規追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="285750" y="209550"/>
+          <a:ext cx="7419975" cy="4876800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="219075" y="171450"/>
+          <a:ext cx="7134225" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="161925"/>
+          <a:ext cx="7572375" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="304800" y="276225"/>
+          <a:ext cx="7591425" cy="3133725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="2333624"/>
+          <a:ext cx="6562725" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285751" y="3600450"/>
+          <a:ext cx="590550" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="825867" cy="259045"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="3543300"/>
+          <a:ext cx="825867" cy="259045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t> 新規追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="247650" y="171450"/>
+          <a:ext cx="7572375" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257175" y="171450"/>
+          <a:ext cx="7572375" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="4" name="図 3"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="161926" y="123825"/>
-          <a:ext cx="9461182" cy="4914900"/>
+          <a:off x="304800" y="161925"/>
+          <a:ext cx="7419975" cy="4876800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="342900" y="171450"/>
+          <a:ext cx="7572375" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="333375" y="190500"/>
+          <a:ext cx="7562850" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4088,16 +5487,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG31"/>
+  <dimension ref="A1:BG32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:I4"/>
+      <selection pane="bottomRight" activeCell="AW7" sqref="AW7:BA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="53" width="2.625" style="1"/>
@@ -4107,249 +5506,249 @@
     <col min="57" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44" t="s">
+    <row r="1" spans="1:59">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="47" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="44" t="s">
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44" t="s">
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44" t="s">
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44" t="s">
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-    </row>
-    <row r="2" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="45" t="s">
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+    </row>
+    <row r="2" spans="1:59" ht="11.25" customHeight="1">
+      <c r="A2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="46">
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="55">
         <v>42809</v>
       </c>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="44" t="s">
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
-    </row>
-    <row r="3" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="46"/>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.15">
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+    </row>
+    <row r="3" spans="1:59" ht="11.25" customHeight="1">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
+    </row>
+    <row r="4" spans="1:59">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+    </row>
+    <row r="5" spans="1:59">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4370,70 +5769,70 @@
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
     </row>
-    <row r="6" spans="1:59" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" ht="21.75" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="41" t="s">
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="42"/>
-      <c r="AM6" s="42"/>
-      <c r="AN6" s="42"/>
-      <c r="AO6" s="42"/>
-      <c r="AP6" s="42"/>
-      <c r="AQ6" s="42"/>
-      <c r="AR6" s="42"/>
-      <c r="AS6" s="42"/>
-      <c r="AT6" s="42"/>
-      <c r="AU6" s="42"/>
-      <c r="AV6" s="43"/>
-      <c r="AW6" s="40" t="s">
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="51"/>
+      <c r="AT6" s="51"/>
+      <c r="AU6" s="51"/>
+      <c r="AV6" s="52"/>
+      <c r="AW6" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="40"/>
-      <c r="AY6" s="40"/>
-      <c r="AZ6" s="40"/>
-      <c r="BA6" s="40"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
       <c r="BB6" s="11" t="s">
         <v>13</v>
       </c>
@@ -4445,81 +5844,81 @@
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
     </row>
-    <row r="7" spans="1:59" s="5" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:59" s="5" customFormat="1" ht="11.25" customHeight="1" thickTop="1">
       <c r="A7" s="4">
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="37" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="36">
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="47"/>
+      <c r="AS7" s="47"/>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="47"/>
+      <c r="AV7" s="48"/>
+      <c r="AW7" s="45">
         <v>42809</v>
       </c>
-      <c r="AX7" s="35"/>
-      <c r="AY7" s="35"/>
-      <c r="AZ7" s="35"/>
-      <c r="BA7" s="35"/>
+      <c r="AX7" s="44"/>
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44"/>
       <c r="BB7" s="12"/>
       <c r="BD7" s="27">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:59" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:59" s="5" customFormat="1" ht="153.75" customHeight="1">
       <c r="A8" s="6">
-        <f t="shared" ref="A8:A30" si="0">ROW()-6</f>
+        <f t="shared" ref="A8:A31" si="0">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>18</v>
+        <v>445</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -4530,7 +5929,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
       <c r="K8" s="29" t="s">
-        <v>19</v>
+        <v>446</v>
       </c>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
@@ -4544,54 +5943,48 @@
       <c r="U8" s="29"/>
       <c r="V8" s="29"/>
       <c r="W8" s="29"/>
-      <c r="X8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="32"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="32"/>
-      <c r="AP8" s="32"/>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="32"/>
-      <c r="AT8" s="32"/>
-      <c r="AU8" s="32"/>
-      <c r="AV8" s="33"/>
-      <c r="AW8" s="30">
-        <v>42809</v>
-      </c>
+      <c r="X8" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31"/>
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="31"/>
+      <c r="AU8" s="31"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="33"/>
       <c r="AX8" s="29"/>
       <c r="AY8" s="29"/>
       <c r="AZ8" s="29"/>
       <c r="BA8" s="29"/>
-      <c r="BB8" s="13">
-        <v>1</v>
-      </c>
-      <c r="BD8" s="27">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BB8" s="13"/>
+      <c r="BD8" s="27"/>
+    </row>
+    <row r="9" spans="1:59" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -4602,7 +5995,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
       <c r="K9" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
@@ -4616,34 +6009,34 @@
       <c r="U9" s="29"/>
       <c r="V9" s="29"/>
       <c r="W9" s="29"/>
-      <c r="X9" s="31" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="30">
+      <c r="X9" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="33">
         <v>42809</v>
       </c>
       <c r="AX9" s="29"/>
@@ -4654,16 +6047,16 @@
         <v>1</v>
       </c>
       <c r="BD9" s="27">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" s="5" customFormat="1" ht="46.5" customHeight="1">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -4674,7 +6067,7 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="K10" s="29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
@@ -4688,34 +6081,34 @@
       <c r="U10" s="29"/>
       <c r="V10" s="29"/>
       <c r="W10" s="29"/>
-      <c r="X10" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="32"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32"/>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="32"/>
-      <c r="AT10" s="32"/>
-      <c r="AU10" s="32"/>
-      <c r="AV10" s="33"/>
-      <c r="AW10" s="30">
+      <c r="X10" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31"/>
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="31"/>
+      <c r="AT10" s="31"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="33">
         <v>42809</v>
       </c>
       <c r="AX10" s="29"/>
@@ -4723,19 +6116,19 @@
       <c r="AZ10" s="29"/>
       <c r="BA10" s="29"/>
       <c r="BB10" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="27">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:59" s="5" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:59" s="5" customFormat="1" ht="53.25" customHeight="1">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>417</v>
+        <v>22</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -4746,7 +6139,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="K11" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
@@ -4760,35 +6153,35 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
-      <c r="X11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="32"/>
-      <c r="AP11" s="32"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="33"/>
-      <c r="AW11" s="30">
-        <v>42808</v>
+      <c r="X11" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="33">
+        <v>42809</v>
       </c>
       <c r="AX11" s="29"/>
       <c r="AY11" s="29"/>
@@ -4798,16 +6191,16 @@
         <v>0.5</v>
       </c>
       <c r="BD11" s="27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" s="5" customFormat="1" ht="47.25" customHeight="1">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -4818,7 +6211,7 @@
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
       <c r="K12" s="29" t="s">
-        <v>433</v>
+        <v>24</v>
       </c>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
@@ -4832,54 +6225,54 @@
       <c r="U12" s="29"/>
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
-      <c r="X12" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="32"/>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="32"/>
-      <c r="AQ12" s="32"/>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="32"/>
-      <c r="AT12" s="32"/>
-      <c r="AU12" s="32"/>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="30">
-        <v>42830</v>
+      <c r="X12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="33">
+        <v>42808</v>
       </c>
       <c r="AX12" s="29"/>
       <c r="AY12" s="29"/>
       <c r="AZ12" s="29"/>
       <c r="BA12" s="29"/>
       <c r="BB12" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BD12" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" s="5" customFormat="1" ht="85.5" customHeight="1">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -4890,7 +6283,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="29" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
@@ -4904,53 +6297,54 @@
       <c r="U13" s="29"/>
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
-      <c r="X13" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="32"/>
-      <c r="AT13" s="32"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="30">
-        <v>42816</v>
+      <c r="X13" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="33">
+        <v>42830</v>
       </c>
       <c r="AX13" s="29"/>
       <c r="AY13" s="29"/>
       <c r="AZ13" s="29"/>
       <c r="BA13" s="29"/>
       <c r="BB13" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:59" s="5" customFormat="1" ht="331.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:59" s="5" customFormat="1" ht="53.25" customHeight="1">
       <c r="A14" s="6">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -4961,7 +6355,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="29" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
@@ -4975,65 +6369,64 @@
       <c r="U14" s="29"/>
       <c r="V14" s="29"/>
       <c r="W14" s="29"/>
-      <c r="X14" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="32"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="32"/>
-      <c r="AT14" s="32"/>
-      <c r="AU14" s="32"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="64" t="s">
-        <v>446</v>
+      <c r="X14" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="31"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="31"/>
+      <c r="AT14" s="31"/>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="33">
+        <v>42816</v>
       </c>
       <c r="AX14" s="29"/>
       <c r="AY14" s="29"/>
       <c r="AZ14" s="29"/>
       <c r="BA14" s="29"/>
       <c r="BB14" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BD14" s="27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59" s="5" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" s="5" customFormat="1" ht="331.5" customHeight="1">
       <c r="A15" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>398</v>
-      </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="29" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
@@ -5047,65 +6440,65 @@
       <c r="U15" s="29"/>
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
-      <c r="X15" s="31" t="s">
+      <c r="X15" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="37" t="s">
         <v>444</v>
-      </c>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="32"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="33"/>
-      <c r="AW15" s="30">
-        <v>42823</v>
       </c>
       <c r="AX15" s="29"/>
       <c r="AY15" s="29"/>
       <c r="AZ15" s="29"/>
       <c r="BA15" s="29"/>
       <c r="BB15" s="13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BD15" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" s="5" customFormat="1" ht="93.75" customHeight="1">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="56" t="s">
-        <v>399</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
+      <c r="B16" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
@@ -5119,34 +6512,34 @@
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
-      <c r="X16" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="32"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="32"/>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="32"/>
-      <c r="AS16" s="32"/>
-      <c r="AT16" s="32"/>
-      <c r="AU16" s="32"/>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="30">
+      <c r="X16" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="31"/>
+      <c r="AQ16" s="31"/>
+      <c r="AR16" s="31"/>
+      <c r="AS16" s="31"/>
+      <c r="AT16" s="31"/>
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="32"/>
+      <c r="AW16" s="33">
         <v>42823</v>
       </c>
       <c r="AX16" s="29"/>
@@ -5160,24 +6553,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:56" s="5" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:56" s="5" customFormat="1" ht="85.5" customHeight="1">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
+      <c r="B17" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="29" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
@@ -5191,65 +6584,65 @@
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
-      <c r="X17" s="31" t="s">
+      <c r="X17" s="30" t="s">
         <v>441</v>
       </c>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="32"/>
-      <c r="AO17" s="32"/>
-      <c r="AP17" s="32"/>
-      <c r="AQ17" s="32"/>
-      <c r="AR17" s="32"/>
-      <c r="AS17" s="32"/>
-      <c r="AT17" s="32"/>
-      <c r="AU17" s="32"/>
-      <c r="AV17" s="33"/>
-      <c r="AW17" s="30">
-        <v>42838</v>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="31"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="31"/>
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="32"/>
+      <c r="AW17" s="33">
+        <v>42823</v>
       </c>
       <c r="AX17" s="29"/>
       <c r="AY17" s="29"/>
       <c r="AZ17" s="29"/>
       <c r="BA17" s="29"/>
       <c r="BB17" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD17" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:56" s="5" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" s="5" customFormat="1" ht="87.75" customHeight="1">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="56" t="s">
-        <v>436</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
+      <c r="B18" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
       <c r="K18" s="29" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
@@ -5263,65 +6656,65 @@
       <c r="U18" s="29"/>
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
-      <c r="X18" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AT18" s="32"/>
-      <c r="AU18" s="32"/>
-      <c r="AV18" s="33"/>
-      <c r="AW18" s="30">
-        <v>42839</v>
+      <c r="X18" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="32"/>
+      <c r="AW18" s="33">
+        <v>42838</v>
       </c>
       <c r="AX18" s="29"/>
       <c r="AY18" s="29"/>
       <c r="AZ18" s="29"/>
       <c r="BA18" s="29"/>
       <c r="BB18" s="13">
+        <v>5</v>
+      </c>
+      <c r="BD18" s="27">
         <v>3</v>
       </c>
-      <c r="BD18" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:56" s="5" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:56" s="5" customFormat="1" ht="105.75" customHeight="1">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="B19" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="36"/>
       <c r="K19" s="29" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
@@ -5335,54 +6728,54 @@
       <c r="U19" s="29"/>
       <c r="V19" s="29"/>
       <c r="W19" s="29"/>
-      <c r="X19" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="32"/>
-      <c r="AN19" s="32"/>
-      <c r="AO19" s="32"/>
-      <c r="AP19" s="32"/>
-      <c r="AQ19" s="32"/>
-      <c r="AR19" s="32"/>
-      <c r="AS19" s="32"/>
-      <c r="AT19" s="32"/>
-      <c r="AU19" s="32"/>
-      <c r="AV19" s="33"/>
-      <c r="AW19" s="30">
-        <v>42824</v>
+      <c r="X19" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="32"/>
+      <c r="AW19" s="33">
+        <v>42839</v>
       </c>
       <c r="AX19" s="29"/>
       <c r="AY19" s="29"/>
       <c r="AZ19" s="29"/>
       <c r="BA19" s="29"/>
       <c r="BB19" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD19" s="27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" s="5" customFormat="1" ht="45.75" customHeight="1">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
@@ -5393,7 +6786,7 @@
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
       <c r="K20" s="29" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
@@ -5407,54 +6800,54 @@
       <c r="U20" s="29"/>
       <c r="V20" s="29"/>
       <c r="W20" s="29"/>
-      <c r="X20" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="32"/>
-      <c r="AU20" s="32"/>
-      <c r="AV20" s="33"/>
-      <c r="AW20" s="30">
-        <v>42811</v>
+      <c r="X20" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="31"/>
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="32"/>
+      <c r="AW20" s="33">
+        <v>42824</v>
       </c>
       <c r="AX20" s="29"/>
       <c r="AY20" s="29"/>
       <c r="AZ20" s="29"/>
       <c r="BA20" s="29"/>
       <c r="BB20" s="13">
+        <v>2</v>
+      </c>
+      <c r="BD20" s="27">
         <v>0.5</v>
       </c>
-      <c r="BD20" s="27">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:56" s="5" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:56" s="5" customFormat="1">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
@@ -5465,7 +6858,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
       <c r="K21" s="29" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
@@ -5479,50 +6872,54 @@
       <c r="U21" s="29"/>
       <c r="V21" s="29"/>
       <c r="W21" s="29"/>
-      <c r="X21" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="32"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="33"/>
-      <c r="AW21" s="30"/>
+      <c r="X21" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="31"/>
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="31"/>
+      <c r="AQ21" s="31"/>
+      <c r="AR21" s="31"/>
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="33">
+        <v>42811</v>
+      </c>
       <c r="AX21" s="29"/>
       <c r="AY21" s="29"/>
       <c r="AZ21" s="29"/>
       <c r="BA21" s="29"/>
       <c r="BB21" s="13">
-        <v>3</v>
-      </c>
-      <c r="BD21" s="27"/>
-    </row>
-    <row r="22" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.5</v>
+      </c>
+      <c r="BD21" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56" s="5" customFormat="1" ht="130.5" customHeight="1">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -5533,7 +6930,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
       <c r="K22" s="29" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
@@ -5547,50 +6944,50 @@
       <c r="U22" s="29"/>
       <c r="V22" s="29"/>
       <c r="W22" s="29"/>
-      <c r="X22" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="32"/>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="32"/>
-      <c r="AN22" s="32"/>
-      <c r="AO22" s="32"/>
-      <c r="AP22" s="32"/>
-      <c r="AQ22" s="32"/>
-      <c r="AR22" s="32"/>
-      <c r="AS22" s="32"/>
-      <c r="AT22" s="32"/>
-      <c r="AU22" s="32"/>
-      <c r="AV22" s="33"/>
-      <c r="AW22" s="30"/>
+      <c r="X22" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31"/>
+      <c r="AO22" s="31"/>
+      <c r="AP22" s="31"/>
+      <c r="AQ22" s="31"/>
+      <c r="AR22" s="31"/>
+      <c r="AS22" s="31"/>
+      <c r="AT22" s="31"/>
+      <c r="AU22" s="31"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="33"/>
       <c r="AX22" s="29"/>
       <c r="AY22" s="29"/>
       <c r="AZ22" s="29"/>
       <c r="BA22" s="29"/>
       <c r="BB22" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD22" s="27"/>
     </row>
-    <row r="23" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
@@ -5601,7 +6998,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
       <c r="K23" s="29" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
@@ -5615,34 +7012,34 @@
       <c r="U23" s="29"/>
       <c r="V23" s="29"/>
       <c r="W23" s="29"/>
-      <c r="X23" s="31" t="s">
+      <c r="X23" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
-      <c r="AV23" s="33"/>
-      <c r="AW23" s="30"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="31"/>
+      <c r="AL23" s="31"/>
+      <c r="AM23" s="31"/>
+      <c r="AN23" s="31"/>
+      <c r="AO23" s="31"/>
+      <c r="AP23" s="31"/>
+      <c r="AQ23" s="31"/>
+      <c r="AR23" s="31"/>
+      <c r="AS23" s="31"/>
+      <c r="AT23" s="31"/>
+      <c r="AU23" s="31"/>
+      <c r="AV23" s="32"/>
+      <c r="AW23" s="33"/>
       <c r="AX23" s="29"/>
       <c r="AY23" s="29"/>
       <c r="AZ23" s="29"/>
@@ -5652,13 +7049,13 @@
       </c>
       <c r="BD23" s="27"/>
     </row>
-    <row r="24" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -5669,7 +7066,7 @@
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
       <c r="K24" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
@@ -5683,34 +7080,34 @@
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
       <c r="W24" s="29"/>
-      <c r="X24" s="31" t="s">
-        <v>427</v>
-      </c>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="32"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="32"/>
-      <c r="AT24" s="32"/>
-      <c r="AU24" s="32"/>
-      <c r="AV24" s="33"/>
-      <c r="AW24" s="30"/>
+      <c r="X24" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="31"/>
+      <c r="AM24" s="31"/>
+      <c r="AN24" s="31"/>
+      <c r="AO24" s="31"/>
+      <c r="AP24" s="31"/>
+      <c r="AQ24" s="31"/>
+      <c r="AR24" s="31"/>
+      <c r="AS24" s="31"/>
+      <c r="AT24" s="31"/>
+      <c r="AU24" s="31"/>
+      <c r="AV24" s="32"/>
+      <c r="AW24" s="33"/>
       <c r="AX24" s="29"/>
       <c r="AY24" s="29"/>
       <c r="AZ24" s="29"/>
@@ -5720,13 +7117,13 @@
       </c>
       <c r="BD24" s="27"/>
     </row>
-    <row r="25" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
@@ -5737,7 +7134,7 @@
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="29" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
@@ -5751,34 +7148,34 @@
       <c r="U25" s="29"/>
       <c r="V25" s="29"/>
       <c r="W25" s="29"/>
-      <c r="X25" s="31" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="32"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="32"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="32"/>
-      <c r="AS25" s="32"/>
-      <c r="AT25" s="32"/>
-      <c r="AU25" s="32"/>
-      <c r="AV25" s="33"/>
-      <c r="AW25" s="30"/>
+      <c r="X25" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+      <c r="AL25" s="31"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="31"/>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="31"/>
+      <c r="AQ25" s="31"/>
+      <c r="AR25" s="31"/>
+      <c r="AS25" s="31"/>
+      <c r="AT25" s="31"/>
+      <c r="AU25" s="31"/>
+      <c r="AV25" s="32"/>
+      <c r="AW25" s="33"/>
       <c r="AX25" s="29"/>
       <c r="AY25" s="29"/>
       <c r="AZ25" s="29"/>
@@ -5788,7 +7185,7 @@
       </c>
       <c r="BD25" s="27"/>
     </row>
-    <row r="26" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5819,34 +7216,34 @@
       <c r="U26" s="29"/>
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
-      <c r="X26" s="31" t="s">
+      <c r="X26" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="33"/>
-      <c r="AW26" s="30"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="31"/>
+      <c r="AI26" s="31"/>
+      <c r="AJ26" s="31"/>
+      <c r="AK26" s="31"/>
+      <c r="AL26" s="31"/>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="31"/>
+      <c r="AP26" s="31"/>
+      <c r="AQ26" s="31"/>
+      <c r="AR26" s="31"/>
+      <c r="AS26" s="31"/>
+      <c r="AT26" s="31"/>
+      <c r="AU26" s="31"/>
+      <c r="AV26" s="32"/>
+      <c r="AW26" s="33"/>
       <c r="AX26" s="29"/>
       <c r="AY26" s="29"/>
       <c r="AZ26" s="29"/>
@@ -5856,13 +7253,13 @@
       </c>
       <c r="BD26" s="27"/>
     </row>
-    <row r="27" spans="1:56" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
@@ -5872,8 +7269,8 @@
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
-      <c r="K27" s="28" t="s">
-        <v>410</v>
+      <c r="K27" s="29" t="s">
+        <v>430</v>
       </c>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
@@ -5887,53 +7284,51 @@
       <c r="U27" s="29"/>
       <c r="V27" s="29"/>
       <c r="W27" s="29"/>
-      <c r="X27" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="32"/>
-      <c r="AS27" s="32"/>
-      <c r="AT27" s="32"/>
-      <c r="AU27" s="32"/>
-      <c r="AV27" s="33"/>
-      <c r="AW27" s="30">
-        <v>42824</v>
-      </c>
+      <c r="X27" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31"/>
+      <c r="AO27" s="31"/>
+      <c r="AP27" s="31"/>
+      <c r="AQ27" s="31"/>
+      <c r="AR27" s="31"/>
+      <c r="AS27" s="31"/>
+      <c r="AT27" s="31"/>
+      <c r="AU27" s="31"/>
+      <c r="AV27" s="32"/>
+      <c r="AW27" s="33"/>
       <c r="AX27" s="29"/>
       <c r="AY27" s="29"/>
       <c r="AZ27" s="29"/>
       <c r="BA27" s="29"/>
       <c r="BB27" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="BD27" s="27">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="BD27" s="27"/>
+    </row>
+    <row r="28" spans="1:56" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="28" t="s">
+        <v>414</v>
+      </c>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
@@ -5942,7 +7337,9 @@
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
+      <c r="K28" s="28" t="s">
+        <v>410</v>
+      </c>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
@@ -5955,40 +7352,48 @@
       <c r="U28" s="29"/>
       <c r="V28" s="29"/>
       <c r="W28" s="29"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
-      <c r="AT28" s="32"/>
-      <c r="AU28" s="32"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="30"/>
+      <c r="X28" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
+      <c r="AO28" s="31"/>
+      <c r="AP28" s="31"/>
+      <c r="AQ28" s="31"/>
+      <c r="AR28" s="31"/>
+      <c r="AS28" s="31"/>
+      <c r="AT28" s="31"/>
+      <c r="AU28" s="31"/>
+      <c r="AV28" s="32"/>
+      <c r="AW28" s="33">
+        <v>42824</v>
+      </c>
       <c r="AX28" s="29"/>
       <c r="AY28" s="29"/>
       <c r="AZ28" s="29"/>
       <c r="BA28" s="29"/>
-      <c r="BB28" s="13"/>
-      <c r="BD28" s="27"/>
-    </row>
-    <row r="29" spans="1:56" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="BB28" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="BD28" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:56" s="5" customFormat="1">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6015,32 +7420,32 @@
       <c r="U29" s="29"/>
       <c r="V29" s="29"/>
       <c r="W29" s="29"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="32"/>
-      <c r="AO29" s="32"/>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="32"/>
-      <c r="AT29" s="32"/>
-      <c r="AU29" s="32"/>
-      <c r="AV29" s="33"/>
-      <c r="AW29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="31"/>
+      <c r="AI29" s="31"/>
+      <c r="AJ29" s="31"/>
+      <c r="AK29" s="31"/>
+      <c r="AL29" s="31"/>
+      <c r="AM29" s="31"/>
+      <c r="AN29" s="31"/>
+      <c r="AO29" s="31"/>
+      <c r="AP29" s="31"/>
+      <c r="AQ29" s="31"/>
+      <c r="AR29" s="31"/>
+      <c r="AS29" s="31"/>
+      <c r="AT29" s="31"/>
+      <c r="AU29" s="31"/>
+      <c r="AV29" s="32"/>
+      <c r="AW29" s="33"/>
       <c r="AX29" s="29"/>
       <c r="AY29" s="29"/>
       <c r="AZ29" s="29"/>
@@ -6048,146 +7453,166 @@
       <c r="BB29" s="13"/>
       <c r="BD29" s="27"/>
     </row>
-    <row r="30" spans="1:56" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
+    <row r="30" spans="1:56" s="5" customFormat="1">
+      <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="61"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
-      <c r="AE30" s="62"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="62"/>
-      <c r="AI30" s="62"/>
-      <c r="AJ30" s="62"/>
-      <c r="AK30" s="62"/>
-      <c r="AL30" s="62"/>
-      <c r="AM30" s="62"/>
-      <c r="AN30" s="62"/>
-      <c r="AO30" s="62"/>
-      <c r="AP30" s="62"/>
-      <c r="AQ30" s="62"/>
-      <c r="AR30" s="62"/>
-      <c r="AS30" s="62"/>
-      <c r="AT30" s="62"/>
-      <c r="AU30" s="62"/>
-      <c r="AV30" s="63"/>
-      <c r="AW30" s="60"/>
-      <c r="AX30" s="60"/>
-      <c r="AY30" s="60"/>
-      <c r="AZ30" s="60"/>
-      <c r="BA30" s="60"/>
-      <c r="BB30" s="14"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="31"/>
+      <c r="AP30" s="31"/>
+      <c r="AQ30" s="31"/>
+      <c r="AR30" s="31"/>
+      <c r="AS30" s="31"/>
+      <c r="AT30" s="31"/>
+      <c r="AU30" s="31"/>
+      <c r="AV30" s="32"/>
+      <c r="AW30" s="33"/>
+      <c r="AX30" s="29"/>
+      <c r="AY30" s="29"/>
+      <c r="AZ30" s="29"/>
+      <c r="BA30" s="29"/>
+      <c r="BB30" s="13"/>
       <c r="BD30" s="27"/>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="BB31" s="9">
-        <f>SUM(BB7:BB30)</f>
+    <row r="31" spans="1:56" s="5" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A31" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="41"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="41"/>
+      <c r="AP31" s="41"/>
+      <c r="AQ31" s="41"/>
+      <c r="AR31" s="41"/>
+      <c r="AS31" s="41"/>
+      <c r="AT31" s="41"/>
+      <c r="AU31" s="41"/>
+      <c r="AV31" s="42"/>
+      <c r="AW31" s="39"/>
+      <c r="AX31" s="39"/>
+      <c r="AY31" s="39"/>
+      <c r="AZ31" s="39"/>
+      <c r="BA31" s="39"/>
+      <c r="BB31" s="14"/>
+      <c r="BD31" s="27"/>
+    </row>
+    <row r="32" spans="1:56">
+      <c r="BB32" s="9">
+        <f>SUM(BB7:BB31)</f>
         <v>47</v>
       </c>
-      <c r="BD31" s="9">
-        <f>SUM(BD7:BD30)</f>
+      <c r="BD32" s="9">
+        <f>SUM(BD7:BD31)</f>
         <v>15.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="K24:W24"/>
-    <mergeCell ref="X24:AV24"/>
-    <mergeCell ref="AW24:BA24"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="X18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="X17:AV17"/>
-    <mergeCell ref="AW17:BA17"/>
+  <mergeCells count="117">
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="X10:AV10"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:W28"/>
+    <mergeCell ref="AW28:BA28"/>
+    <mergeCell ref="X28:AV28"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="X21:AV21"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="K14:W14"/>
     <mergeCell ref="AW14:BA14"/>
     <mergeCell ref="X14:AV14"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="K30:W30"/>
-    <mergeCell ref="AW30:BA30"/>
-    <mergeCell ref="X30:AV30"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="X8:AV8"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="X16:AV16"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="X10:AV10"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:W29"/>
-    <mergeCell ref="AW29:BA29"/>
-    <mergeCell ref="X29:AV29"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="X11:AV11"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:W28"/>
-    <mergeCell ref="AW28:BA28"/>
-    <mergeCell ref="X28:AV28"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="AW19:BA19"/>
-    <mergeCell ref="X19:AV19"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:W15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="X15:AV15"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="X23:AV23"/>
-    <mergeCell ref="AW23:BA23"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="X21:AV21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="X22:AV22"/>
-    <mergeCell ref="AW22:BA22"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:W26"/>
+    <mergeCell ref="X26:AV26"/>
+    <mergeCell ref="AW26:BA26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="X27:AV27"/>
+    <mergeCell ref="AW27:BA27"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="K7:W7"/>
     <mergeCell ref="AW7:BA7"/>
@@ -6209,30 +7634,74 @@
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:W29"/>
+    <mergeCell ref="AW29:BA29"/>
+    <mergeCell ref="X29:AV29"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="X20:AV20"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="AW16:BA16"/>
+    <mergeCell ref="X16:AV16"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="K24:W24"/>
+    <mergeCell ref="X24:AV24"/>
+    <mergeCell ref="AW24:BA24"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="X22:AV22"/>
+    <mergeCell ref="AW22:BA22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="X23:AV23"/>
+    <mergeCell ref="AW23:BA23"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:W31"/>
+    <mergeCell ref="AW31:BA31"/>
+    <mergeCell ref="X31:AV31"/>
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="K9:W9"/>
     <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="X9:AV9"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="K27:W27"/>
-    <mergeCell ref="AW27:BA27"/>
-    <mergeCell ref="X27:AV27"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="AW20:BA20"/>
-    <mergeCell ref="X20:AV20"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:W13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="X13:AV13"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="X17:AV17"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="X11:AV11"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="K30:W30"/>
+    <mergeCell ref="AW30:BA30"/>
+    <mergeCell ref="X30:AV30"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="X12:AV12"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="K25:W25"/>
     <mergeCell ref="X25:AV25"/>
     <mergeCell ref="AW25:BA25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:W26"/>
-    <mergeCell ref="X26:AV26"/>
-    <mergeCell ref="AW26:BA26"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="X19:AV19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:W13"/>
+    <mergeCell ref="X13:AV13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AV18"/>
+    <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:W15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="X15:AV15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
@@ -6243,31 +7712,365 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A11:C17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
+    <row r="11" spans="1:3">
+      <c r="A11" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="B11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="66" t="s">
+        <v>461</v>
+      </c>
+      <c r="C12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="66" t="s">
+        <v>462</v>
+      </c>
+      <c r="C13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="66" t="s">
+        <v>463</v>
+      </c>
+      <c r="C14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A14:B25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="14" spans="1:1">
+      <c r="A14" s="65"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="65"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="66" t="s">
+        <v>464</v>
+      </c>
+      <c r="B21" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="66" t="s">
+        <v>466</v>
+      </c>
+      <c r="B22" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="66" t="s">
+        <v>468</v>
+      </c>
+      <c r="B23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="66"/>
+      <c r="B24" s="67" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="66" t="s">
+        <v>470</v>
+      </c>
+      <c r="B25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A14:B31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="14" spans="1:1">
+      <c r="A14" s="65"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="65"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="66"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="66"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="66"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="66"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="65" t="s">
+        <v>473</v>
+      </c>
+      <c r="B31" t="s">
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F　&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A13:B13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="13" spans="1:2">
+      <c r="A13" s="65" t="s">
+        <v>449</v>
+      </c>
+      <c r="B13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A17:B19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="17" spans="1:2">
+      <c r="A17" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="B17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A14:B17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="14" spans="1:2">
+      <c r="A14" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="B14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="65"/>
+      <c r="B15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="65"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M344"/>
   <sheetViews>
@@ -6275,7 +8078,7 @@
       <selection activeCell="X43" sqref="X43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="18" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="18" bestFit="1" customWidth="1"/>
@@ -6290,7 +8093,7 @@
     <col min="14" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
@@ -6331,7 +8134,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -6373,7 +8176,7 @@
         <v>9108</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -6415,7 +8218,7 @@
         <v>45940</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -6457,7 +8260,7 @@
         <v>27374</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -6493,7 +8296,7 @@
         <v>8024</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -6529,7 +8332,7 @@
         <v>10712</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -6565,7 +8368,7 @@
         <v>7748</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -6601,7 +8404,7 @@
         <v>5586</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -6637,7 +8440,7 @@
         <v>430510</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -6673,7 +8476,7 @@
         <v>34330</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -6709,7 +8512,7 @@
         <v>3446</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -6745,7 +8548,7 @@
         <v>56884</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -6781,7 +8584,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -6817,7 +8620,7 @@
         <v>47224</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -6851,7 +8654,7 @@
         <v>73100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -6885,7 +8688,7 @@
         <v>64600</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -6919,7 +8722,7 @@
         <v>19296</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -6953,7 +8756,7 @@
         <v>6324</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -6987,7 +8790,7 @@
         <v>35936</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -7021,7 +8824,7 @@
         <v>26280</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -7055,7 +8858,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -7089,7 +8892,7 @@
         <v>732448</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -7123,7 +8926,7 @@
         <v>862024</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -7157,7 +8960,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -7191,7 +8994,7 @@
         <v>4918</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -7225,7 +9028,7 @@
         <v>29962</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -7259,7 +9062,7 @@
         <v>3564</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -7293,7 +9096,7 @@
         <v>10414</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -7327,7 +9130,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -7361,7 +9164,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -7395,7 +9198,7 @@
         <v>78566</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -7429,7 +9232,7 @@
         <v>42950</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -7463,7 +9266,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -7497,7 +9300,7 @@
         <v>10098</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -7531,7 +9334,7 @@
         <v>18376</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -7565,7 +9368,7 @@
         <v>37506</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -7599,7 +9402,7 @@
         <v>126802</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -7633,7 +9436,7 @@
         <v>228186</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -7667,7 +9470,7 @@
         <v>72398</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -7701,7 +9504,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -7735,7 +9538,7 @@
         <v>20328</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -7769,7 +9572,7 @@
         <v>5108</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -7803,7 +9606,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -7837,7 +9640,7 @@
         <v>47382</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -7871,7 +9674,7 @@
         <v>128634</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -7905,7 +9708,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -7939,7 +9742,7 @@
         <v>1339970</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -7973,7 +9776,7 @@
         <v>19980</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -8007,7 +9810,7 @@
         <v>14156</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -8041,7 +9844,7 @@
         <v>17474</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -8075,7 +9878,7 @@
         <v>18234</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -8109,7 +9912,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -8143,7 +9946,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -8177,7 +9980,7 @@
         <v>3728</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -8211,7 +10014,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -8245,7 +10048,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -8279,7 +10082,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -8313,7 +10116,7 @@
         <v>10196</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -8347,7 +10150,7 @@
         <v>141388</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -8381,7 +10184,7 @@
         <v>17838</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -8415,7 +10218,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -8449,7 +10252,7 @@
         <v>42202</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -8483,7 +10286,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -8517,7 +10320,7 @@
         <v>9936</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -8551,7 +10354,7 @@
         <v>84560</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -8585,7 +10388,7 @@
         <v>83700</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -8619,7 +10422,7 @@
         <v>12088</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -8653,7 +10456,7 @@
         <v>16382</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -8687,7 +10490,7 @@
         <v>1559986</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -8721,7 +10524,7 @@
         <v>68254</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -8755,7 +10558,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -8789,7 +10592,7 @@
         <v>12688</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -8823,7 +10626,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -8857,7 +10660,7 @@
         <v>47010</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -8891,7 +10694,7 @@
         <v>145760</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -8925,7 +10728,7 @@
         <v>86232</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:13">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -8959,7 +10762,7 @@
         <v>7686</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -8993,7 +10796,7 @@
         <v>8676</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:13">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -9027,7 +10830,7 @@
         <v>10088</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:13">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -9061,7 +10864,7 @@
         <v>3888</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:13">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -9095,7 +10898,7 @@
         <v>5748</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:13">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -9129,7 +10932,7 @@
         <v>124500</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:13">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -9163,7 +10966,7 @@
         <v>70432</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:13">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -9197,7 +11000,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:13">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -9231,7 +11034,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:13">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -9265,7 +11068,7 @@
         <v>28504</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:13">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -9299,7 +11102,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:13">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -9333,7 +11136,7 @@
         <v>108900</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:13">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -9367,7 +11170,7 @@
         <v>30836</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:13">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -9401,7 +11204,7 @@
         <v>48502</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:13">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -9435,7 +11238,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:13">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -9469,7 +11272,7 @@
         <v>18314</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:13">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -9503,7 +11306,7 @@
         <v>7108</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:13">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -9537,7 +11340,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:13">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -9571,7 +11374,7 @@
         <v>49178</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:13">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -9605,7 +11408,7 @@
         <v>13448</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:13">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -9639,7 +11442,7 @@
         <v>20884</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:13">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -9673,7 +11476,7 @@
         <v>40216</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:13">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -9707,7 +11510,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:13">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -9741,7 +11544,7 @@
         <v>243032</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:13">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -9775,7 +11578,7 @@
         <v>28142</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:13">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -9809,7 +11612,7 @@
         <v>5608</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:13">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -9843,7 +11646,7 @@
         <v>229426</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:13">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -9877,7 +11680,7 @@
         <v>11094</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:13">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -9911,7 +11714,7 @@
         <v>6532</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:13">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -9945,7 +11748,7 @@
         <v>8558</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:13">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -9979,7 +11782,7 @@
         <v>3936</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:13">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -10013,7 +11816,7 @@
         <v>5248</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:13">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -10047,7 +11850,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:13">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -10081,7 +11884,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:13">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -10115,7 +11918,7 @@
         <v>3988</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:13">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -10149,7 +11952,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:13">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -10183,7 +11986,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:13">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -10217,7 +12020,7 @@
         <v>10854</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:13">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -10251,7 +12054,7 @@
         <v>19044</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:13">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -10285,7 +12088,7 @@
         <v>5106</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:13">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -10319,7 +12122,7 @@
         <v>19744</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:13">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -10353,7 +12156,7 @@
         <v>7876</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:13">
       <c r="A119" s="15">
         <v>118</v>
       </c>
@@ -10387,7 +12190,7 @@
         <v>13866</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:13">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -10421,7 +12224,7 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:13">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -10455,7 +12258,7 @@
         <v>62898</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:13">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -10489,7 +12292,7 @@
         <v>15848</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:13">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -10523,7 +12326,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:13">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -10557,7 +12360,7 @@
         <v>26926</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:13">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -10591,7 +12394,7 @@
         <v>63004</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:13">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -10625,7 +12428,7 @@
         <v>13244</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:13">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -10659,7 +12462,7 @@
         <v>22424</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:13">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -10693,7 +12496,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:13">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -10727,7 +12530,7 @@
         <v>67428</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:13">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -10761,7 +12564,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:13">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -10795,7 +12598,7 @@
         <v>16834</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:13">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -10829,7 +12632,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:13">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -10863,7 +12666,7 @@
         <v>37748</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:13">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -10897,7 +12700,7 @@
         <v>12678</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:13">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -10931,7 +12734,7 @@
         <v>117196</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:13">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -10965,7 +12768,7 @@
         <v>38866</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:13">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -10999,7 +12802,7 @@
         <v>18642</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:13">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -11033,7 +12836,7 @@
         <v>34082</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:13">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -11067,7 +12870,7 @@
         <v>20324</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:13">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -11101,7 +12904,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:13">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -11135,7 +12938,7 @@
         <v>32914</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:13">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -11169,7 +12972,7 @@
         <v>35220</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:13">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -11203,7 +13006,7 @@
         <v>95866</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:13">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -11237,7 +13040,7 @@
         <v>22426</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:13">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -11271,7 +13074,7 @@
         <v>32702</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:13">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -11305,7 +13108,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:13">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -11339,7 +13142,7 @@
         <v>6786</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:13">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -11373,7 +13176,7 @@
         <v>37420</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:13">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -11407,7 +13210,7 @@
         <v>28284</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:13">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -11441,7 +13244,7 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:13">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -11475,7 +13278,7 @@
         <v>28512</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:13">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -11509,7 +13312,7 @@
         <v>60412</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:13">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -11543,7 +13346,7 @@
         <v>66978</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:13">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -11577,7 +13380,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:13">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -11611,7 +13414,7 @@
         <v>5688</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:13">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -11645,7 +13448,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:13">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -11679,7 +13482,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:13">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -11713,7 +13516,7 @@
         <v>47232</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:13">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -11747,7 +13550,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:13">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -11781,7 +13584,7 @@
         <v>4618</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:13">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -11815,7 +13618,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:13">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -11849,7 +13652,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:13">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -11883,7 +13686,7 @@
         <v>187132</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:13">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -11917,7 +13720,7 @@
         <v>100648</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:13">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -11951,7 +13754,7 @@
         <v>4084</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:13">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -11985,7 +13788,7 @@
         <v>38344</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:13">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -12019,7 +13822,7 @@
         <v>25986</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:13">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -12053,7 +13856,7 @@
         <v>8806</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:13">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -12087,7 +13890,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:13">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -12121,7 +13924,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:13">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -12155,7 +13958,7 @@
         <v>200694</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:13">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -12189,7 +13992,7 @@
         <v>56252</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:13">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -12223,7 +14026,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:13">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -12257,7 +14060,7 @@
         <v>14692</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:13">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -12291,7 +14094,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:13">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -12325,7 +14128,7 @@
         <v>4656</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:13">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -12359,7 +14162,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:13">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -12393,7 +14196,7 @@
         <v>15188</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:13">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -12427,7 +14230,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:13">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -12461,7 +14264,7 @@
         <v>116398</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:13">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -12495,7 +14298,7 @@
         <v>15528</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:13">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -12529,7 +14332,7 @@
         <v>18198</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:13">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -12563,7 +14366,7 @@
         <v>57378</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:13">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -12597,7 +14400,7 @@
         <v>11202</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:13">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -12631,7 +14434,7 @@
         <v>4936</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:13">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -12665,7 +14468,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:13">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -12699,7 +14502,7 @@
         <v>12408</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:13">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -12733,7 +14536,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:13">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -12767,7 +14570,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:13">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -12801,7 +14604,7 @@
         <v>8696</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:13">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -12835,7 +14638,7 @@
         <v>86926</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:13">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -12869,7 +14672,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:13">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -12903,7 +14706,7 @@
         <v>75074</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:13">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -12937,7 +14740,7 @@
         <v>15210</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:13">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -12971,7 +14774,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:13">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -13005,7 +14808,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:13">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -13039,7 +14842,7 @@
         <v>4746</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:13">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -13073,7 +14876,7 @@
         <v>20110</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:13">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -13107,7 +14910,7 @@
         <v>10442</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:13">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -13141,7 +14944,7 @@
         <v>182534</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:13">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -13175,7 +14978,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:13">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -13209,7 +15012,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:13">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -13243,7 +15046,7 @@
         <v>22674</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:13">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -13277,7 +15080,7 @@
         <v>4528</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:13">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -13311,7 +15114,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:13">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -13345,7 +15148,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:13">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -13379,7 +15182,7 @@
         <v>36790</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:13">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -13413,7 +15216,7 @@
         <v>15628</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:13">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -13447,7 +15250,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:13">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -13481,7 +15284,7 @@
         <v>5608</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:13">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -13515,7 +15318,7 @@
         <v>83278</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:13">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -13549,7 +15352,7 @@
         <v>8284</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:13">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -13583,7 +15386,7 @@
         <v>67560</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:13">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -13617,7 +15420,7 @@
         <v>10088</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:13">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -13651,7 +15454,7 @@
         <v>88252</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:13">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -13685,7 +15488,7 @@
         <v>40804</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:13">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -13719,7 +15522,7 @@
         <v>5788</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:13">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -13753,7 +15556,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:13">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -13787,7 +15590,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:13">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -13821,7 +15624,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:13">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -13855,7 +15658,7 @@
         <v>9236</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:13">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -13889,7 +15692,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:13">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -13923,7 +15726,7 @@
         <v>13298</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:13">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -13957,7 +15760,7 @@
         <v>10098</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:13">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -13991,7 +15794,7 @@
         <v>7506</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:13">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -14025,7 +15828,7 @@
         <v>6666</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:13">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -14059,7 +15862,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:13">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -14093,7 +15896,7 @@
         <v>80312</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:13">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -14127,7 +15930,7 @@
         <v>34176</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:13">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -14161,7 +15964,7 @@
         <v>13790</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:13">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -14195,7 +15998,7 @@
         <v>34060</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:13">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -14229,7 +16032,7 @@
         <v>27282</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:13">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -14263,7 +16066,7 @@
         <v>34530</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:13">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -14297,7 +16100,7 @@
         <v>40952</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:13">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -14331,7 +16134,7 @@
         <v>5698</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:13">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -14365,7 +16168,7 @@
         <v>11596</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:13">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -14399,7 +16202,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:13">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -14433,7 +16236,7 @@
         <v>4168</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:13">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -14467,7 +16270,7 @@
         <v>10342</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:13">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -14501,7 +16304,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:13">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -14535,7 +16338,7 @@
         <v>25216</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:13">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -14569,7 +16372,7 @@
         <v>33920</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:13">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -14603,7 +16406,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:13">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -14637,7 +16440,7 @@
         <v>7838</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:13">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -14671,7 +16474,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:13">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -14705,7 +16508,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:13">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -14739,7 +16542,7 @@
         <v>7336</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:13">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -14773,7 +16576,7 @@
         <v>7312</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:13">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -14807,7 +16610,7 @@
         <v>5536</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:13">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -14841,7 +16644,7 @@
         <v>48114</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:13">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -14875,7 +16678,7 @@
         <v>15676</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:13">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -14909,7 +16712,7 @@
         <v>7796</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:13">
       <c r="A253" s="15">
         <v>252</v>
       </c>
@@ -14943,7 +16746,7 @@
         <v>9296</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:13">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -14977,7 +16780,7 @@
         <v>21144</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:13">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -15011,7 +16814,7 @@
         <v>6936</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:13">
       <c r="A256" s="15">
         <v>255</v>
       </c>
@@ -15045,7 +16848,7 @@
         <v>12268</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:13">
       <c r="A257" s="15">
         <v>256</v>
       </c>
@@ -15079,7 +16882,7 @@
         <v>19988</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:13">
       <c r="A258" s="15">
         <v>257</v>
       </c>
@@ -15113,7 +16916,7 @@
         <v>42712</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:13">
       <c r="A259" s="15">
         <v>258</v>
       </c>
@@ -15147,7 +16950,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:13">
       <c r="A260" s="15">
         <v>259</v>
       </c>
@@ -15181,7 +16984,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:13">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -15215,7 +17018,7 @@
         <v>34146</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:13">
       <c r="A262" s="15">
         <v>261</v>
       </c>
@@ -15249,7 +17052,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:13">
       <c r="A263" s="15">
         <v>262</v>
       </c>
@@ -15283,7 +17086,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:13">
       <c r="A264" s="15">
         <v>263</v>
       </c>
@@ -15317,7 +17120,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:13">
       <c r="A265" s="15">
         <v>264</v>
       </c>
@@ -15351,7 +17154,7 @@
         <v>63042</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:13">
       <c r="A266" s="15">
         <v>265</v>
       </c>
@@ -15385,7 +17188,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:13">
       <c r="A267" s="15">
         <v>266</v>
       </c>
@@ -15419,7 +17222,7 @@
         <v>20334</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:13">
       <c r="A268" s="15">
         <v>267</v>
       </c>
@@ -15453,7 +17256,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:13">
       <c r="A269" s="15">
         <v>268</v>
       </c>
@@ -15487,7 +17290,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:13">
       <c r="A270" s="15">
         <v>269</v>
       </c>
@@ -15521,7 +17324,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:13">
       <c r="A271" s="15">
         <v>270</v>
       </c>
@@ -15555,7 +17358,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:13">
       <c r="A272" s="15">
         <v>271</v>
       </c>
@@ -15589,7 +17392,7 @@
         <v>12056</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:13">
       <c r="A273" s="15">
         <v>272</v>
       </c>
@@ -15623,7 +17426,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:13">
       <c r="A274" s="15">
         <v>273</v>
       </c>
@@ -15657,7 +17460,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:13">
       <c r="A275" s="15">
         <v>274</v>
       </c>
@@ -15691,7 +17494,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:13">
       <c r="A276" s="15">
         <v>275</v>
       </c>
@@ -15725,7 +17528,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:13">
       <c r="A277" s="15">
         <v>276</v>
       </c>
@@ -15759,7 +17562,7 @@
         <v>5548</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:13">
       <c r="A278" s="15">
         <v>277</v>
       </c>
@@ -15793,7 +17596,7 @@
         <v>13730</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:13">
       <c r="A279" s="15">
         <v>278</v>
       </c>
@@ -15827,7 +17630,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:13">
       <c r="A280" s="15">
         <v>279</v>
       </c>
@@ -15861,7 +17664,7 @@
         <v>26320</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:13">
       <c r="A281" s="15">
         <v>280</v>
       </c>
@@ -15895,7 +17698,7 @@
         <v>6178</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:13">
       <c r="A282" s="15">
         <v>281</v>
       </c>
@@ -15929,7 +17732,7 @@
         <v>4586</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:13">
       <c r="A283" s="15">
         <v>282</v>
       </c>
@@ -15963,7 +17766,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:13">
       <c r="A284" s="15">
         <v>283</v>
       </c>
@@ -15997,7 +17800,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:13">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -16031,7 +17834,7 @@
         <v>8652</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:13">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -16065,7 +17868,7 @@
         <v>8858</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:13">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -16099,7 +17902,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:13">
       <c r="A288" s="15">
         <v>287</v>
       </c>
@@ -16133,7 +17936,7 @@
         <v>137306</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:13">
       <c r="A289" s="15">
         <v>288</v>
       </c>
@@ -16167,7 +17970,7 @@
         <v>30678</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:13">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -16201,7 +18004,7 @@
         <v>113862</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:13">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -16235,7 +18038,7 @@
         <v>6448</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:13">
       <c r="A292" s="15">
         <v>291</v>
       </c>
@@ -16269,7 +18072,7 @@
         <v>19264</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:13">
       <c r="A293" s="15">
         <v>292</v>
       </c>
@@ -16303,7 +18106,7 @@
         <v>157026</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:13">
       <c r="A294" s="15">
         <v>293</v>
       </c>
@@ -16337,7 +18140,7 @@
         <v>3818</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:13">
       <c r="A295" s="15">
         <v>294</v>
       </c>
@@ -16371,7 +18174,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:13">
       <c r="A296" s="15">
         <v>295</v>
       </c>
@@ -16405,7 +18208,7 @@
         <v>33476</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:13">
       <c r="A297" s="15">
         <v>296</v>
       </c>
@@ -16439,7 +18242,7 @@
         <v>5616</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:13">
       <c r="A298" s="15">
         <v>297</v>
       </c>
@@ -16473,7 +18276,7 @@
         <v>73148</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:13">
       <c r="A299" s="15">
         <v>298</v>
       </c>
@@ -16507,7 +18310,7 @@
         <v>54194</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:13">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -16541,7 +18344,7 @@
         <v>51822</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:13">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -16575,7 +18378,7 @@
         <v>4892</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:13">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -16609,7 +18412,7 @@
         <v>87062</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:13">
       <c r="A303" s="15">
         <v>302</v>
       </c>
@@ -16643,7 +18446,7 @@
         <v>17188</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:13">
       <c r="A304" s="15">
         <v>303</v>
       </c>
@@ -16677,7 +18480,7 @@
         <v>20740</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:13">
       <c r="A305" s="15">
         <v>304</v>
       </c>
@@ -16711,7 +18514,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:13">
       <c r="A306" s="15">
         <v>305</v>
       </c>
@@ -16745,7 +18548,7 @@
         <v>4438</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:13">
       <c r="A307" s="15">
         <v>306</v>
       </c>
@@ -16779,7 +18582,7 @@
         <v>3908</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:13">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -16813,7 +18616,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:13">
       <c r="A309" s="15">
         <v>308</v>
       </c>
@@ -16847,7 +18650,7 @@
         <v>12684</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:13">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -16881,7 +18684,7 @@
         <v>4898</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:13">
       <c r="A311" s="15">
         <v>310</v>
       </c>
@@ -16915,7 +18718,7 @@
         <v>7346</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:13">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -16949,7 +18752,7 @@
         <v>7758</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:13">
       <c r="A313" s="15">
         <v>312</v>
       </c>
@@ -16983,7 +18786,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:13">
       <c r="A314" s="15">
         <v>313</v>
       </c>
@@ -17017,7 +18820,7 @@
         <v>14716</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:13">
       <c r="A315" s="15">
         <v>314</v>
       </c>
@@ -17051,7 +18854,7 @@
         <v>7578</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:13">
       <c r="A316" s="15">
         <v>315</v>
       </c>
@@ -17085,7 +18888,7 @@
         <v>39770</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:13">
       <c r="A317" s="15">
         <v>316</v>
       </c>
@@ -17119,7 +18922,7 @@
         <v>28716</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:13">
       <c r="A318" s="15">
         <v>317</v>
       </c>
@@ -17153,7 +18956,7 @@
         <v>5646</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:13">
       <c r="A319" s="15">
         <v>318</v>
       </c>
@@ -17187,7 +18990,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:13">
       <c r="A320" s="15">
         <v>319</v>
       </c>
@@ -17221,7 +19024,7 @@
         <v>6516</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:13">
       <c r="A321" s="15">
         <v>320</v>
       </c>
@@ -17255,7 +19058,7 @@
         <v>35858</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:13">
       <c r="A322" s="15">
         <v>321</v>
       </c>
@@ -17289,7 +19092,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:13">
       <c r="A323" s="15">
         <v>322</v>
       </c>
@@ -17323,7 +19126,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:13">
       <c r="A324" s="15">
         <v>323</v>
       </c>
@@ -17357,7 +19160,7 @@
         <v>4928</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:13">
       <c r="A325" s="15">
         <v>324</v>
       </c>
@@ -17391,7 +19194,7 @@
         <v>7088</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:13">
       <c r="A326" s="15">
         <v>325</v>
       </c>
@@ -17425,7 +19228,7 @@
         <v>6678</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:13">
       <c r="A327" s="15">
         <v>326</v>
       </c>
@@ -17459,7 +19262,7 @@
         <v>6096</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:13">
       <c r="A328" s="15">
         <v>327</v>
       </c>
@@ -17493,7 +19296,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:13">
       <c r="A329" s="15">
         <v>328</v>
       </c>
@@ -17527,7 +19330,7 @@
         <v>6776</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:13">
       <c r="A330" s="15">
         <v>329</v>
       </c>
@@ -17561,7 +19364,7 @@
         <v>4268</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:13">
       <c r="A331" s="15">
         <v>330</v>
       </c>
@@ -17595,7 +19398,7 @@
         <v>52106</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:13">
       <c r="A332" s="15">
         <v>331</v>
       </c>
@@ -17629,7 +19432,7 @@
         <v>4628</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:13">
       <c r="A333" s="15">
         <v>332</v>
       </c>
@@ -17663,7 +19466,7 @@
         <v>3976</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:13">
       <c r="A334" s="15">
         <v>333</v>
       </c>
@@ -17697,7 +19500,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:13">
       <c r="A335" s="15">
         <v>334</v>
       </c>
@@ -17731,7 +19534,7 @@
         <v>7698</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:13">
       <c r="A336" s="15">
         <v>335</v>
       </c>
@@ -17765,7 +19568,7 @@
         <v>7358</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:13">
       <c r="A337" s="15">
         <v>336</v>
       </c>
@@ -17799,7 +19602,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:13">
       <c r="A338" s="15">
         <v>337</v>
       </c>
@@ -17833,7 +19636,7 @@
         <v>32566</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:13">
       <c r="A339" s="15">
         <v>338</v>
       </c>
@@ -17867,7 +19670,7 @@
         <v>4798</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:13">
       <c r="A340" s="15">
         <v>339</v>
       </c>
@@ -17901,7 +19704,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:13">
       <c r="A341" s="15">
         <v>340</v>
       </c>
@@ -17935,7 +19738,7 @@
         <v>5078</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:13">
       <c r="A342" s="15">
         <v>341</v>
       </c>
@@ -17969,7 +19772,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:13">
       <c r="A343" s="15">
         <v>342</v>
       </c>
@@ -18003,7 +19806,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:13">
       <c r="A344" s="15"/>
       <c r="B344" s="19" t="s">
         <v>397</v>
@@ -18042,4 +19845,40 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A14:B31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="14" spans="1:1">
+      <c r="A14" s="65"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="65"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="65" t="s">
+        <v>473</v>
+      </c>
+      <c r="B31" t="s">
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
+++ b/20 開発資料/05.改修管理/190_改修管理_タクチケ自動精算.xlsx
@@ -17,12 +17,13 @@
     <sheet name="③-4-2精算番号表" sheetId="3" r:id="rId8"/>
     <sheet name="総合精算書PDF DL" sheetId="9" r:id="rId9"/>
     <sheet name="NZ送信対象精算番号取込" sheetId="11" r:id="rId10"/>
-    <sheet name="タクチケ台帳出力対象データDL UL" sheetId="10" r:id="rId11"/>
-    <sheet name="タクチケ台帳CSV DL" sheetId="13" r:id="rId12"/>
+    <sheet name="③-8Nozomiへ送信" sheetId="14" r:id="rId11"/>
+    <sheet name="タクチケ台帳出力対象データDL UL" sheetId="10" r:id="rId12"/>
+    <sheet name="タクチケ台帳CSV DL" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'③-4-2精算番号表'!$A$1:$M$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">タクチケ自動精算!$A$1:$BB$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">タクチケ自動精算!$A$1:$BB$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">タクチケ自動精算!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -85,8 +86,33 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>N150999</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>自動採番された番号</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="479">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1722,50 +1748,6 @@
     </rPh>
     <rPh sb="123" eb="125">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新規追加
-自動精算されたタクチケ精算データのCSV(№8でダウンロード)のうち、Nozomiへ送信可能なもの(TTTが手作業で選別)を取込み、該当請求データのNozomi送信フラグをセットする(=1)</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セイサン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>テサギョウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>センベツ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>トリコミ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3467,6 +3449,151 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XXXXXXXXXXXXX1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>新規追加
+自動精算されたタクチケ精算データのCSV(№8でダウンロード)のうち、Nozomiへ送信可能なもの(TTTが手作業で選別)を取込み、該当請求データのNozomi送信フラグをセットする(=1)
+取込CSVのレイアウトは｢③-8Nozomiへ送信｣シートの通り。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>テサギョウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>センベツ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>台帳出力対象データダウンロード／アップロード</t>
+    <rPh sb="0" eb="2">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaxiDaichoDLUL.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規追加
+タクチケ自動精算バッチで生成されたタクチケ台帳出力対象CSVをダウンロードする。
+ダウンロードしたCSVファイルのデータのうち、タクチケ台帳CSVを出力したい会合のデータのみを残して編集し、編集済みのCSVをアップロードする。
+アップロードした会合番号は、タクチケ台帳出力対象会合テーブルに登録する。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3918,7 +4045,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3991,6 +4118,13 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4008,33 +4142,6 @@
     </xf>
     <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4102,13 +4209,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="J401K" xfId="1"/>
@@ -5487,13 +5623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG32"/>
+  <dimension ref="A1:BG33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AW7" sqref="AW7:BA7"/>
+      <selection pane="bottomRight" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -5507,246 +5643,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53" t="s">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="56" t="s">
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="53" t="s">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53" t="s">
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53" t="s">
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53" t="s">
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="53"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="55">
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="49">
         <v>42809</v>
       </c>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="53" t="s">
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="55"/>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="53"/>
-      <c r="AY2" s="53"/>
-      <c r="AZ2" s="53"/>
-      <c r="BA2" s="53"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="47"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="53"/>
-      <c r="BA3" s="53"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="47"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -5773,72 +5909,72 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="50" t="s">
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="51"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="49" t="s">
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="46"/>
+      <c r="AW6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="49"/>
+      <c r="AX6" s="43"/>
+      <c r="AY6" s="43"/>
+      <c r="AZ6" s="43"/>
+      <c r="BA6" s="43"/>
       <c r="BB6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="BC6" s="2"/>
       <c r="BD6" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
@@ -5849,64 +5985,64 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="46" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="47"/>
-      <c r="AI7" s="47"/>
-      <c r="AJ7" s="47"/>
-      <c r="AK7" s="47"/>
-      <c r="AL7" s="47"/>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="47"/>
-      <c r="AO7" s="47"/>
-      <c r="AP7" s="47"/>
-      <c r="AQ7" s="47"/>
-      <c r="AR7" s="47"/>
-      <c r="AS7" s="47"/>
-      <c r="AT7" s="47"/>
-      <c r="AU7" s="47"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="45">
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="41"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="39">
         <v>42809</v>
       </c>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
+      <c r="AX7" s="38"/>
+      <c r="AY7" s="38"/>
+      <c r="AZ7" s="38"/>
+      <c r="BA7" s="38"/>
       <c r="BB7" s="12"/>
       <c r="BD7" s="27">
         <v>0.3</v>
@@ -5914,67 +6050,67 @@
     </row>
     <row r="8" spans="1:59" s="5" customFormat="1" ht="153.75" customHeight="1">
       <c r="A8" s="6">
-        <f t="shared" ref="A8:A31" si="0">ROW()-6</f>
+        <f t="shared" ref="A8:A32" si="0">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29" t="s">
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="31"/>
-      <c r="AS8" s="31"/>
-      <c r="AT8" s="31"/>
-      <c r="AU8" s="31"/>
-      <c r="AV8" s="32"/>
-      <c r="AW8" s="33"/>
-      <c r="AX8" s="29"/>
-      <c r="AY8" s="29"/>
-      <c r="AZ8" s="29"/>
-      <c r="BA8" s="29"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+      <c r="AP8" s="34"/>
+      <c r="AQ8" s="34"/>
+      <c r="AR8" s="34"/>
+      <c r="AS8" s="34"/>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="34"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="36"/>
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="32"/>
+      <c r="BA8" s="32"/>
       <c r="BB8" s="13"/>
       <c r="BD8" s="27"/>
     </row>
@@ -5983,66 +6119,66 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="30" t="s">
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="33">
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="36">
         <v>42809</v>
       </c>
-      <c r="AX9" s="29"/>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
+      <c r="AX9" s="32"/>
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="32"/>
       <c r="BB9" s="13">
         <v>1</v>
       </c>
@@ -6055,66 +6191,66 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="30" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="31"/>
-      <c r="AQ10" s="31"/>
-      <c r="AR10" s="31"/>
-      <c r="AS10" s="31"/>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="31"/>
-      <c r="AV10" s="32"/>
-      <c r="AW10" s="33">
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="36">
         <v>42809</v>
       </c>
-      <c r="AX10" s="29"/>
-      <c r="AY10" s="29"/>
-      <c r="AZ10" s="29"/>
-      <c r="BA10" s="29"/>
+      <c r="AX10" s="32"/>
+      <c r="AY10" s="32"/>
+      <c r="AZ10" s="32"/>
+      <c r="BA10" s="32"/>
       <c r="BB10" s="13">
         <v>1</v>
       </c>
@@ -6127,66 +6263,66 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="30" t="s">
-        <v>450</v>
-      </c>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="31"/>
-      <c r="AM11" s="31"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="31"/>
-      <c r="AP11" s="31"/>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
-      <c r="AV11" s="32"/>
-      <c r="AW11" s="33">
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="36">
         <v>42809</v>
       </c>
-      <c r="AX11" s="29"/>
-      <c r="AY11" s="29"/>
-      <c r="AZ11" s="29"/>
-      <c r="BA11" s="29"/>
+      <c r="AX11" s="32"/>
+      <c r="AY11" s="32"/>
+      <c r="AZ11" s="32"/>
+      <c r="BA11" s="32"/>
       <c r="BB11" s="13">
         <v>0.5</v>
       </c>
@@ -6199,66 +6335,66 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29" t="s">
+      <c r="B12" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="30" t="s">
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="31"/>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="31"/>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="31"/>
-      <c r="AV12" s="32"/>
-      <c r="AW12" s="33">
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="34"/>
+      <c r="AR12" s="34"/>
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="34"/>
+      <c r="AU12" s="34"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="36">
         <v>42808</v>
       </c>
-      <c r="AX12" s="29"/>
-      <c r="AY12" s="29"/>
-      <c r="AZ12" s="29"/>
-      <c r="BA12" s="29"/>
+      <c r="AX12" s="32"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="32"/>
+      <c r="BA12" s="32"/>
       <c r="BB12" s="13">
         <v>0.5</v>
       </c>
@@ -6271,66 +6407,66 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32" t="s">
         <v>432</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="31"/>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="31"/>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="32"/>
-      <c r="AW13" s="33">
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="34"/>
+      <c r="AP13" s="34"/>
+      <c r="AQ13" s="34"/>
+      <c r="AR13" s="34"/>
+      <c r="AS13" s="34"/>
+      <c r="AT13" s="34"/>
+      <c r="AU13" s="34"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="36">
         <v>42830</v>
       </c>
-      <c r="AX13" s="29"/>
-      <c r="AY13" s="29"/>
-      <c r="AZ13" s="29"/>
-      <c r="BA13" s="29"/>
+      <c r="AX13" s="32"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="32"/>
+      <c r="BA13" s="32"/>
       <c r="BB13" s="13">
         <v>1</v>
       </c>
@@ -6343,66 +6479,66 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29" t="s">
+      <c r="B14" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="30" t="s">
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31"/>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="31"/>
-      <c r="AP14" s="31"/>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="31"/>
-      <c r="AS14" s="31"/>
-      <c r="AT14" s="31"/>
-      <c r="AU14" s="31"/>
-      <c r="AV14" s="32"/>
-      <c r="AW14" s="33">
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
+      <c r="AP14" s="34"/>
+      <c r="AQ14" s="34"/>
+      <c r="AR14" s="34"/>
+      <c r="AS14" s="34"/>
+      <c r="AT14" s="34"/>
+      <c r="AU14" s="34"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="36">
         <v>42816</v>
       </c>
-      <c r="AX14" s="29"/>
-      <c r="AY14" s="29"/>
-      <c r="AZ14" s="29"/>
-      <c r="BA14" s="29"/>
+      <c r="AX14" s="32"/>
+      <c r="AY14" s="32"/>
+      <c r="AZ14" s="32"/>
+      <c r="BA14" s="32"/>
       <c r="BB14" s="13">
         <v>3</v>
       </c>
@@ -6412,68 +6548,68 @@
     </row>
     <row r="15" spans="1:59" s="5" customFormat="1" ht="331.5" customHeight="1">
       <c r="A15" s="6">
-        <v>8</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="34"/>
+      <c r="AP15" s="34"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="34"/>
+      <c r="AS15" s="34"/>
+      <c r="AT15" s="34"/>
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="35"/>
+      <c r="AW15" s="67" t="s">
         <v>443</v>
       </c>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="31"/>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="31"/>
-      <c r="AS15" s="31"/>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="31"/>
-      <c r="AV15" s="32"/>
-      <c r="AW15" s="37" t="s">
-        <v>444</v>
-      </c>
-      <c r="AX15" s="29"/>
-      <c r="AY15" s="29"/>
-      <c r="AZ15" s="29"/>
-      <c r="BA15" s="29"/>
+      <c r="AX15" s="32"/>
+      <c r="AY15" s="32"/>
+      <c r="AZ15" s="32"/>
+      <c r="BA15" s="32"/>
       <c r="BB15" s="13">
         <v>10</v>
       </c>
@@ -6486,66 +6622,66 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="59" t="s">
         <v>398</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="29" t="s">
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="31"/>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="31"/>
-      <c r="AP16" s="31"/>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="31"/>
-      <c r="AS16" s="31"/>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="31"/>
-      <c r="AV16" s="32"/>
-      <c r="AW16" s="33">
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="34"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="34"/>
+      <c r="AR16" s="34"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="34"/>
+      <c r="AU16" s="34"/>
+      <c r="AV16" s="35"/>
+      <c r="AW16" s="36">
         <v>42823</v>
       </c>
-      <c r="AX16" s="29"/>
-      <c r="AY16" s="29"/>
-      <c r="AZ16" s="29"/>
-      <c r="BA16" s="29"/>
+      <c r="AX16" s="32"/>
+      <c r="AY16" s="32"/>
+      <c r="AZ16" s="32"/>
+      <c r="BA16" s="32"/>
       <c r="BB16" s="13">
         <v>3</v>
       </c>
@@ -6558,66 +6694,66 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="59" t="s">
         <v>399</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="29" t="s">
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="32" t="s">
         <v>405</v>
       </c>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="31"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="31"/>
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="31"/>
-      <c r="AV17" s="32"/>
-      <c r="AW17" s="33">
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="34"/>
+      <c r="AU17" s="34"/>
+      <c r="AV17" s="35"/>
+      <c r="AW17" s="36">
         <v>42823</v>
       </c>
-      <c r="AX17" s="29"/>
-      <c r="AY17" s="29"/>
-      <c r="AZ17" s="29"/>
-      <c r="BA17" s="29"/>
+      <c r="AX17" s="32"/>
+      <c r="AY17" s="32"/>
+      <c r="AZ17" s="32"/>
+      <c r="BA17" s="32"/>
       <c r="BB17" s="13">
         <v>3</v>
       </c>
@@ -6625,427 +6761,431 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:56" s="5" customFormat="1" ht="87.75" customHeight="1">
+    <row r="18" spans="1:56" s="5" customFormat="1" ht="67.5" customHeight="1">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="29" t="s">
-        <v>448</v>
-      </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31"/>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="32"/>
-      <c r="AW18" s="33">
-        <v>42838</v>
-      </c>
-      <c r="AX18" s="29"/>
-      <c r="AY18" s="29"/>
-      <c r="AZ18" s="29"/>
-      <c r="BA18" s="29"/>
+      <c r="B18" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="34"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="36">
+        <v>42837</v>
+      </c>
+      <c r="AX18" s="32"/>
+      <c r="AY18" s="32"/>
+      <c r="AZ18" s="32"/>
+      <c r="BA18" s="32"/>
       <c r="BB18" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:56" s="5" customFormat="1" ht="105.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" s="5" customFormat="1" ht="87.75" customHeight="1">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="30" t="s">
-        <v>440</v>
-      </c>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="31"/>
-      <c r="AP19" s="31"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="31"/>
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="31"/>
-      <c r="AV19" s="32"/>
-      <c r="AW19" s="33">
-        <v>42839</v>
-      </c>
-      <c r="AX19" s="29"/>
-      <c r="AY19" s="29"/>
-      <c r="AZ19" s="29"/>
-      <c r="BA19" s="29"/>
+      <c r="B19" s="59" t="s">
+        <v>433</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="34"/>
+      <c r="AO19" s="34"/>
+      <c r="AP19" s="34"/>
+      <c r="AQ19" s="34"/>
+      <c r="AR19" s="34"/>
+      <c r="AS19" s="34"/>
+      <c r="AT19" s="34"/>
+      <c r="AU19" s="34"/>
+      <c r="AV19" s="35"/>
+      <c r="AW19" s="36">
+        <v>42838</v>
+      </c>
+      <c r="AX19" s="32"/>
+      <c r="AY19" s="32"/>
+      <c r="AZ19" s="32"/>
+      <c r="BA19" s="32"/>
       <c r="BB19" s="13">
+        <v>5</v>
+      </c>
+      <c r="BD19" s="27">
         <v>3</v>
       </c>
-      <c r="BD19" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:56" s="5" customFormat="1" ht="45.75" customHeight="1">
+    </row>
+    <row r="20" spans="1:56" s="5" customFormat="1" ht="105.75" customHeight="1">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="31"/>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="31"/>
-      <c r="AV20" s="32"/>
-      <c r="AW20" s="33">
-        <v>42824</v>
-      </c>
-      <c r="AX20" s="29"/>
-      <c r="AY20" s="29"/>
-      <c r="AZ20" s="29"/>
-      <c r="BA20" s="29"/>
+      <c r="B20" s="68" t="s">
+        <v>434</v>
+      </c>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="34"/>
+      <c r="AM20" s="34"/>
+      <c r="AN20" s="34"/>
+      <c r="AO20" s="34"/>
+      <c r="AP20" s="34"/>
+      <c r="AQ20" s="34"/>
+      <c r="AR20" s="34"/>
+      <c r="AS20" s="34"/>
+      <c r="AT20" s="34"/>
+      <c r="AU20" s="34"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="36">
+        <v>42839</v>
+      </c>
+      <c r="AX20" s="32"/>
+      <c r="AY20" s="32"/>
+      <c r="AZ20" s="32"/>
+      <c r="BA20" s="32"/>
       <c r="BB20" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD20" s="27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:56" s="5" customFormat="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" s="5" customFormat="1" ht="45.75" customHeight="1">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="31"/>
-      <c r="AP21" s="31"/>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="31"/>
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="32"/>
-      <c r="AW21" s="33">
-        <v>42811</v>
-      </c>
-      <c r="AX21" s="29"/>
-      <c r="AY21" s="29"/>
-      <c r="AZ21" s="29"/>
-      <c r="BA21" s="29"/>
+      <c r="B21" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="34"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="34"/>
+      <c r="AK21" s="34"/>
+      <c r="AL21" s="34"/>
+      <c r="AM21" s="34"/>
+      <c r="AN21" s="34"/>
+      <c r="AO21" s="34"/>
+      <c r="AP21" s="34"/>
+      <c r="AQ21" s="34"/>
+      <c r="AR21" s="34"/>
+      <c r="AS21" s="34"/>
+      <c r="AT21" s="34"/>
+      <c r="AU21" s="34"/>
+      <c r="AV21" s="35"/>
+      <c r="AW21" s="36">
+        <v>42824</v>
+      </c>
+      <c r="AX21" s="32"/>
+      <c r="AY21" s="32"/>
+      <c r="AZ21" s="32"/>
+      <c r="BA21" s="32"/>
       <c r="BB21" s="13">
+        <v>2</v>
+      </c>
+      <c r="BD21" s="27">
         <v>0.5</v>
       </c>
-      <c r="BD21" s="27">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:56" s="5" customFormat="1" ht="130.5" customHeight="1">
+    </row>
+    <row r="22" spans="1:56" s="5" customFormat="1">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="30" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="31"/>
-      <c r="AO22" s="31"/>
-      <c r="AP22" s="31"/>
-      <c r="AQ22" s="31"/>
-      <c r="AR22" s="31"/>
-      <c r="AS22" s="31"/>
-      <c r="AT22" s="31"/>
-      <c r="AU22" s="31"/>
-      <c r="AV22" s="32"/>
-      <c r="AW22" s="33"/>
-      <c r="AX22" s="29"/>
-      <c r="AY22" s="29"/>
-      <c r="AZ22" s="29"/>
-      <c r="BA22" s="29"/>
+      <c r="B22" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="34"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="34"/>
+      <c r="AK22" s="34"/>
+      <c r="AL22" s="34"/>
+      <c r="AM22" s="34"/>
+      <c r="AN22" s="34"/>
+      <c r="AO22" s="34"/>
+      <c r="AP22" s="34"/>
+      <c r="AQ22" s="34"/>
+      <c r="AR22" s="34"/>
+      <c r="AS22" s="34"/>
+      <c r="AT22" s="34"/>
+      <c r="AU22" s="34"/>
+      <c r="AV22" s="35"/>
+      <c r="AW22" s="36">
+        <v>42811</v>
+      </c>
+      <c r="AX22" s="32"/>
+      <c r="AY22" s="32"/>
+      <c r="AZ22" s="32"/>
+      <c r="BA22" s="32"/>
       <c r="BB22" s="13">
-        <v>3</v>
-      </c>
-      <c r="BD22" s="27"/>
-    </row>
-    <row r="23" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
+        <v>0.5</v>
+      </c>
+      <c r="BD22" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56" s="5" customFormat="1" ht="130.5" customHeight="1">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="30" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="31"/>
-      <c r="AK23" s="31"/>
-      <c r="AL23" s="31"/>
-      <c r="AM23" s="31"/>
-      <c r="AN23" s="31"/>
-      <c r="AO23" s="31"/>
-      <c r="AP23" s="31"/>
-      <c r="AQ23" s="31"/>
-      <c r="AR23" s="31"/>
-      <c r="AS23" s="31"/>
-      <c r="AT23" s="31"/>
-      <c r="AU23" s="31"/>
-      <c r="AV23" s="32"/>
-      <c r="AW23" s="33"/>
-      <c r="AX23" s="29"/>
-      <c r="AY23" s="29"/>
-      <c r="AZ23" s="29"/>
-      <c r="BA23" s="29"/>
+      <c r="B23" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="34"/>
+      <c r="AL23" s="34"/>
+      <c r="AM23" s="34"/>
+      <c r="AN23" s="34"/>
+      <c r="AO23" s="34"/>
+      <c r="AP23" s="34"/>
+      <c r="AQ23" s="34"/>
+      <c r="AR23" s="34"/>
+      <c r="AS23" s="34"/>
+      <c r="AT23" s="34"/>
+      <c r="AU23" s="34"/>
+      <c r="AV23" s="35"/>
+      <c r="AW23" s="36"/>
+      <c r="AX23" s="32"/>
+      <c r="AY23" s="32"/>
+      <c r="AZ23" s="32"/>
+      <c r="BA23" s="32"/>
       <c r="BB23" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD23" s="27"/>
     </row>
@@ -7054,64 +7194,64 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="30" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="31"/>
-      <c r="AO24" s="31"/>
-      <c r="AP24" s="31"/>
-      <c r="AQ24" s="31"/>
-      <c r="AR24" s="31"/>
-      <c r="AS24" s="31"/>
-      <c r="AT24" s="31"/>
-      <c r="AU24" s="31"/>
-      <c r="AV24" s="32"/>
-      <c r="AW24" s="33"/>
-      <c r="AX24" s="29"/>
-      <c r="AY24" s="29"/>
-      <c r="AZ24" s="29"/>
-      <c r="BA24" s="29"/>
+      <c r="B24" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="34"/>
+      <c r="AK24" s="34"/>
+      <c r="AL24" s="34"/>
+      <c r="AM24" s="34"/>
+      <c r="AN24" s="34"/>
+      <c r="AO24" s="34"/>
+      <c r="AP24" s="34"/>
+      <c r="AQ24" s="34"/>
+      <c r="AR24" s="34"/>
+      <c r="AS24" s="34"/>
+      <c r="AT24" s="34"/>
+      <c r="AU24" s="34"/>
+      <c r="AV24" s="35"/>
+      <c r="AW24" s="36"/>
+      <c r="AX24" s="32"/>
+      <c r="AY24" s="32"/>
+      <c r="AZ24" s="32"/>
+      <c r="BA24" s="32"/>
       <c r="BB24" s="13">
         <v>2</v>
       </c>
@@ -7122,64 +7262,64 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="30" t="s">
-        <v>427</v>
-      </c>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="31"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="31"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="31"/>
-      <c r="AQ25" s="31"/>
-      <c r="AR25" s="31"/>
-      <c r="AS25" s="31"/>
-      <c r="AT25" s="31"/>
-      <c r="AU25" s="31"/>
-      <c r="AV25" s="32"/>
-      <c r="AW25" s="33"/>
-      <c r="AX25" s="29"/>
-      <c r="AY25" s="29"/>
-      <c r="AZ25" s="29"/>
-      <c r="BA25" s="29"/>
+      <c r="B25" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="34"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="34"/>
+      <c r="AL25" s="34"/>
+      <c r="AM25" s="34"/>
+      <c r="AN25" s="34"/>
+      <c r="AO25" s="34"/>
+      <c r="AP25" s="34"/>
+      <c r="AQ25" s="34"/>
+      <c r="AR25" s="34"/>
+      <c r="AS25" s="34"/>
+      <c r="AT25" s="34"/>
+      <c r="AU25" s="34"/>
+      <c r="AV25" s="35"/>
+      <c r="AW25" s="36"/>
+      <c r="AX25" s="32"/>
+      <c r="AY25" s="32"/>
+      <c r="AZ25" s="32"/>
+      <c r="BA25" s="32"/>
       <c r="BB25" s="13">
         <v>2</v>
       </c>
@@ -7190,64 +7330,64 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B26" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="31"/>
-      <c r="AI26" s="31"/>
-      <c r="AJ26" s="31"/>
-      <c r="AK26" s="31"/>
-      <c r="AL26" s="31"/>
-      <c r="AM26" s="31"/>
-      <c r="AN26" s="31"/>
-      <c r="AO26" s="31"/>
-      <c r="AP26" s="31"/>
-      <c r="AQ26" s="31"/>
-      <c r="AR26" s="31"/>
-      <c r="AS26" s="31"/>
-      <c r="AT26" s="31"/>
-      <c r="AU26" s="31"/>
-      <c r="AV26" s="32"/>
-      <c r="AW26" s="33"/>
-      <c r="AX26" s="29"/>
-      <c r="AY26" s="29"/>
-      <c r="AZ26" s="29"/>
-      <c r="BA26" s="29"/>
+      <c r="B26" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="34"/>
+      <c r="AM26" s="34"/>
+      <c r="AN26" s="34"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="34"/>
+      <c r="AQ26" s="34"/>
+      <c r="AR26" s="34"/>
+      <c r="AS26" s="34"/>
+      <c r="AT26" s="34"/>
+      <c r="AU26" s="34"/>
+      <c r="AV26" s="35"/>
+      <c r="AW26" s="36"/>
+      <c r="AX26" s="32"/>
+      <c r="AY26" s="32"/>
+      <c r="AZ26" s="32"/>
+      <c r="BA26" s="32"/>
       <c r="BB26" s="13">
         <v>2</v>
       </c>
@@ -7258,369 +7398,461 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29" t="s">
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
-      <c r="AG27" s="31"/>
-      <c r="AH27" s="31"/>
-      <c r="AI27" s="31"/>
-      <c r="AJ27" s="31"/>
-      <c r="AK27" s="31"/>
-      <c r="AL27" s="31"/>
-      <c r="AM27" s="31"/>
-      <c r="AN27" s="31"/>
-      <c r="AO27" s="31"/>
-      <c r="AP27" s="31"/>
-      <c r="AQ27" s="31"/>
-      <c r="AR27" s="31"/>
-      <c r="AS27" s="31"/>
-      <c r="AT27" s="31"/>
-      <c r="AU27" s="31"/>
-      <c r="AV27" s="32"/>
-      <c r="AW27" s="33"/>
-      <c r="AX27" s="29"/>
-      <c r="AY27" s="29"/>
-      <c r="AZ27" s="29"/>
-      <c r="BA27" s="29"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="34"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="34"/>
+      <c r="AN27" s="34"/>
+      <c r="AO27" s="34"/>
+      <c r="AP27" s="34"/>
+      <c r="AQ27" s="34"/>
+      <c r="AR27" s="34"/>
+      <c r="AS27" s="34"/>
+      <c r="AT27" s="34"/>
+      <c r="AU27" s="34"/>
+      <c r="AV27" s="35"/>
+      <c r="AW27" s="36"/>
+      <c r="AX27" s="32"/>
+      <c r="AY27" s="32"/>
+      <c r="AZ27" s="32"/>
+      <c r="BA27" s="32"/>
       <c r="BB27" s="13">
         <v>2</v>
       </c>
       <c r="BD27" s="27"/>
     </row>
-    <row r="28" spans="1:56" s="5" customFormat="1" ht="22.5" customHeight="1">
+    <row r="28" spans="1:56" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B28" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="31"/>
-      <c r="AI28" s="31"/>
-      <c r="AJ28" s="31"/>
-      <c r="AK28" s="31"/>
-      <c r="AL28" s="31"/>
-      <c r="AM28" s="31"/>
-      <c r="AN28" s="31"/>
-      <c r="AO28" s="31"/>
-      <c r="AP28" s="31"/>
-      <c r="AQ28" s="31"/>
-      <c r="AR28" s="31"/>
-      <c r="AS28" s="31"/>
-      <c r="AT28" s="31"/>
-      <c r="AU28" s="31"/>
-      <c r="AV28" s="32"/>
-      <c r="AW28" s="33">
-        <v>42824</v>
-      </c>
-      <c r="AX28" s="29"/>
-      <c r="AY28" s="29"/>
-      <c r="AZ28" s="29"/>
-      <c r="BA28" s="29"/>
+      <c r="B28" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="34"/>
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="34"/>
+      <c r="AT28" s="34"/>
+      <c r="AU28" s="34"/>
+      <c r="AV28" s="35"/>
+      <c r="AW28" s="36"/>
+      <c r="AX28" s="32"/>
+      <c r="AY28" s="32"/>
+      <c r="AZ28" s="32"/>
+      <c r="BA28" s="32"/>
       <c r="BB28" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="BD28" s="27">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:56" s="5" customFormat="1">
+        <v>2</v>
+      </c>
+      <c r="BD28" s="27"/>
+    </row>
+    <row r="29" spans="1:56" s="5" customFormat="1" ht="22.5" customHeight="1">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="31"/>
-      <c r="AH29" s="31"/>
-      <c r="AI29" s="31"/>
-      <c r="AJ29" s="31"/>
-      <c r="AK29" s="31"/>
-      <c r="AL29" s="31"/>
-      <c r="AM29" s="31"/>
-      <c r="AN29" s="31"/>
-      <c r="AO29" s="31"/>
-      <c r="AP29" s="31"/>
-      <c r="AQ29" s="31"/>
-      <c r="AR29" s="31"/>
-      <c r="AS29" s="31"/>
-      <c r="AT29" s="31"/>
-      <c r="AU29" s="31"/>
-      <c r="AV29" s="32"/>
-      <c r="AW29" s="33"/>
-      <c r="AX29" s="29"/>
-      <c r="AY29" s="29"/>
-      <c r="AZ29" s="29"/>
-      <c r="BA29" s="29"/>
-      <c r="BB29" s="13"/>
-      <c r="BD29" s="27"/>
+      <c r="B29" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="34"/>
+      <c r="AN29" s="34"/>
+      <c r="AO29" s="34"/>
+      <c r="AP29" s="34"/>
+      <c r="AQ29" s="34"/>
+      <c r="AR29" s="34"/>
+      <c r="AS29" s="34"/>
+      <c r="AT29" s="34"/>
+      <c r="AU29" s="34"/>
+      <c r="AV29" s="35"/>
+      <c r="AW29" s="36">
+        <v>42824</v>
+      </c>
+      <c r="AX29" s="32"/>
+      <c r="AY29" s="32"/>
+      <c r="AZ29" s="32"/>
+      <c r="BA29" s="32"/>
+      <c r="BB29" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="BD29" s="27">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="30" spans="1:56" s="5" customFormat="1">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="31"/>
-      <c r="AM30" s="31"/>
-      <c r="AN30" s="31"/>
-      <c r="AO30" s="31"/>
-      <c r="AP30" s="31"/>
-      <c r="AQ30" s="31"/>
-      <c r="AR30" s="31"/>
-      <c r="AS30" s="31"/>
-      <c r="AT30" s="31"/>
-      <c r="AU30" s="31"/>
-      <c r="AV30" s="32"/>
-      <c r="AW30" s="33"/>
-      <c r="AX30" s="29"/>
-      <c r="AY30" s="29"/>
-      <c r="AZ30" s="29"/>
-      <c r="BA30" s="29"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="34"/>
+      <c r="AH30" s="34"/>
+      <c r="AI30" s="34"/>
+      <c r="AJ30" s="34"/>
+      <c r="AK30" s="34"/>
+      <c r="AL30" s="34"/>
+      <c r="AM30" s="34"/>
+      <c r="AN30" s="34"/>
+      <c r="AO30" s="34"/>
+      <c r="AP30" s="34"/>
+      <c r="AQ30" s="34"/>
+      <c r="AR30" s="34"/>
+      <c r="AS30" s="34"/>
+      <c r="AT30" s="34"/>
+      <c r="AU30" s="34"/>
+      <c r="AV30" s="35"/>
+      <c r="AW30" s="36"/>
+      <c r="AX30" s="32"/>
+      <c r="AY30" s="32"/>
+      <c r="AZ30" s="32"/>
+      <c r="BA30" s="32"/>
       <c r="BB30" s="13"/>
       <c r="BD30" s="27"/>
     </row>
-    <row r="31" spans="1:56" s="5" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A31" s="7">
+    <row r="31" spans="1:56" s="5" customFormat="1">
+      <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="41"/>
-      <c r="AN31" s="41"/>
-      <c r="AO31" s="41"/>
-      <c r="AP31" s="41"/>
-      <c r="AQ31" s="41"/>
-      <c r="AR31" s="41"/>
-      <c r="AS31" s="41"/>
-      <c r="AT31" s="41"/>
-      <c r="AU31" s="41"/>
-      <c r="AV31" s="42"/>
-      <c r="AW31" s="39"/>
-      <c r="AX31" s="39"/>
-      <c r="AY31" s="39"/>
-      <c r="AZ31" s="39"/>
-      <c r="BA31" s="39"/>
-      <c r="BB31" s="14"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="34"/>
+      <c r="AM31" s="34"/>
+      <c r="AN31" s="34"/>
+      <c r="AO31" s="34"/>
+      <c r="AP31" s="34"/>
+      <c r="AQ31" s="34"/>
+      <c r="AR31" s="34"/>
+      <c r="AS31" s="34"/>
+      <c r="AT31" s="34"/>
+      <c r="AU31" s="34"/>
+      <c r="AV31" s="35"/>
+      <c r="AW31" s="36"/>
+      <c r="AX31" s="32"/>
+      <c r="AY31" s="32"/>
+      <c r="AZ31" s="32"/>
+      <c r="BA31" s="32"/>
+      <c r="BB31" s="13"/>
       <c r="BD31" s="27"/>
     </row>
-    <row r="32" spans="1:56">
-      <c r="BB32" s="9">
-        <f>SUM(BB7:BB31)</f>
-        <v>47</v>
-      </c>
-      <c r="BD32" s="9">
-        <f>SUM(BD7:BD31)</f>
-        <v>15.2</v>
+    <row r="32" spans="1:56" s="5" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A32" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="65"/>
+      <c r="AF32" s="65"/>
+      <c r="AG32" s="65"/>
+      <c r="AH32" s="65"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="65"/>
+      <c r="AK32" s="65"/>
+      <c r="AL32" s="65"/>
+      <c r="AM32" s="65"/>
+      <c r="AN32" s="65"/>
+      <c r="AO32" s="65"/>
+      <c r="AP32" s="65"/>
+      <c r="AQ32" s="65"/>
+      <c r="AR32" s="65"/>
+      <c r="AS32" s="65"/>
+      <c r="AT32" s="65"/>
+      <c r="AU32" s="65"/>
+      <c r="AV32" s="66"/>
+      <c r="AW32" s="63"/>
+      <c r="AX32" s="63"/>
+      <c r="AY32" s="63"/>
+      <c r="AZ32" s="63"/>
+      <c r="BA32" s="63"/>
+      <c r="BB32" s="14"/>
+      <c r="BD32" s="27"/>
+    </row>
+    <row r="33" spans="54:56">
+      <c r="BB33" s="9">
+        <f>SUM(BB7:BB32)</f>
+        <v>48</v>
+      </c>
+      <c r="BD33" s="9">
+        <f>SUM(BD7:BD32)</f>
+        <v>16.200000000000003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="117">
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="X10:AV10"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:W28"/>
-    <mergeCell ref="AW28:BA28"/>
-    <mergeCell ref="X28:AV28"/>
+  <mergeCells count="121">
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="X19:AV19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:W15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="X15:AV15"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AV18"/>
+    <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:W32"/>
+    <mergeCell ref="AW32:BA32"/>
+    <mergeCell ref="X32:AV32"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="X9:AV9"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="X17:AV17"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="X11:AV11"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:W31"/>
+    <mergeCell ref="AW31:BA31"/>
+    <mergeCell ref="X31:AV31"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="X12:AV12"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="K30:W30"/>
+    <mergeCell ref="AW30:BA30"/>
+    <mergeCell ref="X30:AV30"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="K21:W21"/>
     <mergeCell ref="AW21:BA21"/>
     <mergeCell ref="X21:AV21"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:W14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="X14:AV14"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:W26"/>
-    <mergeCell ref="X26:AV26"/>
-    <mergeCell ref="AW26:BA26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="K27:W27"/>
-    <mergeCell ref="X27:AV27"/>
-    <mergeCell ref="AW27:BA27"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="X7:AV7"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="X6:AV6"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="AW16:BA16"/>
+    <mergeCell ref="X16:AV16"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="X25:AV25"/>
+    <mergeCell ref="AW25:BA25"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="X23:AV23"/>
+    <mergeCell ref="AW23:BA23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="K24:W24"/>
+    <mergeCell ref="X24:AV24"/>
+    <mergeCell ref="AW24:BA24"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="A2:I4"/>
     <mergeCell ref="J2:O4"/>
@@ -7634,74 +7866,54 @@
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:W28"/>
+    <mergeCell ref="X28:AV28"/>
+    <mergeCell ref="AW28:BA28"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="X7:AV7"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="X6:AV6"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:W26"/>
+    <mergeCell ref="X26:AV26"/>
+    <mergeCell ref="AW26:BA26"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="X20:AV20"/>
+    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:W13"/>
+    <mergeCell ref="X13:AV13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="X10:AV10"/>
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="K29:W29"/>
     <mergeCell ref="AW29:BA29"/>
     <mergeCell ref="X29:AV29"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="AW20:BA20"/>
-    <mergeCell ref="X20:AV20"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="X16:AV16"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="K24:W24"/>
-    <mergeCell ref="X24:AV24"/>
-    <mergeCell ref="AW24:BA24"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="K22:W22"/>
+    <mergeCell ref="AW22:BA22"/>
     <mergeCell ref="X22:AV22"/>
-    <mergeCell ref="AW22:BA22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="X23:AV23"/>
-    <mergeCell ref="AW23:BA23"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:W31"/>
-    <mergeCell ref="AW31:BA31"/>
-    <mergeCell ref="X31:AV31"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="X9:AV9"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="X17:AV17"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="X11:AV11"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="K30:W30"/>
-    <mergeCell ref="AW30:BA30"/>
-    <mergeCell ref="X30:AV30"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="X12:AV12"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="K25:W25"/>
-    <mergeCell ref="X25:AV25"/>
-    <mergeCell ref="AW25:BA25"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="X19:AV19"/>
-    <mergeCell ref="AW19:BA19"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:W13"/>
-    <mergeCell ref="X13:AV13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="X18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:W15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="X15:AV15"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:W14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="X14:AV14"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="X27:AV27"/>
+    <mergeCell ref="AW27:BA27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
@@ -7726,40 +7938,40 @@
   </cols>
   <sheetData>
     <row r="11" spans="1:3">
-      <c r="A11" s="65" t="s">
-        <v>452</v>
+      <c r="A11" s="28" t="s">
+        <v>451</v>
       </c>
       <c r="B11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="C12" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="66" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="66" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66" t="s">
-        <v>463</v>
-      </c>
-      <c r="C14" t="s">
-        <v>460</v>
-      </c>
-    </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="65"/>
+      <c r="A17" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -7774,6 +7986,3145 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C343"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="23"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="23"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="23"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="23"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="23"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="23"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="23"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="23"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="23"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="23"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="15">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="23"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="23"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="23"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="23"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="23"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="23"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="23"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="23"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="23"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="23"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="23"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="23"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="23"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="23"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="23"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="15">
+        <v>47</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="23"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="15">
+        <v>48</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="23"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="15">
+        <v>49</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="23"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="15">
+        <v>50</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="23"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="23"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="15">
+        <v>52</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="23"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="15">
+        <v>53</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="23"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="15">
+        <v>54</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="23"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="15">
+        <v>55</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="23"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="15">
+        <v>56</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="23"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="15">
+        <v>57</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="23"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="15">
+        <v>58</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="23"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="15">
+        <v>59</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="23"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="15">
+        <v>60</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="23"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="15">
+        <v>61</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="23"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="15">
+        <v>62</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="23"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="15">
+        <v>63</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="23"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="15">
+        <v>64</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="23"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="15">
+        <v>65</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="23"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="15">
+        <v>66</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="23"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="15">
+        <v>67</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="23"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="15">
+        <v>68</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="23"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="15">
+        <v>69</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="23"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="15">
+        <v>70</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="23"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="15">
+        <v>71</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="23"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="15">
+        <v>72</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="23"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="15">
+        <v>73</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="23"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="15">
+        <v>74</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="23"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="15">
+        <v>75</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" s="23"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="15">
+        <v>76</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="23"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="15">
+        <v>77</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="23"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="15">
+        <v>78</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="23"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="15">
+        <v>79</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="23"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="15">
+        <v>80</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="23"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="15">
+        <v>81</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" s="23"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="15">
+        <v>82</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" s="23"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="15">
+        <v>83</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" s="23"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="15">
+        <v>84</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="23"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="15">
+        <v>85</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="23"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="15">
+        <v>86</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="23"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="15">
+        <v>87</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" s="23"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="15">
+        <v>88</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" s="23"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="15">
+        <v>89</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C90" s="23"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="15">
+        <v>90</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="23"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="15">
+        <v>91</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="23"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="15">
+        <v>92</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" s="23"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="15">
+        <v>93</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="23"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="15">
+        <v>94</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" s="23"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="15">
+        <v>95</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" s="23"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="15">
+        <v>96</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C97" s="23"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="15">
+        <v>97</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" s="23"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="15">
+        <v>98</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C99" s="23"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="15">
+        <v>99</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" s="23"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="15">
+        <v>100</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" s="23"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="15">
+        <v>101</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" s="23"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="15">
+        <v>102</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C103" s="23"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="15">
+        <v>103</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="23"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="15">
+        <v>104</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="23"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="15">
+        <v>105</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C106" s="23"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="15">
+        <v>106</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C107" s="23"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="15">
+        <v>107</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C108" s="23"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="15">
+        <v>108</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C109" s="23"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="15">
+        <v>109</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C110" s="23"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="15">
+        <v>110</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C111" s="23"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="15">
+        <v>111</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" s="23"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="15">
+        <v>112</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C113" s="23"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="15">
+        <v>113</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C114" s="23"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="15">
+        <v>114</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C115" s="23"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="15">
+        <v>115</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C116" s="23"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="15">
+        <v>116</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" s="23"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="15">
+        <v>117</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C118" s="23"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="15">
+        <v>118</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C119" s="23"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="15">
+        <v>119</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C120" s="23"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="15">
+        <v>120</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C121" s="23"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="15">
+        <v>121</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C122" s="23"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="15">
+        <v>122</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C123" s="23"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="15">
+        <v>123</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C124" s="23"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="15">
+        <v>124</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C125" s="23"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="15">
+        <v>125</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C126" s="23"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="15">
+        <v>126</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" s="23"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="15">
+        <v>127</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C128" s="23"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="15">
+        <v>128</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C129" s="23"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="15">
+        <v>129</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C130" s="23"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="15">
+        <v>130</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C131" s="23"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="15">
+        <v>131</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C132" s="23"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="15">
+        <v>132</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C133" s="23"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="15">
+        <v>133</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C134" s="23"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="15">
+        <v>134</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C135" s="23"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="15">
+        <v>135</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C136" s="23"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="15">
+        <v>136</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137" s="23"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="15">
+        <v>137</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C138" s="23"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="15">
+        <v>138</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C139" s="23"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="15">
+        <v>139</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C140" s="23"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="15">
+        <v>140</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C141" s="23"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="15">
+        <v>141</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C142" s="23"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="15">
+        <v>142</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C143" s="23"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="15">
+        <v>143</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C144" s="23"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="15">
+        <v>144</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C145" s="23"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="15">
+        <v>145</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C146" s="23"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="15">
+        <v>146</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C147" s="23"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="15">
+        <v>147</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C148" s="23"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="15">
+        <v>148</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C149" s="23"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="15">
+        <v>149</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C150" s="23"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="15">
+        <v>150</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C151" s="23"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="15">
+        <v>151</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C152" s="23"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="15">
+        <v>152</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C153" s="23"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="15">
+        <v>153</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C154" s="23"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="15">
+        <v>154</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C155" s="23"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="15">
+        <v>155</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C156" s="23"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="15">
+        <v>156</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C157" s="23"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="15">
+        <v>157</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C158" s="23"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="15">
+        <v>158</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C159" s="23"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="15">
+        <v>159</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C160" s="23"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="15">
+        <v>160</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C161" s="23"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="15">
+        <v>161</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C162" s="23"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="15">
+        <v>162</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163" s="23"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="15">
+        <v>163</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C164" s="23"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="15">
+        <v>164</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C165" s="23"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="15">
+        <v>165</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C166" s="23"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="15">
+        <v>166</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C167" s="23"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="15">
+        <v>167</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C168" s="23"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="15">
+        <v>168</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C169" s="23"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="15">
+        <v>169</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C170" s="23"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="15">
+        <v>170</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C171" s="23"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="15">
+        <v>171</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C172" s="23"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="15">
+        <v>172</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C173" s="23"/>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="15">
+        <v>173</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C174" s="23"/>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="15">
+        <v>174</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C175" s="23"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="15">
+        <v>175</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C176" s="23"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="15">
+        <v>176</v>
+      </c>
+      <c r="B177" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C177" s="23"/>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="15">
+        <v>177</v>
+      </c>
+      <c r="B178" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C178" s="23"/>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="15">
+        <v>178</v>
+      </c>
+      <c r="B179" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C179" s="23"/>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="15">
+        <v>179</v>
+      </c>
+      <c r="B180" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C180" s="23"/>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="15">
+        <v>180</v>
+      </c>
+      <c r="B181" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C181" s="23"/>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="15">
+        <v>181</v>
+      </c>
+      <c r="B182" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C182" s="23"/>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="15">
+        <v>182</v>
+      </c>
+      <c r="B183" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C183" s="23"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="15">
+        <v>183</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C184" s="23"/>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="15">
+        <v>184</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C185" s="23"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="15">
+        <v>185</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C186" s="23"/>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="15">
+        <v>186</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C187" s="23"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="15">
+        <v>187</v>
+      </c>
+      <c r="B188" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C188" s="23"/>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="15">
+        <v>188</v>
+      </c>
+      <c r="B189" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C189" s="23"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="15">
+        <v>189</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C190" s="23"/>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="15">
+        <v>190</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C191" s="23"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="15">
+        <v>191</v>
+      </c>
+      <c r="B192" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C192" s="23"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="15">
+        <v>192</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C193" s="23"/>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="15">
+        <v>193</v>
+      </c>
+      <c r="B194" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C194" s="23"/>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="15">
+        <v>194</v>
+      </c>
+      <c r="B195" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C195" s="23"/>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="15">
+        <v>195</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C196" s="23"/>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="15">
+        <v>196</v>
+      </c>
+      <c r="B197" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C197" s="23"/>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="15">
+        <v>197</v>
+      </c>
+      <c r="B198" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C198" s="23"/>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="15">
+        <v>198</v>
+      </c>
+      <c r="B199" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C199" s="23"/>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="15">
+        <v>199</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C200" s="23"/>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="15">
+        <v>200</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C201" s="23"/>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="15">
+        <v>201</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C202" s="23"/>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="15">
+        <v>202</v>
+      </c>
+      <c r="B203" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C203" s="23"/>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="15">
+        <v>203</v>
+      </c>
+      <c r="B204" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C204" s="23"/>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="15">
+        <v>204</v>
+      </c>
+      <c r="B205" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C205" s="23"/>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="15">
+        <v>205</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C206" s="23"/>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="15">
+        <v>206</v>
+      </c>
+      <c r="B207" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C207" s="23"/>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="15">
+        <v>207</v>
+      </c>
+      <c r="B208" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C208" s="23"/>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="15">
+        <v>208</v>
+      </c>
+      <c r="B209" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C209" s="23"/>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="15">
+        <v>209</v>
+      </c>
+      <c r="B210" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C210" s="23"/>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="15">
+        <v>210</v>
+      </c>
+      <c r="B211" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C211" s="23"/>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="15">
+        <v>211</v>
+      </c>
+      <c r="B212" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C212" s="23"/>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="15">
+        <v>212</v>
+      </c>
+      <c r="B213" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C213" s="23"/>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="15">
+        <v>213</v>
+      </c>
+      <c r="B214" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C214" s="23"/>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="15">
+        <v>214</v>
+      </c>
+      <c r="B215" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C215" s="23"/>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="15">
+        <v>215</v>
+      </c>
+      <c r="B216" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C216" s="23"/>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="15">
+        <v>216</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C217" s="23"/>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="15">
+        <v>217</v>
+      </c>
+      <c r="B218" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C218" s="23"/>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="15">
+        <v>218</v>
+      </c>
+      <c r="B219" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C219" s="23"/>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="15">
+        <v>219</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C220" s="23"/>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="15">
+        <v>220</v>
+      </c>
+      <c r="B221" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C221" s="23"/>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="15">
+        <v>221</v>
+      </c>
+      <c r="B222" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C222" s="23"/>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="15">
+        <v>222</v>
+      </c>
+      <c r="B223" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C223" s="23"/>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="15">
+        <v>223</v>
+      </c>
+      <c r="B224" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C224" s="23"/>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="15">
+        <v>224</v>
+      </c>
+      <c r="B225" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C225" s="23"/>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="15">
+        <v>225</v>
+      </c>
+      <c r="B226" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C226" s="23"/>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="15">
+        <v>226</v>
+      </c>
+      <c r="B227" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C227" s="23"/>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="15">
+        <v>227</v>
+      </c>
+      <c r="B228" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C228" s="23"/>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="15">
+        <v>228</v>
+      </c>
+      <c r="B229" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C229" s="23"/>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="15">
+        <v>229</v>
+      </c>
+      <c r="B230" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C230" s="23"/>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="15">
+        <v>230</v>
+      </c>
+      <c r="B231" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C231" s="23"/>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="15">
+        <v>231</v>
+      </c>
+      <c r="B232" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C232" s="23"/>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="15">
+        <v>232</v>
+      </c>
+      <c r="B233" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C233" s="23"/>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="15">
+        <v>233</v>
+      </c>
+      <c r="B234" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C234" s="23"/>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="15">
+        <v>234</v>
+      </c>
+      <c r="B235" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C235" s="23"/>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="15">
+        <v>235</v>
+      </c>
+      <c r="B236" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C236" s="23"/>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="15">
+        <v>236</v>
+      </c>
+      <c r="B237" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C237" s="23"/>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="15">
+        <v>237</v>
+      </c>
+      <c r="B238" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C238" s="23"/>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="15">
+        <v>238</v>
+      </c>
+      <c r="B239" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C239" s="23"/>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="15">
+        <v>239</v>
+      </c>
+      <c r="B240" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C240" s="23"/>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="15">
+        <v>240</v>
+      </c>
+      <c r="B241" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C241" s="23"/>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="15">
+        <v>241</v>
+      </c>
+      <c r="B242" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C242" s="23"/>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="15">
+        <v>242</v>
+      </c>
+      <c r="B243" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C243" s="23"/>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="15">
+        <v>243</v>
+      </c>
+      <c r="B244" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C244" s="23"/>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="15">
+        <v>244</v>
+      </c>
+      <c r="B245" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C245" s="23"/>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="15">
+        <v>245</v>
+      </c>
+      <c r="B246" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C246" s="23"/>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="15">
+        <v>246</v>
+      </c>
+      <c r="B247" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C247" s="23"/>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="15">
+        <v>247</v>
+      </c>
+      <c r="B248" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C248" s="23"/>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="15">
+        <v>248</v>
+      </c>
+      <c r="B249" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C249" s="23"/>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="15">
+        <v>249</v>
+      </c>
+      <c r="B250" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C250" s="23"/>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="15">
+        <v>250</v>
+      </c>
+      <c r="B251" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C251" s="23"/>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="15">
+        <v>251</v>
+      </c>
+      <c r="B252" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C252" s="23"/>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="15">
+        <v>252</v>
+      </c>
+      <c r="B253" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C253" s="23"/>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="15">
+        <v>253</v>
+      </c>
+      <c r="B254" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C254" s="23"/>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="15">
+        <v>254</v>
+      </c>
+      <c r="B255" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C255" s="23"/>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="15">
+        <v>255</v>
+      </c>
+      <c r="B256" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C256" s="23"/>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="15">
+        <v>256</v>
+      </c>
+      <c r="B257" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C257" s="23"/>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="15">
+        <v>257</v>
+      </c>
+      <c r="B258" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C258" s="23"/>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="15">
+        <v>258</v>
+      </c>
+      <c r="B259" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C259" s="23"/>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="15">
+        <v>259</v>
+      </c>
+      <c r="B260" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C260" s="23"/>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="15">
+        <v>260</v>
+      </c>
+      <c r="B261" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C261" s="23"/>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="15">
+        <v>261</v>
+      </c>
+      <c r="B262" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C262" s="23"/>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="15">
+        <v>262</v>
+      </c>
+      <c r="B263" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C263" s="23"/>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="15">
+        <v>263</v>
+      </c>
+      <c r="B264" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C264" s="23"/>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="15">
+        <v>264</v>
+      </c>
+      <c r="B265" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C265" s="23"/>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="15">
+        <v>265</v>
+      </c>
+      <c r="B266" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="C266" s="23"/>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="15">
+        <v>266</v>
+      </c>
+      <c r="B267" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C267" s="23"/>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="15">
+        <v>267</v>
+      </c>
+      <c r="B268" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C268" s="23"/>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="15">
+        <v>268</v>
+      </c>
+      <c r="B269" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C269" s="23"/>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="15">
+        <v>269</v>
+      </c>
+      <c r="B270" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C270" s="23"/>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="15">
+        <v>270</v>
+      </c>
+      <c r="B271" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C271" s="23"/>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="15">
+        <v>271</v>
+      </c>
+      <c r="B272" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C272" s="23"/>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="15">
+        <v>272</v>
+      </c>
+      <c r="B273" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C273" s="23"/>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="15">
+        <v>273</v>
+      </c>
+      <c r="B274" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C274" s="23"/>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="15">
+        <v>274</v>
+      </c>
+      <c r="B275" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C275" s="23"/>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="15">
+        <v>275</v>
+      </c>
+      <c r="B276" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C276" s="23"/>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="15">
+        <v>276</v>
+      </c>
+      <c r="B277" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C277" s="23"/>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="15">
+        <v>277</v>
+      </c>
+      <c r="B278" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C278" s="23"/>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="15">
+        <v>278</v>
+      </c>
+      <c r="B279" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C279" s="23"/>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="15">
+        <v>279</v>
+      </c>
+      <c r="B280" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C280" s="23"/>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="15">
+        <v>280</v>
+      </c>
+      <c r="B281" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C281" s="23"/>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="15">
+        <v>281</v>
+      </c>
+      <c r="B282" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C282" s="23"/>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="15">
+        <v>282</v>
+      </c>
+      <c r="B283" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C283" s="23"/>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="15">
+        <v>283</v>
+      </c>
+      <c r="B284" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C284" s="23"/>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="15">
+        <v>284</v>
+      </c>
+      <c r="B285" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="C285" s="23"/>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="15">
+        <v>285</v>
+      </c>
+      <c r="B286" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C286" s="23"/>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="15">
+        <v>286</v>
+      </c>
+      <c r="B287" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="C287" s="23"/>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="15">
+        <v>287</v>
+      </c>
+      <c r="B288" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C288" s="23"/>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="15">
+        <v>288</v>
+      </c>
+      <c r="B289" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C289" s="23"/>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="15">
+        <v>289</v>
+      </c>
+      <c r="B290" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C290" s="23"/>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="15">
+        <v>290</v>
+      </c>
+      <c r="B291" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C291" s="23"/>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="15">
+        <v>291</v>
+      </c>
+      <c r="B292" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="C292" s="23"/>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="15">
+        <v>292</v>
+      </c>
+      <c r="B293" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="C293" s="23"/>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="15">
+        <v>293</v>
+      </c>
+      <c r="B294" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C294" s="23"/>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="15">
+        <v>294</v>
+      </c>
+      <c r="B295" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C295" s="23"/>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="15">
+        <v>295</v>
+      </c>
+      <c r="B296" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C296" s="23"/>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="15">
+        <v>296</v>
+      </c>
+      <c r="B297" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C297" s="23"/>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="15">
+        <v>297</v>
+      </c>
+      <c r="B298" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C298" s="23"/>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="15">
+        <v>298</v>
+      </c>
+      <c r="B299" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C299" s="23"/>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="15">
+        <v>299</v>
+      </c>
+      <c r="B300" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C300" s="23"/>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="15">
+        <v>300</v>
+      </c>
+      <c r="B301" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="C301" s="23"/>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="15">
+        <v>301</v>
+      </c>
+      <c r="B302" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C302" s="23"/>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="15">
+        <v>302</v>
+      </c>
+      <c r="B303" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C303" s="23"/>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="15">
+        <v>303</v>
+      </c>
+      <c r="B304" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C304" s="23"/>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="15">
+        <v>304</v>
+      </c>
+      <c r="B305" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C305" s="23"/>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="15">
+        <v>305</v>
+      </c>
+      <c r="B306" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C306" s="23"/>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="15">
+        <v>306</v>
+      </c>
+      <c r="B307" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C307" s="23"/>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="15">
+        <v>307</v>
+      </c>
+      <c r="B308" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C308" s="23"/>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="15">
+        <v>308</v>
+      </c>
+      <c r="B309" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="C309" s="23"/>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="15">
+        <v>309</v>
+      </c>
+      <c r="B310" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C310" s="23"/>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="15">
+        <v>310</v>
+      </c>
+      <c r="B311" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="C311" s="23"/>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="15">
+        <v>311</v>
+      </c>
+      <c r="B312" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="C312" s="23"/>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="15">
+        <v>312</v>
+      </c>
+      <c r="B313" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="C313" s="23"/>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="15">
+        <v>313</v>
+      </c>
+      <c r="B314" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C314" s="23"/>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="15">
+        <v>314</v>
+      </c>
+      <c r="B315" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C315" s="23"/>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="15">
+        <v>315</v>
+      </c>
+      <c r="B316" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="C316" s="23"/>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="15">
+        <v>316</v>
+      </c>
+      <c r="B317" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C317" s="23"/>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="15">
+        <v>317</v>
+      </c>
+      <c r="B318" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="C318" s="23"/>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="15">
+        <v>318</v>
+      </c>
+      <c r="B319" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="C319" s="23"/>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="15">
+        <v>319</v>
+      </c>
+      <c r="B320" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="C320" s="23"/>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="15">
+        <v>320</v>
+      </c>
+      <c r="B321" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="C321" s="23"/>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="15">
+        <v>321</v>
+      </c>
+      <c r="B322" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C322" s="23"/>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="15">
+        <v>322</v>
+      </c>
+      <c r="B323" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="C323" s="23"/>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="15">
+        <v>323</v>
+      </c>
+      <c r="B324" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C324" s="23"/>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="15">
+        <v>324</v>
+      </c>
+      <c r="B325" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="C325" s="23"/>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="15">
+        <v>325</v>
+      </c>
+      <c r="B326" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="C326" s="23"/>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="15">
+        <v>326</v>
+      </c>
+      <c r="B327" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C327" s="23"/>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="15">
+        <v>327</v>
+      </c>
+      <c r="B328" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="C328" s="23"/>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="15">
+        <v>328</v>
+      </c>
+      <c r="B329" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="C329" s="23"/>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="15">
+        <v>329</v>
+      </c>
+      <c r="B330" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="C330" s="23"/>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="15">
+        <v>330</v>
+      </c>
+      <c r="B331" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="C331" s="23"/>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="15">
+        <v>331</v>
+      </c>
+      <c r="B332" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="C332" s="23"/>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="15">
+        <v>332</v>
+      </c>
+      <c r="B333" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="C333" s="23"/>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="15">
+        <v>333</v>
+      </c>
+      <c r="B334" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="C334" s="23"/>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="15">
+        <v>334</v>
+      </c>
+      <c r="B335" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="C335" s="23"/>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="15">
+        <v>335</v>
+      </c>
+      <c r="B336" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="C336" s="23"/>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="15">
+        <v>336</v>
+      </c>
+      <c r="B337" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="C337" s="23"/>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="15">
+        <v>337</v>
+      </c>
+      <c r="B338" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C338" s="23"/>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="15">
+        <v>338</v>
+      </c>
+      <c r="B339" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C339" s="23"/>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="15">
+        <v>339</v>
+      </c>
+      <c r="B340" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C340" s="23"/>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="15">
+        <v>340</v>
+      </c>
+      <c r="B341" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C341" s="23"/>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="15">
+        <v>341</v>
+      </c>
+      <c r="B342" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C342" s="23"/>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="15">
+        <v>342</v>
+      </c>
+      <c r="B343" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="C343" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A14:B25"/>
   <sheetViews>
@@ -7784,47 +11135,47 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="14" spans="1:1">
-      <c r="A14" s="65"/>
+      <c r="A14" s="28"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="28"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="B21" t="s">
         <v>464</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="29" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="66" t="s">
+      <c r="B22" t="s">
         <v>466</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="29" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="66" t="s">
+      <c r="B23" t="s">
         <v>468</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="30" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="29" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="66"/>
-      <c r="B24" s="67" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="66" t="s">
+      <c r="B25" t="s">
         <v>470</v>
-      </c>
-      <c r="B25" t="s">
-        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -7839,7 +11190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A14:B31"/>
   <sheetViews>
@@ -7850,33 +11201,33 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="14" spans="1:1">
-      <c r="A14" s="65"/>
+      <c r="A14" s="28"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="28"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="66"/>
+      <c r="A21" s="29"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="66"/>
+      <c r="A22" s="29"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="66"/>
+      <c r="A23" s="29"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="66"/>
-      <c r="B24" s="67"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="66"/>
+      <c r="A25" s="29"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="B31" t="s">
         <v>473</v>
-      </c>
-      <c r="B31" t="s">
-        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -7951,11 +11302,11 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="13" spans="1:2">
-      <c r="A13" s="65" t="s">
-        <v>449</v>
+      <c r="A13" s="28" t="s">
+        <v>448</v>
       </c>
       <c r="B13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -8002,21 +11353,21 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="17" spans="1:2">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="B17" t="s">
         <v>452</v>
-      </c>
-      <c r="B17" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -8042,21 +11393,21 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="14" spans="1:2">
-      <c r="A14" s="65" t="s">
-        <v>452</v>
+      <c r="A14" s="28" t="s">
+        <v>451</v>
       </c>
       <c r="B14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="28"/>
       <c r="B15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="65"/>
+      <c r="A17" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -19858,17 +23209,17 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="14" spans="1:1">
-      <c r="A14" s="65"/>
+      <c r="A14" s="28"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="28"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="B31" t="s">
         <v>473</v>
-      </c>
-      <c r="B31" t="s">
-        <v>474</v>
       </c>
     </row>
   </sheetData>
